--- a/data/nzd0028/nzd0028.xlsx
+++ b/data/nzd0028/nzd0028.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AN227"/>
+  <dimension ref="A1:AN231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26130,6 +26130,510 @@
         </is>
       </c>
     </row>
+    <row r="228">
+      <c r="A228" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-03 22:17:45+00:00</t>
+        </is>
+      </c>
+      <c r="B228" t="n">
+        <v>395.8330769230769</v>
+      </c>
+      <c r="C228" t="n">
+        <v>401.6723529411765</v>
+      </c>
+      <c r="D228" t="n">
+        <v>410.86</v>
+      </c>
+      <c r="E228" t="n">
+        <v>428.4027272727273</v>
+      </c>
+      <c r="F228" t="n">
+        <v>425.21</v>
+      </c>
+      <c r="G228" t="n">
+        <v>428.18</v>
+      </c>
+      <c r="H228" t="n">
+        <v>436.57</v>
+      </c>
+      <c r="I228" t="n">
+        <v>435.48</v>
+      </c>
+      <c r="J228" t="n">
+        <v>431.13</v>
+      </c>
+      <c r="K228" t="n">
+        <v>430.52</v>
+      </c>
+      <c r="L228" t="n">
+        <v>435.1327272727273</v>
+      </c>
+      <c r="M228" t="n">
+        <v>432.5130769230769</v>
+      </c>
+      <c r="N228" t="n">
+        <v>426.9827272727272</v>
+      </c>
+      <c r="O228" t="n">
+        <v>419.8627272727272</v>
+      </c>
+      <c r="P228" t="n">
+        <v>418.2427272727273</v>
+      </c>
+      <c r="Q228" t="n">
+        <v>415.5027272727273</v>
+      </c>
+      <c r="R228" t="n">
+        <v>421.18</v>
+      </c>
+      <c r="S228" t="n">
+        <v>421.09</v>
+      </c>
+      <c r="T228" t="n">
+        <v>417.3927272727273</v>
+      </c>
+      <c r="U228" t="n">
+        <v>421.29</v>
+      </c>
+      <c r="V228" t="n">
+        <v>419.35</v>
+      </c>
+      <c r="W228" t="n">
+        <v>425.0730769230769</v>
+      </c>
+      <c r="X228" t="n">
+        <v>421.1530769230769</v>
+      </c>
+      <c r="Y228" t="n">
+        <v>420.5030769230769</v>
+      </c>
+      <c r="Z228" t="n">
+        <v>423.55</v>
+      </c>
+      <c r="AA228" t="n">
+        <v>419.28</v>
+      </c>
+      <c r="AB228" t="n">
+        <v>413.77</v>
+      </c>
+      <c r="AC228" t="n">
+        <v>410.93</v>
+      </c>
+      <c r="AD228" t="n">
+        <v>415.29</v>
+      </c>
+      <c r="AE228" t="n">
+        <v>418.64</v>
+      </c>
+      <c r="AF228" t="n">
+        <v>415.89</v>
+      </c>
+      <c r="AG228" t="n">
+        <v>427.72</v>
+      </c>
+      <c r="AH228" t="n">
+        <v>425.43</v>
+      </c>
+      <c r="AI228" t="n">
+        <v>431.1</v>
+      </c>
+      <c r="AJ228" t="n">
+        <v>423.22</v>
+      </c>
+      <c r="AK228" t="n">
+        <v>412.18</v>
+      </c>
+      <c r="AL228" t="n">
+        <v>414.93</v>
+      </c>
+      <c r="AM228" t="n">
+        <v>416.05</v>
+      </c>
+      <c r="AN228" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:17:45+00:00</t>
+        </is>
+      </c>
+      <c r="B229" t="n">
+        <v>405.4776923076923</v>
+      </c>
+      <c r="C229" t="n">
+        <v>415.4252941176471</v>
+      </c>
+      <c r="D229" t="n">
+        <v>413.9133333333333</v>
+      </c>
+      <c r="E229" t="n">
+        <v>427.3136363636364</v>
+      </c>
+      <c r="F229" t="n">
+        <v>424.72</v>
+      </c>
+      <c r="G229" t="n">
+        <v>433.31</v>
+      </c>
+      <c r="H229" t="n">
+        <v>432.34</v>
+      </c>
+      <c r="I229" t="n">
+        <v>431.01</v>
+      </c>
+      <c r="J229" t="n">
+        <v>431.14</v>
+      </c>
+      <c r="K229" t="n">
+        <v>428.6933333333333</v>
+      </c>
+      <c r="L229" t="n">
+        <v>428.8136363636364</v>
+      </c>
+      <c r="M229" t="n">
+        <v>428.8876923076923</v>
+      </c>
+      <c r="N229" t="n">
+        <v>423.2636363636364</v>
+      </c>
+      <c r="O229" t="n">
+        <v>419.9936363636364</v>
+      </c>
+      <c r="P229" t="n">
+        <v>415.5836363636364</v>
+      </c>
+      <c r="Q229" t="n">
+        <v>419.9836363636364</v>
+      </c>
+      <c r="R229" t="n">
+        <v>423.04</v>
+      </c>
+      <c r="S229" t="n">
+        <v>419.9109523809524</v>
+      </c>
+      <c r="T229" t="n">
+        <v>423.5136363636364</v>
+      </c>
+      <c r="U229" t="n">
+        <v>423.83</v>
+      </c>
+      <c r="V229" t="n">
+        <v>423.8657142857143</v>
+      </c>
+      <c r="W229" t="n">
+        <v>422.8376923076923</v>
+      </c>
+      <c r="X229" t="n">
+        <v>423.7176923076924</v>
+      </c>
+      <c r="Y229" t="n">
+        <v>425.9376923076923</v>
+      </c>
+      <c r="Z229" t="n">
+        <v>425.15</v>
+      </c>
+      <c r="AA229" t="n">
+        <v>425.6657142857143</v>
+      </c>
+      <c r="AB229" t="n">
+        <v>425.0233333333333</v>
+      </c>
+      <c r="AC229" t="n">
+        <v>416.3566666666666</v>
+      </c>
+      <c r="AD229" t="n">
+        <v>417.7766666666666</v>
+      </c>
+      <c r="AE229" t="n">
+        <v>425.8357142857143</v>
+      </c>
+      <c r="AF229" t="n">
+        <v>424.1157142857143</v>
+      </c>
+      <c r="AG229" t="n">
+        <v>426.05</v>
+      </c>
+      <c r="AH229" t="n">
+        <v>435.0033333333333</v>
+      </c>
+      <c r="AI229" t="n">
+        <v>436.9866666666667</v>
+      </c>
+      <c r="AJ229" t="n">
+        <v>432.0833333333333</v>
+      </c>
+      <c r="AK229" t="n">
+        <v>419.1633333333333</v>
+      </c>
+      <c r="AL229" t="n">
+        <v>421.0633333333333</v>
+      </c>
+      <c r="AM229" t="n">
+        <v>428.6233333333333</v>
+      </c>
+      <c r="AN229" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-28 22:17:42+00:00</t>
+        </is>
+      </c>
+      <c r="B230" t="n">
+        <v>402.2007692307693</v>
+      </c>
+      <c r="C230" t="n">
+        <v>415.9005882352942</v>
+      </c>
+      <c r="D230" t="n">
+        <v>422.63</v>
+      </c>
+      <c r="E230" t="n">
+        <v>432.7281818181818</v>
+      </c>
+      <c r="F230" t="n">
+        <v>427.27</v>
+      </c>
+      <c r="G230" t="n">
+        <v>425.42</v>
+      </c>
+      <c r="H230" t="n">
+        <v>430.61</v>
+      </c>
+      <c r="I230" t="n">
+        <v>437.22</v>
+      </c>
+      <c r="J230" t="n">
+        <v>437.5</v>
+      </c>
+      <c r="K230" t="n">
+        <v>434.81</v>
+      </c>
+      <c r="L230" t="n">
+        <v>434.9981818181818</v>
+      </c>
+      <c r="M230" t="n">
+        <v>432.1107692307692</v>
+      </c>
+      <c r="N230" t="n">
+        <v>426.8681818181818</v>
+      </c>
+      <c r="O230" t="n">
+        <v>421.2381818181818</v>
+      </c>
+      <c r="P230" t="n">
+        <v>419.4181818181818</v>
+      </c>
+      <c r="Q230" t="n">
+        <v>418.7481818181818</v>
+      </c>
+      <c r="R230" t="n">
+        <v>420.4</v>
+      </c>
+      <c r="S230" t="n">
+        <v>420.49</v>
+      </c>
+      <c r="T230" t="n">
+        <v>425.6181818181818</v>
+      </c>
+      <c r="U230" t="n">
+        <v>424.95</v>
+      </c>
+      <c r="V230" t="n">
+        <v>423.63</v>
+      </c>
+      <c r="W230" t="n">
+        <v>423.3907692307693</v>
+      </c>
+      <c r="X230" t="n">
+        <v>424.5707692307692</v>
+      </c>
+      <c r="Y230" t="n">
+        <v>426.3107692307692</v>
+      </c>
+      <c r="Z230" t="n">
+        <v>422.085</v>
+      </c>
+      <c r="AA230" t="n">
+        <v>417.38</v>
+      </c>
+      <c r="AB230" t="n">
+        <v>414.92</v>
+      </c>
+      <c r="AC230" t="n">
+        <v>415.93</v>
+      </c>
+      <c r="AD230" t="n">
+        <v>414.21</v>
+      </c>
+      <c r="AE230" t="n">
+        <v>419.69</v>
+      </c>
+      <c r="AF230" t="n">
+        <v>424.1</v>
+      </c>
+      <c r="AG230" t="n">
+        <v>420.95</v>
+      </c>
+      <c r="AH230" t="n">
+        <v>429.73</v>
+      </c>
+      <c r="AI230" t="n">
+        <v>433.45</v>
+      </c>
+      <c r="AJ230" t="n">
+        <v>417.21</v>
+      </c>
+      <c r="AK230" t="n">
+        <v>417.2</v>
+      </c>
+      <c r="AL230" t="n">
+        <v>415.6</v>
+      </c>
+      <c r="AM230" t="n">
+        <v>424.58</v>
+      </c>
+      <c r="AN230" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-05 22:17:39+00:00</t>
+        </is>
+      </c>
+      <c r="B231" t="n">
+        <v>409.3669230769231</v>
+      </c>
+      <c r="C231" t="n">
+        <v>418.2441176470588</v>
+      </c>
+      <c r="D231" t="n">
+        <v>424.86</v>
+      </c>
+      <c r="E231" t="n">
+        <v>435.0290909090909</v>
+      </c>
+      <c r="F231" t="n">
+        <v>427.66</v>
+      </c>
+      <c r="G231" t="n">
+        <v>428.01</v>
+      </c>
+      <c r="H231" t="n">
+        <v>431.64</v>
+      </c>
+      <c r="I231" t="n">
+        <v>436.52</v>
+      </c>
+      <c r="J231" t="n">
+        <v>438.45</v>
+      </c>
+      <c r="K231" t="n">
+        <v>434.4</v>
+      </c>
+      <c r="L231" t="n">
+        <v>433.1490909090909</v>
+      </c>
+      <c r="M231" t="n">
+        <v>431.3769230769231</v>
+      </c>
+      <c r="N231" t="n">
+        <v>427.6590909090909</v>
+      </c>
+      <c r="O231" t="n">
+        <v>420.9190909090909</v>
+      </c>
+      <c r="P231" t="n">
+        <v>417.2790909090909</v>
+      </c>
+      <c r="Q231" t="n">
+        <v>420.4190909090909</v>
+      </c>
+      <c r="R231" t="n">
+        <v>425.42</v>
+      </c>
+      <c r="S231" t="n">
+        <v>427.0271428571429</v>
+      </c>
+      <c r="T231" t="n">
+        <v>424.7490909090909</v>
+      </c>
+      <c r="U231" t="n">
+        <v>424.11</v>
+      </c>
+      <c r="V231" t="n">
+        <v>422.8228571428572</v>
+      </c>
+      <c r="W231" t="n">
+        <v>422.6669230769231</v>
+      </c>
+      <c r="X231" t="n">
+        <v>429.1669230769231</v>
+      </c>
+      <c r="Y231" t="n">
+        <v>426.4769230769231</v>
+      </c>
+      <c r="Z231" t="n">
+        <v>423.82</v>
+      </c>
+      <c r="AA231" t="n">
+        <v>420.8728571428572</v>
+      </c>
+      <c r="AB231" t="n">
+        <v>422.87</v>
+      </c>
+      <c r="AC231" t="n">
+        <v>416.57</v>
+      </c>
+      <c r="AD231" t="n">
+        <v>415.16</v>
+      </c>
+      <c r="AE231" t="n">
+        <v>426.3028571428572</v>
+      </c>
+      <c r="AF231" t="n">
+        <v>423.9128571428572</v>
+      </c>
+      <c r="AG231" t="n">
+        <v>425.91</v>
+      </c>
+      <c r="AH231" t="n">
+        <v>434.99</v>
+      </c>
+      <c r="AI231" t="n">
+        <v>435.15</v>
+      </c>
+      <c r="AJ231" t="n">
+        <v>430.13</v>
+      </c>
+      <c r="AK231" t="n">
+        <v>417.53</v>
+      </c>
+      <c r="AL231" t="n">
+        <v>417.02</v>
+      </c>
+      <c r="AM231" t="n">
+        <v>427.14</v>
+      </c>
+      <c r="AN231" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -26141,7 +26645,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B238"/>
+  <dimension ref="A1:B242"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28529,6 +29033,46 @@
       </c>
       <c r="B238" t="n">
         <v>0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>2024-12-03 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B239" t="n">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B240" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>2025-01-28 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B241" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>2025-02-05 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B242" t="n">
+        <v>-0.06</v>
       </c>
     </row>
   </sheetData>
@@ -28697,28 +29241,28 @@
         <v>0.07340000000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1504613795657471</v>
+        <v>-0.08446706199553576</v>
       </c>
       <c r="J2" t="n">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="K2" t="n">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="L2" t="n">
-        <v>0.009307164211702745</v>
+        <v>0.002976324604298308</v>
       </c>
       <c r="M2" t="n">
-        <v>9.486900425114738</v>
+        <v>9.636842182481621</v>
       </c>
       <c r="N2" t="n">
-        <v>143.2779704500974</v>
+        <v>146.0949037192259</v>
       </c>
       <c r="O2" t="n">
-        <v>11.96987762886895</v>
+        <v>12.0869724794601</v>
       </c>
       <c r="P2" t="n">
-        <v>390.5461766776126</v>
+        <v>389.9935373702037</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -28774,28 +29318,28 @@
         <v>0.1107</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.03983846377580442</v>
+        <v>0.0119203558112963</v>
       </c>
       <c r="J3" t="n">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="K3" t="n">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="L3" t="n">
-        <v>0.000679467354917751</v>
+        <v>6.202696404256081e-05</v>
       </c>
       <c r="M3" t="n">
-        <v>9.839122844512437</v>
+        <v>9.896395244024438</v>
       </c>
       <c r="N3" t="n">
-        <v>139.2246949933191</v>
+        <v>140.4628123154395</v>
       </c>
       <c r="O3" t="n">
-        <v>11.79935146494582</v>
+        <v>11.8517008195212</v>
       </c>
       <c r="P3" t="n">
-        <v>400.8883734704688</v>
+        <v>400.4558627057087</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -28851,28 +29395,28 @@
         <v>0.0684</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.02909644522482322</v>
+        <v>0.03616634913658653</v>
       </c>
       <c r="J4" t="n">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="K4" t="n">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0003476765494820899</v>
+        <v>0.0005406942859133013</v>
       </c>
       <c r="M4" t="n">
-        <v>9.465845111893868</v>
+        <v>9.585018942160232</v>
       </c>
       <c r="N4" t="n">
-        <v>144.8681916925492</v>
+        <v>147.8446122744048</v>
       </c>
       <c r="O4" t="n">
-        <v>12.03612029237616</v>
+        <v>12.15913698723741</v>
       </c>
       <c r="P4" t="n">
-        <v>402.2895590355585</v>
+        <v>401.7418406853621</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -28928,28 +29472,28 @@
         <v>0.061</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.01677796761109828</v>
+        <v>0.05175850263610694</v>
       </c>
       <c r="J5" t="n">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="K5" t="n">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0001038687866189436</v>
+        <v>0.000998491852179817</v>
       </c>
       <c r="M5" t="n">
-        <v>10.06530216232887</v>
+        <v>10.22280911682716</v>
       </c>
       <c r="N5" t="n">
-        <v>162.5799693169464</v>
+        <v>165.2619170005167</v>
       </c>
       <c r="O5" t="n">
-        <v>12.75068505284898</v>
+        <v>12.85542364142531</v>
       </c>
       <c r="P5" t="n">
-        <v>413.9043374281185</v>
+        <v>413.3354460202386</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -29005,28 +29549,28 @@
         <v>0.0566</v>
       </c>
       <c r="I6" t="n">
-        <v>0.003625386916129039</v>
+        <v>0.0641113839773948</v>
       </c>
       <c r="J6" t="n">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="K6" t="n">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="L6" t="n">
-        <v>4.656496846666691e-06</v>
+        <v>0.00148670458550082</v>
       </c>
       <c r="M6" t="n">
-        <v>9.939153980613474</v>
+        <v>10.03268107241916</v>
       </c>
       <c r="N6" t="n">
-        <v>169.2334279499763</v>
+        <v>170.2216637438596</v>
       </c>
       <c r="O6" t="n">
-        <v>13.00897490004406</v>
+        <v>13.04690245781962</v>
       </c>
       <c r="P6" t="n">
-        <v>410.9348099493682</v>
+        <v>410.4350886421971</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -29076,28 +29620,28 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>-0.04601947281868385</v>
+        <v>0.02465810216317687</v>
       </c>
       <c r="J7" t="n">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="K7" t="n">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0008418892557212621</v>
+        <v>0.0002430656761287509</v>
       </c>
       <c r="M7" t="n">
-        <v>9.533921552044704</v>
+        <v>9.710234117737302</v>
       </c>
       <c r="N7" t="n">
-        <v>151.4973228389486</v>
+        <v>154.8291259432958</v>
       </c>
       <c r="O7" t="n">
-        <v>12.30842487237699</v>
+        <v>12.44303523836913</v>
       </c>
       <c r="P7" t="n">
-        <v>411.8695621247768</v>
+        <v>411.2823644932313</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -29153,28 +29697,28 @@
         <v>0.0584</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.1067161130528137</v>
+        <v>-0.05459303983751322</v>
       </c>
       <c r="J8" t="n">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="K8" t="n">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="L8" t="n">
-        <v>0.004948448661233451</v>
+        <v>0.001328745408955001</v>
       </c>
       <c r="M8" t="n">
-        <v>9.252635451055362</v>
+        <v>9.33897946980302</v>
       </c>
       <c r="N8" t="n">
-        <v>137.325509160101</v>
+        <v>138.0455442530456</v>
       </c>
       <c r="O8" t="n">
-        <v>11.71859672316191</v>
+        <v>11.74927845669876</v>
       </c>
       <c r="P8" t="n">
-        <v>422.0947543060457</v>
+        <v>421.6637596029371</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -29230,28 +29774,28 @@
         <v>0.0581</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.199204007576258</v>
+        <v>-0.1419125277260762</v>
       </c>
       <c r="J9" t="n">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="K9" t="n">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01806608802875376</v>
+        <v>0.009373954356446168</v>
       </c>
       <c r="M9" t="n">
-        <v>8.989646071072114</v>
+        <v>9.118413650688785</v>
       </c>
       <c r="N9" t="n">
-        <v>130.5057887646924</v>
+        <v>132.1933339234169</v>
       </c>
       <c r="O9" t="n">
-        <v>11.42391302333366</v>
+        <v>11.49753599356909</v>
       </c>
       <c r="P9" t="n">
-        <v>425.213190013773</v>
+        <v>424.7381366571168</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -29307,28 +29851,28 @@
         <v>0.056</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.1951752332075359</v>
+        <v>-0.1387303673216948</v>
       </c>
       <c r="J10" t="n">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="K10" t="n">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01733332365860063</v>
+        <v>0.008952059981316096</v>
       </c>
       <c r="M10" t="n">
-        <v>8.834957762787857</v>
+        <v>8.943241446694774</v>
       </c>
       <c r="N10" t="n">
-        <v>131.6713529651215</v>
+        <v>133.3278457878349</v>
       </c>
       <c r="O10" t="n">
-        <v>11.47481385317956</v>
+        <v>11.54676776365728</v>
       </c>
       <c r="P10" t="n">
-        <v>424.8675682594254</v>
+        <v>424.4010976462</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -29384,28 +29928,28 @@
         <v>0.07190000000000001</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.2333490743167573</v>
+        <v>-0.1745241461804932</v>
       </c>
       <c r="J11" t="n">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="K11" t="n">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="L11" t="n">
-        <v>0.02439876966644383</v>
+        <v>0.01395945819429034</v>
       </c>
       <c r="M11" t="n">
-        <v>8.548815074919155</v>
+        <v>8.688958082740776</v>
       </c>
       <c r="N11" t="n">
-        <v>131.8350932106957</v>
+        <v>133.7079135705628</v>
       </c>
       <c r="O11" t="n">
-        <v>11.48194640340633</v>
+        <v>11.56321380804501</v>
       </c>
       <c r="P11" t="n">
-        <v>422.8177909968791</v>
+        <v>422.3285177400089</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -29461,28 +30005,28 @@
         <v>0.06660000000000001</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.2921632348832529</v>
+        <v>-0.2307338155739971</v>
       </c>
       <c r="J12" t="n">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="K12" t="n">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="L12" t="n">
-        <v>0.03665249771436629</v>
+        <v>0.0233318390585866</v>
       </c>
       <c r="M12" t="n">
-        <v>8.804249347019631</v>
+        <v>8.959602079123179</v>
       </c>
       <c r="N12" t="n">
-        <v>136.7044821501402</v>
+        <v>139.1569882932749</v>
       </c>
       <c r="O12" t="n">
-        <v>11.69206919882619</v>
+        <v>11.79648203038834</v>
       </c>
       <c r="P12" t="n">
-        <v>424.0563887638976</v>
+        <v>423.5436469016379</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -29538,28 +30082,28 @@
         <v>0.07729999999999999</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.1674414649659354</v>
+        <v>-0.117646408251032</v>
       </c>
       <c r="J13" t="n">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="K13" t="n">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0139860837848973</v>
+        <v>0.007088791501306368</v>
       </c>
       <c r="M13" t="n">
-        <v>8.232746770703429</v>
+        <v>8.357421530344558</v>
       </c>
       <c r="N13" t="n">
-        <v>119.6590466831521</v>
+        <v>120.4098278381026</v>
       </c>
       <c r="O13" t="n">
-        <v>10.93887776159658</v>
+        <v>10.97314120195774</v>
       </c>
       <c r="P13" t="n">
-        <v>422.6352414930025</v>
+        <v>422.2188393733369</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -29615,28 +30159,28 @@
         <v>0.06370000000000001</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.1127038234419726</v>
+        <v>-0.07503055585570564</v>
       </c>
       <c r="J14" t="n">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="K14" t="n">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="L14" t="n">
-        <v>0.006956570213965008</v>
+        <v>0.00319265503381716</v>
       </c>
       <c r="M14" t="n">
-        <v>8.1641301197924</v>
+        <v>8.202451324683814</v>
       </c>
       <c r="N14" t="n">
-        <v>109.4725492187369</v>
+        <v>108.9883939873156</v>
       </c>
       <c r="O14" t="n">
-        <v>10.46291303694803</v>
+        <v>10.43975066691325</v>
       </c>
       <c r="P14" t="n">
-        <v>419.5653024195431</v>
+        <v>419.2511350337202</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -29686,28 +30230,28 @@
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="n">
-        <v>-0.1663605977623689</v>
+        <v>-0.1339730753749319</v>
       </c>
       <c r="J15" t="n">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="K15" t="n">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="L15" t="n">
-        <v>0.01540506396073671</v>
+        <v>0.01041292395935345</v>
       </c>
       <c r="M15" t="n">
-        <v>7.912228593767135</v>
+        <v>7.929608441199715</v>
       </c>
       <c r="N15" t="n">
-        <v>105.8362341175371</v>
+        <v>104.9171364864753</v>
       </c>
       <c r="O15" t="n">
-        <v>10.28767389245679</v>
+        <v>10.24290664247582</v>
       </c>
       <c r="P15" t="n">
-        <v>416.580778586889</v>
+        <v>416.3112878725327</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -29763,28 +30307,28 @@
         <v>0.0613</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.1494747261191046</v>
+        <v>-0.1201645507868836</v>
       </c>
       <c r="J16" t="n">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="K16" t="n">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="L16" t="n">
-        <v>0.01268166935630954</v>
+        <v>0.008547319868858594</v>
       </c>
       <c r="M16" t="n">
-        <v>8.105445309373572</v>
+        <v>8.075733551685536</v>
       </c>
       <c r="N16" t="n">
-        <v>104.7179449578648</v>
+        <v>103.611121558384</v>
       </c>
       <c r="O16" t="n">
-        <v>10.23317863412267</v>
+        <v>10.17895483624836</v>
       </c>
       <c r="P16" t="n">
-        <v>414.0532952721969</v>
+        <v>413.8095116494557</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -29840,28 +30384,28 @@
         <v>0.0629</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.1694843517336668</v>
+        <v>-0.1478150989233248</v>
       </c>
       <c r="J17" t="n">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="K17" t="n">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="L17" t="n">
-        <v>0.01423843418817583</v>
+        <v>0.01132983246267494</v>
       </c>
       <c r="M17" t="n">
-        <v>8.445741627313069</v>
+        <v>8.381579148523619</v>
       </c>
       <c r="N17" t="n">
-        <v>119.7136775026003</v>
+        <v>117.888020824508</v>
       </c>
       <c r="O17" t="n">
-        <v>10.94137457098514</v>
+        <v>10.85762500846792</v>
       </c>
       <c r="P17" t="n">
-        <v>417.4369938416633</v>
+        <v>417.2565288055976</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -29917,28 +30461,28 @@
         <v>0.0568</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.170859365844004</v>
+        <v>-0.1249882035115006</v>
       </c>
       <c r="J18" t="n">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="K18" t="n">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="L18" t="n">
-        <v>0.009965014642981718</v>
+        <v>0.005526765525087352</v>
       </c>
       <c r="M18" t="n">
-        <v>10.31276220874034</v>
+        <v>10.3538661231366</v>
       </c>
       <c r="N18" t="n">
-        <v>174.3505025593626</v>
+        <v>173.4933567131559</v>
       </c>
       <c r="O18" t="n">
-        <v>13.204185039576</v>
+        <v>13.17168769418543</v>
       </c>
       <c r="P18" t="n">
-        <v>415.0658135049749</v>
+        <v>414.6826361968462</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -29988,28 +30532,28 @@
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="n">
-        <v>0.02330412554798184</v>
+        <v>0.07531114086663762</v>
       </c>
       <c r="J19" t="n">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="K19" t="n">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0001120587998029166</v>
+        <v>0.001212639501599555</v>
       </c>
       <c r="M19" t="n">
-        <v>12.91778168470938</v>
+        <v>12.91148915164662</v>
       </c>
       <c r="N19" t="n">
-        <v>293.1433544389259</v>
+        <v>290.2999977544386</v>
       </c>
       <c r="O19" t="n">
-        <v>17.12142968443132</v>
+        <v>17.03819232648929</v>
       </c>
       <c r="P19" t="n">
-        <v>408.6752854625555</v>
+        <v>408.2410448206081</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -30065,28 +30609,28 @@
         <v>0.0614</v>
       </c>
       <c r="I20" t="n">
-        <v>0.01413142386318767</v>
+        <v>0.05614231053454127</v>
       </c>
       <c r="J20" t="n">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="K20" t="n">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="L20" t="n">
-        <v>6.107200817340175e-05</v>
+        <v>0.0009999214780147536</v>
       </c>
       <c r="M20" t="n">
-        <v>10.45935248183355</v>
+        <v>10.43502314601411</v>
       </c>
       <c r="N20" t="n">
-        <v>198.9733000326325</v>
+        <v>196.9606328019912</v>
       </c>
       <c r="O20" t="n">
-        <v>14.10578959266841</v>
+        <v>14.03426637918745</v>
       </c>
       <c r="P20" t="n">
-        <v>412.2217784280185</v>
+        <v>411.8731651212639</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -30136,28 +30680,28 @@
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="n">
-        <v>-0.1014851405869373</v>
+        <v>-0.0637625915441708</v>
       </c>
       <c r="J21" t="n">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="K21" t="n">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="L21" t="n">
-        <v>0.004508913534763792</v>
+        <v>0.001846866850251483</v>
       </c>
       <c r="M21" t="n">
-        <v>8.558450749942207</v>
+        <v>8.590923132482148</v>
       </c>
       <c r="N21" t="n">
-        <v>135.9109990431091</v>
+        <v>134.8988827917188</v>
       </c>
       <c r="O21" t="n">
-        <v>11.65808728064381</v>
+        <v>11.61459783168228</v>
       </c>
       <c r="P21" t="n">
-        <v>416.5420751749166</v>
+        <v>416.2258609877807</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -30213,28 +30757,28 @@
         <v>0.0772</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.07481155083176352</v>
+        <v>-0.05167343304500161</v>
       </c>
       <c r="J22" t="n">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="K22" t="n">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="L22" t="n">
-        <v>0.003507261843842757</v>
+        <v>0.00174413097453241</v>
       </c>
       <c r="M22" t="n">
-        <v>7.09606908144263</v>
+        <v>7.083314200654094</v>
       </c>
       <c r="N22" t="n">
-        <v>96.1788675572614</v>
+        <v>94.94371473106236</v>
       </c>
       <c r="O22" t="n">
-        <v>9.807082520161712</v>
+        <v>9.743906543633429</v>
       </c>
       <c r="P22" t="n">
-        <v>418.365484530307</v>
+        <v>418.1742216705049</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -30290,28 +30834,28 @@
         <v>0.07480000000000001</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.1041865085344704</v>
+        <v>-0.08239130724539527</v>
       </c>
       <c r="J23" t="n">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="K23" t="n">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="L23" t="n">
-        <v>0.006807157460991697</v>
+        <v>0.004442463865392043</v>
       </c>
       <c r="M23" t="n">
-        <v>7.217227667253156</v>
+        <v>7.169660638678433</v>
       </c>
       <c r="N23" t="n">
-        <v>96.24255049475789</v>
+        <v>94.85203435470849</v>
       </c>
       <c r="O23" t="n">
-        <v>9.810328765885366</v>
+        <v>9.739200909453942</v>
       </c>
       <c r="P23" t="n">
-        <v>420.5248401667704</v>
+        <v>420.3432788889037</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -30361,28 +30905,28 @@
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="n">
-        <v>-0.123840489393776</v>
+        <v>-0.09342897412248319</v>
       </c>
       <c r="J24" t="n">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="K24" t="n">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="L24" t="n">
-        <v>0.009409341950869732</v>
+        <v>0.005554739534327724</v>
       </c>
       <c r="M24" t="n">
-        <v>7.047789130110563</v>
+        <v>7.052180968857011</v>
       </c>
       <c r="N24" t="n">
-        <v>98.30184171212194</v>
+        <v>97.60909044242457</v>
       </c>
       <c r="O24" t="n">
-        <v>9.914728524378363</v>
+        <v>9.879731294039559</v>
       </c>
       <c r="P24" t="n">
-        <v>419.9716611047859</v>
+        <v>419.7180709432199</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -30438,28 +30982,28 @@
         <v>0.07580000000000001</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.1031951792303122</v>
+        <v>-0.07631664949514276</v>
       </c>
       <c r="J25" t="n">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="K25" t="n">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="L25" t="n">
-        <v>0.00626763080622128</v>
+        <v>0.003563000429322116</v>
       </c>
       <c r="M25" t="n">
-        <v>7.172586291095653</v>
+        <v>7.171749064860514</v>
       </c>
       <c r="N25" t="n">
-        <v>102.315461362007</v>
+        <v>101.2523994764423</v>
       </c>
       <c r="O25" t="n">
-        <v>10.11511054620793</v>
+        <v>10.06242512898567</v>
       </c>
       <c r="P25" t="n">
-        <v>420.4727008373223</v>
+        <v>420.2478300942249</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -30515,28 +31059,28 @@
         <v>0.09810000000000001</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.1034773041380542</v>
+        <v>-0.08512198200640993</v>
       </c>
       <c r="J26" t="n">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="K26" t="n">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="L26" t="n">
-        <v>0.007163469201810546</v>
+        <v>0.005062027839477401</v>
       </c>
       <c r="M26" t="n">
-        <v>6.780577411261787</v>
+        <v>6.72745752037914</v>
       </c>
       <c r="N26" t="n">
-        <v>90.82247842997532</v>
+        <v>89.39992019995167</v>
       </c>
       <c r="O26" t="n">
-        <v>9.530082813384956</v>
+        <v>9.455153102935546</v>
       </c>
       <c r="P26" t="n">
-        <v>421.4866929390725</v>
+        <v>421.334755016953</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -30592,28 +31136,28 @@
         <v>0.07870000000000001</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.04923718955417329</v>
+        <v>-0.03595326790339419</v>
       </c>
       <c r="J27" t="n">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="K27" t="n">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="L27" t="n">
-        <v>0.001515818039573347</v>
+        <v>0.0008431341689619787</v>
       </c>
       <c r="M27" t="n">
-        <v>6.687336391926275</v>
+        <v>6.627172396440943</v>
       </c>
       <c r="N27" t="n">
-        <v>97.51024511453917</v>
+        <v>95.90920789825122</v>
       </c>
       <c r="O27" t="n">
-        <v>9.874727596979026</v>
+        <v>9.793324660106558</v>
       </c>
       <c r="P27" t="n">
-        <v>418.5773379673728</v>
+        <v>418.4667508330814</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -30669,28 +31213,28 @@
         <v>0.06710000000000001</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.09249103154830389</v>
+        <v>-0.07264164280680545</v>
       </c>
       <c r="J28" t="n">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="K28" t="n">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="L28" t="n">
-        <v>0.00533446439293217</v>
+        <v>0.003415741759304369</v>
       </c>
       <c r="M28" t="n">
-        <v>6.790560615356365</v>
+        <v>6.767633955415321</v>
       </c>
       <c r="N28" t="n">
-        <v>96.59997057719046</v>
+        <v>95.59972085148722</v>
       </c>
       <c r="O28" t="n">
-        <v>9.828528403438149</v>
+        <v>9.777510974245297</v>
       </c>
       <c r="P28" t="n">
-        <v>416.3366536509933</v>
+        <v>416.1697059601171</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -30746,28 +31290,28 @@
         <v>0.08169999999999999</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.1206849680898719</v>
+        <v>-0.1073781601508853</v>
       </c>
       <c r="J29" t="n">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="K29" t="n">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="L29" t="n">
-        <v>0.009698265397678152</v>
+        <v>0.008022105379634548</v>
       </c>
       <c r="M29" t="n">
-        <v>6.604397154348076</v>
+        <v>6.533668411254221</v>
       </c>
       <c r="N29" t="n">
-        <v>90.71158798769383</v>
+        <v>89.14011224769573</v>
       </c>
       <c r="O29" t="n">
-        <v>9.524263120456817</v>
+        <v>9.441404145978273</v>
       </c>
       <c r="P29" t="n">
-        <v>414.5670907854442</v>
+        <v>414.4552735437913</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -30823,28 +31367,28 @@
         <v>0.08939999999999999</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.147752027013808</v>
+        <v>-0.1382117208658556</v>
       </c>
       <c r="J30" t="n">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="K30" t="n">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="L30" t="n">
-        <v>0.01353755543354296</v>
+        <v>0.01240197460352876</v>
       </c>
       <c r="M30" t="n">
-        <v>6.592966192939815</v>
+        <v>6.500653964450872</v>
       </c>
       <c r="N30" t="n">
-        <v>96.12934831732662</v>
+        <v>94.28176517867321</v>
       </c>
       <c r="O30" t="n">
-        <v>9.804557527870731</v>
+        <v>9.709879771586937</v>
       </c>
       <c r="P30" t="n">
-        <v>416.8723734917006</v>
+        <v>416.7923391312058</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -30900,28 +31444,28 @@
         <v>0.08309999999999999</v>
       </c>
       <c r="I31" t="n">
-        <v>-0.156809734831324</v>
+        <v>-0.1378887990544103</v>
       </c>
       <c r="J31" t="n">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="K31" t="n">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="L31" t="n">
-        <v>0.01383255063177502</v>
+        <v>0.01116632692199448</v>
       </c>
       <c r="M31" t="n">
-        <v>6.841900674959287</v>
+        <v>6.80312121091047</v>
       </c>
       <c r="N31" t="n">
-        <v>105.6730156344024</v>
+        <v>104.169941533705</v>
       </c>
       <c r="O31" t="n">
-        <v>10.27973811117785</v>
+        <v>10.20636769540001</v>
       </c>
       <c r="P31" t="n">
-        <v>421.7513874642266</v>
+        <v>421.5927431510878</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -30977,28 +31521,28 @@
         <v>0.0762</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.1155686825813534</v>
+        <v>-0.1038092097784741</v>
       </c>
       <c r="J32" t="n">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="K32" t="n">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="L32" t="n">
-        <v>0.00767675361910225</v>
+        <v>0.006480958077759946</v>
       </c>
       <c r="M32" t="n">
-        <v>7.073069619570393</v>
+        <v>7.013636777658936</v>
       </c>
       <c r="N32" t="n">
-        <v>102.3751976061584</v>
+        <v>100.6808022040952</v>
       </c>
       <c r="O32" t="n">
-        <v>10.11806293744798</v>
+        <v>10.03398237013078</v>
       </c>
       <c r="P32" t="n">
-        <v>421.9784226087458</v>
+        <v>421.8793595428778</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -31054,28 +31598,28 @@
         <v>0.0531</v>
       </c>
       <c r="I33" t="n">
-        <v>0.01071997242171481</v>
+        <v>0.02201879981441986</v>
       </c>
       <c r="J33" t="n">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="K33" t="n">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="L33" t="n">
-        <v>7.777445885637224e-05</v>
+        <v>0.0003433392174340133</v>
       </c>
       <c r="M33" t="n">
-        <v>7.294896971477264</v>
+        <v>7.215200444958166</v>
       </c>
       <c r="N33" t="n">
-        <v>87.665995123748</v>
+        <v>86.13822221947369</v>
       </c>
       <c r="O33" t="n">
-        <v>9.363012075381938</v>
+        <v>9.281067946064919</v>
       </c>
       <c r="P33" t="n">
-        <v>422.0432923336922</v>
+        <v>421.9492450171714</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -31131,28 +31675,28 @@
         <v>0.0672</v>
       </c>
       <c r="I34" t="n">
-        <v>-0.1751160973167639</v>
+        <v>-0.1549521147169402</v>
       </c>
       <c r="J34" t="n">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="K34" t="n">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="L34" t="n">
-        <v>0.01630567952007311</v>
+        <v>0.01332389527497402</v>
       </c>
       <c r="M34" t="n">
-        <v>7.016501478267931</v>
+        <v>6.993800506663176</v>
       </c>
       <c r="N34" t="n">
-        <v>110.0730885274393</v>
+        <v>108.6335604223494</v>
       </c>
       <c r="O34" t="n">
-        <v>10.49157226193669</v>
+        <v>10.42274246167243</v>
       </c>
       <c r="P34" t="n">
-        <v>430.5936697968983</v>
+        <v>430.4233957894223</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -31208,28 +31752,28 @@
         <v>0.0863</v>
       </c>
       <c r="I35" t="n">
-        <v>-0.1232708708445146</v>
+        <v>-0.1110718326696148</v>
       </c>
       <c r="J35" t="n">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="K35" t="n">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="L35" t="n">
-        <v>0.007877259157662464</v>
+        <v>0.006694763648016022</v>
       </c>
       <c r="M35" t="n">
-        <v>7.069197858508918</v>
+        <v>6.979589926187653</v>
       </c>
       <c r="N35" t="n">
-        <v>113.7472129236245</v>
+        <v>111.6022178472841</v>
       </c>
       <c r="O35" t="n">
-        <v>10.66523384289461</v>
+        <v>10.56419508752485</v>
       </c>
       <c r="P35" t="n">
-        <v>434.2278716775849</v>
+        <v>434.1232464207334</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -31285,28 +31829,28 @@
         <v>0.0696</v>
       </c>
       <c r="I36" t="n">
-        <v>-0.2076251989492615</v>
+        <v>-0.1944018611749314</v>
       </c>
       <c r="J36" t="n">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="K36" t="n">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="L36" t="n">
-        <v>0.01999609788393297</v>
+        <v>0.01826579892815117</v>
       </c>
       <c r="M36" t="n">
-        <v>7.411840381409855</v>
+        <v>7.382196444969626</v>
       </c>
       <c r="N36" t="n">
-        <v>124.8325940575702</v>
+        <v>123.1122502032584</v>
       </c>
       <c r="O36" t="n">
-        <v>11.17285075786705</v>
+        <v>11.09559598233725</v>
       </c>
       <c r="P36" t="n">
-        <v>427.6080289147169</v>
+        <v>427.4938907425313</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -31356,28 +31900,28 @@
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="n">
-        <v>-0.1197463208872416</v>
+        <v>-0.1099212257048958</v>
       </c>
       <c r="J37" t="n">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="K37" t="n">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="L37" t="n">
-        <v>0.006168102814204435</v>
+        <v>0.00543751189653896</v>
       </c>
       <c r="M37" t="n">
-        <v>8.10292938902499</v>
+        <v>8.00510026282979</v>
       </c>
       <c r="N37" t="n">
-        <v>138.6910073805755</v>
+        <v>136.009868891137</v>
       </c>
       <c r="O37" t="n">
-        <v>11.77671462592923</v>
+        <v>11.66232690723155</v>
       </c>
       <c r="P37" t="n">
-        <v>417.0492979992217</v>
+        <v>416.9653758697439</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -31427,28 +31971,28 @@
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="n">
-        <v>-0.003299591130520464</v>
+        <v>0.004371031675213031</v>
       </c>
       <c r="J38" t="n">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="K38" t="n">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="L38" t="n">
-        <v>4.944215639235416e-06</v>
+        <v>9.097639194655116e-06</v>
       </c>
       <c r="M38" t="n">
-        <v>8.164922243333184</v>
+        <v>8.034601783205973</v>
       </c>
       <c r="N38" t="n">
-        <v>128.4530278729531</v>
+        <v>125.8391535634464</v>
       </c>
       <c r="O38" t="n">
-        <v>11.33371200767662</v>
+        <v>11.21780520259852</v>
       </c>
       <c r="P38" t="n">
-        <v>415.3822822848244</v>
+        <v>415.3157425121063</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -31504,28 +32048,28 @@
         <v>0.0653</v>
       </c>
       <c r="I39" t="n">
-        <v>-0.1415683990295935</v>
+        <v>-0.1232251775347684</v>
       </c>
       <c r="J39" t="n">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="K39" t="n">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="L39" t="n">
-        <v>0.00748283615461065</v>
+        <v>0.005928238139674136</v>
       </c>
       <c r="M39" t="n">
-        <v>8.204957547522925</v>
+        <v>8.189897394357763</v>
       </c>
       <c r="N39" t="n">
-        <v>156.5514710644739</v>
+        <v>154.0808886465178</v>
       </c>
       <c r="O39" t="n">
-        <v>12.51205303155617</v>
+        <v>12.41293231458698</v>
       </c>
       <c r="P39" t="n">
-        <v>423.2159791104629</v>
+        <v>423.0587669502813</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -31562,7 +32106,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AN227"/>
+  <dimension ref="A1:AN231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71456,6 +72000,814 @@
         </is>
       </c>
     </row>
+    <row r="228">
+      <c r="A228" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-03 22:17:45+00:00</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>-34.86121513515805,173.29575292011918</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>-34.861467717402064,173.29651578239515</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>-34.86148608170891,173.2973675045964</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>-34.86147859635608,173.29822234791249</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>-34.86149485377873,173.29904113572314</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>-34.86145790437466,173.29995697466202</t>
+        </is>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>-34.86141019536957,173.30083842382922</t>
+        </is>
+      </c>
+      <c r="I228" t="inlineStr">
+        <is>
+          <t>-34.861380400662384,173.30168181735468</t>
+        </is>
+      </c>
+      <c r="J228" t="inlineStr">
+        <is>
+          <t>-34.86134910067859,173.30256241609288</t>
+        </is>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>-34.86127808651657,173.30346351257361</t>
+        </is>
+      </c>
+      <c r="L228" t="inlineStr">
+        <is>
+          <t>-34.861177819473475,173.30436783013752</t>
+        </is>
+      </c>
+      <c r="M228" t="inlineStr">
+        <is>
+          <t>-34.86115143543488,173.3052615038906</t>
+        </is>
+      </c>
+      <c r="N228" t="inlineStr">
+        <is>
+          <t>-34.86113477416288,173.3061528888471</t>
+        </is>
+      </c>
+      <c r="O228" t="inlineStr">
+        <is>
+          <t>-34.86113089692022,173.307057600814</t>
+        </is>
+      </c>
+      <c r="P228" t="inlineStr">
+        <is>
+          <t>-34.86108412008575,173.30797621654858</t>
+        </is>
+      </c>
+      <c r="Q228" t="inlineStr">
+        <is>
+          <t>-34.86109550653342,173.30887596235613</t>
+        </is>
+      </c>
+      <c r="R228" t="inlineStr">
+        <is>
+          <t>-34.860986183628704,173.30974053021595</t>
+        </is>
+      </c>
+      <c r="S228" t="inlineStr">
+        <is>
+          <t>-34.860911150832095,173.31063796006399</t>
+        </is>
+      </c>
+      <c r="T228" t="inlineStr">
+        <is>
+          <t>-34.86089272905768,173.31155152801335</t>
+        </is>
+      </c>
+      <c r="U228" t="inlineStr">
+        <is>
+          <t>-34.86081687623146,173.31244345313925</t>
+        </is>
+      </c>
+      <c r="V228" t="inlineStr">
+        <is>
+          <t>-34.86077908399671,173.3133297212464</t>
+        </is>
+      </c>
+      <c r="W228" t="inlineStr">
+        <is>
+          <t>-34.86066272421328,173.31419705364164</t>
+        </is>
+      </c>
+      <c r="X228" t="inlineStr">
+        <is>
+          <t>-34.86059527178894,173.31507871073796</t>
+        </is>
+      </c>
+      <c r="Y228" t="inlineStr">
+        <is>
+          <t>-34.860504126616554,173.31597738342046</t>
+        </is>
+      </c>
+      <c r="Z228" t="inlineStr">
+        <is>
+          <t>-34.860391532000044,173.31685357639793</t>
+        </is>
+      </c>
+      <c r="AA228" t="inlineStr">
+        <is>
+          <t>-34.86030961968894,173.31773299180125</t>
+        </is>
+      </c>
+      <c r="AB228" t="inlineStr">
+        <is>
+          <t>-34.86023912652887,173.31863401248867</t>
+        </is>
+      </c>
+      <c r="AC228" t="inlineStr">
+        <is>
+          <t>-34.86015281082552,173.31954250688932</t>
+        </is>
+      </c>
+      <c r="AD228" t="inlineStr">
+        <is>
+          <t>-34.86003789292843,173.32044428837443</t>
+        </is>
+      </c>
+      <c r="AE228" t="inlineStr">
+        <is>
+          <t>-34.85993645813324,173.32131942973967</t>
+        </is>
+      </c>
+      <c r="AF228" t="inlineStr">
+        <is>
+          <t>-34.85985105609466,173.32220099507126</t>
+        </is>
+      </c>
+      <c r="AG228" t="inlineStr">
+        <is>
+          <t>-34.85964396691021,173.32309076825712</t>
+        </is>
+      </c>
+      <c r="AH228" t="inlineStr">
+        <is>
+          <t>-34.85959191987451,173.3239941514827</t>
+        </is>
+      </c>
+      <c r="AI228" t="inlineStr">
+        <is>
+          <t>-34.85946561667389,173.32480541374727</t>
+        </is>
+      </c>
+      <c r="AJ228" t="inlineStr">
+        <is>
+          <t>-34.85933418708501,173.32563006289843</t>
+        </is>
+      </c>
+      <c r="AK228" t="inlineStr">
+        <is>
+          <t>-34.859214315569886,173.32656184545615</t>
+        </is>
+      </c>
+      <c r="AL228" t="inlineStr">
+        <is>
+          <t>-34.859069119426316,173.32749337508434</t>
+        </is>
+      </c>
+      <c r="AM228" t="inlineStr">
+        <is>
+          <t>-34.858983986524635,173.32840110284693</t>
+        </is>
+      </c>
+      <c r="AN228" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:17:45+00:00</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>-34.861137014270675,173.29579929370811</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>-34.86134928716064,173.29656043699197</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>-34.86145899122189,173.2973734735993</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>-34.86148837079072,173.2982211896625</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>-34.861499271853596,173.29904121888873</t>
+        </is>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>-34.861411646662084,173.29995754533064</t>
+        </is>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>-34.86144833721669,173.30083894802195</t>
+        </is>
+      </c>
+      <c r="I229" t="inlineStr">
+        <is>
+          <t>-34.86142058300819,173.30168568345283</t>
+        </is>
+      </c>
+      <c r="J229" t="inlineStr">
+        <is>
+          <t>-34.86134901097572,173.30256240490507</t>
+        </is>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>-34.86129448742556,173.3034653682752</t>
+        </is>
+      </c>
+      <c r="L229" t="inlineStr">
+        <is>
+          <t>-34.86123463992415,173.3043730448365</t>
+        </is>
+      </c>
+      <c r="M229" t="inlineStr">
+        <is>
+          <t>-34.86118401847812,173.3052647412604</t>
+        </is>
+      </c>
+      <c r="N229" t="inlineStr">
+        <is>
+          <t>-34.861168164733236,173.3061566884965</t>
+        </is>
+      </c>
+      <c r="O229" t="inlineStr">
+        <is>
+          <t>-34.861129721087906,173.3070574738443</t>
+        </is>
+      </c>
+      <c r="P229" t="inlineStr">
+        <is>
+          <t>-34.861108066403645,173.3079777235144</t>
+        </is>
+      </c>
+      <c r="Q229" t="inlineStr">
+        <is>
+          <t>-34.86105515381973,173.30887342526998</t>
+        </is>
+      </c>
+      <c r="R229" t="inlineStr">
+        <is>
+          <t>-34.86096948532145,173.30973861632688</t>
+        </is>
+      </c>
+      <c r="S229" t="inlineStr">
+        <is>
+          <t>-34.86092174190601,173.31063909255334</t>
+        </is>
+      </c>
+      <c r="T229" t="inlineStr">
+        <is>
+          <t>-34.86083764750134,173.31154722456762</t>
+        </is>
+      </c>
+      <c r="U229" t="inlineStr">
+        <is>
+          <t>-34.86079402440027,173.31244156803277</t>
+        </is>
+      </c>
+      <c r="V229" t="inlineStr">
+        <is>
+          <t>-34.86073851230396,173.31332549864257</t>
+        </is>
+      </c>
+      <c r="W229" t="inlineStr">
+        <is>
+          <t>-34.86068274082885,173.31419994205052</t>
+        </is>
+      </c>
+      <c r="X229" t="inlineStr">
+        <is>
+          <t>-34.86057236640395,173.31507483964424</t>
+        </is>
+      </c>
+      <c r="Y229" t="inlineStr">
+        <is>
+          <t>-34.86045551178766,173.31596987731686</t>
+        </is>
+      </c>
+      <c r="Z229" t="inlineStr">
+        <is>
+          <t>-34.86037725368533,173.3168510608121</t>
+        </is>
+      </c>
+      <c r="AA229" t="inlineStr">
+        <is>
+          <t>-34.86025283049025,173.31772142820813</t>
+        </is>
+      </c>
+      <c r="AB229" t="inlineStr">
+        <is>
+          <t>-34.860138912789004,173.31861464316202</t>
+        </is>
+      </c>
+      <c r="AC229" t="inlineStr">
+        <is>
+          <t>-34.86010427334195,173.3195349526249</t>
+        </is>
+      </c>
+      <c r="AD229" t="inlineStr">
+        <is>
+          <t>-34.86001558668136,173.32044150821045</t>
+        </is>
+      </c>
+      <c r="AE229" t="inlineStr">
+        <is>
+          <t>-34.859872097226464,173.32130941871935</t>
+        </is>
+      </c>
+      <c r="AF229" t="inlineStr">
+        <is>
+          <t>-34.85977766622802,173.32218792980444</t>
+        </is>
+      </c>
+      <c r="AG229" t="inlineStr">
+        <is>
+          <t>-34.85965892007631,173.323092933633</t>
+        </is>
+      </c>
+      <c r="AH229" t="inlineStr">
+        <is>
+          <t>-34.85950610578339,173.32398274032695</t>
+        </is>
+      </c>
+      <c r="AI229" t="inlineStr">
+        <is>
+          <t>-34.8594136647643,173.32479218849306</t>
+        </is>
+      </c>
+      <c r="AJ229" t="inlineStr">
+        <is>
+          <t>-34.859257629374596,173.32560221223744</t>
+        </is>
+      </c>
+      <c r="AK229" t="inlineStr">
+        <is>
+          <t>-34.859152891373924,173.3265450083883</t>
+        </is>
+      </c>
+      <c r="AL229" t="inlineStr">
+        <is>
+          <t>-34.859014274587366,173.3274847130064</t>
+        </is>
+      </c>
+      <c r="AM229" t="inlineStr">
+        <is>
+          <t>-34.85887119804506,173.32838706266634</t>
+        </is>
+      </c>
+      <c r="AN229" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-28 22:17:42+00:00</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>-34.8611635571807,173.2957835374977</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>-34.86134519427602,173.29656198022812</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>-34.861381653202734,173.29739051390845</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>-34.86143977602196,173.29822694803784</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>-34.8614762798313,173.29904078608837</t>
+        </is>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>-34.86148279156491,173.29995666763543</t>
+        </is>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>-34.86146393660092,173.30083916240824</t>
+        </is>
+      </c>
+      <c r="I230" t="inlineStr">
+        <is>
+          <t>-34.86136475921224,173.30168031243159</t>
+        </is>
+      </c>
+      <c r="J230" t="inlineStr">
+        <is>
+          <t>-34.861291959950904,173.30255528946145</t>
+        </is>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>-34.86123956832308,173.30345915438696</t>
+        </is>
+      </c>
+      <c r="L230" t="inlineStr">
+        <is>
+          <t>-34.86117902928886,173.3043679411683</t>
+        </is>
+      </c>
+      <c r="M230" t="inlineStr">
+        <is>
+          <t>-34.86115505116407,173.3052618631403</t>
+        </is>
+      </c>
+      <c r="N230" t="inlineStr">
+        <is>
+          <t>-34.86113580256959,173.30615300587365</t>
+        </is>
+      </c>
+      <c r="O230" t="inlineStr">
+        <is>
+          <t>-34.86111854251544,173.30705626675075</t>
+        </is>
+      </c>
+      <c r="P230" t="inlineStr">
+        <is>
+          <t>-34.86107353458519,173.3079755503927</t>
+        </is>
+      </c>
+      <c r="Q230" t="inlineStr">
+        <is>
+          <t>-34.86106627967448,173.30887412478282</t>
+        </is>
+      </c>
+      <c r="R230" t="inlineStr">
+        <is>
+          <t>-34.860993186144626,173.3097413328148</t>
+        </is>
+      </c>
+      <c r="S230" t="inlineStr">
+        <is>
+          <t>-34.86091654047391,173.31063853637116</t>
+        </is>
+      </c>
+      <c r="T230" t="inlineStr">
+        <is>
+          <t>-34.86081870887012,173.31154574491995</t>
+        </is>
+      </c>
+      <c r="U230" t="inlineStr">
+        <is>
+          <t>-34.86078394800223,173.31244073680506</t>
+        </is>
+      </c>
+      <c r="V230" t="inlineStr">
+        <is>
+          <t>-34.860740630092415,173.3133257190568</t>
+        </is>
+      </c>
+      <c r="W230" t="inlineStr">
+        <is>
+          <t>-34.86067778833519,173.31419922740275</t>
+        </is>
+      </c>
+      <c r="X230" t="inlineStr">
+        <is>
+          <t>-34.86056474730613,173.31507355198937</t>
+        </is>
+      </c>
+      <c r="Y230" t="inlineStr">
+        <is>
+          <t>-34.860452174463916,173.31596936203618</t>
+        </is>
+      </c>
+      <c r="Z230" t="inlineStr">
+        <is>
+          <t>-34.86040460558185,173.31685587973197</t>
+        </is>
+      </c>
+      <c r="AA230" t="inlineStr">
+        <is>
+          <t>-34.8603265166985,173.31773643242605</t>
+        </is>
+      </c>
+      <c r="AB230" t="inlineStr">
+        <is>
+          <t>-34.860228885492305,173.31863203309732</t>
+        </is>
+      </c>
+      <c r="AC230" t="inlineStr">
+        <is>
+          <t>-34.860108089556896,173.31953554657164</t>
+        </is>
+      </c>
+      <c r="AD230" t="inlineStr">
+        <is>
+          <t>-34.86004758089628,173.3204454958456</t>
+        </is>
+      </c>
+      <c r="AE230" t="inlineStr">
+        <is>
+          <t>-34.85992706657755,173.3213179689287</t>
+        </is>
+      </c>
+      <c r="AF230" t="inlineStr">
+        <is>
+          <t>-34.85977780643097,173.32218795476413</t>
+        </is>
+      </c>
+      <c r="AG230" t="inlineStr">
+        <is>
+          <t>-34.859704585433356,173.32309954646254</t>
+        </is>
+      </c>
+      <c r="AH230" t="inlineStr">
+        <is>
+          <t>-34.85955337524475,173.32398902599536</t>
+        </is>
+      </c>
+      <c r="AI230" t="inlineStr">
+        <is>
+          <t>-34.859444877095264,173.3248001341279</t>
+        </is>
+      </c>
+      <c r="AJ230" t="inlineStr">
+        <is>
+          <t>-34.85938609890913,173.32564894775007</t>
+        </is>
+      </c>
+      <c r="AK230" t="inlineStr">
+        <is>
+          <t>-34.85917016051573,173.32654974205303</t>
+        </is>
+      </c>
+      <c r="AL230" t="inlineStr">
+        <is>
+          <t>-34.85906312822386,173.32749242884594</t>
+        </is>
+      </c>
+      <c r="AM230" t="inlineStr">
+        <is>
+          <t>-34.85890746857192,173.32839157770417</t>
+        </is>
+      </c>
+      <c r="AN230" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-05 22:17:39+00:00</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>-34.861105511696785,173.29581799402362</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>-34.86132501351784,173.29656958944972</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>-34.8613618676822,173.29739487335533</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>-34.861419125692755,173.29822939505533</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>-34.86147276340436,173.2990407198954</t>
+        </is>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>-34.86145943728131,173.29995695575096</t>
+        </is>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>-34.86145464910627,173.30083903476782</t>
+        </is>
+      </c>
+      <c r="I231" t="inlineStr">
+        <is>
+          <t>-34.861371051749664,173.30168091786035</t>
+        </is>
+      </c>
+      <c r="J231" t="inlineStr">
+        <is>
+          <t>-34.86128343817823,173.30255422662088</t>
+        </is>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>-34.86124324954904,173.30345957090344</t>
+        </is>
+      </c>
+      <c r="L231" t="inlineStr">
+        <is>
+          <t>-34.86119565607596,173.30436946709156</t>
+        </is>
+      </c>
+      <c r="M231" t="inlineStr">
+        <is>
+          <t>-34.86116164658595,173.30526251844478</t>
+        </is>
+      </c>
+      <c r="N231" t="inlineStr">
+        <is>
+          <t>-34.86112870166604,173.30615219783326</t>
+        </is>
+      </c>
+      <c r="O231" t="inlineStr">
+        <is>
+          <t>-34.86112140860672,173.3070565762393</t>
+        </is>
+      </c>
+      <c r="P231" t="inlineStr">
+        <is>
+          <t>-34.861092798067624,173.30797676266258</t>
+        </is>
+      </c>
+      <c r="Q231" t="inlineStr">
+        <is>
+          <t>-34.86105123234479,173.30887317871623</t>
+        </is>
+      </c>
+      <c r="R231" t="inlineStr">
+        <is>
+          <t>-34.86094811867012,173.30973616737325</t>
+        </is>
+      </c>
+      <c r="S231" t="inlineStr">
+        <is>
+          <t>-34.860857819042614,173.31063225737165</t>
+        </is>
+      </c>
+      <c r="T231" t="inlineStr">
+        <is>
+          <t>-34.86082652974764,173.31154635595365</t>
+        </is>
+      </c>
+      <c r="U231" t="inlineStr">
+        <is>
+          <t>-34.86079150530077,173.31244136022582</t>
+        </is>
+      </c>
+      <c r="V231" t="inlineStr">
+        <is>
+          <t>-34.86074788191353,173.31332647380853</t>
+        </is>
+      </c>
+      <c r="W231" t="inlineStr">
+        <is>
+          <t>-34.86068426997153,173.31420016270673</t>
+        </is>
+      </c>
+      <c r="X231" t="inlineStr">
+        <is>
+          <t>-34.860523697612805,173.31506661444823</t>
+        </is>
+      </c>
+      <c r="Y231" t="inlineStr">
+        <is>
+          <t>-34.860450688150664,173.31596913255035</t>
+        </is>
+      </c>
+      <c r="Z231" t="inlineStr">
+        <is>
+          <t>-34.86038912253444,173.31685315189276</t>
+        </is>
+      </c>
+      <c r="AA231" t="inlineStr">
+        <is>
+          <t>-34.86029545415073,173.3177301073688</t>
+        </is>
+      </c>
+      <c r="AB231" t="inlineStr">
+        <is>
+          <t>-34.86015808875976,173.31861834949274</t>
+        </is>
+      </c>
+      <c r="AC231" t="inlineStr">
+        <is>
+          <t>-34.86010236523446,173.31953465565155</t>
+        </is>
+      </c>
+      <c r="AD231" t="inlineStr">
+        <is>
+          <t>-34.86003905907271,173.32044443371817</t>
+        </is>
+      </c>
+      <c r="AE231" t="inlineStr">
+        <is>
+          <t>-34.8598679189424,173.32130876880854</t>
+        </is>
+      </c>
+      <c r="AF231" t="inlineStr">
+        <is>
+          <t>-34.859779476120565,173.32218825201116</t>
+        </is>
+      </c>
+      <c r="AG231" t="inlineStr">
+        <is>
+          <t>-34.859660173635156,173.32309311516156</t>
+        </is>
+      </c>
+      <c r="AH231" t="inlineStr">
+        <is>
+          <t>-34.85950622530163,173.3239827562199</t>
+        </is>
+      </c>
+      <c r="AI231" t="inlineStr">
+        <is>
+          <t>-34.85942987399564,173.32479631483048</t>
+        </is>
+      </c>
+      <c r="AJ231" t="inlineStr">
+        <is>
+          <t>-34.859274501439295,173.32560835006197</t>
+        </is>
+      </c>
+      <c r="AK231" t="inlineStr">
+        <is>
+          <t>-34.85916725789259,173.32654894641144</t>
+        </is>
+      </c>
+      <c r="AL231" t="inlineStr">
+        <is>
+          <t>-34.85905043045143,173.32749042338583</t>
+        </is>
+      </c>
+      <c r="AM231" t="inlineStr">
+        <is>
+          <t>-34.8588845042153,173.32838871904823</t>
+        </is>
+      </c>
+      <c r="AN231" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0028/nzd0028.xlsx
+++ b/data/nzd0028/nzd0028.xlsx
@@ -29086,7 +29086,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W39"/>
+  <dimension ref="A1:X39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29177,35 +29177,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -29264,27 +29269,28 @@
       <c r="P2" t="n">
         <v>389.9935373702037</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (173.29384958588258 -34.864421346930285, 173.29830795953586 -34.856910672782355)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>173.2938495858826</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-34.86442134693029</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>173.2983079595359</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-34.85691067278236</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>173.2960787727092</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-34.86066600985632</v>
       </c>
     </row>
@@ -29341,27 +29347,28 @@
       <c r="P3" t="n">
         <v>400.4558627057087</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (173.2952115314342 -34.86492661710537, 173.29822168069106 -34.85694318438907)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>173.2952115314342</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-34.86492661710537</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>173.2982216806911</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-34.85694318438907</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>173.2967166060626</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-34.86093490074722</v>
       </c>
     </row>
@@ -29418,27 +29425,28 @@
       <c r="P4" t="n">
         <v>401.7418406853621</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (173.29656427366828 -34.86513140480767, 173.2983764730394 -34.856906596372404)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>173.2965642736683</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-34.86513140480767</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>173.2983764730394</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-34.8569065963724</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>173.2974703733539</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-34.86101900059003</v>
       </c>
     </row>
@@ -29495,27 +29503,28 @@
       <c r="P5" t="n">
         <v>413.3354460202386</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (173.29776672042019 -34.86532344740271, 173.298752550415 -34.857003996381756)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>173.2977667204202</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-34.86532344740271</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>173.298752550415</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-34.85700399638176</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>173.2982596354176</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-34.86116372189223</v>
       </c>
     </row>
@@ -29572,27 +29581,28 @@
       <c r="P6" t="n">
         <v>410.4350886421971</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (173.29911330879014 -34.86532874970257, 173.2989559815994 -34.85697084098895)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>173.2991133087901</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-34.86532874970257</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>173.2989559815994</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-34.85697084098895</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>173.2990346451948</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-34.86114979534576</v>
       </c>
     </row>
@@ -29643,27 +29653,28 @@
       <c r="P7" t="n">
         <v>411.2823644932313</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (173.29990934173208 -34.86531884414404, 173.3000124574924 -34.856960362752694)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>173.2999093417321</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-34.86531884414404</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>173.3000124574924</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-34.85696036275269</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>173.2999608996122</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-34.86113960344836</v>
       </c>
     </row>
@@ -29720,27 +29731,28 @@
       <c r="P8" t="n">
         <v>421.6637596029371</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (173.30089252798234 -34.86534673928346, 173.3007776577199 -34.85698836361878)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>173.3008925279823</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-34.86534673928346</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>173.3007776577199</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-34.85698836361878</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>173.3008350928511</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-34.86116755145112</v>
       </c>
     </row>
@@ -29797,27 +29809,28 @@
       <c r="P9" t="n">
         <v>424.7381366571168</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (173.30205848188942 -34.86529507614023, 173.30125675373156 -34.85696224572539)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>173.3020584818894</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-34.86529507614023</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>173.3012567537316</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-34.85696224572539</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>173.3016576178105</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-34.86112866093281</v>
       </c>
     </row>
@@ -29874,27 +29887,28 @@
       <c r="P10" t="n">
         <v>424.4010976462</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (173.30304477950838 -34.86521645814119, 173.3020077053576 -34.856901230491864)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>173.3030447795084</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-34.86521645814119</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>173.3020077053576</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-34.85690123049186</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>173.302526242433</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-34.86105884431653</v>
       </c>
     </row>
@@ -29951,27 +29965,28 @@
       <c r="P11" t="n">
         <v>422.3285177400089</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
         <is>
           <t>LINESTRING (173.30390089675578 -34.865143551194855, 173.30295919757913 -34.856820639026026)</t>
         </is>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>173.3039008967558</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>-34.86514355119485</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>173.3029591975791</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>-34.85682063902603</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>173.3034300471675</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>-34.86098209511044</v>
       </c>
     </row>
@@ -30028,27 +30043,28 @@
       <c r="P12" t="n">
         <v>423.5436469016379</v>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
         <is>
           <t>LINESTRING (173.30472693186584 -34.865090475000926, 173.30396197613732 -34.856755297330636)</t>
         </is>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>173.3047269318658</v>
       </c>
-      <c r="S12" t="n">
+      <c r="T12" t="n">
         <v>-34.86509047500093</v>
       </c>
-      <c r="T12" t="n">
+      <c r="U12" t="n">
         <v>173.3039619761373</v>
       </c>
-      <c r="U12" t="n">
+      <c r="V12" t="n">
         <v>-34.85675529733064</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>173.3043444540016</v>
       </c>
-      <c r="W12" t="n">
+      <c r="X12" t="n">
         <v>-34.86092288616578</v>
       </c>
     </row>
@@ -30105,27 +30121,28 @@
       <c r="P13" t="n">
         <v>422.2188393733369</v>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
         <is>
           <t>LINESTRING (173.30564774500698 -34.86503863272954, 173.3048199924435 -34.85670751800805)</t>
         </is>
       </c>
-      <c r="R13" t="n">
+      <c r="S13" t="n">
         <v>173.305647745007</v>
       </c>
-      <c r="S13" t="n">
+      <c r="T13" t="n">
         <v>-34.86503863272954</v>
       </c>
-      <c r="T13" t="n">
+      <c r="U13" t="n">
         <v>173.3048199924435</v>
       </c>
-      <c r="U13" t="n">
+      <c r="V13" t="n">
         <v>-34.85670751800805</v>
       </c>
-      <c r="V13" t="n">
+      <c r="W13" t="n">
         <v>173.3052338687252</v>
       </c>
-      <c r="W13" t="n">
+      <c r="X13" t="n">
         <v>-34.86087307536879</v>
       </c>
     </row>
@@ -30182,27 +30199,28 @@
       <c r="P14" t="n">
         <v>419.2511350337202</v>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
         <is>
           <t>LINESTRING (173.30658914109432 -34.86496828870287, 173.30564209732344 -34.85664578204845)</t>
         </is>
       </c>
-      <c r="R14" t="n">
+      <c r="S14" t="n">
         <v>173.3065891410943</v>
       </c>
-      <c r="S14" t="n">
+      <c r="T14" t="n">
         <v>-34.86496828870287</v>
       </c>
-      <c r="T14" t="n">
+      <c r="U14" t="n">
         <v>173.3056420973234</v>
       </c>
-      <c r="U14" t="n">
+      <c r="V14" t="n">
         <v>-34.85664578204845</v>
       </c>
-      <c r="V14" t="n">
+      <c r="W14" t="n">
         <v>173.3061156192089</v>
       </c>
-      <c r="W14" t="n">
+      <c r="X14" t="n">
         <v>-34.86080703537566</v>
       </c>
     </row>
@@ -30253,27 +30271,28 @@
       <c r="P15" t="n">
         <v>416.3112878725327</v>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr">
         <is>
           <t>LINESTRING (173.307464848001 -34.86490212397314, 173.30656577990402 -34.856576012268384)</t>
         </is>
       </c>
-      <c r="R15" t="n">
+      <c r="S15" t="n">
         <v>173.307464848001</v>
       </c>
-      <c r="S15" t="n">
+      <c r="T15" t="n">
         <v>-34.86490212397314</v>
       </c>
-      <c r="T15" t="n">
+      <c r="U15" t="n">
         <v>173.306565779904</v>
       </c>
-      <c r="U15" t="n">
+      <c r="V15" t="n">
         <v>-34.85657601226838</v>
       </c>
-      <c r="V15" t="n">
+      <c r="W15" t="n">
         <v>173.3070153139525</v>
       </c>
-      <c r="W15" t="n">
+      <c r="X15" t="n">
         <v>-34.86073906812076</v>
       </c>
     </row>
@@ -30330,27 +30349,28 @@
       <c r="P16" t="n">
         <v>413.8095116494557</v>
       </c>
-      <c r="Q16" t="inlineStr">
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr">
         <is>
           <t>LINESTRING (173.30821325537323 -34.86485058381461, 173.30768792959145 -34.85650284646089)</t>
         </is>
       </c>
-      <c r="R16" t="n">
+      <c r="S16" t="n">
         <v>173.3082132553732</v>
       </c>
-      <c r="S16" t="n">
+      <c r="T16" t="n">
         <v>-34.86485058381461</v>
       </c>
-      <c r="T16" t="n">
+      <c r="U16" t="n">
         <v>173.3076879295915</v>
       </c>
-      <c r="U16" t="n">
+      <c r="V16" t="n">
         <v>-34.85650284646089</v>
       </c>
-      <c r="V16" t="n">
+      <c r="W16" t="n">
         <v>173.3079505924823</v>
       </c>
-      <c r="W16" t="n">
+      <c r="X16" t="n">
         <v>-34.86067671513775</v>
       </c>
     </row>
@@ -30407,27 +30427,28 @@
       <c r="P17" t="n">
         <v>417.2565288055976</v>
       </c>
-      <c r="Q17" t="inlineStr">
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr">
         <is>
           <t>LINESTRING (173.30911123100498 -34.86483730440279, 173.308586390081 -34.85648954627369)</t>
         </is>
       </c>
-      <c r="R17" t="n">
+      <c r="S17" t="n">
         <v>173.309111231005</v>
       </c>
-      <c r="S17" t="n">
+      <c r="T17" t="n">
         <v>-34.86483730440279</v>
       </c>
-      <c r="T17" t="n">
+      <c r="U17" t="n">
         <v>173.308586390081</v>
       </c>
-      <c r="U17" t="n">
+      <c r="V17" t="n">
         <v>-34.85648954627369</v>
       </c>
-      <c r="V17" t="n">
+      <c r="W17" t="n">
         <v>173.308848810543</v>
       </c>
-      <c r="W17" t="n">
+      <c r="X17" t="n">
         <v>-34.86066342533825</v>
       </c>
     </row>
@@ -30484,27 +30505,28 @@
       <c r="P18" t="n">
         <v>414.6826361968462</v>
       </c>
-      <c r="Q18" t="inlineStr">
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr">
         <is>
           <t>LINESTRING (173.3101739334926 -34.864767360625095, 173.30922011151674 -34.85644537249064)</t>
         </is>
       </c>
-      <c r="R18" t="n">
+      <c r="S18" t="n">
         <v>173.3101739334926</v>
       </c>
-      <c r="S18" t="n">
+      <c r="T18" t="n">
         <v>-34.86476736062509</v>
       </c>
-      <c r="T18" t="n">
+      <c r="U18" t="n">
         <v>173.3092201115167</v>
       </c>
-      <c r="U18" t="n">
+      <c r="V18" t="n">
         <v>-34.85644537249064</v>
       </c>
-      <c r="V18" t="n">
+      <c r="W18" t="n">
         <v>173.3096970225047</v>
       </c>
-      <c r="W18" t="n">
+      <c r="X18" t="n">
         <v>-34.86060636655787</v>
       </c>
     </row>
@@ -30555,27 +30577,28 @@
       <c r="P19" t="n">
         <v>408.2410448206081</v>
       </c>
-      <c r="Q19" t="inlineStr">
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr">
         <is>
           <t>LINESTRING (173.31104244119092 -34.86469368934301, 173.3101520814943 -34.85636693782025)</t>
         </is>
       </c>
-      <c r="R19" t="n">
+      <c r="S19" t="n">
         <v>173.3110424411909</v>
       </c>
-      <c r="S19" t="n">
+      <c r="T19" t="n">
         <v>-34.86469368934301</v>
       </c>
-      <c r="T19" t="n">
+      <c r="U19" t="n">
         <v>173.3101520814943</v>
       </c>
-      <c r="U19" t="n">
+      <c r="V19" t="n">
         <v>-34.85636693782025</v>
       </c>
-      <c r="V19" t="n">
+      <c r="W19" t="n">
         <v>173.3105972613426</v>
       </c>
-      <c r="W19" t="n">
+      <c r="X19" t="n">
         <v>-34.86053031358163</v>
       </c>
     </row>
@@ -30632,27 +30655,28 @@
       <c r="P20" t="n">
         <v>411.8731651212639</v>
       </c>
-      <c r="Q20" t="inlineStr">
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr">
         <is>
           <t>LINESTRING (173.3118449997702 -34.864648810195035, 173.31119328031062 -34.85630710442017)</t>
         </is>
       </c>
-      <c r="R20" t="n">
+      <c r="S20" t="n">
         <v>173.3118449997702</v>
       </c>
-      <c r="S20" t="n">
+      <c r="T20" t="n">
         <v>-34.86464881019504</v>
       </c>
-      <c r="T20" t="n">
+      <c r="U20" t="n">
         <v>173.3111932803106</v>
       </c>
-      <c r="U20" t="n">
+      <c r="V20" t="n">
         <v>-34.85630710442017</v>
       </c>
-      <c r="V20" t="n">
+      <c r="W20" t="n">
         <v>173.3115191400404</v>
       </c>
-      <c r="W20" t="n">
+      <c r="X20" t="n">
         <v>-34.8604779573076</v>
       </c>
     </row>
@@ -30703,27 +30727,28 @@
       <c r="P21" t="n">
         <v>416.2258609877807</v>
       </c>
-      <c r="Q21" t="inlineStr">
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr">
         <is>
           <t>LINESTRING (173.31275613616816 -34.86460712966419, 173.31206817634344 -34.856267393970285)</t>
         </is>
       </c>
-      <c r="R21" t="n">
+      <c r="S21" t="n">
         <v>173.3127561361682</v>
       </c>
-      <c r="S21" t="n">
+      <c r="T21" t="n">
         <v>-34.86460712966419</v>
       </c>
-      <c r="T21" t="n">
+      <c r="U21" t="n">
         <v>173.3120681763434</v>
       </c>
-      <c r="U21" t="n">
+      <c r="V21" t="n">
         <v>-34.85626739397028</v>
       </c>
-      <c r="V21" t="n">
+      <c r="W21" t="n">
         <v>173.3124121562558</v>
       </c>
-      <c r="W21" t="n">
+      <c r="X21" t="n">
         <v>-34.86043726181724</v>
       </c>
     </row>
@@ -30780,27 +30805,28 @@
       <c r="P22" t="n">
         <v>418.1742216705049</v>
       </c>
-      <c r="Q22" t="inlineStr">
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr">
         <is>
           <t>LINESTRING (173.31372187041103 -34.86454675609235, 173.31285507481536 -34.85621831661136)</t>
         </is>
       </c>
-      <c r="R22" t="n">
+      <c r="S22" t="n">
         <v>173.313721870411</v>
       </c>
-      <c r="S22" t="n">
+      <c r="T22" t="n">
         <v>-34.86454675609235</v>
       </c>
-      <c r="T22" t="n">
+      <c r="U22" t="n">
         <v>173.3128550748154</v>
       </c>
-      <c r="U22" t="n">
+      <c r="V22" t="n">
         <v>-34.85621831661136</v>
       </c>
-      <c r="V22" t="n">
+      <c r="W22" t="n">
         <v>173.3132884726132</v>
       </c>
-      <c r="W22" t="n">
+      <c r="X22" t="n">
         <v>-34.86038253635186</v>
       </c>
     </row>
@@ -30857,27 +30883,28 @@
       <c r="P23" t="n">
         <v>420.3432788889037</v>
       </c>
-      <c r="Q23" t="inlineStr">
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr">
         <is>
           <t>LINESTRING (173.31474632942317 -34.864469012669744, 173.31354855729353 -34.85616840180511)</t>
         </is>
       </c>
-      <c r="R23" t="n">
+      <c r="S23" t="n">
         <v>173.3147463294232</v>
       </c>
-      <c r="S23" t="n">
+      <c r="T23" t="n">
         <v>-34.86446901266974</v>
       </c>
-      <c r="T23" t="n">
+      <c r="U23" t="n">
         <v>173.3135485572935</v>
       </c>
-      <c r="U23" t="n">
+      <c r="V23" t="n">
         <v>-34.85616840180511</v>
       </c>
-      <c r="V23" t="n">
+      <c r="W23" t="n">
         <v>173.3141474433584</v>
       </c>
-      <c r="W23" t="n">
+      <c r="X23" t="n">
         <v>-34.86031870723743</v>
       </c>
     </row>
@@ -30928,27 +30955,28 @@
       <c r="P24" t="n">
         <v>419.7180709432199</v>
       </c>
-      <c r="Q24" t="inlineStr">
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr">
         <is>
           <t>LINESTRING (173.3157144393643 -34.864356719111875, 173.31431522966815 -34.85607747428248)</t>
         </is>
       </c>
-      <c r="R24" t="n">
+      <c r="S24" t="n">
         <v>173.3157144393643</v>
       </c>
-      <c r="S24" t="n">
+      <c r="T24" t="n">
         <v>-34.86435671911187</v>
       </c>
-      <c r="T24" t="n">
+      <c r="U24" t="n">
         <v>173.3143152296682</v>
       </c>
-      <c r="U24" t="n">
+      <c r="V24" t="n">
         <v>-34.85607747428248</v>
       </c>
-      <c r="V24" t="n">
+      <c r="W24" t="n">
         <v>173.3150148345162</v>
       </c>
-      <c r="W24" t="n">
+      <c r="X24" t="n">
         <v>-34.86021709669718</v>
       </c>
     </row>
@@ -31005,27 +31033,28 @@
       <c r="P25" t="n">
         <v>420.2478300942249</v>
       </c>
-      <c r="Q25" t="inlineStr">
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr">
         <is>
           <t>LINESTRING (173.31655819524914 -34.864265693693675, 173.3152778850169 -34.85597342505137)</t>
         </is>
       </c>
-      <c r="R25" t="n">
+      <c r="S25" t="n">
         <v>173.3165581952491</v>
       </c>
-      <c r="S25" t="n">
+      <c r="T25" t="n">
         <v>-34.86426569369367</v>
       </c>
-      <c r="T25" t="n">
+      <c r="U25" t="n">
         <v>173.3152778850169</v>
       </c>
-      <c r="U25" t="n">
+      <c r="V25" t="n">
         <v>-34.85597342505137</v>
       </c>
-      <c r="V25" t="n">
+      <c r="W25" t="n">
         <v>173.315918040133</v>
       </c>
-      <c r="W25" t="n">
+      <c r="X25" t="n">
         <v>-34.86011955937252</v>
       </c>
     </row>
@@ -31082,27 +31111,28 @@
       <c r="P26" t="n">
         <v>421.334755016953</v>
       </c>
-      <c r="Q26" t="inlineStr">
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr">
         <is>
           <t>LINESTRING (173.3175195303907 -34.86417126644426, 173.3160620853957 -34.855898823107125)</t>
         </is>
       </c>
-      <c r="R26" t="n">
+      <c r="S26" t="n">
         <v>173.3175195303907</v>
       </c>
-      <c r="S26" t="n">
+      <c r="T26" t="n">
         <v>-34.86417126644426</v>
       </c>
-      <c r="T26" t="n">
+      <c r="U26" t="n">
         <v>173.3160620853957</v>
       </c>
-      <c r="U26" t="n">
+      <c r="V26" t="n">
         <v>-34.85589882310713</v>
       </c>
-      <c r="V26" t="n">
+      <c r="W26" t="n">
         <v>173.3167908078932</v>
       </c>
-      <c r="W26" t="n">
+      <c r="X26" t="n">
         <v>-34.86003504477569</v>
       </c>
     </row>
@@ -31159,27 +31189,28 @@
       <c r="P27" t="n">
         <v>418.4667508330814</v>
       </c>
-      <c r="Q27" t="inlineStr">
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr">
         <is>
           <t>LINESTRING (173.31849228191018 -34.86403834135935, 173.3168136284253 -34.855794341309455)</t>
         </is>
       </c>
-      <c r="R27" t="n">
+      <c r="S27" t="n">
         <v>173.3184922819102</v>
       </c>
-      <c r="S27" t="n">
+      <c r="T27" t="n">
         <v>-34.86403834135935</v>
       </c>
-      <c r="T27" t="n">
+      <c r="U27" t="n">
         <v>173.3168136284253</v>
       </c>
-      <c r="U27" t="n">
+      <c r="V27" t="n">
         <v>-34.85579434130945</v>
       </c>
-      <c r="V27" t="n">
+      <c r="W27" t="n">
         <v>173.3176529551677</v>
       </c>
-      <c r="W27" t="n">
+      <c r="X27" t="n">
         <v>-34.8599163413344</v>
       </c>
     </row>
@@ -31236,27 +31267,28 @@
       <c r="P28" t="n">
         <v>416.1697059601171</v>
       </c>
-      <c r="Q28" t="inlineStr">
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr">
         <is>
           <t>LINESTRING (173.31934622997994 -34.863923848105024, 173.31775068454994 -34.85566867440644)</t>
         </is>
       </c>
-      <c r="R28" t="n">
+      <c r="S28" t="n">
         <v>173.3193462299799</v>
       </c>
-      <c r="S28" t="n">
+      <c r="T28" t="n">
         <v>-34.86392384810502</v>
       </c>
-      <c r="T28" t="n">
+      <c r="U28" t="n">
         <v>173.3177506845499</v>
       </c>
-      <c r="U28" t="n">
+      <c r="V28" t="n">
         <v>-34.85566867440644</v>
       </c>
-      <c r="V28" t="n">
+      <c r="W28" t="n">
         <v>173.3185484572649</v>
       </c>
-      <c r="W28" t="n">
+      <c r="X28" t="n">
         <v>-34.85979626125573</v>
       </c>
     </row>
@@ -31313,27 +31345,28 @@
       <c r="P29" t="n">
         <v>414.4552735437913</v>
       </c>
-      <c r="Q29" t="inlineStr">
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr">
         <is>
           <t>LINESTRING (173.32011457396771 -34.86382827038146, 173.31882416138637 -34.85553704843801)</t>
         </is>
       </c>
-      <c r="R29" t="n">
+      <c r="S29" t="n">
         <v>173.3201145739677</v>
       </c>
-      <c r="S29" t="n">
+      <c r="T29" t="n">
         <v>-34.86382827038146</v>
       </c>
-      <c r="T29" t="n">
+      <c r="U29" t="n">
         <v>173.3188241613864</v>
       </c>
-      <c r="U29" t="n">
+      <c r="V29" t="n">
         <v>-34.85553704843801</v>
       </c>
-      <c r="V29" t="n">
+      <c r="W29" t="n">
         <v>173.319469367677</v>
       </c>
-      <c r="W29" t="n">
+      <c r="X29" t="n">
         <v>-34.85968265940974</v>
       </c>
     </row>
@@ -31390,27 +31423,28 @@
       <c r="P30" t="n">
         <v>416.7923391312058</v>
       </c>
-      <c r="Q30" t="inlineStr">
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr">
         <is>
           <t>LINESTRING (173.32090861612699 -34.86376318354007, 173.31987223660747 -34.8554478525717)</t>
         </is>
       </c>
-      <c r="R30" t="n">
+      <c r="S30" t="n">
         <v>173.320908616127</v>
       </c>
-      <c r="S30" t="n">
+      <c r="T30" t="n">
         <v>-34.86376318354007</v>
       </c>
-      <c r="T30" t="n">
+      <c r="U30" t="n">
         <v>173.3198722366075</v>
       </c>
-      <c r="U30" t="n">
+      <c r="V30" t="n">
         <v>-34.8554478525717</v>
       </c>
-      <c r="V30" t="n">
+      <c r="W30" t="n">
         <v>173.3203904263672</v>
       </c>
-      <c r="W30" t="n">
+      <c r="X30" t="n">
         <v>-34.85960551805589</v>
       </c>
     </row>
@@ -31467,27 +31501,28 @@
       <c r="P31" t="n">
         <v>421.5927431510878</v>
       </c>
-      <c r="Q31" t="inlineStr">
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr">
         <is>
           <t>LINESTRING (173.321901889175 -34.863680913407194, 173.32061222961585 -34.85538960767026)</t>
         </is>
       </c>
-      <c r="R31" t="n">
+      <c r="S31" t="n">
         <v>173.321901889175</v>
       </c>
-      <c r="S31" t="n">
+      <c r="T31" t="n">
         <v>-34.86368091340719</v>
       </c>
-      <c r="T31" t="n">
+      <c r="U31" t="n">
         <v>173.3206122296158</v>
       </c>
-      <c r="U31" t="n">
+      <c r="V31" t="n">
         <v>-34.85538960767026</v>
       </c>
-      <c r="V31" t="n">
+      <c r="W31" t="n">
         <v>173.3212570593954</v>
       </c>
-      <c r="W31" t="n">
+      <c r="X31" t="n">
         <v>-34.85953526053873</v>
       </c>
     </row>
@@ -31544,27 +31579,28 @@
       <c r="P32" t="n">
         <v>421.8793595428778</v>
       </c>
-      <c r="Q32" t="inlineStr">
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr">
         <is>
           <t>LINESTRING (173.32286160252852 -34.863561625737844, 173.32138922660502 -34.85529095433945)</t>
         </is>
       </c>
-      <c r="R32" t="n">
+      <c r="S32" t="n">
         <v>173.3228616025285</v>
       </c>
-      <c r="S32" t="n">
+      <c r="T32" t="n">
         <v>-34.86356162573784</v>
       </c>
-      <c r="T32" t="n">
+      <c r="U32" t="n">
         <v>173.321389226605</v>
       </c>
-      <c r="U32" t="n">
+      <c r="V32" t="n">
         <v>-34.85529095433945</v>
       </c>
-      <c r="V32" t="n">
+      <c r="W32" t="n">
         <v>173.3221254145668</v>
       </c>
-      <c r="W32" t="n">
+      <c r="X32" t="n">
         <v>-34.85942629003865</v>
       </c>
     </row>
@@ -31621,27 +31657,28 @@
       <c r="P33" t="n">
         <v>421.9492450171714</v>
       </c>
-      <c r="Q33" t="inlineStr">
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr">
         <is>
           <t>LINESTRING (173.32364539012397 -34.863473765625926, 173.32244343888755 -34.855173532339016)</t>
         </is>
       </c>
-      <c r="R33" t="n">
+      <c r="S33" t="n">
         <v>173.323645390124</v>
       </c>
-      <c r="S33" t="n">
+      <c r="T33" t="n">
         <v>-34.86347376562593</v>
       </c>
-      <c r="T33" t="n">
+      <c r="U33" t="n">
         <v>173.3224434388875</v>
       </c>
-      <c r="U33" t="n">
+      <c r="V33" t="n">
         <v>-34.85517353233902</v>
       </c>
-      <c r="V33" t="n">
+      <c r="W33" t="n">
         <v>173.3230444145058</v>
       </c>
-      <c r="W33" t="n">
+      <c r="X33" t="n">
         <v>-34.85932364898247</v>
       </c>
     </row>
@@ -31698,27 +31735,28 @@
       <c r="P34" t="n">
         <v>430.4233957894223</v>
       </c>
-      <c r="Q34" t="inlineStr">
+      <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr">
         <is>
           <t>LINESTRING (173.3245012772509 -34.8634054155706, 173.32339634556283 -34.85509605369333)</t>
         </is>
       </c>
-      <c r="R34" t="n">
+      <c r="S34" t="n">
         <v>173.3245012772509</v>
       </c>
-      <c r="S34" t="n">
+      <c r="T34" t="n">
         <v>-34.8634054155706</v>
       </c>
-      <c r="T34" t="n">
+      <c r="U34" t="n">
         <v>173.3233963455628</v>
       </c>
-      <c r="U34" t="n">
+      <c r="V34" t="n">
         <v>-34.85509605369333</v>
       </c>
-      <c r="V34" t="n">
+      <c r="W34" t="n">
         <v>173.3239488114069</v>
       </c>
-      <c r="W34" t="n">
+      <c r="X34" t="n">
         <v>-34.85925073463196</v>
       </c>
     </row>
@@ -31775,27 +31813,28 @@
       <c r="P35" t="n">
         <v>434.1232464207334</v>
       </c>
-      <c r="Q35" t="inlineStr">
+      <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr">
         <is>
           <t>LINESTRING (173.32577398859962 -34.863270220859334, 173.32369129655453 -34.85508886278299)</t>
         </is>
       </c>
-      <c r="R35" t="n">
+      <c r="S35" t="n">
         <v>173.3257739885996</v>
       </c>
-      <c r="S35" t="n">
+      <c r="T35" t="n">
         <v>-34.86327022085933</v>
       </c>
-      <c r="T35" t="n">
+      <c r="U35" t="n">
         <v>173.3236912965545</v>
       </c>
-      <c r="U35" t="n">
+      <c r="V35" t="n">
         <v>-34.85508886278299</v>
       </c>
-      <c r="V35" t="n">
+      <c r="W35" t="n">
         <v>173.3247326425771</v>
       </c>
-      <c r="W35" t="n">
+      <c r="X35" t="n">
         <v>-34.85917954182116</v>
       </c>
     </row>
@@ -31852,27 +31891,28 @@
       <c r="P36" t="n">
         <v>427.4938907425313</v>
       </c>
-      <c r="Q36" t="inlineStr">
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr">
         <is>
           <t>LINESTRING (173.3269599795525 -34.86298977288791, 173.32404687119623 -34.85498196704772)</t>
         </is>
       </c>
-      <c r="R36" t="n">
+      <c r="S36" t="n">
         <v>173.3269599795525</v>
       </c>
-      <c r="S36" t="n">
+      <c r="T36" t="n">
         <v>-34.86298977288791</v>
       </c>
-      <c r="T36" t="n">
+      <c r="U36" t="n">
         <v>173.3240468711962</v>
       </c>
-      <c r="U36" t="n">
+      <c r="V36" t="n">
         <v>-34.85498196704772</v>
       </c>
-      <c r="V36" t="n">
+      <c r="W36" t="n">
         <v>173.3255034253744</v>
       </c>
-      <c r="W36" t="n">
+      <c r="X36" t="n">
         <v>-34.85898586996781</v>
       </c>
     </row>
@@ -31923,27 +31963,28 @@
       <c r="P37" t="n">
         <v>416.9653758697439</v>
       </c>
-      <c r="Q37" t="inlineStr">
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr">
         <is>
           <t>LINESTRING (173.32755567123678 -34.862839774308384, 173.32532056767172 -34.85468568800195)</t>
         </is>
       </c>
-      <c r="R37" t="n">
+      <c r="S37" t="n">
         <v>173.3275556712368</v>
       </c>
-      <c r="S37" t="n">
+      <c r="T37" t="n">
         <v>-34.86283977430838</v>
       </c>
-      <c r="T37" t="n">
+      <c r="U37" t="n">
         <v>173.3253205676717</v>
       </c>
-      <c r="U37" t="n">
+      <c r="V37" t="n">
         <v>-34.85468568800195</v>
       </c>
-      <c r="V37" t="n">
+      <c r="W37" t="n">
         <v>173.3264381194543</v>
       </c>
-      <c r="W37" t="n">
+      <c r="X37" t="n">
         <v>-34.85876273115517</v>
       </c>
     </row>
@@ -31994,27 +32035,28 @@
       <c r="P38" t="n">
         <v>415.3157425121063</v>
       </c>
-      <c r="Q38" t="inlineStr">
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr">
         <is>
           <t>LINESTRING (173.32807940616817 -34.86277945947078, 173.32677023089255 -34.85449019634844)</t>
         </is>
       </c>
-      <c r="R38" t="n">
+      <c r="S38" t="n">
         <v>173.3280794061682</v>
       </c>
-      <c r="S38" t="n">
+      <c r="T38" t="n">
         <v>-34.86277945947078</v>
       </c>
-      <c r="T38" t="n">
+      <c r="U38" t="n">
         <v>173.3267702308925</v>
       </c>
-      <c r="U38" t="n">
+      <c r="V38" t="n">
         <v>-34.85449019634844</v>
       </c>
-      <c r="V38" t="n">
+      <c r="W38" t="n">
         <v>173.3274248185303</v>
       </c>
-      <c r="W38" t="n">
+      <c r="X38" t="n">
         <v>-34.85863482790961</v>
       </c>
     </row>
@@ -32071,27 +32113,28 @@
       <c r="P39" t="n">
         <v>423.0587669502813</v>
       </c>
-      <c r="Q39" t="inlineStr">
+      <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="inlineStr">
         <is>
           <t>LINESTRING (173.32886571296333 -34.86271614074598, 173.32783059280635 -34.85440066943899)</t>
         </is>
       </c>
-      <c r="R39" t="n">
+      <c r="S39" t="n">
         <v>173.3288657129633</v>
       </c>
-      <c r="S39" t="n">
+      <c r="T39" t="n">
         <v>-34.86271614074598</v>
       </c>
-      <c r="T39" t="n">
+      <c r="U39" t="n">
         <v>173.3278305928064</v>
       </c>
-      <c r="U39" t="n">
+      <c r="V39" t="n">
         <v>-34.85440066943899</v>
       </c>
-      <c r="V39" t="n">
+      <c r="W39" t="n">
         <v>173.3283481528848</v>
       </c>
-      <c r="W39" t="n">
+      <c r="X39" t="n">
         <v>-34.85855840509248</v>
       </c>
     </row>

--- a/data/nzd0028/nzd0028.xlsx
+++ b/data/nzd0028/nzd0028.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AN231"/>
+  <dimension ref="A1:AN235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26634,6 +26634,510 @@
         </is>
       </c>
     </row>
+    <row r="232">
+      <c r="A232" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:17:26+00:00</t>
+        </is>
+      </c>
+      <c r="B232" t="n">
+        <v>419.3692307692308</v>
+      </c>
+      <c r="C232" t="n">
+        <v>429.7105882352942</v>
+      </c>
+      <c r="D232" t="n">
+        <v>429.6666666666667</v>
+      </c>
+      <c r="E232" t="n">
+        <v>442.4545454545454</v>
+      </c>
+      <c r="F232" t="n">
+        <v>434.85</v>
+      </c>
+      <c r="G232" t="n">
+        <v>435.5100000000001</v>
+      </c>
+      <c r="H232" t="n">
+        <v>441.78</v>
+      </c>
+      <c r="I232" t="n">
+        <v>443.48</v>
+      </c>
+      <c r="J232" t="n">
+        <v>442.23</v>
+      </c>
+      <c r="K232" t="n">
+        <v>440.6566666666667</v>
+      </c>
+      <c r="L232" t="n">
+        <v>439.8845454545455</v>
+      </c>
+      <c r="M232" t="n">
+        <v>440.4992307692308</v>
+      </c>
+      <c r="N232" t="n">
+        <v>439.4045454545454</v>
+      </c>
+      <c r="O232" t="n">
+        <v>434.2345454545454</v>
+      </c>
+      <c r="P232" t="n">
+        <v>429.6445454545454</v>
+      </c>
+      <c r="Q232" t="n">
+        <v>432.3445454545454</v>
+      </c>
+      <c r="R232" t="n">
+        <v>431.52</v>
+      </c>
+      <c r="S232" t="n">
+        <v>429.607619047619</v>
+      </c>
+      <c r="T232" t="n">
+        <v>428.6745454545455</v>
+      </c>
+      <c r="U232" t="n">
+        <v>432.9500000000001</v>
+      </c>
+      <c r="V232" t="n">
+        <v>433.8257142857143</v>
+      </c>
+      <c r="W232" t="n">
+        <v>435.5792307692308</v>
+      </c>
+      <c r="X232" t="n">
+        <v>432.0692307692308</v>
+      </c>
+      <c r="Y232" t="n">
+        <v>429.8392307692308</v>
+      </c>
+      <c r="Z232" t="n">
+        <v>432.585</v>
+      </c>
+      <c r="AA232" t="n">
+        <v>430.3657142857143</v>
+      </c>
+      <c r="AB232" t="n">
+        <v>421.6466666666667</v>
+      </c>
+      <c r="AC232" t="n">
+        <v>417.6533333333334</v>
+      </c>
+      <c r="AD232" t="n">
+        <v>424.0833333333334</v>
+      </c>
+      <c r="AE232" t="n">
+        <v>427.5057142857143</v>
+      </c>
+      <c r="AF232" t="n">
+        <v>428.0357142857143</v>
+      </c>
+      <c r="AG232" t="n">
+        <v>429.68</v>
+      </c>
+      <c r="AH232" t="n">
+        <v>435.1966666666667</v>
+      </c>
+      <c r="AI232" t="n">
+        <v>443.2933333333334</v>
+      </c>
+      <c r="AJ232" t="n">
+        <v>433.8266666666667</v>
+      </c>
+      <c r="AK232" t="n">
+        <v>423.9966666666666</v>
+      </c>
+      <c r="AL232" t="n">
+        <v>426.3666666666667</v>
+      </c>
+      <c r="AM232" t="n">
+        <v>427.1366666666667</v>
+      </c>
+      <c r="AN232" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-17 22:17:32+00:00</t>
+        </is>
+      </c>
+      <c r="B233" t="n">
+        <v>395.0430769230769</v>
+      </c>
+      <c r="C233" t="n">
+        <v>410.0423529411765</v>
+      </c>
+      <c r="D233" t="n">
+        <v>411.67</v>
+      </c>
+      <c r="E233" t="n">
+        <v>427.6927272727273</v>
+      </c>
+      <c r="F233" t="n">
+        <v>424.32</v>
+      </c>
+      <c r="G233" t="n">
+        <v>428.75</v>
+      </c>
+      <c r="H233" t="n">
+        <v>434.16</v>
+      </c>
+      <c r="I233" t="n">
+        <v>435.82</v>
+      </c>
+      <c r="J233" t="n">
+        <v>435.51</v>
+      </c>
+      <c r="K233" t="n">
+        <v>429.02</v>
+      </c>
+      <c r="L233" t="n">
+        <v>432.1427272727273</v>
+      </c>
+      <c r="M233" t="n">
+        <v>430.7930769230769</v>
+      </c>
+      <c r="N233" t="n">
+        <v>426.6427272727273</v>
+      </c>
+      <c r="O233" t="n">
+        <v>420.4727272727272</v>
+      </c>
+      <c r="P233" t="n">
+        <v>418.8927272727273</v>
+      </c>
+      <c r="Q233" t="n">
+        <v>424.7227272727272</v>
+      </c>
+      <c r="R233" t="n">
+        <v>423.93</v>
+      </c>
+      <c r="S233" t="n">
+        <v>420.8</v>
+      </c>
+      <c r="T233" t="n">
+        <v>421.2127272727273</v>
+      </c>
+      <c r="U233" t="n">
+        <v>419.82</v>
+      </c>
+      <c r="V233" t="n">
+        <v>420.07</v>
+      </c>
+      <c r="W233" t="n">
+        <v>424.9230769230769</v>
+      </c>
+      <c r="X233" t="n">
+        <v>421.2130769230769</v>
+      </c>
+      <c r="Y233" t="n">
+        <v>423.3130769230769</v>
+      </c>
+      <c r="Z233" t="n">
+        <v>421.49</v>
+      </c>
+      <c r="AA233" t="n">
+        <v>418.24</v>
+      </c>
+      <c r="AB233" t="n">
+        <v>412.7</v>
+      </c>
+      <c r="AC233" t="n">
+        <v>406.73</v>
+      </c>
+      <c r="AD233" t="n">
+        <v>414.25</v>
+      </c>
+      <c r="AE233" t="n">
+        <v>413.91</v>
+      </c>
+      <c r="AF233" t="n">
+        <v>413.71</v>
+      </c>
+      <c r="AG233" t="n">
+        <v>425.66</v>
+      </c>
+      <c r="AH233" t="n">
+        <v>422.79</v>
+      </c>
+      <c r="AI233" t="n">
+        <v>432.18</v>
+      </c>
+      <c r="AJ233" t="n">
+        <v>422.21</v>
+      </c>
+      <c r="AK233" t="n">
+        <v>410.12</v>
+      </c>
+      <c r="AL233" t="n">
+        <v>416.76</v>
+      </c>
+      <c r="AM233" t="n">
+        <v>417.1</v>
+      </c>
+      <c r="AN233" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:17:16+00:00</t>
+        </is>
+      </c>
+      <c r="B234" t="n">
+        <v>419.5023076923077</v>
+      </c>
+      <c r="C234" t="n">
+        <v>434.4370588235294</v>
+      </c>
+      <c r="D234" t="n">
+        <v>431.17</v>
+      </c>
+      <c r="E234" t="n">
+        <v>441.9818181818182</v>
+      </c>
+      <c r="F234" t="n">
+        <v>436.4</v>
+      </c>
+      <c r="G234" t="n">
+        <v>436.78</v>
+      </c>
+      <c r="H234" t="n">
+        <v>441.93</v>
+      </c>
+      <c r="I234" t="n">
+        <v>442.41</v>
+      </c>
+      <c r="J234" t="n">
+        <v>440.7</v>
+      </c>
+      <c r="K234" t="n">
+        <v>443.23</v>
+      </c>
+      <c r="L234" t="n">
+        <v>444.4418181818182</v>
+      </c>
+      <c r="M234" t="n">
+        <v>447.2223076923077</v>
+      </c>
+      <c r="N234" t="n">
+        <v>442.6018181818182</v>
+      </c>
+      <c r="O234" t="n">
+        <v>435.8618181818182</v>
+      </c>
+      <c r="P234" t="n">
+        <v>431.7618181818182</v>
+      </c>
+      <c r="Q234" t="n">
+        <v>434.6818181818182</v>
+      </c>
+      <c r="R234" t="n">
+        <v>432.14</v>
+      </c>
+      <c r="S234" t="n">
+        <v>432.3542857142857</v>
+      </c>
+      <c r="T234" t="n">
+        <v>431.7718181818182</v>
+      </c>
+      <c r="U234" t="n">
+        <v>435.41</v>
+      </c>
+      <c r="V234" t="n">
+        <v>438.2457142857143</v>
+      </c>
+      <c r="W234" t="n">
+        <v>436.7623076923077</v>
+      </c>
+      <c r="X234" t="n">
+        <v>432.9623076923077</v>
+      </c>
+      <c r="Y234" t="n">
+        <v>430.9723076923077</v>
+      </c>
+      <c r="Z234" t="n">
+        <v>439.35</v>
+      </c>
+      <c r="AA234" t="n">
+        <v>431.2657142857143</v>
+      </c>
+      <c r="AB234" t="n">
+        <v>424.36</v>
+      </c>
+      <c r="AC234" t="n">
+        <v>424.78</v>
+      </c>
+      <c r="AD234" t="n">
+        <v>430.01</v>
+      </c>
+      <c r="AE234" t="n">
+        <v>429.3157142857143</v>
+      </c>
+      <c r="AF234" t="n">
+        <v>430.6557142857143</v>
+      </c>
+      <c r="AG234" t="n">
+        <v>433.9</v>
+      </c>
+      <c r="AH234" t="n">
+        <v>439.18</v>
+      </c>
+      <c r="AI234" t="n">
+        <v>451.42</v>
+      </c>
+      <c r="AJ234" t="n">
+        <v>436.75</v>
+      </c>
+      <c r="AK234" t="n">
+        <v>427.6</v>
+      </c>
+      <c r="AL234" t="n">
+        <v>427.14</v>
+      </c>
+      <c r="AM234" t="n">
+        <v>429.74</v>
+      </c>
+      <c r="AN234" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:17:17+00:00</t>
+        </is>
+      </c>
+      <c r="B235" t="n">
+        <v>398.6346153846154</v>
+      </c>
+      <c r="C235" t="n">
+        <v>411.08</v>
+      </c>
+      <c r="D235" t="n">
+        <v>408.1566666666667</v>
+      </c>
+      <c r="E235" t="n">
+        <v>417.319090909091</v>
+      </c>
+      <c r="F235" t="n">
+        <v>413.52</v>
+      </c>
+      <c r="G235" t="n">
+        <v>412.78</v>
+      </c>
+      <c r="H235" t="n">
+        <v>421.35</v>
+      </c>
+      <c r="I235" t="n">
+        <v>422.05</v>
+      </c>
+      <c r="J235" t="n">
+        <v>421.23</v>
+      </c>
+      <c r="K235" t="n">
+        <v>424.0066666666667</v>
+      </c>
+      <c r="L235" t="n">
+        <v>422.9790909090909</v>
+      </c>
+      <c r="M235" t="n">
+        <v>421.9446153846154</v>
+      </c>
+      <c r="N235" t="n">
+        <v>418.8390909090909</v>
+      </c>
+      <c r="O235" t="n">
+        <v>413.139090909091</v>
+      </c>
+      <c r="P235" t="n">
+        <v>408.9390909090909</v>
+      </c>
+      <c r="Q235" t="n">
+        <v>412.4590909090909</v>
+      </c>
+      <c r="R235" t="n">
+        <v>399.81</v>
+      </c>
+      <c r="S235" t="n">
+        <v>410.4919047619048</v>
+      </c>
+      <c r="T235" t="n">
+        <v>414.7290909090909</v>
+      </c>
+      <c r="U235" t="n">
+        <v>421.09</v>
+      </c>
+      <c r="V235" t="n">
+        <v>419.8514285714285</v>
+      </c>
+      <c r="W235" t="n">
+        <v>423.2546153846154</v>
+      </c>
+      <c r="X235" t="n">
+        <v>428.1046153846154</v>
+      </c>
+      <c r="Y235" t="n">
+        <v>423.9246153846154</v>
+      </c>
+      <c r="Z235" t="n">
+        <v>420.835</v>
+      </c>
+      <c r="AA235" t="n">
+        <v>415.2914285714286</v>
+      </c>
+      <c r="AB235" t="n">
+        <v>417.2166666666667</v>
+      </c>
+      <c r="AC235" t="n">
+        <v>414.2133333333334</v>
+      </c>
+      <c r="AD235" t="n">
+        <v>412.0133333333333</v>
+      </c>
+      <c r="AE235" t="n">
+        <v>424.0214285714285</v>
+      </c>
+      <c r="AF235" t="n">
+        <v>420.7114285714285</v>
+      </c>
+      <c r="AG235" t="n">
+        <v>420.54</v>
+      </c>
+      <c r="AH235" t="n">
+        <v>431.3666666666667</v>
+      </c>
+      <c r="AI235" t="n">
+        <v>430.9333333333333</v>
+      </c>
+      <c r="AJ235" t="n">
+        <v>424.1266666666667</v>
+      </c>
+      <c r="AK235" t="n">
+        <v>413.6966666666667</v>
+      </c>
+      <c r="AL235" t="n">
+        <v>407.3366666666667</v>
+      </c>
+      <c r="AM235" t="n">
+        <v>412.8366666666667</v>
+      </c>
+      <c r="AN235" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -26645,7 +27149,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B242"/>
+  <dimension ref="A1:B246"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29073,6 +29577,46 @@
       </c>
       <c r="B242" t="n">
         <v>-0.06</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B243" t="n">
+        <v>-0.47</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>2025-03-17 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B244" t="n">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B245" t="n">
+        <v>-0.54</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B246" t="n">
+        <v>-0.17</v>
       </c>
     </row>
   </sheetData>
@@ -29246,28 +29790,28 @@
         <v>0.07340000000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.08446706199553576</v>
+        <v>-0.00730618007565513</v>
       </c>
       <c r="J2" t="n">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="K2" t="n">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="L2" t="n">
-        <v>0.002976324604298308</v>
+        <v>2.178552301845826e-05</v>
       </c>
       <c r="M2" t="n">
-        <v>9.636842182481621</v>
+        <v>9.853577365499881</v>
       </c>
       <c r="N2" t="n">
-        <v>146.0949037192259</v>
+        <v>153.6520644163083</v>
       </c>
       <c r="O2" t="n">
-        <v>12.0869724794601</v>
+        <v>12.39564699466342</v>
       </c>
       <c r="P2" t="n">
-        <v>389.9935373702037</v>
+        <v>389.3414755665656</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -29324,28 +29868,28 @@
         <v>0.1107</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0119203558112963</v>
+        <v>0.08993427953346349</v>
       </c>
       <c r="J3" t="n">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="K3" t="n">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="L3" t="n">
-        <v>6.202696404256081e-05</v>
+        <v>0.003423070560585995</v>
       </c>
       <c r="M3" t="n">
-        <v>9.896395244024438</v>
+        <v>10.08730316866123</v>
       </c>
       <c r="N3" t="n">
-        <v>140.4628123154395</v>
+        <v>148.1235873893668</v>
       </c>
       <c r="O3" t="n">
-        <v>11.8517008195212</v>
+        <v>12.17060341106253</v>
       </c>
       <c r="P3" t="n">
-        <v>400.4558627057087</v>
+        <v>399.7985021843913</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -29402,28 +29946,28 @@
         <v>0.0684</v>
       </c>
       <c r="I4" t="n">
-        <v>0.03616634913658653</v>
+        <v>0.1018311276561955</v>
       </c>
       <c r="J4" t="n">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="K4" t="n">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0005406942859133013</v>
+        <v>0.004235904400543111</v>
       </c>
       <c r="M4" t="n">
-        <v>9.585018942160232</v>
+        <v>9.721140637692617</v>
       </c>
       <c r="N4" t="n">
-        <v>147.8446122744048</v>
+        <v>152.8379028118143</v>
       </c>
       <c r="O4" t="n">
-        <v>12.15913698723741</v>
+        <v>12.36276274996064</v>
       </c>
       <c r="P4" t="n">
-        <v>401.7418406853621</v>
+        <v>401.1860098813093</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -29480,28 +30024,28 @@
         <v>0.061</v>
       </c>
       <c r="I5" t="n">
-        <v>0.05175850263610694</v>
+        <v>0.118027256569684</v>
       </c>
       <c r="J5" t="n">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="K5" t="n">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="L5" t="n">
-        <v>0.000998491852179817</v>
+        <v>0.005151568109344362</v>
       </c>
       <c r="M5" t="n">
-        <v>10.22280911682716</v>
+        <v>10.37442856213381</v>
       </c>
       <c r="N5" t="n">
-        <v>165.2619170005167</v>
+        <v>170.1132436921387</v>
       </c>
       <c r="O5" t="n">
-        <v>12.85542364142531</v>
+        <v>13.04274678478957</v>
       </c>
       <c r="P5" t="n">
-        <v>413.3354460202386</v>
+        <v>412.780424770152</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -29558,28 +30102,28 @@
         <v>0.0566</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0641113839773948</v>
+        <v>0.1215640268340581</v>
       </c>
       <c r="J6" t="n">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="K6" t="n">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="L6" t="n">
-        <v>0.00148670458550082</v>
+        <v>0.005379624284324258</v>
       </c>
       <c r="M6" t="n">
-        <v>10.03268107241916</v>
+        <v>10.12279892698108</v>
       </c>
       <c r="N6" t="n">
-        <v>170.2216637438596</v>
+        <v>172.8885504300467</v>
       </c>
       <c r="O6" t="n">
-        <v>13.04690245781962</v>
+        <v>13.14870907846267</v>
       </c>
       <c r="P6" t="n">
-        <v>410.4350886421971</v>
+        <v>409.9560871949204</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -29630,28 +30174,28 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>0.02465810216317687</v>
+        <v>0.08632342482461391</v>
       </c>
       <c r="J7" t="n">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="K7" t="n">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0002430656761287509</v>
+        <v>0.002969758003874667</v>
       </c>
       <c r="M7" t="n">
-        <v>9.710234117737302</v>
+        <v>9.852369131109969</v>
       </c>
       <c r="N7" t="n">
-        <v>154.8291259432958</v>
+        <v>158.7620970468995</v>
       </c>
       <c r="O7" t="n">
-        <v>12.44303523836913</v>
+        <v>12.60008321587201</v>
       </c>
       <c r="P7" t="n">
-        <v>411.2823644932313</v>
+        <v>410.7651378781763</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -29708,28 +30252,28 @@
         <v>0.0584</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.05459303983751322</v>
+        <v>-0.000781011216654373</v>
       </c>
       <c r="J8" t="n">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="K8" t="n">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="L8" t="n">
-        <v>0.001328745408955001</v>
+        <v>2.74112844977914e-07</v>
       </c>
       <c r="M8" t="n">
-        <v>9.33897946980302</v>
+        <v>9.445552400664992</v>
       </c>
       <c r="N8" t="n">
-        <v>138.0455442530456</v>
+        <v>140.6443826250576</v>
       </c>
       <c r="O8" t="n">
-        <v>11.74927845669876</v>
+        <v>11.85935844070233</v>
       </c>
       <c r="P8" t="n">
-        <v>421.6637596029371</v>
+        <v>421.2143904063793</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -29786,28 +30330,28 @@
         <v>0.0581</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.1419125277260762</v>
+        <v>-0.08764176872592855</v>
       </c>
       <c r="J9" t="n">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="K9" t="n">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="L9" t="n">
-        <v>0.009373954356446168</v>
+        <v>0.003604048308807228</v>
       </c>
       <c r="M9" t="n">
-        <v>9.118413650688785</v>
+        <v>9.237283279378056</v>
       </c>
       <c r="N9" t="n">
-        <v>132.1933339234169</v>
+        <v>135.1367583672538</v>
       </c>
       <c r="O9" t="n">
-        <v>11.49753599356909</v>
+        <v>11.62483369202561</v>
       </c>
       <c r="P9" t="n">
-        <v>424.7381366571168</v>
+        <v>424.2839194148837</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -29864,28 +30408,28 @@
         <v>0.056</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.1387303673216948</v>
+        <v>-0.0871942802226929</v>
       </c>
       <c r="J10" t="n">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="K10" t="n">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="L10" t="n">
-        <v>0.008952059981316096</v>
+        <v>0.003576597199079101</v>
       </c>
       <c r="M10" t="n">
-        <v>8.943241446694774</v>
+        <v>9.039489558180838</v>
       </c>
       <c r="N10" t="n">
-        <v>133.3278457878349</v>
+        <v>135.7696012718044</v>
       </c>
       <c r="O10" t="n">
-        <v>11.54676776365728</v>
+        <v>11.65202133845473</v>
       </c>
       <c r="P10" t="n">
-        <v>424.4010976462</v>
+        <v>423.9714419121409</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -29942,28 +30486,28 @@
         <v>0.07190000000000001</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.1745241461804932</v>
+        <v>-0.1142704759330504</v>
       </c>
       <c r="J11" t="n">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="K11" t="n">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01395945819429034</v>
+        <v>0.006015285125244851</v>
       </c>
       <c r="M11" t="n">
-        <v>8.688958082740776</v>
+        <v>8.859375280137185</v>
       </c>
       <c r="N11" t="n">
-        <v>133.7079135705628</v>
+        <v>137.3647272239401</v>
       </c>
       <c r="O11" t="n">
-        <v>11.56321380804501</v>
+        <v>11.7202699296535</v>
       </c>
       <c r="P11" t="n">
-        <v>422.3285177400089</v>
+        <v>421.8224483894711</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -30020,28 +30564,28 @@
         <v>0.06660000000000001</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.2307338155739971</v>
+        <v>-0.1690829816251298</v>
       </c>
       <c r="J12" t="n">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="K12" t="n">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0233318390585866</v>
+        <v>0.01258797454654526</v>
       </c>
       <c r="M12" t="n">
-        <v>8.959602079123179</v>
+        <v>9.123549289419081</v>
       </c>
       <c r="N12" t="n">
-        <v>139.1569882932749</v>
+        <v>143.2530537243362</v>
       </c>
       <c r="O12" t="n">
-        <v>11.79648203038834</v>
+        <v>11.96883677407024</v>
       </c>
       <c r="P12" t="n">
-        <v>423.5436469016379</v>
+        <v>423.0236820497051</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -30098,28 +30642,28 @@
         <v>0.07729999999999999</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.117646408251032</v>
+        <v>-0.05887606823961457</v>
       </c>
       <c r="J13" t="n">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="K13" t="n">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="L13" t="n">
-        <v>0.007088791501306368</v>
+        <v>0.001765146928062955</v>
       </c>
       <c r="M13" t="n">
-        <v>8.357421530344558</v>
+        <v>8.538554720958459</v>
       </c>
       <c r="N13" t="n">
-        <v>120.4098278381026</v>
+        <v>124.6796891940167</v>
       </c>
       <c r="O13" t="n">
-        <v>10.97314120195774</v>
+        <v>11.16600596426568</v>
       </c>
       <c r="P13" t="n">
-        <v>422.2188393733369</v>
+        <v>421.722422024739</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -30176,28 +30720,28 @@
         <v>0.06370000000000001</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.07503055585570564</v>
+        <v>-0.02015506546082995</v>
       </c>
       <c r="J14" t="n">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="K14" t="n">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="L14" t="n">
-        <v>0.00319265503381716</v>
+        <v>0.0002289091313838476</v>
       </c>
       <c r="M14" t="n">
-        <v>8.202451324683814</v>
+        <v>8.356347591785003</v>
       </c>
       <c r="N14" t="n">
-        <v>108.9883939873156</v>
+        <v>112.7558707976212</v>
       </c>
       <c r="O14" t="n">
-        <v>10.43975066691325</v>
+        <v>10.61865673226238</v>
       </c>
       <c r="P14" t="n">
-        <v>419.2511350337202</v>
+        <v>418.7890994876805</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -30248,28 +30792,28 @@
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="n">
-        <v>-0.1339730753749319</v>
+        <v>-0.08469861538690289</v>
       </c>
       <c r="J15" t="n">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="K15" t="n">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="L15" t="n">
-        <v>0.01041292395935345</v>
+        <v>0.004178503205214956</v>
       </c>
       <c r="M15" t="n">
-        <v>7.929608441199715</v>
+        <v>8.053622724132874</v>
       </c>
       <c r="N15" t="n">
-        <v>104.9171364864753</v>
+        <v>107.871999217059</v>
       </c>
       <c r="O15" t="n">
-        <v>10.24290664247582</v>
+        <v>10.38614457905622</v>
       </c>
       <c r="P15" t="n">
-        <v>416.3112878725327</v>
+        <v>415.8975704149345</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -30326,28 +30870,28 @@
         <v>0.0613</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.1201645507868836</v>
+        <v>-0.07644498551376969</v>
       </c>
       <c r="J16" t="n">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="K16" t="n">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="L16" t="n">
-        <v>0.008547319868858594</v>
+        <v>0.003491936311555088</v>
       </c>
       <c r="M16" t="n">
-        <v>8.075733551685536</v>
+        <v>8.153951911303523</v>
       </c>
       <c r="N16" t="n">
-        <v>103.611121558384</v>
+        <v>105.7821078909939</v>
       </c>
       <c r="O16" t="n">
-        <v>10.17895483624836</v>
+        <v>10.28504292120329</v>
       </c>
       <c r="P16" t="n">
-        <v>413.8095116494557</v>
+        <v>413.4425611112137</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -30404,28 +30948,28 @@
         <v>0.0629</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.1478150989233248</v>
+        <v>-0.1009670043990423</v>
       </c>
       <c r="J17" t="n">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="K17" t="n">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="L17" t="n">
-        <v>0.01132983246267494</v>
+        <v>0.00535418260470788</v>
       </c>
       <c r="M17" t="n">
-        <v>8.381579148523619</v>
+        <v>8.470278742063938</v>
       </c>
       <c r="N17" t="n">
-        <v>117.888020824508</v>
+        <v>120.0290938019993</v>
       </c>
       <c r="O17" t="n">
-        <v>10.85762500846792</v>
+        <v>10.95577901392682</v>
       </c>
       <c r="P17" t="n">
-        <v>417.2565288055976</v>
+        <v>416.8632214869976</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -30482,28 +31026,28 @@
         <v>0.0568</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.1249882035115006</v>
+        <v>-0.08674405003224557</v>
       </c>
       <c r="J18" t="n">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="K18" t="n">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="L18" t="n">
-        <v>0.005526765525087352</v>
+        <v>0.002704132524474767</v>
       </c>
       <c r="M18" t="n">
-        <v>10.3538661231366</v>
+        <v>10.4765287827124</v>
       </c>
       <c r="N18" t="n">
-        <v>173.4933567131559</v>
+        <v>175.5063576595251</v>
       </c>
       <c r="O18" t="n">
-        <v>13.17168769418543</v>
+        <v>13.24788125171437</v>
       </c>
       <c r="P18" t="n">
-        <v>414.6826361968462</v>
+        <v>414.3609447208034</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -30554,28 +31098,28 @@
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="n">
-        <v>0.07531114086663762</v>
+        <v>0.125728102275743</v>
       </c>
       <c r="J19" t="n">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="K19" t="n">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="L19" t="n">
-        <v>0.001212639501599555</v>
+        <v>0.003470617234144213</v>
       </c>
       <c r="M19" t="n">
-        <v>12.91148915164662</v>
+        <v>12.91236550746556</v>
       </c>
       <c r="N19" t="n">
-        <v>290.2999977544386</v>
+        <v>289.1189820283704</v>
       </c>
       <c r="O19" t="n">
-        <v>17.03819232648929</v>
+        <v>17.00349911131148</v>
       </c>
       <c r="P19" t="n">
-        <v>408.2410448206081</v>
+        <v>407.8161967335677</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -30632,28 +31176,28 @@
         <v>0.0614</v>
       </c>
       <c r="I20" t="n">
-        <v>0.05614231053454127</v>
+        <v>0.09804730887584247</v>
       </c>
       <c r="J20" t="n">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="K20" t="n">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0009999214780147536</v>
+        <v>0.00313588898187156</v>
       </c>
       <c r="M20" t="n">
-        <v>10.43502314601411</v>
+        <v>10.42612810274904</v>
       </c>
       <c r="N20" t="n">
-        <v>196.9606328019912</v>
+        <v>196.0053834516808</v>
       </c>
       <c r="O20" t="n">
-        <v>14.03426637918745</v>
+        <v>14.00019226481125</v>
       </c>
       <c r="P20" t="n">
-        <v>411.8731651212639</v>
+        <v>411.5223893493707</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -30704,28 +31248,28 @@
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="n">
-        <v>-0.0637625915441708</v>
+        <v>-0.01608678952931837</v>
       </c>
       <c r="J21" t="n">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="K21" t="n">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="L21" t="n">
-        <v>0.001846866850251483</v>
+        <v>0.000119543487452356</v>
       </c>
       <c r="M21" t="n">
-        <v>8.590923132482148</v>
+        <v>8.693274396689752</v>
       </c>
       <c r="N21" t="n">
-        <v>134.8988827917188</v>
+        <v>136.2158286236696</v>
       </c>
       <c r="O21" t="n">
-        <v>11.61459783168228</v>
+        <v>11.67115369720019</v>
       </c>
       <c r="P21" t="n">
-        <v>416.2258609877807</v>
+        <v>415.8223067643011</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -30782,28 +31326,28 @@
         <v>0.0772</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.05167343304500161</v>
+        <v>-0.01046683130720865</v>
       </c>
       <c r="J22" t="n">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="K22" t="n">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="L22" t="n">
-        <v>0.00174413097453241</v>
+        <v>7.212319614668949e-05</v>
       </c>
       <c r="M22" t="n">
-        <v>7.083314200654094</v>
+        <v>7.176065475790978</v>
       </c>
       <c r="N22" t="n">
-        <v>94.94371473106236</v>
+        <v>96.72833417784737</v>
       </c>
       <c r="O22" t="n">
-        <v>9.743906543633429</v>
+        <v>9.835056389154429</v>
       </c>
       <c r="P22" t="n">
-        <v>418.1742216705049</v>
+        <v>417.8305359853786</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -30860,28 +31404,28 @@
         <v>0.07480000000000001</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.08239130724539527</v>
+        <v>-0.03831557331732272</v>
       </c>
       <c r="J23" t="n">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="K23" t="n">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="L23" t="n">
-        <v>0.004442463865392043</v>
+        <v>0.0009715584841498703</v>
       </c>
       <c r="M23" t="n">
-        <v>7.169660638678433</v>
+        <v>7.230280241288245</v>
       </c>
       <c r="N23" t="n">
-        <v>94.85203435470849</v>
+        <v>96.38771171321856</v>
       </c>
       <c r="O23" t="n">
-        <v>9.739200909453942</v>
+        <v>9.817724365310863</v>
       </c>
       <c r="P23" t="n">
-        <v>420.3432788889037</v>
+        <v>419.9720733039198</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -30932,28 +31476,28 @@
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="n">
-        <v>-0.09342897412248319</v>
+        <v>-0.05173629922623812</v>
       </c>
       <c r="J24" t="n">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="K24" t="n">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="L24" t="n">
-        <v>0.005554739534327724</v>
+        <v>0.001735207660082172</v>
       </c>
       <c r="M24" t="n">
-        <v>7.052180968857011</v>
+        <v>7.136187100716028</v>
       </c>
       <c r="N24" t="n">
-        <v>97.60909044242457</v>
+        <v>98.48379031095948</v>
       </c>
       <c r="O24" t="n">
-        <v>9.879731294039559</v>
+        <v>9.923899954703266</v>
       </c>
       <c r="P24" t="n">
-        <v>419.7180709432199</v>
+        <v>419.3668518413892</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -31010,28 +31554,28 @@
         <v>0.07580000000000001</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.07631664949514276</v>
+        <v>-0.04424128711808147</v>
       </c>
       <c r="J25" t="n">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="K25" t="n">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="L25" t="n">
-        <v>0.003563000429322116</v>
+        <v>0.001233442223076864</v>
       </c>
       <c r="M25" t="n">
-        <v>7.171749064860514</v>
+        <v>7.211523392616108</v>
       </c>
       <c r="N25" t="n">
-        <v>101.2523994764423</v>
+        <v>100.8759004432475</v>
       </c>
       <c r="O25" t="n">
-        <v>10.06242512898567</v>
+        <v>10.04369953967399</v>
       </c>
       <c r="P25" t="n">
-        <v>420.2478300942249</v>
+        <v>419.9769339210919</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
@@ -31088,28 +31632,28 @@
         <v>0.09810000000000001</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.08512198200640993</v>
+        <v>-0.05074470022663875</v>
       </c>
       <c r="J26" t="n">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="K26" t="n">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="L26" t="n">
-        <v>0.005062027839477401</v>
+        <v>0.00182527584233394</v>
       </c>
       <c r="M26" t="n">
-        <v>6.72745752037914</v>
+        <v>6.759094614856311</v>
       </c>
       <c r="N26" t="n">
-        <v>89.39992019995167</v>
+        <v>90.50114680187133</v>
       </c>
       <c r="O26" t="n">
-        <v>9.455153102935546</v>
+        <v>9.513209069597458</v>
       </c>
       <c r="P26" t="n">
-        <v>421.334755016953</v>
+        <v>421.0472460686505</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
@@ -31166,28 +31710,28 @@
         <v>0.07870000000000001</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.03595326790339419</v>
+        <v>-0.01321995065324564</v>
       </c>
       <c r="J27" t="n">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="K27" t="n">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="L27" t="n">
-        <v>0.0008431341689619787</v>
+        <v>0.0001169739353352739</v>
       </c>
       <c r="M27" t="n">
-        <v>6.627172396440943</v>
+        <v>6.65868147698675</v>
       </c>
       <c r="N27" t="n">
-        <v>95.90920789825122</v>
+        <v>95.72823468637914</v>
       </c>
       <c r="O27" t="n">
-        <v>9.793324660106558</v>
+        <v>9.78408067660826</v>
       </c>
       <c r="P27" t="n">
-        <v>418.4667508330814</v>
+        <v>418.2758089220176</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
@@ -31244,28 +31788,28 @@
         <v>0.06710000000000001</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.07264164280680545</v>
+        <v>-0.05553789232257388</v>
       </c>
       <c r="J28" t="n">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="K28" t="n">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="L28" t="n">
-        <v>0.003415741759304369</v>
+        <v>0.002070746032878379</v>
       </c>
       <c r="M28" t="n">
-        <v>6.767633955415321</v>
+        <v>6.748136380311941</v>
       </c>
       <c r="N28" t="n">
-        <v>95.59972085148722</v>
+        <v>94.46558828241214</v>
       </c>
       <c r="O28" t="n">
-        <v>9.777510974245297</v>
+        <v>9.719340938685717</v>
       </c>
       <c r="P28" t="n">
-        <v>416.1697059601171</v>
+        <v>416.0245303372234</v>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
@@ -31322,28 +31866,28 @@
         <v>0.08169999999999999</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.1073781601508853</v>
+        <v>-0.09216632071696236</v>
       </c>
       <c r="J29" t="n">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="K29" t="n">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="L29" t="n">
-        <v>0.008022105379634548</v>
+        <v>0.006102662762027866</v>
       </c>
       <c r="M29" t="n">
-        <v>6.533668411254221</v>
+        <v>6.521745301533166</v>
       </c>
       <c r="N29" t="n">
-        <v>89.14011224769573</v>
+        <v>88.49805045057938</v>
       </c>
       <c r="O29" t="n">
-        <v>9.441404145978273</v>
+        <v>9.407340243160093</v>
       </c>
       <c r="P29" t="n">
-        <v>414.4552735437913</v>
+        <v>414.3262968557544</v>
       </c>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
@@ -31400,28 +31944,28 @@
         <v>0.08939999999999999</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.1382117208658556</v>
+        <v>-0.1131531163118973</v>
       </c>
       <c r="J30" t="n">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="K30" t="n">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="L30" t="n">
-        <v>0.01240197460352876</v>
+        <v>0.008538178958055642</v>
       </c>
       <c r="M30" t="n">
-        <v>6.500653964450872</v>
+        <v>6.499920392321503</v>
       </c>
       <c r="N30" t="n">
-        <v>94.28176517867321</v>
+        <v>94.33634273700383</v>
       </c>
       <c r="O30" t="n">
-        <v>9.709879771586937</v>
+        <v>9.712689778686634</v>
       </c>
       <c r="P30" t="n">
-        <v>416.7923391312058</v>
+        <v>416.5800669898517</v>
       </c>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
@@ -31478,28 +32022,28 @@
         <v>0.08309999999999999</v>
       </c>
       <c r="I31" t="n">
-        <v>-0.1378887990544103</v>
+        <v>-0.1169788389088812</v>
       </c>
       <c r="J31" t="n">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="K31" t="n">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="L31" t="n">
-        <v>0.01116632692199448</v>
+        <v>0.008320161794203251</v>
       </c>
       <c r="M31" t="n">
-        <v>6.80312121091047</v>
+        <v>6.829789004644018</v>
       </c>
       <c r="N31" t="n">
-        <v>104.169941533705</v>
+        <v>103.36577330154</v>
       </c>
       <c r="O31" t="n">
-        <v>10.20636769540001</v>
+        <v>10.16689595213505</v>
       </c>
       <c r="P31" t="n">
-        <v>421.5927431510878</v>
+        <v>421.4156771324026</v>
       </c>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
@@ -31556,28 +32100,28 @@
         <v>0.0762</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.1038092097784741</v>
+        <v>-0.08856060578121376</v>
       </c>
       <c r="J32" t="n">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="K32" t="n">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="L32" t="n">
-        <v>0.006480958077759946</v>
+        <v>0.004886539795500688</v>
       </c>
       <c r="M32" t="n">
-        <v>7.013636777658936</v>
+        <v>6.999191587177203</v>
       </c>
       <c r="N32" t="n">
-        <v>100.6808022040952</v>
+        <v>99.83640431691647</v>
       </c>
       <c r="O32" t="n">
-        <v>10.03398237013078</v>
+        <v>9.991816867663081</v>
       </c>
       <c r="P32" t="n">
-        <v>421.8793595428778</v>
+        <v>421.7501396697151</v>
       </c>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr">
@@ -31634,28 +32178,28 @@
         <v>0.0531</v>
       </c>
       <c r="I33" t="n">
-        <v>0.02201879981441986</v>
+        <v>0.04067700587524893</v>
       </c>
       <c r="J33" t="n">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="K33" t="n">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="L33" t="n">
-        <v>0.0003433392174340133</v>
+        <v>0.001212549613618608</v>
       </c>
       <c r="M33" t="n">
-        <v>7.215200444958166</v>
+        <v>7.183349947218183</v>
       </c>
       <c r="N33" t="n">
-        <v>86.13822221947369</v>
+        <v>85.3470571311676</v>
       </c>
       <c r="O33" t="n">
-        <v>9.281067946064919</v>
+        <v>9.238347099517727</v>
       </c>
       <c r="P33" t="n">
-        <v>421.9492450171714</v>
+        <v>421.7923018292022</v>
       </c>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr">
@@ -31712,28 +32256,28 @@
         <v>0.0672</v>
       </c>
       <c r="I34" t="n">
-        <v>-0.1549521147169402</v>
+        <v>-0.1337832197083481</v>
       </c>
       <c r="J34" t="n">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="K34" t="n">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="L34" t="n">
-        <v>0.01332389527497402</v>
+        <v>0.01029074866896384</v>
       </c>
       <c r="M34" t="n">
-        <v>6.993800506663176</v>
+        <v>7.010939282391993</v>
       </c>
       <c r="N34" t="n">
-        <v>108.6335604223494</v>
+        <v>107.7825110947156</v>
       </c>
       <c r="O34" t="n">
-        <v>10.42274246167243</v>
+        <v>10.38183563223362</v>
       </c>
       <c r="P34" t="n">
-        <v>430.4233957894223</v>
+        <v>430.2430508453448</v>
       </c>
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr">
@@ -31790,28 +32334,28 @@
         <v>0.0863</v>
       </c>
       <c r="I35" t="n">
-        <v>-0.1110718326696148</v>
+        <v>-0.08019932527571542</v>
       </c>
       <c r="J35" t="n">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="K35" t="n">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="L35" t="n">
-        <v>0.006694763648016022</v>
+        <v>0.003570397268710002</v>
       </c>
       <c r="M35" t="n">
-        <v>6.979589926187653</v>
+        <v>7.000120509934678</v>
       </c>
       <c r="N35" t="n">
-        <v>111.6022178472841</v>
+        <v>112.0549632190124</v>
       </c>
       <c r="O35" t="n">
-        <v>10.56419508752485</v>
+        <v>10.58560169376368</v>
       </c>
       <c r="P35" t="n">
-        <v>434.1232464207334</v>
+        <v>433.8563534550374</v>
       </c>
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr">
@@ -31868,28 +32412,28 @@
         <v>0.0696</v>
       </c>
       <c r="I36" t="n">
-        <v>-0.1944018611749314</v>
+        <v>-0.1689409628523036</v>
       </c>
       <c r="J36" t="n">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="K36" t="n">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="L36" t="n">
-        <v>0.01826579892815117</v>
+        <v>0.01428519750085233</v>
       </c>
       <c r="M36" t="n">
-        <v>7.382196444969626</v>
+        <v>7.379893532493115</v>
       </c>
       <c r="N36" t="n">
-        <v>123.1122502032584</v>
+        <v>122.2062352605433</v>
       </c>
       <c r="O36" t="n">
-        <v>11.09559598233725</v>
+        <v>11.05469290665929</v>
       </c>
       <c r="P36" t="n">
-        <v>427.4938907425313</v>
+        <v>427.2721050651739</v>
       </c>
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr">
@@ -31940,28 +32484,28 @@
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="n">
-        <v>-0.1099212257048958</v>
+        <v>-0.0924456447787739</v>
       </c>
       <c r="J37" t="n">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="K37" t="n">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="L37" t="n">
-        <v>0.00543751189653896</v>
+        <v>0.003980363691510447</v>
       </c>
       <c r="M37" t="n">
-        <v>8.00510026282979</v>
+        <v>7.991468970956295</v>
       </c>
       <c r="N37" t="n">
-        <v>136.009868891137</v>
+        <v>134.6769421700616</v>
       </c>
       <c r="O37" t="n">
-        <v>11.66232690723155</v>
+        <v>11.60503951609221</v>
       </c>
       <c r="P37" t="n">
-        <v>416.9653758697439</v>
+        <v>416.8151487757997</v>
       </c>
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr">
@@ -32012,28 +32556,28 @@
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="n">
-        <v>0.004371031675213031</v>
+        <v>0.01984261407257612</v>
       </c>
       <c r="J38" t="n">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="K38" t="n">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="L38" t="n">
-        <v>9.097639194655116e-06</v>
+        <v>0.0001936440317601429</v>
       </c>
       <c r="M38" t="n">
-        <v>8.034601783205973</v>
+        <v>8.041231950005466</v>
       </c>
       <c r="N38" t="n">
-        <v>125.8391535634464</v>
+        <v>124.8586914374247</v>
       </c>
       <c r="O38" t="n">
-        <v>11.21780520259852</v>
+        <v>11.17401858945226</v>
       </c>
       <c r="P38" t="n">
-        <v>415.3157425121063</v>
+        <v>415.1809595374162</v>
       </c>
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr">
@@ -32090,28 +32634,28 @@
         <v>0.0653</v>
       </c>
       <c r="I39" t="n">
-        <v>-0.1232251775347684</v>
+        <v>-0.1163739683886376</v>
       </c>
       <c r="J39" t="n">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="K39" t="n">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="L39" t="n">
-        <v>0.005928238139674136</v>
+        <v>0.00550127844177517</v>
       </c>
       <c r="M39" t="n">
-        <v>8.189897394357763</v>
+        <v>8.169847449970629</v>
       </c>
       <c r="N39" t="n">
-        <v>154.0808886465178</v>
+        <v>151.9075732945628</v>
       </c>
       <c r="O39" t="n">
-        <v>12.41293231458698</v>
+        <v>12.32507903806555</v>
       </c>
       <c r="P39" t="n">
-        <v>423.0587669502813</v>
+        <v>423.0001095813806</v>
       </c>
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr">
@@ -32149,7 +32693,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AN231"/>
+  <dimension ref="A1:AN235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72851,6 +73395,814 @@
         </is>
       </c>
     </row>
+    <row r="232">
+      <c r="A232" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:17:26+00:00</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>-34.86102449349323,173.29586608735295</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>-34.86122627266709,173.29660681995787</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>-34.861319220864445,173.29740426994394</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>-34.86135248330199,173.29823729202033</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>-34.86140793491745,173.29903949956977</t>
+        </is>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>-34.861391809046445,173.2999577900617</t>
+        </is>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>-34.861363216876654,173.30083777819323</t>
+        </is>
+      </c>
+      <c r="I232" t="inlineStr">
+        <is>
+          <t>-34.861308485948534,173.30167489817308</t>
+        </is>
+      </c>
+      <c r="J232" t="inlineStr">
+        <is>
+          <t>-34.86124953049312,173.3025499976365</t>
+        </is>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>-34.861187073441755,173.30345321479822</t>
+        </is>
+      </c>
+      <c r="L232" t="inlineStr">
+        <is>
+          <t>-34.861135091736564,173.30436390880286</t>
+        </is>
+      </c>
+      <c r="M232" t="inlineStr">
+        <is>
+          <t>-34.86107966009872,173.3052543724819</t>
+        </is>
+      </c>
+      <c r="N232" t="inlineStr">
+        <is>
+          <t>-34.86102324916577,173.3061401979855</t>
+        </is>
+      </c>
+      <c r="O232" t="inlineStr">
+        <is>
+          <t>-34.861001808494464,173.3070436615046</t>
+        </is>
+      </c>
+      <c r="P232" t="inlineStr">
+        <is>
+          <t>-34.86098144154799,173.30796975489585</t>
+        </is>
+      </c>
+      <c r="Q232" t="inlineStr">
+        <is>
+          <t>-34.860943837963255,173.3088664265496</t>
+        </is>
+      </c>
+      <c r="R232" t="inlineStr">
+        <is>
+          <t>-34.8608933554035,173.30972989064927</t>
+        </is>
+      </c>
+      <c r="S232" t="inlineStr">
+        <is>
+          <t>-34.86083463930488,173.3106297787977</t>
+        </is>
+      </c>
+      <c r="T232" t="inlineStr">
+        <is>
+          <t>-34.86079120490533,173.31154359607658</t>
+        </is>
+      </c>
+      <c r="U232" t="inlineStr">
+        <is>
+          <t>-34.86071197372983,173.31243479947048</t>
+        </is>
+      </c>
+      <c r="V232" t="inlineStr">
+        <is>
+          <t>-34.86064902611389,173.3133161851514</t>
+        </is>
+      </c>
+      <c r="W232" t="inlineStr">
+        <is>
+          <t>-34.86056864749584,173.31418347833795</t>
+        </is>
+      </c>
+      <c r="X232" t="inlineStr">
+        <is>
+          <t>-34.86049777619104,173.31506223364136</t>
+        </is>
+      </c>
+      <c r="Y232" t="inlineStr">
+        <is>
+          <t>-34.86042061095028,173.31596448865187</t>
+        </is>
+      </c>
+      <c r="Z232" t="inlineStr">
+        <is>
+          <t>-34.86031090414053,173.31683937121085</t>
+        </is>
+      </c>
+      <c r="AA232" t="inlineStr">
+        <is>
+          <t>-34.86021103262257,173.31771291720702</t>
+        </is>
+      </c>
+      <c r="AB232" t="inlineStr">
+        <is>
+          <t>-34.86016898284832,173.31862045510246</t>
+        </is>
+      </c>
+      <c r="AC232" t="inlineStr">
+        <is>
+          <t>-34.86009267562613,173.31953314758397</t>
+        </is>
+      </c>
+      <c r="AD232" t="inlineStr">
+        <is>
+          <t>-34.85995901373234,173.32043445718486</t>
+        </is>
+      </c>
+      <c r="AE232" t="inlineStr">
+        <is>
+          <t>-34.85985716018036,173.32130709533814</t>
+        </is>
+      </c>
+      <c r="AF232" t="inlineStr">
+        <is>
+          <t>-34.859742691966304,173.32218170350296</t>
+        </is>
+      </c>
+      <c r="AG232" t="inlineStr">
+        <is>
+          <t>-34.85962641708646,173.32308822685889</t>
+        </is>
+      </c>
+      <c r="AH232" t="inlineStr">
+        <is>
+          <t>-34.85950437276899,173.32398250987907</t>
+        </is>
+      </c>
+      <c r="AI232" t="inlineStr">
+        <is>
+          <t>-34.85935800620435,173.32477801966638</t>
+        </is>
+      </c>
+      <c r="AJ232" t="inlineStr">
+        <is>
+          <t>-34.8592425712005,173.32559673428355</t>
+        </is>
+      </c>
+      <c r="AK232" t="inlineStr">
+        <is>
+          <t>-34.85911037820544,173.32653335506265</t>
+        </is>
+      </c>
+      <c r="AL232" t="inlineStr">
+        <is>
+          <t>-34.85896685168492,173.3274772231431</t>
+        </is>
+      </c>
+      <c r="AM232" t="inlineStr">
+        <is>
+          <t>-34.85888453411681,173.32838872277046</t>
+        </is>
+      </c>
+      <c r="AN232" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-17 22:17:32+00:00</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>-34.86122153411653,173.29574912160874</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>-34.86139564110374,173.29654295906803</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>-34.86147889504045,173.2973690880768</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>-34.861484968504215,173.29822159282634</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>-34.861502878445314,173.29904128677902</t>
+        </is>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>-34.861452764628844,173.2999570380697</t>
+        </is>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>-34.86143192630377,173.30083872248267</t>
+        </is>
+      </c>
+      <c r="I233" t="inlineStr">
+        <is>
+          <t>-34.861377344287085,173.3016815232892</t>
+        </is>
+      </c>
+      <c r="J233" t="inlineStr">
+        <is>
+          <t>-34.861309810821986,173.30255751583346</t>
+        </is>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>-34.8612915544163,173.30346503641613</t>
+        </is>
+      </c>
+      <c r="L233" t="inlineStr">
+        <is>
+          <t>-34.86120470516805,173.3043702975722</t>
+        </is>
+      </c>
+      <c r="M233" t="inlineStr">
+        <is>
+          <t>-34.861166893886995,173.30526303980346</t>
+        </is>
+      </c>
+      <c r="N233" t="inlineStr">
+        <is>
+          <t>-34.86113782673519,173.30615323621166</t>
+        </is>
+      </c>
+      <c r="O233" t="inlineStr">
+        <is>
+          <t>-34.86112541786827,173.30705700917056</t>
+        </is>
+      </c>
+      <c r="P233" t="inlineStr">
+        <is>
+          <t>-34.861078266541355,173.30797584817932</t>
+        </is>
+      </c>
+      <c r="Q233" t="inlineStr">
+        <is>
+          <t>-34.86101247605583,173.30887074200444</t>
+        </is>
+      </c>
+      <c r="R233" t="inlineStr">
+        <is>
+          <t>-34.86096149527117,173.30973770054155</t>
+        </is>
+      </c>
+      <c r="S233" t="inlineStr">
+        <is>
+          <t>-34.86091375582564,173.31063823861243</t>
+        </is>
+      </c>
+      <c r="T233" t="inlineStr">
+        <is>
+          <t>-34.860858353192654,173.3115488422739</t>
+        </is>
+      </c>
+      <c r="U233" t="inlineStr">
+        <is>
+          <t>-34.860830101503794,173.31244454412655</t>
+        </is>
+      </c>
+      <c r="V233" t="inlineStr">
+        <is>
+          <t>-34.86077261511565,173.3133290479806</t>
+        </is>
+      </c>
+      <c r="W233" t="inlineStr">
+        <is>
+          <t>-34.86066406737917,173.31419724746118</t>
+        </is>
+      </c>
+      <c r="X233" t="inlineStr">
+        <is>
+          <t>-34.8605947359101,173.31507862017244</t>
+        </is>
+      </c>
+      <c r="Y233" t="inlineStr">
+        <is>
+          <t>-34.8604789900321,173.31597350234406</t>
+        </is>
+      </c>
+      <c r="Z233" t="inlineStr">
+        <is>
+          <t>-34.860409915330074,173.316856815216</t>
+        </is>
+      </c>
+      <c r="AA233" t="inlineStr">
+        <is>
+          <t>-34.86031886857839,173.31773487509045</t>
+        </is>
+      </c>
+      <c r="AB233" t="inlineStr">
+        <is>
+          <t>-34.86024865514546,173.31863585418364</t>
+        </is>
+      </c>
+      <c r="AC233" t="inlineStr">
+        <is>
+          <t>-34.86019037669056,173.31954835356214</t>
+        </is>
+      </c>
+      <c r="AD233" t="inlineStr">
+        <is>
+          <t>-34.86004722208266,173.32044545112444</t>
+        </is>
+      </c>
+      <c r="AE233" t="inlineStr">
+        <is>
+          <t>-34.8599787648551,173.32132601034962</t>
+        </is>
+      </c>
+      <c r="AF233" t="inlineStr">
+        <is>
+          <t>-34.85987050606585,173.32220445766592</t>
+        </is>
+      </c>
+      <c r="AG233" t="inlineStr">
+        <is>
+          <t>-34.85966241213306,173.3230934393197</t>
+        </is>
+      </c>
+      <c r="AH233" t="inlineStr">
+        <is>
+          <t>-34.859615584484175,173.32399729829598</t>
+        </is>
+      </c>
+      <c r="AI233" t="inlineStr">
+        <is>
+          <t>-34.85945608529311,173.32480298736868</t>
+        </is>
+      </c>
+      <c r="AJ233" t="inlineStr">
+        <is>
+          <t>-34.859342911035725,173.32563323655734</t>
+        </is>
+      </c>
+      <c r="AK233" t="inlineStr">
+        <is>
+          <t>-34.859232434974125,173.3265668121951</t>
+        </is>
+      </c>
+      <c r="AL233" t="inlineStr">
+        <is>
+          <t>-34.85905275539569,173.3274907905827</t>
+        </is>
+      </c>
+      <c r="AM233" t="inlineStr">
+        <is>
+          <t>-34.85897456755049,173.32839993034887</t>
+        </is>
+      </c>
+      <c r="AN233" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:17:16+00:00</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>-34.86102341557653,173.29586672721587</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>-34.86118557175872,173.29662216631982</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>-34.86130588264316,173.29740720881952</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>-34.86135672596158,173.29823678927562</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>-34.861393959374276,173.2990392364957</t>
+        </is>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>-34.86138035733193,173.29995793133824</t>
+        </is>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>-34.86136186432888,173.30083775960486</t>
+        </is>
+      </c>
+      <c r="I234" t="inlineStr">
+        <is>
+          <t>-34.861318104541596,173.3016758236129</t>
+        </is>
+      </c>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t>-34.861263255032384,173.30255170936786</t>
+        </is>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>-34.86116396851085,173.30345060056894</t>
+        </is>
+      </c>
+      <c r="L234" t="inlineStr">
+        <is>
+          <t>-34.861094113326885,173.30436014801654</t>
+        </is>
+      </c>
+      <c r="M234" t="inlineStr">
+        <is>
+          <t>-34.86101923663032,173.30524836897501</t>
+        </is>
+      </c>
+      <c r="N234" t="inlineStr">
+        <is>
+          <t>-34.86099454355815,173.30613693146898</t>
+        </is>
+      </c>
+      <c r="O234" t="inlineStr">
+        <is>
+          <t>-34.86098719224508,173.30704208320626</t>
+        </is>
+      </c>
+      <c r="P234" t="inlineStr">
+        <is>
+          <t>-34.86096237454772,173.30796855499423</t>
+        </is>
+      </c>
+      <c r="Q234" t="inlineStr">
+        <is>
+          <t>-34.860922789712106,173.308865103193</t>
+        </is>
+      </c>
+      <c r="R234" t="inlineStr">
+        <is>
+          <t>-34.860887789300925,173.30972925268765</t>
+        </is>
+      </c>
+      <c r="S234" t="inlineStr">
+        <is>
+          <t>-34.860809966721725,173.31062714059766</t>
+        </is>
+      </c>
+      <c r="T234" t="inlineStr">
+        <is>
+          <t>-34.86076333280282,173.3115414184727</t>
+        </is>
+      </c>
+      <c r="U234" t="inlineStr">
+        <is>
+          <t>-34.860689841640806,173.31243297374226</t>
+        </is>
+      </c>
+      <c r="V234" t="inlineStr">
+        <is>
+          <t>-34.86060931437022,173.31331205206263</t>
+        </is>
+      </c>
+      <c r="W234" t="inlineStr">
+        <is>
+          <t>-34.86055805370509,173.3141819496522</t>
+        </is>
+      </c>
+      <c r="X234" t="inlineStr">
+        <is>
+          <t>-34.86048979984041,173.31506088561204</t>
+        </is>
+      </c>
+      <c r="Y234" t="inlineStr">
+        <is>
+          <t>-34.86041047511947,173.31596292368752</t>
+        </is>
+      </c>
+      <c r="Z234" t="inlineStr">
+        <is>
+          <t>-34.860250533638435,173.31682873502677</t>
+        </is>
+      </c>
+      <c r="AA234" t="inlineStr">
+        <is>
+          <t>-34.86020302877546,173.3177112874418</t>
+        </is>
+      </c>
+      <c r="AB234" t="inlineStr">
+        <is>
+          <t>-34.86014481993791,173.31861578489531</t>
+        </is>
+      </c>
+      <c r="AC234" t="inlineStr">
+        <is>
+          <t>-34.860028932909565,173.31952322682832</t>
+        </is>
+      </c>
+      <c r="AD234" t="inlineStr">
+        <is>
+          <t>-34.8599058495119,173.32042783101872</t>
+        </is>
+      </c>
+      <c r="AE234" t="inlineStr">
+        <is>
+          <t>-34.859840970926726,173.3213045771834</t>
+        </is>
+      </c>
+      <c r="AF234" t="inlineStr">
+        <is>
+          <t>-34.859719316311484,173.32217754204933</t>
+        </is>
+      </c>
+      <c r="AG234" t="inlineStr">
+        <is>
+          <t>-34.859588631240996,173.3230827550767</t>
+        </is>
+      </c>
+      <c r="AH234" t="inlineStr">
+        <is>
+          <t>-34.859468666696216,173.3239777618603</t>
+        </is>
+      </c>
+      <c r="AI234" t="inlineStr">
+        <is>
+          <t>-34.859286285498534,173.32475976197853</t>
+        </is>
+      </c>
+      <c r="AJ234" t="inlineStr">
+        <is>
+          <t>-34.85921732068609,173.3255875485031</t>
+        </is>
+      </c>
+      <c r="AK234" t="inlineStr">
+        <is>
+          <t>-34.8590786839044,173.32652466731537</t>
+        </is>
+      </c>
+      <c r="AL234" t="inlineStr">
+        <is>
+          <t>-34.85895993646589,173.32747613097015</t>
+        </is>
+      </c>
+      <c r="AM234" t="inlineStr">
+        <is>
+          <t>-34.858861181040446,173.3283858157275</t>
+        </is>
+      </c>
+      <c r="AN234" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:17:17+00:00</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>-34.86119244284284,173.29576639058686</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>-34.861386705648194,173.29654632821584</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>-34.86151006684503,173.29736221981005</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>-34.861578070400824,173.29821056043463</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>-34.861600256421035,173.29904311981926</t>
+        </is>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>-34.86159676768127,173.29995526154104</t>
+        </is>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>-34.86154743388221,173.30084030993447</t>
+        </is>
+      </c>
+      <c r="I235" t="inlineStr">
+        <is>
+          <t>-34.861501127485354,173.3016934329589</t>
+        </is>
+      </c>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>-34.8614379065171,173.30257349203944</t>
+        </is>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>-34.861336567129655,173.30347012944003</t>
+        </is>
+      </c>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>-34.86128710340387,173.30437785968098</t>
+        </is>
+      </c>
+      <c r="M235" t="inlineStr">
+        <is>
+          <t>-34.86124641918775,173.30527094124653</t>
+        </is>
+      </c>
+      <c r="N235" t="inlineStr">
+        <is>
+          <t>-34.86120788898267,173.30616120888521</t>
+        </is>
+      </c>
+      <c r="O235" t="inlineStr">
+        <is>
+          <t>-34.861191288973615,173.3070641221232</t>
+        </is>
+      </c>
+      <c r="P235" t="inlineStr">
+        <is>
+          <t>-34.86116790354415,173.30798148912973</t>
+        </is>
+      </c>
+      <c r="Q235" t="inlineStr">
+        <is>
+          <t>-34.86112291592365,173.3088776856614</t>
+        </is>
+      </c>
+      <c r="R235" t="inlineStr">
+        <is>
+          <t>-34.86117803460467,173.3097625194181</t>
+        </is>
+      </c>
+      <c r="S235" t="inlineStr">
+        <is>
+          <t>-34.86100635072642,173.31064813967234</t>
+        </is>
+      </c>
+      <c r="T235" t="inlineStr">
+        <is>
+          <t>-34.86091669890153,173.311553400746</t>
+        </is>
+      </c>
+      <c r="U235" t="inlineStr">
+        <is>
+          <t>-34.86081867558825,173.31244360157285</t>
+        </is>
+      </c>
+      <c r="V235" t="inlineStr">
+        <is>
+          <t>-34.86077457888311,173.31332925236484</t>
+        </is>
+      </c>
+      <c r="W235" t="inlineStr">
+        <is>
+          <t>-34.86067900751652,173.31419940333134</t>
+        </is>
+      </c>
+      <c r="X235" t="inlineStr">
+        <is>
+          <t>-34.86053318541646,173.31506821791947</t>
+        </is>
+      </c>
+      <c r="Y235" t="inlineStr">
+        <is>
+          <t>-34.86047351957364,173.31597265770827</t>
+        </is>
+      </c>
+      <c r="Z235" t="inlineStr">
+        <is>
+          <t>-34.860415760515075,173.31685784503466</t>
+        </is>
+      </c>
+      <c r="AA235" t="inlineStr">
+        <is>
+          <t>-34.860345090704335,173.31774021452804</t>
+        </is>
+      </c>
+      <c r="AB235" t="inlineStr">
+        <is>
+          <t>-34.86020843310315,173.31862808005354</t>
+        </is>
+      </c>
+      <c r="AC235" t="inlineStr">
+        <is>
+          <t>-34.8601234438592,173.31953793627986</t>
+        </is>
+      </c>
+      <c r="AD235" t="inlineStr">
+        <is>
+          <t>-34.86006728574439,173.32044795178325</t>
+        </is>
+      </c>
+      <c r="AE235" t="inlineStr">
+        <is>
+          <t>-34.8598883248128,173.32131194283852</t>
+        </is>
+      </c>
+      <c r="AF235" t="inlineStr">
+        <is>
+          <t>-34.859808039283585,173.32219333697955</t>
+        </is>
+      </c>
+      <c r="AG235" t="inlineStr">
+        <is>
+          <t>-34.859708256569874,173.32310007808252</t>
+        </is>
+      </c>
+      <c r="AH235" t="inlineStr">
+        <is>
+          <t>-34.859538704381656,173.3239870751329</t>
+        </is>
+      </c>
+      <c r="AI235" t="inlineStr">
+        <is>
+          <t>-34.859467087565974,173.32480578818848</t>
+        </is>
+      </c>
+      <c r="AJ235" t="inlineStr">
+        <is>
+          <t>-34.85932635568362,173.32562721393785</t>
+        </is>
+      </c>
+      <c r="AK235" t="inlineStr">
+        <is>
+          <t>-34.85920097523165,173.32655818871612</t>
+        </is>
+      </c>
+      <c r="AL235" t="inlineStr">
+        <is>
+          <t>-34.85913701971984,173.32750409912984</t>
+        </is>
+      </c>
+      <c r="AM235" t="inlineStr">
+        <is>
+          <t>-34.85901281157553,173.32840469106483</t>
+        </is>
+      </c>
+      <c r="AN235" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0028/nzd0028.xlsx
+++ b/data/nzd0028/nzd0028.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AN235"/>
+  <dimension ref="A1:AN237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27138,6 +27138,234 @@
         </is>
       </c>
     </row>
+    <row r="236">
+      <c r="A236" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-12 22:16:59+00:00</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr"/>
+      <c r="C236" t="inlineStr"/>
+      <c r="D236" t="inlineStr"/>
+      <c r="E236" t="inlineStr"/>
+      <c r="F236" t="inlineStr"/>
+      <c r="G236" t="inlineStr"/>
+      <c r="H236" t="inlineStr"/>
+      <c r="I236" t="inlineStr"/>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="inlineStr"/>
+      <c r="M236" t="inlineStr"/>
+      <c r="N236" t="n">
+        <v>413.0063636363636</v>
+      </c>
+      <c r="O236" t="n">
+        <v>403.2863636363636</v>
+      </c>
+      <c r="P236" t="n">
+        <v>402.0163636363636</v>
+      </c>
+      <c r="Q236" t="n">
+        <v>398.7663636363636</v>
+      </c>
+      <c r="R236" t="n">
+        <v>383.71</v>
+      </c>
+      <c r="S236" t="n">
+        <v>396.4395238095238</v>
+      </c>
+      <c r="T236" t="n">
+        <v>399.5663636363636</v>
+      </c>
+      <c r="U236" t="n">
+        <v>402.54</v>
+      </c>
+      <c r="V236" t="n">
+        <v>411.9271428571428</v>
+      </c>
+      <c r="W236" t="n">
+        <v>416.5769230769231</v>
+      </c>
+      <c r="X236" t="n">
+        <v>413.1469230769231</v>
+      </c>
+      <c r="Y236" t="n">
+        <v>416.1169230769231</v>
+      </c>
+      <c r="Z236" t="n">
+        <v>415.2</v>
+      </c>
+      <c r="AA236" t="n">
+        <v>409.2371428571428</v>
+      </c>
+      <c r="AB236" t="n">
+        <v>403.7333333333333</v>
+      </c>
+      <c r="AC236" t="n">
+        <v>404.5566666666667</v>
+      </c>
+      <c r="AD236" t="n">
+        <v>406.7766666666667</v>
+      </c>
+      <c r="AE236" t="n">
+        <v>404.5671428571428</v>
+      </c>
+      <c r="AF236" t="n">
+        <v>405.1171428571428</v>
+      </c>
+      <c r="AG236" t="n">
+        <v>411.26</v>
+      </c>
+      <c r="AH236" t="n">
+        <v>410.4233333333333</v>
+      </c>
+      <c r="AI236" t="n">
+        <v>421.1566666666667</v>
+      </c>
+      <c r="AJ236" t="n">
+        <v>411.9333333333333</v>
+      </c>
+      <c r="AK236" t="n">
+        <v>404.9533333333333</v>
+      </c>
+      <c r="AL236" t="n">
+        <v>405.1933333333333</v>
+      </c>
+      <c r="AM236" t="n">
+        <v>403.4933333333333</v>
+      </c>
+      <c r="AN236" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:17:06+00:00</t>
+        </is>
+      </c>
+      <c r="B237" t="n">
+        <v>398.6392307692308</v>
+      </c>
+      <c r="C237" t="n">
+        <v>414.1794117647058</v>
+      </c>
+      <c r="D237" t="n">
+        <v>409.12</v>
+      </c>
+      <c r="E237" t="n">
+        <v>418.7618181818182</v>
+      </c>
+      <c r="F237" t="n">
+        <v>414.8</v>
+      </c>
+      <c r="G237" t="n">
+        <v>414.05</v>
+      </c>
+      <c r="H237" t="n">
+        <v>420.53</v>
+      </c>
+      <c r="I237" t="n">
+        <v>421.22</v>
+      </c>
+      <c r="J237" t="n">
+        <v>423.24</v>
+      </c>
+      <c r="K237" t="n">
+        <v>422.23</v>
+      </c>
+      <c r="L237" t="n">
+        <v>423.9918181818182</v>
+      </c>
+      <c r="M237" t="n">
+        <v>423.4592307692308</v>
+      </c>
+      <c r="N237" t="n">
+        <v>418.2718181818182</v>
+      </c>
+      <c r="O237" t="n">
+        <v>412.7118181818182</v>
+      </c>
+      <c r="P237" t="n">
+        <v>409.9318181818182</v>
+      </c>
+      <c r="Q237" t="n">
+        <v>414.5618181818182</v>
+      </c>
+      <c r="R237" t="n">
+        <v>406.56</v>
+      </c>
+      <c r="S237" t="n">
+        <v>411.31</v>
+      </c>
+      <c r="T237" t="n">
+        <v>421.0518181818182</v>
+      </c>
+      <c r="U237" t="n">
+        <v>421.53</v>
+      </c>
+      <c r="V237" t="n">
+        <v>417.82</v>
+      </c>
+      <c r="W237" t="n">
+        <v>420.3892307692308</v>
+      </c>
+      <c r="X237" t="n">
+        <v>429.9692307692308</v>
+      </c>
+      <c r="Y237" t="n">
+        <v>424.2292307692308</v>
+      </c>
+      <c r="Z237" t="n">
+        <v>420.945</v>
+      </c>
+      <c r="AA237" t="n">
+        <v>417.6</v>
+      </c>
+      <c r="AB237" t="n">
+        <v>419.5</v>
+      </c>
+      <c r="AC237" t="n">
+        <v>412.24</v>
+      </c>
+      <c r="AD237" t="n">
+        <v>411.69</v>
+      </c>
+      <c r="AE237" t="n">
+        <v>422.04</v>
+      </c>
+      <c r="AF237" t="n">
+        <v>419.4</v>
+      </c>
+      <c r="AG237" t="n">
+        <v>419.26</v>
+      </c>
+      <c r="AH237" t="n">
+        <v>429.94</v>
+      </c>
+      <c r="AI237" t="n">
+        <v>430.92</v>
+      </c>
+      <c r="AJ237" t="n">
+        <v>420.37</v>
+      </c>
+      <c r="AK237" t="n">
+        <v>412.65</v>
+      </c>
+      <c r="AL237" t="n">
+        <v>408.11</v>
+      </c>
+      <c r="AM237" t="n">
+        <v>413.39</v>
+      </c>
+      <c r="AN237" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -27149,7 +27377,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B246"/>
+  <dimension ref="A1:B248"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29617,6 +29845,26 @@
       </c>
       <c r="B246" t="n">
         <v>-0.17</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>2025-05-12 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B247" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B248" t="n">
+        <v>-0.21</v>
       </c>
     </row>
   </sheetData>
@@ -29790,28 +30038,28 @@
         <v>0.07340000000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.00730618007565513</v>
+        <v>0.001682844957425198</v>
       </c>
       <c r="J2" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="K2" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L2" t="n">
-        <v>2.178552301845826e-05</v>
+        <v>1.165411069314892e-06</v>
       </c>
       <c r="M2" t="n">
-        <v>9.853577365499881</v>
+        <v>9.850923189280069</v>
       </c>
       <c r="N2" t="n">
-        <v>153.6520644163083</v>
+        <v>153.3196901191253</v>
       </c>
       <c r="O2" t="n">
-        <v>12.39564699466342</v>
+        <v>12.3822328406118</v>
       </c>
       <c r="P2" t="n">
-        <v>389.3414755665656</v>
+        <v>389.2648629033159</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -29868,28 +30116,28 @@
         <v>0.1107</v>
       </c>
       <c r="I3" t="n">
-        <v>0.08993427953346349</v>
+        <v>0.1013580283736923</v>
       </c>
       <c r="J3" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="K3" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L3" t="n">
-        <v>0.003423070560585995</v>
+        <v>0.004371085067866431</v>
       </c>
       <c r="M3" t="n">
-        <v>10.08730316866123</v>
+        <v>10.09778856980682</v>
       </c>
       <c r="N3" t="n">
-        <v>148.1235873893668</v>
+        <v>148.0998568051589</v>
       </c>
       <c r="O3" t="n">
-        <v>12.17060341106253</v>
+        <v>12.16962845797516</v>
       </c>
       <c r="P3" t="n">
-        <v>399.7985021843913</v>
+        <v>399.7014190113119</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -29946,28 +30194,28 @@
         <v>0.0684</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1018311276561955</v>
+        <v>0.1068150321181133</v>
       </c>
       <c r="J4" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="K4" t="n">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L4" t="n">
-        <v>0.004235904400543111</v>
+        <v>0.004705929928397246</v>
       </c>
       <c r="M4" t="n">
-        <v>9.721140637692617</v>
+        <v>9.698133878244503</v>
       </c>
       <c r="N4" t="n">
-        <v>152.8379028118143</v>
+        <v>152.2068842536456</v>
       </c>
       <c r="O4" t="n">
-        <v>12.36276274996064</v>
+        <v>12.33721541733164</v>
       </c>
       <c r="P4" t="n">
-        <v>401.1860098813093</v>
+        <v>401.1434452527316</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -30024,28 +30272,28 @@
         <v>0.061</v>
       </c>
       <c r="I5" t="n">
-        <v>0.118027256569684</v>
+        <v>0.1207890584210218</v>
       </c>
       <c r="J5" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="K5" t="n">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L5" t="n">
-        <v>0.005151568109344362</v>
+        <v>0.005452689804617772</v>
       </c>
       <c r="M5" t="n">
-        <v>10.37442856213381</v>
+        <v>10.33707461349632</v>
       </c>
       <c r="N5" t="n">
-        <v>170.1132436921387</v>
+        <v>169.2975323275097</v>
       </c>
       <c r="O5" t="n">
-        <v>13.04274678478957</v>
+        <v>13.01143851876147</v>
       </c>
       <c r="P5" t="n">
-        <v>412.780424770152</v>
+        <v>412.7570778651341</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -30102,28 +30350,28 @@
         <v>0.0566</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1215640268340581</v>
+        <v>0.1231941622570369</v>
       </c>
       <c r="J6" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="K6" t="n">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L6" t="n">
-        <v>0.005379624284324258</v>
+        <v>0.005585866356918379</v>
       </c>
       <c r="M6" t="n">
-        <v>10.12279892698108</v>
+        <v>10.08019946293334</v>
       </c>
       <c r="N6" t="n">
-        <v>172.8885504300467</v>
+        <v>172.0258665668649</v>
       </c>
       <c r="O6" t="n">
-        <v>13.14870907846267</v>
+        <v>13.11586316514719</v>
       </c>
       <c r="P6" t="n">
-        <v>409.9560871949204</v>
+        <v>409.94236919101</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -30174,28 +30422,28 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>0.08632342482461391</v>
+        <v>0.08732173262061081</v>
       </c>
       <c r="J7" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="K7" t="n">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L7" t="n">
-        <v>0.002969758003874667</v>
+        <v>0.003072052733065878</v>
       </c>
       <c r="M7" t="n">
-        <v>9.852369131109969</v>
+        <v>9.80803980626119</v>
       </c>
       <c r="N7" t="n">
-        <v>158.7620970468995</v>
+        <v>157.9619459951741</v>
       </c>
       <c r="O7" t="n">
-        <v>12.60008321587201</v>
+        <v>12.56829129178562</v>
       </c>
       <c r="P7" t="n">
-        <v>410.7651378781763</v>
+        <v>410.7566840047336</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -30252,28 +30500,28 @@
         <v>0.0584</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.000781011216654373</v>
+        <v>-0.001395193117460899</v>
       </c>
       <c r="J8" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="K8" t="n">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L8" t="n">
-        <v>2.74112844977914e-07</v>
+        <v>8.844437957566953e-07</v>
       </c>
       <c r="M8" t="n">
-        <v>9.445552400664992</v>
+        <v>9.40168249923758</v>
       </c>
       <c r="N8" t="n">
-        <v>140.6443826250576</v>
+        <v>139.9468204142938</v>
       </c>
       <c r="O8" t="n">
-        <v>11.85935844070233</v>
+        <v>11.82991210509587</v>
       </c>
       <c r="P8" t="n">
-        <v>421.2143904063793</v>
+        <v>421.2195675192706</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -30330,28 +30578,28 @@
         <v>0.0581</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.08764176872592855</v>
+        <v>-0.08838998354190575</v>
       </c>
       <c r="J9" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="K9" t="n">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L9" t="n">
-        <v>0.003604048308807228</v>
+        <v>0.003705271734162574</v>
       </c>
       <c r="M9" t="n">
-        <v>9.237283279378056</v>
+        <v>9.195061336075559</v>
       </c>
       <c r="N9" t="n">
-        <v>135.1367583672538</v>
+        <v>134.4643675251449</v>
       </c>
       <c r="O9" t="n">
-        <v>11.62483369202561</v>
+        <v>11.59587717790874</v>
       </c>
       <c r="P9" t="n">
-        <v>424.2839194148837</v>
+        <v>424.2902421226355</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -30408,28 +30656,28 @@
         <v>0.056</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.0871942802226929</v>
+        <v>-0.08581739491034157</v>
       </c>
       <c r="J10" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="K10" t="n">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L10" t="n">
-        <v>0.003576597199079101</v>
+        <v>0.00350221084977087</v>
       </c>
       <c r="M10" t="n">
-        <v>9.039489558180838</v>
+        <v>9.001298311898434</v>
       </c>
       <c r="N10" t="n">
-        <v>135.7696012718044</v>
+        <v>135.095125860801</v>
       </c>
       <c r="O10" t="n">
-        <v>11.65202133845473</v>
+        <v>11.62304288303201</v>
       </c>
       <c r="P10" t="n">
-        <v>423.9714419121409</v>
+        <v>423.9598493789292</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -30486,28 +30734,28 @@
         <v>0.07190000000000001</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.1142704759330504</v>
+        <v>-0.1112026738560015</v>
       </c>
       <c r="J11" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="K11" t="n">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L11" t="n">
-        <v>0.006015285125244851</v>
+        <v>0.005757858916716652</v>
       </c>
       <c r="M11" t="n">
-        <v>8.859375280137185</v>
+        <v>8.832262686073419</v>
       </c>
       <c r="N11" t="n">
-        <v>137.3647272239401</v>
+        <v>136.7262819775082</v>
       </c>
       <c r="O11" t="n">
-        <v>11.7202699296535</v>
+        <v>11.69300141013881</v>
       </c>
       <c r="P11" t="n">
-        <v>421.8224483894711</v>
+        <v>421.7964483344305</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -30564,28 +30812,28 @@
         <v>0.06660000000000001</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.1690829816251298</v>
+        <v>-0.1643382235044446</v>
       </c>
       <c r="J12" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="K12" t="n">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L12" t="n">
-        <v>0.01258797454654526</v>
+        <v>0.01201171824236613</v>
       </c>
       <c r="M12" t="n">
-        <v>9.123549289419081</v>
+        <v>9.10527945605515</v>
       </c>
       <c r="N12" t="n">
-        <v>143.2530537243362</v>
+        <v>142.6780199166262</v>
       </c>
       <c r="O12" t="n">
-        <v>11.96883677407024</v>
+        <v>11.94479049278916</v>
       </c>
       <c r="P12" t="n">
-        <v>423.0236820497051</v>
+        <v>422.9832917590582</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -30642,28 +30890,28 @@
         <v>0.07729999999999999</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.05887606823961457</v>
+        <v>-0.05588010737301852</v>
       </c>
       <c r="J13" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="K13" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L13" t="n">
-        <v>0.001765146928062955</v>
+        <v>0.00160690351337367</v>
       </c>
       <c r="M13" t="n">
-        <v>8.538554720958459</v>
+        <v>8.512798099609386</v>
       </c>
       <c r="N13" t="n">
-        <v>124.6796891940167</v>
+        <v>124.0964639451615</v>
       </c>
       <c r="O13" t="n">
-        <v>11.16600596426568</v>
+        <v>11.13985924260991</v>
       </c>
       <c r="P13" t="n">
-        <v>421.722422024739</v>
+        <v>421.6968769704461</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -30720,28 +30968,28 @@
         <v>0.06370000000000001</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.02015506546082995</v>
+        <v>-0.02503178657312449</v>
       </c>
       <c r="J14" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="K14" t="n">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0002289091313838476</v>
+        <v>0.0003603937480310959</v>
       </c>
       <c r="M14" t="n">
-        <v>8.356347591785003</v>
+        <v>8.294548215819928</v>
       </c>
       <c r="N14" t="n">
-        <v>112.7558707976212</v>
+        <v>111.7341518198926</v>
       </c>
       <c r="O14" t="n">
-        <v>10.61865673226238</v>
+        <v>10.57043763615739</v>
       </c>
       <c r="P14" t="n">
-        <v>418.7890994876805</v>
+        <v>418.83050218401</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -30792,28 +31040,28 @@
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="n">
-        <v>-0.08469861538690289</v>
+        <v>-0.09532489862640824</v>
       </c>
       <c r="J15" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="K15" t="n">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L15" t="n">
-        <v>0.004178503205214956</v>
+        <v>0.005377101556129027</v>
       </c>
       <c r="M15" t="n">
-        <v>8.053622724132874</v>
+        <v>8.023484583263475</v>
       </c>
       <c r="N15" t="n">
-        <v>107.871999217059</v>
+        <v>107.3250286738459</v>
       </c>
       <c r="O15" t="n">
-        <v>10.38614457905622</v>
+        <v>10.35977937380164</v>
       </c>
       <c r="P15" t="n">
-        <v>415.8975704149345</v>
+        <v>415.9875420410485</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -30870,28 +31118,28 @@
         <v>0.0613</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.07644498551376969</v>
+        <v>-0.08667097231813603</v>
       </c>
       <c r="J16" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="K16" t="n">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L16" t="n">
-        <v>0.003491936311555088</v>
+        <v>0.00456361550387363</v>
       </c>
       <c r="M16" t="n">
-        <v>8.153951911303523</v>
+        <v>8.125511583206448</v>
       </c>
       <c r="N16" t="n">
-        <v>105.7821078909939</v>
+        <v>105.1593984593142</v>
       </c>
       <c r="O16" t="n">
-        <v>10.28504292120329</v>
+        <v>10.25472566475155</v>
       </c>
       <c r="P16" t="n">
-        <v>413.4425611112137</v>
+        <v>413.5291561981522</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -30948,28 +31196,28 @@
         <v>0.0629</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.1009670043990423</v>
+        <v>-0.1148995236676043</v>
       </c>
       <c r="J17" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="K17" t="n">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="L17" t="n">
-        <v>0.00535418260470788</v>
+        <v>0.007003961174139484</v>
       </c>
       <c r="M17" t="n">
-        <v>8.470278742063938</v>
+        <v>8.465240739947777</v>
       </c>
       <c r="N17" t="n">
-        <v>120.0290938019993</v>
+        <v>120.0139421727956</v>
       </c>
       <c r="O17" t="n">
-        <v>10.95577901392682</v>
+        <v>10.95508750183199</v>
       </c>
       <c r="P17" t="n">
-        <v>416.8632214869976</v>
+        <v>416.9811918685239</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -31026,28 +31274,28 @@
         <v>0.0568</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.08674405003224557</v>
+        <v>-0.1176853016709739</v>
       </c>
       <c r="J18" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="K18" t="n">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L18" t="n">
-        <v>0.002704132524474767</v>
+        <v>0.004956468702863037</v>
       </c>
       <c r="M18" t="n">
-        <v>10.4765287827124</v>
+        <v>10.53303549560968</v>
       </c>
       <c r="N18" t="n">
-        <v>175.5063576595251</v>
+        <v>177.8699878618648</v>
       </c>
       <c r="O18" t="n">
-        <v>13.24788125171437</v>
+        <v>13.33679076321829</v>
       </c>
       <c r="P18" t="n">
-        <v>414.3609447208034</v>
+        <v>414.6240188234349</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -31098,28 +31346,28 @@
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="n">
-        <v>0.125728102275743</v>
+        <v>0.1122691132276738</v>
       </c>
       <c r="J19" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="K19" t="n">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="L19" t="n">
-        <v>0.003470617234144213</v>
+        <v>0.002820238090128324</v>
       </c>
       <c r="M19" t="n">
-        <v>12.91236550746556</v>
+        <v>12.85264905799333</v>
       </c>
       <c r="N19" t="n">
-        <v>289.1189820283704</v>
+        <v>287.1799161021314</v>
       </c>
       <c r="O19" t="n">
-        <v>17.00349911131148</v>
+        <v>16.94638357001668</v>
       </c>
       <c r="P19" t="n">
-        <v>407.8161967335677</v>
+        <v>407.9305790338847</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -31176,28 +31424,28 @@
         <v>0.0614</v>
       </c>
       <c r="I20" t="n">
-        <v>0.09804730887584247</v>
+        <v>0.09097595231463076</v>
       </c>
       <c r="J20" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="K20" t="n">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="L20" t="n">
-        <v>0.00313588898187156</v>
+        <v>0.002742843171757103</v>
       </c>
       <c r="M20" t="n">
-        <v>10.42612810274904</v>
+        <v>10.43027974625893</v>
       </c>
       <c r="N20" t="n">
-        <v>196.0053834516808</v>
+        <v>195.2866686870323</v>
       </c>
       <c r="O20" t="n">
-        <v>14.00019226481125</v>
+        <v>13.97450065966696</v>
       </c>
       <c r="P20" t="n">
-        <v>411.5223893493707</v>
+        <v>411.582007084521</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -31248,28 +31496,28 @@
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="n">
-        <v>-0.01608678952931837</v>
+        <v>-0.02227625507547077</v>
       </c>
       <c r="J21" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="K21" t="n">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="L21" t="n">
-        <v>0.000119543487452356</v>
+        <v>0.0002324841654598453</v>
       </c>
       <c r="M21" t="n">
-        <v>8.693274396689752</v>
+        <v>8.69863320897608</v>
       </c>
       <c r="N21" t="n">
-        <v>136.2158286236696</v>
+        <v>135.8620734721259</v>
       </c>
       <c r="O21" t="n">
-        <v>11.67115369720019</v>
+        <v>11.65598873850373</v>
       </c>
       <c r="P21" t="n">
-        <v>415.8223067643011</v>
+        <v>415.8750285772118</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -31326,28 +31574,28 @@
         <v>0.0772</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.01046683130720865</v>
+        <v>-0.01534248856086152</v>
       </c>
       <c r="J22" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="K22" t="n">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="L22" t="n">
-        <v>7.212319614668949e-05</v>
+        <v>0.0001580889194394697</v>
       </c>
       <c r="M22" t="n">
-        <v>7.176065475790978</v>
+        <v>7.131755090310183</v>
       </c>
       <c r="N22" t="n">
-        <v>96.72833417784737</v>
+        <v>95.91791672915021</v>
       </c>
       <c r="O22" t="n">
-        <v>9.835056389154429</v>
+        <v>9.793769280984222</v>
       </c>
       <c r="P22" t="n">
-        <v>417.8305359853786</v>
+        <v>417.8715195391079</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -31404,28 +31652,28 @@
         <v>0.07480000000000001</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.03831557331732272</v>
+        <v>-0.03923585055761967</v>
       </c>
       <c r="J23" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="K23" t="n">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0009715584841498703</v>
+        <v>0.001040318899157233</v>
       </c>
       <c r="M23" t="n">
-        <v>7.230280241288245</v>
+        <v>7.176405021486413</v>
       </c>
       <c r="N23" t="n">
-        <v>96.38771171321856</v>
+        <v>95.44380263560942</v>
       </c>
       <c r="O23" t="n">
-        <v>9.817724365310863</v>
+        <v>9.769534412427719</v>
       </c>
       <c r="P23" t="n">
-        <v>419.9720733039198</v>
+        <v>419.9798712854529</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -31476,28 +31724,28 @@
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="n">
-        <v>-0.05173629922623812</v>
+        <v>-0.04533580458263677</v>
       </c>
       <c r="J24" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="K24" t="n">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="L24" t="n">
-        <v>0.001735207660082172</v>
+        <v>0.001350002541664286</v>
       </c>
       <c r="M24" t="n">
-        <v>7.136187100716028</v>
+        <v>7.151943159653635</v>
       </c>
       <c r="N24" t="n">
-        <v>98.48379031095948</v>
+        <v>98.32310653416005</v>
       </c>
       <c r="O24" t="n">
-        <v>9.923899954703266</v>
+        <v>9.915800851880803</v>
       </c>
       <c r="P24" t="n">
-        <v>419.3668518413892</v>
+        <v>419.3124470366773</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -31554,28 +31802,28 @@
         <v>0.07580000000000001</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.04424128711808147</v>
+        <v>-0.0418325508594427</v>
       </c>
       <c r="J25" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="K25" t="n">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="L25" t="n">
-        <v>0.001233442223076864</v>
+        <v>0.001124509097296333</v>
       </c>
       <c r="M25" t="n">
-        <v>7.211523392616108</v>
+        <v>7.180957640157928</v>
       </c>
       <c r="N25" t="n">
-        <v>100.8759004432475</v>
+        <v>100.0404751466346</v>
       </c>
       <c r="O25" t="n">
-        <v>10.04369953967399</v>
+        <v>10.00202355259348</v>
       </c>
       <c r="P25" t="n">
-        <v>419.9769339210919</v>
+        <v>419.956388311907</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
@@ -31632,28 +31880,28 @@
         <v>0.09810000000000001</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.05074470022663875</v>
+        <v>-0.05374798264577157</v>
       </c>
       <c r="J26" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="K26" t="n">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="L26" t="n">
-        <v>0.00182527584233394</v>
+        <v>0.002088434796434835</v>
       </c>
       <c r="M26" t="n">
-        <v>6.759094614856311</v>
+        <v>6.72138866981608</v>
       </c>
       <c r="N26" t="n">
-        <v>90.50114680187133</v>
+        <v>89.69783613172144</v>
       </c>
       <c r="O26" t="n">
-        <v>9.513209069597458</v>
+        <v>9.470894156927393</v>
       </c>
       <c r="P26" t="n">
-        <v>421.0472460686505</v>
+        <v>421.0725578135138</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
@@ -31710,28 +31958,28 @@
         <v>0.07870000000000001</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.01321995065324564</v>
+        <v>-0.02131308119234071</v>
       </c>
       <c r="J27" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="K27" t="n">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="L27" t="n">
-        <v>0.0001169739353352739</v>
+        <v>0.0003092101083651544</v>
       </c>
       <c r="M27" t="n">
-        <v>6.65868147698675</v>
+        <v>6.629367612372664</v>
       </c>
       <c r="N27" t="n">
-        <v>95.72823468637914</v>
+        <v>95.13781850466053</v>
       </c>
       <c r="O27" t="n">
-        <v>9.78408067660826</v>
+        <v>9.753861722654291</v>
       </c>
       <c r="P27" t="n">
-        <v>418.2758089220176</v>
+        <v>418.3444291119584</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
@@ -31788,28 +32036,28 @@
         <v>0.06710000000000001</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.05553789232257388</v>
+        <v>-0.06089720606504509</v>
       </c>
       <c r="J28" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="K28" t="n">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="L28" t="n">
-        <v>0.002070746032878379</v>
+        <v>0.0025221587469475</v>
       </c>
       <c r="M28" t="n">
-        <v>6.748136380311941</v>
+        <v>6.757406700391171</v>
       </c>
       <c r="N28" t="n">
-        <v>94.46558828241214</v>
+        <v>94.22649652015676</v>
       </c>
       <c r="O28" t="n">
-        <v>9.719340938685717</v>
+        <v>9.707033353201005</v>
       </c>
       <c r="P28" t="n">
-        <v>416.0245303372234</v>
+        <v>416.0703061941289</v>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
@@ -31866,28 +32114,28 @@
         <v>0.08169999999999999</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.09216632071696236</v>
+        <v>-0.09860890826979844</v>
       </c>
       <c r="J29" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="K29" t="n">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L29" t="n">
-        <v>0.006102662762027866</v>
+        <v>0.007104462815081813</v>
       </c>
       <c r="M29" t="n">
-        <v>6.521745301533166</v>
+        <v>6.500019495885502</v>
       </c>
       <c r="N29" t="n">
-        <v>88.49805045057938</v>
+        <v>87.8683077305941</v>
       </c>
       <c r="O29" t="n">
-        <v>9.407340243160093</v>
+        <v>9.373809670064466</v>
       </c>
       <c r="P29" t="n">
-        <v>414.3262968557544</v>
+        <v>414.3813078141744</v>
       </c>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
@@ -31944,28 +32192,28 @@
         <v>0.08939999999999999</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.1131531163118973</v>
+        <v>-0.1211849556794804</v>
       </c>
       <c r="J30" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="K30" t="n">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="L30" t="n">
-        <v>0.008538178958055642</v>
+        <v>0.00996123555944084</v>
       </c>
       <c r="M30" t="n">
-        <v>6.499920392321503</v>
+        <v>6.483745560143133</v>
       </c>
       <c r="N30" t="n">
-        <v>94.33634273700383</v>
+        <v>93.6381867688786</v>
       </c>
       <c r="O30" t="n">
-        <v>9.712689778686634</v>
+        <v>9.676682632435488</v>
       </c>
       <c r="P30" t="n">
-        <v>416.5800669898517</v>
+        <v>416.6487181112665</v>
       </c>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
@@ -32022,28 +32270,28 @@
         <v>0.08309999999999999</v>
       </c>
       <c r="I31" t="n">
-        <v>-0.1169788389088812</v>
+        <v>-0.1263032859409769</v>
       </c>
       <c r="J31" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="K31" t="n">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L31" t="n">
-        <v>0.008320161794203251</v>
+        <v>0.009796502142843888</v>
       </c>
       <c r="M31" t="n">
-        <v>6.829789004644018</v>
+        <v>6.84473362316978</v>
       </c>
       <c r="N31" t="n">
-        <v>103.36577330154</v>
+        <v>103.3488911869453</v>
       </c>
       <c r="O31" t="n">
-        <v>10.16689595213505</v>
+        <v>10.16606566902582</v>
       </c>
       <c r="P31" t="n">
-        <v>421.4156771324026</v>
+        <v>421.4951148047241</v>
       </c>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
@@ -32100,28 +32348,28 @@
         <v>0.0762</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.08856060578121376</v>
+        <v>-0.1019039915704569</v>
       </c>
       <c r="J32" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="K32" t="n">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L32" t="n">
-        <v>0.004886539795500688</v>
+        <v>0.006535300623760509</v>
       </c>
       <c r="M32" t="n">
-        <v>6.999191587177203</v>
+        <v>7.00948750847073</v>
       </c>
       <c r="N32" t="n">
-        <v>99.83640431691647</v>
+        <v>99.85354086949417</v>
       </c>
       <c r="O32" t="n">
-        <v>9.991816867663081</v>
+        <v>9.992674360224802</v>
       </c>
       <c r="P32" t="n">
-        <v>421.7501396697151</v>
+        <v>421.8640552898202</v>
       </c>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr">
@@ -32178,28 +32426,28 @@
         <v>0.0531</v>
       </c>
       <c r="I33" t="n">
-        <v>0.04067700587524893</v>
+        <v>0.02661469461429369</v>
       </c>
       <c r="J33" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="K33" t="n">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L33" t="n">
-        <v>0.001212549613618608</v>
+        <v>0.0005266417717502136</v>
       </c>
       <c r="M33" t="n">
-        <v>7.183349947218183</v>
+        <v>7.189040710875477</v>
       </c>
       <c r="N33" t="n">
-        <v>85.3470571311676</v>
+        <v>85.20831358221479</v>
       </c>
       <c r="O33" t="n">
-        <v>9.238347099517727</v>
+        <v>9.230834934187415</v>
       </c>
       <c r="P33" t="n">
-        <v>421.7923018292022</v>
+        <v>421.9116513445676</v>
       </c>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr">
@@ -32256,28 +32504,28 @@
         <v>0.0672</v>
       </c>
       <c r="I34" t="n">
-        <v>-0.1337832197083481</v>
+        <v>-0.1459258653991826</v>
       </c>
       <c r="J34" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="K34" t="n">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L34" t="n">
-        <v>0.01029074866896384</v>
+        <v>0.01232531995786657</v>
       </c>
       <c r="M34" t="n">
-        <v>7.010939282391993</v>
+        <v>7.034775064339475</v>
       </c>
       <c r="N34" t="n">
-        <v>107.7825110947156</v>
+        <v>108.0851832750716</v>
       </c>
       <c r="O34" t="n">
-        <v>10.38183563223362</v>
+        <v>10.39640241983118</v>
       </c>
       <c r="P34" t="n">
-        <v>430.2430508453448</v>
+        <v>430.3471502514228</v>
       </c>
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr">
@@ -32334,28 +32582,28 @@
         <v>0.0863</v>
       </c>
       <c r="I35" t="n">
-        <v>-0.08019932527571542</v>
+        <v>-0.09089649343026959</v>
       </c>
       <c r="J35" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="K35" t="n">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L35" t="n">
-        <v>0.003570397268710002</v>
+        <v>0.004656396951684072</v>
       </c>
       <c r="M35" t="n">
-        <v>7.000120509934678</v>
+        <v>6.986359164747229</v>
       </c>
       <c r="N35" t="n">
-        <v>112.0549632190124</v>
+        <v>111.4742704317239</v>
       </c>
       <c r="O35" t="n">
-        <v>10.58560169376368</v>
+        <v>10.55813764030967</v>
       </c>
       <c r="P35" t="n">
-        <v>433.8563534550374</v>
+        <v>433.9496117900176</v>
       </c>
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr">
@@ -32412,28 +32660,28 @@
         <v>0.0696</v>
       </c>
       <c r="I36" t="n">
-        <v>-0.1689409628523036</v>
+        <v>-0.1816276677287441</v>
       </c>
       <c r="J36" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="K36" t="n">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L36" t="n">
-        <v>0.01428519750085233</v>
+        <v>0.01673774921670734</v>
       </c>
       <c r="M36" t="n">
-        <v>7.379893532493115</v>
+        <v>7.366831859095428</v>
       </c>
       <c r="N36" t="n">
-        <v>122.2062352605433</v>
+        <v>121.5843386657927</v>
       </c>
       <c r="O36" t="n">
-        <v>11.05469290665929</v>
+        <v>11.02652885843014</v>
       </c>
       <c r="P36" t="n">
-        <v>427.2721050651739</v>
+        <v>427.3835239664928</v>
       </c>
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr">
@@ -32484,28 +32732,28 @@
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="n">
-        <v>-0.0924456447787739</v>
+        <v>-0.1027798393412887</v>
       </c>
       <c r="J37" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="K37" t="n">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L37" t="n">
-        <v>0.003980363691510447</v>
+        <v>0.005002369173257026</v>
       </c>
       <c r="M37" t="n">
-        <v>7.991468970956295</v>
+        <v>7.95982404700786</v>
       </c>
       <c r="N37" t="n">
-        <v>134.6769421700616</v>
+        <v>133.7596604011257</v>
       </c>
       <c r="O37" t="n">
-        <v>11.60503951609221</v>
+        <v>11.56545115424062</v>
       </c>
       <c r="P37" t="n">
-        <v>416.8151487757997</v>
+        <v>416.904772455223</v>
       </c>
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr">
@@ -32556,28 +32804,28 @@
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="n">
-        <v>0.01984261407257612</v>
+        <v>0.00246909953150889</v>
       </c>
       <c r="J38" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="K38" t="n">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L38" t="n">
-        <v>0.0001936440317601429</v>
+        <v>3.0450229789869e-06</v>
       </c>
       <c r="M38" t="n">
-        <v>8.041231950005466</v>
+        <v>8.041225616177083</v>
       </c>
       <c r="N38" t="n">
-        <v>124.8586914374247</v>
+        <v>124.3963471468569</v>
       </c>
       <c r="O38" t="n">
-        <v>11.17401858945226</v>
+        <v>11.15331103963558</v>
       </c>
       <c r="P38" t="n">
-        <v>415.1809595374162</v>
+        <v>415.3342213930435</v>
       </c>
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr">
@@ -32634,28 +32882,28 @@
         <v>0.0653</v>
       </c>
       <c r="I39" t="n">
-        <v>-0.1163739683886376</v>
+        <v>-0.1384168003399604</v>
       </c>
       <c r="J39" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="K39" t="n">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="L39" t="n">
-        <v>0.00550127844177517</v>
+        <v>0.007854392915289221</v>
       </c>
       <c r="M39" t="n">
-        <v>8.169847449970629</v>
+        <v>8.168995268153191</v>
       </c>
       <c r="N39" t="n">
-        <v>151.9075732945628</v>
+        <v>151.9317892547128</v>
       </c>
       <c r="O39" t="n">
-        <v>12.32507903806555</v>
+        <v>12.32606138451017</v>
       </c>
       <c r="P39" t="n">
-        <v>423.0001095813806</v>
+        <v>423.1917981499164</v>
       </c>
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr">
@@ -32693,7 +32941,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AN235"/>
+  <dimension ref="A1:AN237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74203,6 +74451,362 @@
         </is>
       </c>
     </row>
+    <row r="236">
+      <c r="A236" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-12 22:16:59+00:00</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr"/>
+      <c r="C236" t="inlineStr"/>
+      <c r="D236" t="inlineStr"/>
+      <c r="E236" t="inlineStr"/>
+      <c r="F236" t="inlineStr"/>
+      <c r="G236" t="inlineStr"/>
+      <c r="H236" t="inlineStr"/>
+      <c r="I236" t="inlineStr"/>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="inlineStr"/>
+      <c r="M236" t="inlineStr"/>
+      <c r="N236" t="inlineStr">
+        <is>
+          <t>-34.86126025610427,173.3061671679663</t>
+        </is>
+      </c>
+      <c r="O236" t="inlineStr">
+        <is>
+          <t>-34.86127978668336,173.30707367838076</t>
+        </is>
+      </c>
+      <c r="P236" t="inlineStr">
+        <is>
+          <t>-34.86123024583711,173.3079854124032</t>
+        </is>
+      </c>
+      <c r="Q236" t="inlineStr">
+        <is>
+          <t>-34.861246225430634,173.3088854384913</t>
+        </is>
+      </c>
+      <c r="R236" t="inlineStr">
+        <is>
+          <t>-34.86132257370453,173.30977908599007</t>
+        </is>
+      </c>
+      <c r="S236" t="inlineStr">
+        <is>
+          <t>-34.861132579554464,173.3106616372045</t>
+        </is>
+      </c>
+      <c r="T236" t="inlineStr">
+        <is>
+          <t>-34.861053147030695,173.31156406128216</t>
+        </is>
+      </c>
+      <c r="U236" t="inlineStr">
+        <is>
+          <t>-34.860985565926455,173.3124573688212</t>
+        </is>
+      </c>
+      <c r="V236" t="inlineStr">
+        <is>
+          <t>-34.860845775079454,173.31333666230267</t>
+        </is>
+      </c>
+      <c r="W236" t="inlineStr">
+        <is>
+          <t>-34.860738802505324,173.3142080317897</t>
+        </is>
+      </c>
+      <c r="X236" t="inlineStr">
+        <is>
+          <t>-34.860666777260484,173.31509079543812</t>
+        </is>
+      </c>
+      <c r="Y236" t="inlineStr">
+        <is>
+          <t>-34.860543362532994,173.31598344143168</t>
+        </is>
+      </c>
+      <c r="Z236" t="inlineStr">
+        <is>
+          <t>-34.8604660469534,173.3168667046259</t>
+        </is>
+      </c>
+      <c r="AA236" t="inlineStr">
+        <is>
+          <t>-34.860398932452064,173.31775117797713</t>
+        </is>
+      </c>
+      <c r="AB236" t="inlineStr">
+        <is>
+          <t>-34.86032850554443,173.3186512877194</t>
+        </is>
+      </c>
+      <c r="AC236" t="inlineStr">
+        <is>
+          <t>-34.8602098155348,173.31955137898547</t>
+        </is>
+      </c>
+      <c r="AD236" t="inlineStr">
+        <is>
+          <t>-34.8601142604273,173.32045380653474</t>
+        </is>
+      </c>
+      <c r="AE236" t="inlineStr">
+        <is>
+          <t>-34.8600623305314,173.32133900861484</t>
+        </is>
+      </c>
+      <c r="AF236" t="inlineStr">
+        <is>
+          <t>-34.859947171579776,173.32221810611392</t>
+        </is>
+      </c>
+      <c r="AG236" t="inlineStr">
+        <is>
+          <t>-34.85979134960968,173.32311211085937</t>
+        </is>
+      </c>
+      <c r="AH236" t="inlineStr">
+        <is>
+          <t>-34.85972643764063,173.32401203907472</t>
+        </is>
+      </c>
+      <c r="AI236" t="inlineStr">
+        <is>
+          <t>-34.85955337009317,173.3248277529325</t>
+        </is>
+      </c>
+      <c r="AJ236" t="inlineStr">
+        <is>
+          <t>-34.8594316765089,173.3256655283135</t>
+        </is>
+      </c>
+      <c r="AK236" t="inlineStr">
+        <is>
+          <t>-34.859277880080654,173.32657926923616</t>
+        </is>
+      </c>
+      <c r="AL236" t="inlineStr">
+        <is>
+          <t>-34.85915618560571,173.32750712615734</t>
+        </is>
+      </c>
+      <c r="AM236" t="inlineStr">
+        <is>
+          <t>-34.859096625492775,173.32841512445594</t>
+        </is>
+      </c>
+      <c r="AN236" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:17:06+00:00</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>-34.86119240545846,173.29576641277873</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>-34.861360015786346,173.2965563917262</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>-34.86150151973738,173.29736410304497</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>-34.861565122130884,173.2982120947806</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>-34.861588715327706,173.29904290256977</t>
+        </is>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>-34.86158531596714,173.29995540281806</t>
+        </is>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>-34.86155482780987,173.3008404115514</t>
+        </is>
+      </c>
+      <c r="I237" t="inlineStr">
+        <is>
+          <t>-34.86150858863661,173.3016941508269</t>
+        </is>
+      </c>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>-34.86141987624099,173.30257124328466</t>
+        </is>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>-34.86135251910839,173.30347193434952</t>
+        </is>
+      </c>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>-34.86127799709099,173.30437702394718</t>
+        </is>
+      </c>
+      <c r="M237" t="inlineStr">
+        <is>
+          <t>-34.861232806624436,173.30526958873378</t>
+        </is>
+      </c>
+      <c r="N237" t="inlineStr">
+        <is>
+          <t>-34.86121298204439,173.30616178844636</t>
+        </is>
+      </c>
+      <c r="O237" t="inlineStr">
+        <is>
+          <t>-34.861195126759554,173.30706453653877</t>
+        </is>
+      </c>
+      <c r="P237" t="inlineStr">
+        <is>
+          <t>-34.86115896358559,173.3079809265282</t>
+        </is>
+      </c>
+      <c r="Q237" t="inlineStr">
+        <is>
+          <t>-34.861103979866435,173.30887649509822</t>
+        </is>
+      </c>
+      <c r="R237" t="inlineStr">
+        <is>
+          <t>-34.86111743591196,173.3097555738234</t>
+        </is>
+      </c>
+      <c r="S237" t="inlineStr">
+        <is>
+          <t>-34.86099900199275,173.31064735388034</t>
+        </is>
+      </c>
+      <c r="T237" t="inlineStr">
+        <is>
+          <t>-34.860859801200306,173.3115489554047</t>
+        </is>
+      </c>
+      <c r="U237" t="inlineStr">
+        <is>
+          <t>-34.860814717003315,173.3124432750189</t>
+        </is>
+      </c>
+      <c r="V237" t="inlineStr">
+        <is>
+          <t>-34.86079283036894,173.3133311519366</t>
+        </is>
+      </c>
+      <c r="W237" t="inlineStr">
+        <is>
+          <t>-34.860704665428585,173.31420310578426</t>
+        </is>
+      </c>
+      <c r="X237" t="inlineStr">
+        <is>
+          <t>-34.860516531950786,173.31506540342713</t>
+        </is>
+      </c>
+      <c r="Y237" t="inlineStr">
+        <is>
+          <t>-34.860470794666014,173.3159722369841</t>
+        </is>
+      </c>
+      <c r="Z237" t="inlineStr">
+        <is>
+          <t>-34.860414778880966,173.31685767208802</t>
+        </is>
+      </c>
+      <c r="AA237" t="inlineStr">
+        <is>
+          <t>-34.86032456020268,173.31773603403784</t>
+        </is>
+      </c>
+      <c r="AB237" t="inlineStr">
+        <is>
+          <t>-34.86018809945046,173.3186241499612</t>
+        </is>
+      </c>
+      <c r="AC237" t="inlineStr">
+        <is>
+          <t>-34.86014109385321,173.31954068328534</t>
+        </is>
+      </c>
+      <c r="AD237" t="inlineStr">
+        <is>
+          <t>-34.860070186154495,173.32044831327946</t>
+        </is>
+      </c>
+      <c r="AE237" t="inlineStr">
+        <is>
+          <t>-34.85990604738138,173.32131469949582</t>
+        </is>
+      </c>
+      <c r="AF237" t="inlineStr">
+        <is>
+          <t>-34.85981973985627,173.3221954199797</t>
+        </is>
+      </c>
+      <c r="AG237" t="inlineStr">
+        <is>
+          <t>-34.859719717678956,173.3231017377744</t>
+        </is>
+      </c>
+      <c r="AH237" t="inlineStr">
+        <is>
+          <t>-34.85955149283258,173.32398877568102</t>
+        </is>
+      </c>
+      <c r="AI237" t="inlineStr">
+        <is>
+          <t>-34.859467205237344,173.32480581814377</t>
+        </is>
+      </c>
+      <c r="AJ237" t="inlineStr">
+        <is>
+          <t>-34.859358804173425,173.32563901827433</t>
+        </is>
+      </c>
+      <c r="AK237" t="inlineStr">
+        <is>
+          <t>-34.85921018153102,173.32656071226845</t>
+        </is>
+      </c>
+      <c r="AL237" t="inlineStr">
+        <is>
+          <t>-34.859130104501276,173.3275030069523</t>
+        </is>
+      </c>
+      <c r="AM237" t="inlineStr">
+        <is>
+          <t>-34.8590078479257,173.3284040731765</t>
+        </is>
+      </c>
+      <c r="AN237" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0028/nzd0028.xlsx
+++ b/data/nzd0028/nzd0028.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -34767,7 +34767,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>-34.86133564366296,173.2956813844892</t>
+          <t>-34.861335643662954,173.2956813844892</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -38226,7 +38226,7 @@
       </c>
       <c r="AG28" t="inlineStr">
         <is>
-          <t>-34.859713270805095,173.32310080419765</t>
+          <t>-34.8597132708051,173.32310080419765</t>
         </is>
       </c>
       <c r="AH28" t="inlineStr">
@@ -39438,7 +39438,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>-34.86146427119579,173.30168988686603</t>
+          <t>-34.861464271195786,173.30168988686603</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -40193,7 +40193,7 @@
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>-34.861042473083195,173.30974698188012</t>
+          <t>-34.8610424730832,173.30974698188012</t>
         </is>
       </c>
       <c r="S41" t="inlineStr">
@@ -43307,7 +43307,7 @@
       </c>
       <c r="AH58" t="inlineStr">
         <is>
-          <t>-34.85958182058397,173.32399280852508</t>
+          <t>-34.85958182058396,173.32399280852508</t>
         </is>
       </c>
       <c r="AI58" t="inlineStr">
@@ -46006,7 +46006,7 @@
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>-34.861082276672356,173.30887513055808</t>
+          <t>-34.86108227667236,173.30887513055808</t>
         </is>
       </c>
       <c r="R74" t="inlineStr">
@@ -50368,7 +50368,7 @@
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>-34.86115833199934,173.30887991237128</t>
+          <t>-34.86115833199935,173.30887991237128</t>
         </is>
       </c>
       <c r="R103" t="inlineStr">
@@ -53990,7 +53990,7 @@
       </c>
       <c r="Y124" t="inlineStr">
         <is>
-          <t>-34.86050936999931,173.3159781929965</t>
+          <t>-34.86050936999932,173.3159781929965</t>
         </is>
       </c>
       <c r="Z124" t="inlineStr">
@@ -57686,7 +57686,7 @@
       </c>
       <c r="AA145" t="inlineStr">
         <is>
-          <t>-34.860383153440736,173.3177479649969</t>
+          <t>-34.86038315344073,173.3177479649969</t>
         </is>
       </c>
       <c r="AB145" t="inlineStr">
@@ -64681,7 +64681,7 @@
       </c>
       <c r="AB184" t="inlineStr">
         <is>
-          <t>-34.86018934618537,173.3186243909303</t>
+          <t>-34.86018934618538,173.3186243909303</t>
         </is>
       </c>
       <c r="AC184" t="inlineStr">
@@ -64863,7 +64863,7 @@
       </c>
       <c r="X185" t="inlineStr">
         <is>
-          <t>-34.86065368945094,173.31508858354627</t>
+          <t>-34.860653689450935,173.31508858354627</t>
         </is>
       </c>
       <c r="Y185" t="inlineStr">
@@ -67473,7 +67473,7 @@
       </c>
       <c r="P200" t="inlineStr">
         <is>
-          <t>-34.86121041746773,173.30798416458</t>
+          <t>-34.861210417467724,173.30798416458</t>
         </is>
       </c>
       <c r="Q200" t="inlineStr">
@@ -70056,7 +70056,7 @@
       </c>
       <c r="AK213" t="inlineStr">
         <is>
-          <t>-34.859182386716135,173.32655309339242</t>
+          <t>-34.85918238671614,173.32655309339242</t>
         </is>
       </c>
       <c r="AL213" t="inlineStr">

--- a/data/nzd0028/nzd0028.xlsx
+++ b/data/nzd0028/nzd0028.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AN237"/>
+  <dimension ref="A1:AN239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27366,6 +27366,258 @@
         </is>
       </c>
     </row>
+    <row r="238">
+      <c r="A238" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:17:12+00:00</t>
+        </is>
+      </c>
+      <c r="B238" t="n">
+        <v>395.8492307692308</v>
+      </c>
+      <c r="C238" t="n">
+        <v>402.9058823529412</v>
+      </c>
+      <c r="D238" t="n">
+        <v>405.54</v>
+      </c>
+      <c r="E238" t="n">
+        <v>419.0836363636364</v>
+      </c>
+      <c r="F238" t="n">
+        <v>412.32</v>
+      </c>
+      <c r="G238" t="n">
+        <v>409.67</v>
+      </c>
+      <c r="H238" t="n">
+        <v>420.53</v>
+      </c>
+      <c r="I238" t="n">
+        <v>424.54</v>
+      </c>
+      <c r="J238" t="n">
+        <v>422.99</v>
+      </c>
+      <c r="K238" t="n">
+        <v>415.09</v>
+      </c>
+      <c r="L238" t="n">
+        <v>415.6836363636364</v>
+      </c>
+      <c r="M238" t="n">
+        <v>411.4492307692308</v>
+      </c>
+      <c r="N238" t="n">
+        <v>410.9536363636364</v>
+      </c>
+      <c r="O238" t="n">
+        <v>405.6636363636364</v>
+      </c>
+      <c r="P238" t="n">
+        <v>403.9036363636364</v>
+      </c>
+      <c r="Q238" t="n">
+        <v>401.4436363636364</v>
+      </c>
+      <c r="R238" t="n">
+        <v>386.66</v>
+      </c>
+      <c r="S238" t="n">
+        <v>400.1771428571428</v>
+      </c>
+      <c r="T238" t="n">
+        <v>405.4136363636364</v>
+      </c>
+      <c r="U238" t="n">
+        <v>407.28</v>
+      </c>
+      <c r="V238" t="n">
+        <v>415.0128571428572</v>
+      </c>
+      <c r="W238" t="n">
+        <v>420.4692307692308</v>
+      </c>
+      <c r="X238" t="n">
+        <v>414.4792307692308</v>
+      </c>
+      <c r="Y238" t="n">
+        <v>416.3792307692308</v>
+      </c>
+      <c r="Z238" t="n">
+        <v>420.745</v>
+      </c>
+      <c r="AA238" t="n">
+        <v>415.7728571428572</v>
+      </c>
+      <c r="AB238" t="n">
+        <v>409.02</v>
+      </c>
+      <c r="AC238" t="n">
+        <v>405.8200000000001</v>
+      </c>
+      <c r="AD238" t="n">
+        <v>410.34</v>
+      </c>
+      <c r="AE238" t="n">
+        <v>411.3228571428572</v>
+      </c>
+      <c r="AF238" t="n">
+        <v>409.3028571428572</v>
+      </c>
+      <c r="AG238" t="n">
+        <v>416.24</v>
+      </c>
+      <c r="AH238" t="n">
+        <v>418.16</v>
+      </c>
+      <c r="AI238" t="n">
+        <v>423.0100000000001</v>
+      </c>
+      <c r="AJ238" t="n">
+        <v>418.95</v>
+      </c>
+      <c r="AK238" t="n">
+        <v>407.36</v>
+      </c>
+      <c r="AL238" t="n">
+        <v>408.52</v>
+      </c>
+      <c r="AM238" t="n">
+        <v>408.8</v>
+      </c>
+      <c r="AN238" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-21 22:17:14+00:00</t>
+        </is>
+      </c>
+      <c r="B239" t="n">
+        <v>390.0784615384616</v>
+      </c>
+      <c r="C239" t="n">
+        <v>403.8511764705883</v>
+      </c>
+      <c r="D239" t="n">
+        <v>394.3933333333333</v>
+      </c>
+      <c r="E239" t="n">
+        <v>405.9890909090909</v>
+      </c>
+      <c r="F239" t="n">
+        <v>402.97</v>
+      </c>
+      <c r="G239" t="n">
+        <v>400.71</v>
+      </c>
+      <c r="H239" t="n">
+        <v>407.32</v>
+      </c>
+      <c r="I239" t="n">
+        <v>405.31</v>
+      </c>
+      <c r="J239" t="n">
+        <v>407.96</v>
+      </c>
+      <c r="K239" t="n">
+        <v>420.1033333333333</v>
+      </c>
+      <c r="L239" t="n">
+        <v>413.699090909091</v>
+      </c>
+      <c r="M239" t="n">
+        <v>410.9384615384615</v>
+      </c>
+      <c r="N239" t="n">
+        <v>408.079090909091</v>
+      </c>
+      <c r="O239" t="n">
+        <v>402.9390909090909</v>
+      </c>
+      <c r="P239" t="n">
+        <v>403.6890909090909</v>
+      </c>
+      <c r="Q239" t="n">
+        <v>415.5490909090909</v>
+      </c>
+      <c r="R239" t="n">
+        <v>375.39</v>
+      </c>
+      <c r="S239" t="n">
+        <v>405.2752380952381</v>
+      </c>
+      <c r="T239" t="n">
+        <v>406.7890909090909</v>
+      </c>
+      <c r="U239" t="n">
+        <v>406.29</v>
+      </c>
+      <c r="V239" t="n">
+        <v>407.1614285714285</v>
+      </c>
+      <c r="W239" t="n">
+        <v>411.5284615384616</v>
+      </c>
+      <c r="X239" t="n">
+        <v>414.3384615384616</v>
+      </c>
+      <c r="Y239" t="n">
+        <v>412.7584615384616</v>
+      </c>
+      <c r="Z239" t="n">
+        <v>415.23</v>
+      </c>
+      <c r="AA239" t="n">
+        <v>407.8714285714286</v>
+      </c>
+      <c r="AB239" t="n">
+        <v>408.5933333333333</v>
+      </c>
+      <c r="AC239" t="n">
+        <v>406.3766666666667</v>
+      </c>
+      <c r="AD239" t="n">
+        <v>407.5266666666666</v>
+      </c>
+      <c r="AE239" t="n">
+        <v>415.9014285714285</v>
+      </c>
+      <c r="AF239" t="n">
+        <v>411.3914285714285</v>
+      </c>
+      <c r="AG239" t="n">
+        <v>411.22</v>
+      </c>
+      <c r="AH239" t="n">
+        <v>421.2733333333333</v>
+      </c>
+      <c r="AI239" t="n">
+        <v>423.7066666666666</v>
+      </c>
+      <c r="AJ239" t="n">
+        <v>416.7533333333333</v>
+      </c>
+      <c r="AK239" t="n">
+        <v>403.0133333333333</v>
+      </c>
+      <c r="AL239" t="n">
+        <v>400.6633333333333</v>
+      </c>
+      <c r="AM239" t="n">
+        <v>404.6933333333333</v>
+      </c>
+      <c r="AN239" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -27377,7 +27629,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B248"/>
+  <dimension ref="A1:B250"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29865,6 +30117,26 @@
       </c>
       <c r="B248" t="n">
         <v>-0.21</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B249" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>2025-06-21 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B250" t="n">
+        <v>-0.9399999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -30038,28 +30310,28 @@
         <v>0.07340000000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>0.001682844957425198</v>
+        <v>0.008431412165298822</v>
       </c>
       <c r="J2" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="K2" t="n">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="L2" t="n">
-        <v>1.165411069314892e-06</v>
+        <v>2.986303637342314e-05</v>
       </c>
       <c r="M2" t="n">
-        <v>9.850923189280069</v>
+        <v>9.78660575865943</v>
       </c>
       <c r="N2" t="n">
-        <v>153.3196901191253</v>
+        <v>151.9858249218482</v>
       </c>
       <c r="O2" t="n">
-        <v>12.3822328406118</v>
+        <v>12.32825311720392</v>
       </c>
       <c r="P2" t="n">
-        <v>389.2648629033159</v>
+        <v>389.2071366985505</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -30116,28 +30388,28 @@
         <v>0.1107</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1013580283736923</v>
+        <v>0.1033354547603721</v>
       </c>
       <c r="J3" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="K3" t="n">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="L3" t="n">
-        <v>0.004371085067866431</v>
+        <v>0.004642763741904421</v>
       </c>
       <c r="M3" t="n">
-        <v>10.09778856980682</v>
+        <v>10.00653660704078</v>
       </c>
       <c r="N3" t="n">
-        <v>148.0998568051589</v>
+        <v>146.6173829119107</v>
       </c>
       <c r="O3" t="n">
-        <v>12.16962845797516</v>
+        <v>12.10856650937305</v>
       </c>
       <c r="P3" t="n">
-        <v>399.7014190113119</v>
+        <v>399.684540439557</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -30194,28 +30466,28 @@
         <v>0.0684</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1068150321181133</v>
+        <v>0.09964562018047009</v>
       </c>
       <c r="J4" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="K4" t="n">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="L4" t="n">
-        <v>0.004705929928397246</v>
+        <v>0.004174803064562083</v>
       </c>
       <c r="M4" t="n">
-        <v>9.698133878244503</v>
+        <v>9.658148872917433</v>
       </c>
       <c r="N4" t="n">
-        <v>152.2068842536456</v>
+        <v>151.1445873060877</v>
       </c>
       <c r="O4" t="n">
-        <v>12.33721541733164</v>
+        <v>12.29408749383571</v>
       </c>
       <c r="P4" t="n">
-        <v>401.1434452527316</v>
+        <v>401.2049794492088</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -30272,28 +30544,28 @@
         <v>0.061</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1207890584210218</v>
+        <v>0.1147213761750847</v>
       </c>
       <c r="J5" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="K5" t="n">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="L5" t="n">
-        <v>0.005452689804617772</v>
+        <v>0.005013249674200138</v>
       </c>
       <c r="M5" t="n">
-        <v>10.33707461349632</v>
+        <v>10.29895786675741</v>
       </c>
       <c r="N5" t="n">
-        <v>169.2975323275097</v>
+        <v>168.140501766633</v>
       </c>
       <c r="O5" t="n">
-        <v>13.01143851876147</v>
+        <v>12.96690023739803</v>
       </c>
       <c r="P5" t="n">
-        <v>412.7570778651341</v>
+        <v>412.8086445971124</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -30350,28 +30622,28 @@
         <v>0.0566</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1231941622570369</v>
+        <v>0.1131435688935288</v>
       </c>
       <c r="J6" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="K6" t="n">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L6" t="n">
-        <v>0.005585866356918379</v>
+        <v>0.004806392639894241</v>
       </c>
       <c r="M6" t="n">
-        <v>10.08019946293334</v>
+        <v>10.03316116004111</v>
       </c>
       <c r="N6" t="n">
-        <v>172.0258665668649</v>
+        <v>170.8072535306681</v>
       </c>
       <c r="O6" t="n">
-        <v>13.11586316514719</v>
+        <v>13.06932490722716</v>
       </c>
       <c r="P6" t="n">
-        <v>409.94236919101</v>
+        <v>410.0273395516872</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -30422,28 +30694,28 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>0.08732173262061081</v>
+        <v>0.0731370542126773</v>
       </c>
       <c r="J7" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="K7" t="n">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L7" t="n">
-        <v>0.003072052733065878</v>
+        <v>0.002192923124613722</v>
       </c>
       <c r="M7" t="n">
-        <v>9.80803980626119</v>
+        <v>9.782537617250256</v>
       </c>
       <c r="N7" t="n">
-        <v>157.9619459951741</v>
+        <v>157.1702318898648</v>
       </c>
       <c r="O7" t="n">
-        <v>12.56829129178562</v>
+        <v>12.53675523769467</v>
       </c>
       <c r="P7" t="n">
-        <v>410.7566840047336</v>
+        <v>410.8773485195734</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -30500,28 +30772,28 @@
         <v>0.0584</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.001395193117460899</v>
+        <v>-0.01449410107771794</v>
       </c>
       <c r="J8" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="K8" t="n">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L8" t="n">
-        <v>8.844437957566953e-07</v>
+        <v>9.688179897027194e-05</v>
       </c>
       <c r="M8" t="n">
-        <v>9.40168249923758</v>
+        <v>9.374525279748623</v>
       </c>
       <c r="N8" t="n">
-        <v>139.9468204142938</v>
+        <v>139.5007930302728</v>
       </c>
       <c r="O8" t="n">
-        <v>11.82991210509587</v>
+        <v>11.81104538261846</v>
       </c>
       <c r="P8" t="n">
-        <v>421.2195675192706</v>
+        <v>421.3304968740673</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -30578,28 +30850,28 @@
         <v>0.0581</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.08838998354190575</v>
+        <v>-0.1010663071958048</v>
       </c>
       <c r="J9" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="K9" t="n">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L9" t="n">
-        <v>0.003705271734162574</v>
+        <v>0.004891097160503288</v>
       </c>
       <c r="M9" t="n">
-        <v>9.195061336075559</v>
+        <v>9.197125063431306</v>
       </c>
       <c r="N9" t="n">
-        <v>134.4643675251449</v>
+        <v>134.5310227442708</v>
       </c>
       <c r="O9" t="n">
-        <v>11.59587717790874</v>
+        <v>11.59875091310572</v>
       </c>
       <c r="P9" t="n">
-        <v>424.2902421226355</v>
+        <v>424.3979020284295</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -30656,28 +30928,28 @@
         <v>0.056</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.08581739491034157</v>
+        <v>-0.09705272831082837</v>
       </c>
       <c r="J10" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="K10" t="n">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="L10" t="n">
-        <v>0.00350221084977087</v>
+        <v>0.004538640275152384</v>
       </c>
       <c r="M10" t="n">
-        <v>9.001298311898434</v>
+        <v>8.987475262408021</v>
       </c>
       <c r="N10" t="n">
-        <v>135.095125860801</v>
+        <v>134.6908826633204</v>
       </c>
       <c r="O10" t="n">
-        <v>11.62304288303201</v>
+        <v>11.60564012294541</v>
       </c>
       <c r="P10" t="n">
-        <v>423.9598493789292</v>
+        <v>424.0549180686458</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -30734,28 +31006,28 @@
         <v>0.07190000000000001</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.1112026738560015</v>
+        <v>-0.1136055152848017</v>
       </c>
       <c r="J11" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="K11" t="n">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="L11" t="n">
-        <v>0.005757858916716652</v>
+        <v>0.006132685831354623</v>
       </c>
       <c r="M11" t="n">
-        <v>8.832262686073419</v>
+        <v>8.768416364011825</v>
       </c>
       <c r="N11" t="n">
-        <v>136.7262819775082</v>
+        <v>135.4393576088136</v>
       </c>
       <c r="O11" t="n">
-        <v>11.69300141013881</v>
+        <v>11.63784162157286</v>
       </c>
       <c r="P11" t="n">
-        <v>421.7964483344305</v>
+        <v>421.8168753122716</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -30812,28 +31084,28 @@
         <v>0.06660000000000001</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.1643382235044446</v>
+        <v>-0.1714504366589395</v>
       </c>
       <c r="J12" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="K12" t="n">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L12" t="n">
-        <v>0.01201171824236613</v>
+        <v>0.01331185914209587</v>
       </c>
       <c r="M12" t="n">
-        <v>9.10527945605515</v>
+        <v>9.053356862638998</v>
       </c>
       <c r="N12" t="n">
-        <v>142.6780199166262</v>
+        <v>141.4401373404802</v>
       </c>
       <c r="O12" t="n">
-        <v>11.94479049278916</v>
+        <v>11.89286077192869</v>
       </c>
       <c r="P12" t="n">
-        <v>422.9832917590582</v>
+        <v>423.0441051003044</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -30890,28 +31162,28 @@
         <v>0.07729999999999999</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.05588010737301852</v>
+        <v>-0.07221009660600536</v>
       </c>
       <c r="J13" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="K13" t="n">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="L13" t="n">
-        <v>0.00160690351337367</v>
+        <v>0.002719928837258578</v>
       </c>
       <c r="M13" t="n">
-        <v>8.512798099609386</v>
+        <v>8.508879000320851</v>
       </c>
       <c r="N13" t="n">
-        <v>124.0964639451615</v>
+        <v>123.6483485540203</v>
       </c>
       <c r="O13" t="n">
-        <v>11.13985924260991</v>
+        <v>11.11972789927974</v>
       </c>
       <c r="P13" t="n">
-        <v>421.6968769704461</v>
+        <v>421.836710989069</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -30968,28 +31240,28 @@
         <v>0.06370000000000001</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.02503178657312449</v>
+        <v>-0.04072346426448864</v>
       </c>
       <c r="J14" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="K14" t="n">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0003603937480310959</v>
+        <v>0.0009671125924701762</v>
       </c>
       <c r="M14" t="n">
-        <v>8.294548215819928</v>
+        <v>8.286957105183665</v>
       </c>
       <c r="N14" t="n">
-        <v>111.7341518198926</v>
+        <v>111.3584067294377</v>
       </c>
       <c r="O14" t="n">
-        <v>10.57043763615739</v>
+        <v>10.5526492753923</v>
       </c>
       <c r="P14" t="n">
-        <v>418.83050218401</v>
+        <v>418.9644757212055</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -31040,28 +31312,28 @@
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="n">
-        <v>-0.09532489862640824</v>
+        <v>-0.1120625934608141</v>
       </c>
       <c r="J15" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="K15" t="n">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L15" t="n">
-        <v>0.005377101556129027</v>
+        <v>0.007516584315505725</v>
       </c>
       <c r="M15" t="n">
-        <v>8.023484583263475</v>
+        <v>8.022605789352058</v>
       </c>
       <c r="N15" t="n">
-        <v>107.3250286738459</v>
+        <v>107.0956296105634</v>
       </c>
       <c r="O15" t="n">
-        <v>10.35977937380164</v>
+        <v>10.34870183214124</v>
       </c>
       <c r="P15" t="n">
-        <v>415.9875420410485</v>
+        <v>416.1300237323359</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -31118,28 +31390,28 @@
         <v>0.0613</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.08667097231813603</v>
+        <v>-0.1002759961530571</v>
       </c>
       <c r="J16" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="K16" t="n">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L16" t="n">
-        <v>0.00456361550387363</v>
+        <v>0.00619801749720772</v>
       </c>
       <c r="M16" t="n">
-        <v>8.125511583206448</v>
+        <v>8.117672424554224</v>
       </c>
       <c r="N16" t="n">
-        <v>105.1593984593142</v>
+        <v>104.6459277440633</v>
       </c>
       <c r="O16" t="n">
-        <v>10.25472566475155</v>
+        <v>10.22965921935151</v>
       </c>
       <c r="P16" t="n">
-        <v>413.5291561981522</v>
+        <v>413.6449796376321</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -31196,28 +31468,28 @@
         <v>0.0629</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.1148995236676043</v>
+        <v>-0.124783434482396</v>
       </c>
       <c r="J17" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="K17" t="n">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="L17" t="n">
-        <v>0.007003961174139484</v>
+        <v>0.008370081937628782</v>
       </c>
       <c r="M17" t="n">
-        <v>8.465240739947777</v>
+        <v>8.452913529280018</v>
       </c>
       <c r="N17" t="n">
-        <v>120.0139421727956</v>
+        <v>119.6079788826803</v>
       </c>
       <c r="O17" t="n">
-        <v>10.95508750183199</v>
+        <v>10.93654327850808</v>
       </c>
       <c r="P17" t="n">
-        <v>416.9811918685239</v>
+        <v>417.0652758198928</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -31274,28 +31546,28 @@
         <v>0.0568</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.1176853016709739</v>
+        <v>-0.1720737249630781</v>
       </c>
       <c r="J18" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="K18" t="n">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="L18" t="n">
-        <v>0.004956468702863037</v>
+        <v>0.01022208623743803</v>
       </c>
       <c r="M18" t="n">
-        <v>10.53303549560968</v>
+        <v>10.70984584312383</v>
       </c>
       <c r="N18" t="n">
-        <v>177.8699878618648</v>
+        <v>185.4333556247359</v>
       </c>
       <c r="O18" t="n">
-        <v>13.33679076321829</v>
+        <v>13.61739166010642</v>
       </c>
       <c r="P18" t="n">
-        <v>414.6240188234349</v>
+        <v>415.0889457262785</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -31346,28 +31618,28 @@
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="n">
-        <v>0.1122691132276738</v>
+        <v>0.09742272703830099</v>
       </c>
       <c r="J19" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="K19" t="n">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L19" t="n">
-        <v>0.002820238090128324</v>
+        <v>0.002165757958321302</v>
       </c>
       <c r="M19" t="n">
-        <v>12.85264905799333</v>
+        <v>12.80024051150962</v>
       </c>
       <c r="N19" t="n">
-        <v>287.1799161021314</v>
+        <v>284.9163713220435</v>
       </c>
       <c r="O19" t="n">
-        <v>16.94638357001668</v>
+        <v>16.8794659667314</v>
       </c>
       <c r="P19" t="n">
-        <v>407.9305790338847</v>
+        <v>408.0574363256079</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -31424,28 +31696,28 @@
         <v>0.0614</v>
       </c>
       <c r="I20" t="n">
-        <v>0.09097595231463076</v>
+        <v>0.07645900379117172</v>
       </c>
       <c r="J20" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="K20" t="n">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L20" t="n">
-        <v>0.002742843171757103</v>
+        <v>0.001975198019578572</v>
       </c>
       <c r="M20" t="n">
-        <v>10.43027974625893</v>
+        <v>10.4045605273659</v>
       </c>
       <c r="N20" t="n">
-        <v>195.2866686870323</v>
+        <v>193.8514059657019</v>
       </c>
       <c r="O20" t="n">
-        <v>13.97450065966696</v>
+        <v>13.92305304039678</v>
       </c>
       <c r="P20" t="n">
-        <v>411.582007084521</v>
+        <v>411.7052283470458</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -31496,28 +31768,28 @@
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="n">
-        <v>-0.02227625507547077</v>
+        <v>-0.03757100884779244</v>
       </c>
       <c r="J21" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="K21" t="n">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0002324841654598453</v>
+        <v>0.0006716670452037166</v>
       </c>
       <c r="M21" t="n">
-        <v>8.69863320897608</v>
+        <v>8.687538618499934</v>
       </c>
       <c r="N21" t="n">
-        <v>135.8620734721259</v>
+        <v>135.2090574531408</v>
       </c>
       <c r="O21" t="n">
-        <v>11.65598873850373</v>
+        <v>11.62794295880148</v>
       </c>
       <c r="P21" t="n">
-        <v>415.8750285772118</v>
+        <v>416.0061682439436</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -31574,28 +31846,28 @@
         <v>0.0772</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.01534248856086152</v>
+        <v>-0.02667738706438731</v>
       </c>
       <c r="J22" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="K22" t="n">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0001580889194394697</v>
+        <v>0.0004852204105471047</v>
       </c>
       <c r="M22" t="n">
-        <v>7.131755090310183</v>
+        <v>7.119658471797072</v>
       </c>
       <c r="N22" t="n">
-        <v>95.91791672915021</v>
+        <v>95.51271629328761</v>
       </c>
       <c r="O22" t="n">
-        <v>9.793769280984222</v>
+        <v>9.77306074335403</v>
       </c>
       <c r="P22" t="n">
-        <v>417.8715195391079</v>
+        <v>417.967362827532</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -31652,28 +31924,28 @@
         <v>0.07480000000000001</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.03923585055761967</v>
+        <v>-0.04452754514212835</v>
       </c>
       <c r="J23" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="K23" t="n">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="L23" t="n">
-        <v>0.001040318899157233</v>
+        <v>0.001363466483761622</v>
       </c>
       <c r="M23" t="n">
-        <v>7.176405021486413</v>
+        <v>7.152890506680995</v>
       </c>
       <c r="N23" t="n">
-        <v>95.44380263560942</v>
+        <v>94.76807105246507</v>
       </c>
       <c r="O23" t="n">
-        <v>9.769534412427719</v>
+        <v>9.734889370324918</v>
       </c>
       <c r="P23" t="n">
-        <v>419.9798712854529</v>
+        <v>420.0250840549884</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -31724,28 +31996,28 @@
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="n">
-        <v>-0.04533580458263677</v>
+        <v>-0.05196807054688252</v>
       </c>
       <c r="J24" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="K24" t="n">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="L24" t="n">
-        <v>0.001350002541664286</v>
+        <v>0.001807772134459928</v>
       </c>
       <c r="M24" t="n">
-        <v>7.151943159653635</v>
+        <v>7.113549830317785</v>
       </c>
       <c r="N24" t="n">
-        <v>98.32310653416005</v>
+        <v>97.46685558021402</v>
       </c>
       <c r="O24" t="n">
-        <v>9.915800851880803</v>
+        <v>9.872530353471394</v>
       </c>
       <c r="P24" t="n">
-        <v>419.3124470366773</v>
+        <v>419.3690195013754</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -31802,28 +32074,28 @@
         <v>0.07580000000000001</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.0418325508594427</v>
+        <v>-0.04944814739785907</v>
       </c>
       <c r="J25" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="K25" t="n">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="L25" t="n">
-        <v>0.001124509097296333</v>
+        <v>0.001599847680693434</v>
       </c>
       <c r="M25" t="n">
-        <v>7.180957640157928</v>
+        <v>7.1473417223844</v>
       </c>
       <c r="N25" t="n">
-        <v>100.0404751466346</v>
+        <v>99.25315790038913</v>
       </c>
       <c r="O25" t="n">
-        <v>10.00202355259348</v>
+        <v>9.962587911802292</v>
       </c>
       <c r="P25" t="n">
-        <v>419.956388311907</v>
+        <v>420.0215621016916</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
@@ -31880,28 +32152,28 @@
         <v>0.09810000000000001</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.05374798264577157</v>
+        <v>-0.05674226740186588</v>
       </c>
       <c r="J26" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="K26" t="n">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="L26" t="n">
-        <v>0.002088434796434835</v>
+        <v>0.002372695124796542</v>
       </c>
       <c r="M26" t="n">
-        <v>6.72138866981608</v>
+        <v>6.683391163096258</v>
       </c>
       <c r="N26" t="n">
-        <v>89.69783613172144</v>
+        <v>88.90500607820722</v>
       </c>
       <c r="O26" t="n">
-        <v>9.470894156927393</v>
+        <v>9.42894512011854</v>
       </c>
       <c r="P26" t="n">
-        <v>421.0725578135138</v>
+        <v>421.0979740794355</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
@@ -31958,28 +32230,28 @@
         <v>0.07870000000000001</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.02131308119234071</v>
+        <v>-0.0317866958522879</v>
       </c>
       <c r="J27" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="K27" t="n">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="L27" t="n">
-        <v>0.0003092101083651544</v>
+        <v>0.0006980365350599538</v>
       </c>
       <c r="M27" t="n">
-        <v>6.629367612372664</v>
+        <v>6.61230614439781</v>
       </c>
       <c r="N27" t="n">
-        <v>95.13781850466053</v>
+        <v>94.68869671714836</v>
       </c>
       <c r="O27" t="n">
-        <v>9.753861722654291</v>
+        <v>9.730811719335051</v>
       </c>
       <c r="P27" t="n">
-        <v>418.3444291119584</v>
+        <v>418.4337691102909</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
@@ -32036,28 +32308,28 @@
         <v>0.06710000000000001</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.06089720606504509</v>
+        <v>-0.07092119343539775</v>
       </c>
       <c r="J28" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="K28" t="n">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="L28" t="n">
-        <v>0.0025221587469475</v>
+        <v>0.003476568770303667</v>
       </c>
       <c r="M28" t="n">
-        <v>6.757406700391171</v>
+        <v>6.741246876606317</v>
       </c>
       <c r="N28" t="n">
-        <v>94.22649652015676</v>
+        <v>93.59963122557882</v>
       </c>
       <c r="O28" t="n">
-        <v>9.707033353201005</v>
+        <v>9.674690239257215</v>
       </c>
       <c r="P28" t="n">
-        <v>416.0703061941289</v>
+        <v>416.1564965480327</v>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
@@ -32114,28 +32386,28 @@
         <v>0.08169999999999999</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.09860890826979844</v>
+        <v>-0.1087647331238206</v>
       </c>
       <c r="J29" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="K29" t="n">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L29" t="n">
-        <v>0.007104462815081813</v>
+        <v>0.00877449878073755</v>
       </c>
       <c r="M29" t="n">
-        <v>6.500019495885502</v>
+        <v>6.499586808218144</v>
       </c>
       <c r="N29" t="n">
-        <v>87.8683077305941</v>
+        <v>87.30236969746454</v>
       </c>
       <c r="O29" t="n">
-        <v>9.373809670064466</v>
+        <v>9.34357371124478</v>
       </c>
       <c r="P29" t="n">
-        <v>414.3813078141744</v>
+        <v>414.468521203846</v>
       </c>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
@@ -32192,28 +32464,28 @@
         <v>0.08939999999999999</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.1211849556794804</v>
+        <v>-0.1293090366311327</v>
       </c>
       <c r="J30" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="K30" t="n">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="L30" t="n">
-        <v>0.00996123555944084</v>
+        <v>0.01153153118906258</v>
       </c>
       <c r="M30" t="n">
-        <v>6.483745560143133</v>
+        <v>6.468599288452567</v>
       </c>
       <c r="N30" t="n">
-        <v>93.6381867688786</v>
+        <v>92.92681190968462</v>
       </c>
       <c r="O30" t="n">
-        <v>9.676682632435488</v>
+        <v>9.63985538842179</v>
       </c>
       <c r="P30" t="n">
-        <v>416.6487181112665</v>
+        <v>416.7185392932237</v>
       </c>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
@@ -32270,28 +32542,28 @@
         <v>0.08309999999999999</v>
       </c>
       <c r="I31" t="n">
-        <v>-0.1263032859409769</v>
+        <v>-0.1345681436535825</v>
       </c>
       <c r="J31" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="K31" t="n">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L31" t="n">
-        <v>0.009796502142843888</v>
+        <v>0.01130941258505924</v>
       </c>
       <c r="M31" t="n">
-        <v>6.84473362316978</v>
+        <v>6.818321696118924</v>
       </c>
       <c r="N31" t="n">
-        <v>103.3488911869453</v>
+        <v>102.5724082988601</v>
       </c>
       <c r="O31" t="n">
-        <v>10.16606566902582</v>
+        <v>10.12780372533256</v>
       </c>
       <c r="P31" t="n">
-        <v>421.4951148047241</v>
+        <v>421.5659250061839</v>
       </c>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
@@ -32348,28 +32620,28 @@
         <v>0.0762</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.1019039915704569</v>
+        <v>-0.1179660019017272</v>
       </c>
       <c r="J32" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="K32" t="n">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="L32" t="n">
-        <v>0.006535300623760509</v>
+        <v>0.008856962325283657</v>
       </c>
       <c r="M32" t="n">
-        <v>7.00948750847073</v>
+        <v>7.037469389362778</v>
       </c>
       <c r="N32" t="n">
-        <v>99.85354086949417</v>
+        <v>99.63425156977311</v>
       </c>
       <c r="O32" t="n">
-        <v>9.992674360224802</v>
+        <v>9.981695826350006</v>
       </c>
       <c r="P32" t="n">
-        <v>421.8640552898202</v>
+        <v>422.0019042688786</v>
       </c>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr">
@@ -32426,28 +32698,28 @@
         <v>0.0531</v>
       </c>
       <c r="I33" t="n">
-        <v>0.02661469461429369</v>
+        <v>0.01053569478325631</v>
       </c>
       <c r="J33" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="K33" t="n">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="L33" t="n">
-        <v>0.0005266417717502136</v>
+        <v>8.355692223871447e-05</v>
       </c>
       <c r="M33" t="n">
-        <v>7.189040710875477</v>
+        <v>7.205201835647077</v>
       </c>
       <c r="N33" t="n">
-        <v>85.20831358221479</v>
+        <v>85.18091161306185</v>
       </c>
       <c r="O33" t="n">
-        <v>9.230834934187415</v>
+        <v>9.229350552073631</v>
       </c>
       <c r="P33" t="n">
-        <v>421.9116513445676</v>
+        <v>422.048829044362</v>
       </c>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr">
@@ -32504,28 +32776,28 @@
         <v>0.0672</v>
       </c>
       <c r="I34" t="n">
-        <v>-0.1459258653991826</v>
+        <v>-0.1582395000568814</v>
       </c>
       <c r="J34" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="K34" t="n">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="L34" t="n">
-        <v>0.01232531995786657</v>
+        <v>0.01469995102420663</v>
       </c>
       <c r="M34" t="n">
-        <v>7.034775064339475</v>
+        <v>7.027438036183884</v>
       </c>
       <c r="N34" t="n">
-        <v>108.0851832750716</v>
+        <v>107.4904289674609</v>
       </c>
       <c r="O34" t="n">
-        <v>10.39640241983118</v>
+        <v>10.36775911021571</v>
       </c>
       <c r="P34" t="n">
-        <v>430.3471502514228</v>
+        <v>430.4533034068769</v>
       </c>
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr">
@@ -32582,28 +32854,28 @@
         <v>0.0863</v>
       </c>
       <c r="I35" t="n">
-        <v>-0.09089649343026959</v>
+        <v>-0.105873225734213</v>
       </c>
       <c r="J35" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="K35" t="n">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L35" t="n">
-        <v>0.004656396951684072</v>
+        <v>0.006400019774059906</v>
       </c>
       <c r="M35" t="n">
-        <v>6.986359164747229</v>
+        <v>6.998572454225477</v>
       </c>
       <c r="N35" t="n">
-        <v>111.4742704317239</v>
+        <v>111.0096377744655</v>
       </c>
       <c r="O35" t="n">
-        <v>10.55813764030967</v>
+        <v>10.53611113145954</v>
       </c>
       <c r="P35" t="n">
-        <v>433.9496117900176</v>
+        <v>434.0808866697216</v>
       </c>
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr">
@@ -32660,28 +32932,28 @@
         <v>0.0696</v>
       </c>
       <c r="I36" t="n">
-        <v>-0.1816276677287441</v>
+        <v>-0.1905069264369709</v>
       </c>
       <c r="J36" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="K36" t="n">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L36" t="n">
-        <v>0.01673774921670734</v>
+        <v>0.01872684514647172</v>
       </c>
       <c r="M36" t="n">
-        <v>7.366831859095428</v>
+        <v>7.334808623526703</v>
       </c>
       <c r="N36" t="n">
-        <v>121.5843386657927</v>
+        <v>120.5796214723158</v>
       </c>
       <c r="O36" t="n">
-        <v>11.02652885843014</v>
+        <v>10.98087525984681</v>
       </c>
       <c r="P36" t="n">
-        <v>427.3835239664928</v>
+        <v>427.4619278372093</v>
       </c>
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr">
@@ -32732,28 +33004,28 @@
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="n">
-        <v>-0.1027798393412887</v>
+        <v>-0.1190286593496207</v>
       </c>
       <c r="J37" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="K37" t="n">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="L37" t="n">
-        <v>0.005002369173257026</v>
+        <v>0.006792200420732364</v>
       </c>
       <c r="M37" t="n">
-        <v>7.95982404700786</v>
+        <v>7.961252641459567</v>
       </c>
       <c r="N37" t="n">
-        <v>133.7596604011257</v>
+        <v>133.2579690988968</v>
       </c>
       <c r="O37" t="n">
-        <v>11.56545115424062</v>
+        <v>11.54374155544452</v>
       </c>
       <c r="P37" t="n">
-        <v>416.904772455223</v>
+        <v>417.0464757693521</v>
       </c>
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr">
@@ -32804,28 +33076,28 @@
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="n">
-        <v>0.00246909953150889</v>
+        <v>-0.01781416989319727</v>
       </c>
       <c r="J38" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="K38" t="n">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="L38" t="n">
-        <v>3.0450229789869e-06</v>
+        <v>0.000160186375325444</v>
       </c>
       <c r="M38" t="n">
-        <v>8.041225616177083</v>
+        <v>8.057425752952259</v>
       </c>
       <c r="N38" t="n">
-        <v>124.3963471468569</v>
+        <v>124.4394324680263</v>
       </c>
       <c r="O38" t="n">
-        <v>11.15331103963558</v>
+        <v>11.15524237603228</v>
       </c>
       <c r="P38" t="n">
-        <v>415.3342213930435</v>
+        <v>415.51406907282</v>
       </c>
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr">
@@ -32882,28 +33154,28 @@
         <v>0.0653</v>
       </c>
       <c r="I39" t="n">
-        <v>-0.1384168003399604</v>
+        <v>-0.1623758004522424</v>
       </c>
       <c r="J39" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="K39" t="n">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L39" t="n">
-        <v>0.007854392915289221</v>
+        <v>0.0108874318112816</v>
       </c>
       <c r="M39" t="n">
-        <v>8.168995268153191</v>
+        <v>8.185708371959839</v>
       </c>
       <c r="N39" t="n">
-        <v>151.9317892547128</v>
+        <v>152.0678072801948</v>
       </c>
       <c r="O39" t="n">
-        <v>12.32606138451017</v>
+        <v>12.33157764765704</v>
       </c>
       <c r="P39" t="n">
-        <v>423.1917981499164</v>
+        <v>423.4012273835519</v>
       </c>
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr">
@@ -32941,7 +33213,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AN237"/>
+  <dimension ref="A1:AN239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74807,6 +75079,410 @@
         </is>
       </c>
     </row>
+    <row r="238">
+      <c r="A238" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:17:12+00:00</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>-34.86121500431276,173.29575299779077</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>-34.861457095152296,173.29651978756243</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>-34.86153328303689,173.29735710444675</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>-34.86156223385894,173.29821243703543</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>-34.86161107619602,173.2990433234907</t>
+        </is>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>-34.86162481085515,173.29995491557912</t>
+        </is>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>-34.86155482780987,173.3008404115514</t>
+        </is>
+      </c>
+      <c r="I238" t="inlineStr">
+        <is>
+          <t>-34.86147874403149,173.30169127935577</t>
+        </is>
+      </c>
+      <c r="J238" t="inlineStr">
+        <is>
+          <t>-34.861422118812655,173.3025715229805</t>
+        </is>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>-34.86141662630925,173.30347918785782</t>
+        </is>
+      </c>
+      <c r="L238" t="inlineStr">
+        <is>
+          <t>-34.86135270318864,173.30438388012112</t>
+        </is>
+      </c>
+      <c r="M238" t="inlineStr">
+        <is>
+          <t>-34.861340746161524,173.30528031336902</t>
+        </is>
+      </c>
+      <c r="N238" t="inlineStr">
+        <is>
+          <t>-34.861278685804926,173.30616926516345</t>
+        </is>
+      </c>
+      <c r="O238" t="inlineStr">
+        <is>
+          <t>-34.861258433896054,173.3070713726385</t>
+        </is>
+      </c>
+      <c r="P238" t="inlineStr">
+        <is>
+          <t>-34.86121325009192,173.30798434284043</t>
+        </is>
+      </c>
+      <c r="Q238" t="inlineStr">
+        <is>
+          <t>-34.86122211531948,173.30888392261605</t>
+        </is>
+      </c>
+      <c r="R238" t="inlineStr">
+        <is>
+          <t>-34.86129608983264,173.30977605049569</t>
+        </is>
+      </c>
+      <c r="S238" t="inlineStr">
+        <is>
+          <t>-34.861099005509764,173.31065804715865</t>
+        </is>
+      </c>
+      <c r="T238" t="inlineStr">
+        <is>
+          <t>-34.86100052790732,173.31155995020583</t>
+        </is>
+      </c>
+      <c r="U238" t="inlineStr">
+        <is>
+          <t>-34.86094292117219,173.31245385093118</t>
+        </is>
+      </c>
+      <c r="V238" t="inlineStr">
+        <is>
+          <t>-34.860818051303866,173.31333377687372</t>
+        </is>
+      </c>
+      <c r="W238" t="inlineStr">
+        <is>
+          <t>-34.86070394907346,173.31420300241373</t>
+        </is>
+      </c>
+      <c r="X238" t="inlineStr">
+        <is>
+          <t>-34.86065487800269,173.31508878441622</t>
+        </is>
+      </c>
+      <c r="Y238" t="inlineStr">
+        <is>
+          <t>-34.86054101608483,173.31598307914078</t>
+        </is>
+      </c>
+      <c r="Z238" t="inlineStr">
+        <is>
+          <t>-34.86041656367028,173.3168579865365</t>
+        </is>
+      </c>
+      <c r="AA238" t="inlineStr">
+        <is>
+          <t>-34.86034080928166,173.31773934273008</t>
+        </is>
+      </c>
+      <c r="AB238" t="inlineStr">
+        <is>
+          <t>-34.86028142646201,173.31864218824072</t>
+        </is>
+      </c>
+      <c r="AC238" t="inlineStr">
+        <is>
+          <t>-34.86019851596125,173.31954962034197</t>
+        </is>
+      </c>
+      <c r="AD238" t="inlineStr">
+        <is>
+          <t>-34.860082296114186,173.32044982261968</t>
+        </is>
+      </c>
+      <c r="AE238" t="inlineStr">
+        <is>
+          <t>-34.860001905136684,173.32132960971362</t>
+        </is>
+      </c>
+      <c r="AF238" t="inlineStr">
+        <is>
+          <t>-34.85990982661656,173.32221145773948</t>
+        </is>
+      </c>
+      <c r="AG238" t="inlineStr">
+        <is>
+          <t>-34.85974675873301,173.3231056536118</t>
+        </is>
+      </c>
+      <c r="AH238" t="inlineStr">
+        <is>
+          <t>-34.859657087189305,173.3240028171434</t>
+        </is>
+      </c>
+      <c r="AI238" t="inlineStr">
+        <is>
+          <t>-34.85953701377407,173.32482358913836</t>
+        </is>
+      </c>
+      <c r="AJ238" t="inlineStr">
+        <is>
+          <t>-34.85937106952945,173.32564348025312</t>
+        </is>
+      </c>
+      <c r="AK238" t="inlineStr">
+        <is>
+          <t>-34.85925671145704,173.32657346666434</t>
+        </is>
+      </c>
+      <c r="AL238" t="inlineStr">
+        <is>
+          <t>-34.859126438243145,173.32750242790996</t>
+        </is>
+      </c>
+      <c r="AM238" t="inlineStr">
+        <is>
+          <t>-34.8590490222978,173.32840919867425</t>
+        </is>
+      </c>
+      <c r="AN238" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-21 22:17:14+00:00</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>-34.86126174723731,173.29572525052757</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>-34.86144895497322,173.29652285685302</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>-34.86163218105355,173.2973353136192</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>-34.86167975552111,173.29819851091997</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>-34.86169538027538,173.299044910433</t>
+        </is>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>-34.86170560404988,173.29995391885186</t>
+        </is>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>-34.861673942179834,173.30084204857863</t>
+        </is>
+      </c>
+      <c r="I239" t="inlineStr">
+        <is>
+          <t>-34.861651609015304,173.30170791143087</t>
+        </is>
+      </c>
+      <c r="J239" t="inlineStr">
+        <is>
+          <t>-34.86155694221805,173.30258833832144</t>
+        </is>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>-34.86137161359691,173.30347409482368</t>
+        </is>
+      </c>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>-34.8613705479648,173.3043855178326</t>
+        </is>
+      </c>
+      <c r="M239" t="inlineStr">
+        <is>
+          <t>-34.86134533668555,173.30528076947405</t>
+        </is>
+      </c>
+      <c r="N239" t="inlineStr">
+        <is>
+          <t>-34.86130449391524,173.30617220198414</t>
+        </is>
+      </c>
+      <c r="O239" t="inlineStr">
+        <is>
+          <t>-34.86128290590506,173.3070740152044</t>
+        </is>
+      </c>
+      <c r="P239" t="inlineStr">
+        <is>
+          <t>-34.86121518217086,173.3079844644285</t>
+        </is>
+      </c>
+      <c r="Q239" t="inlineStr">
+        <is>
+          <t>-34.86109508900686,173.30887593610507</t>
+        </is>
+      </c>
+      <c r="R239" t="inlineStr">
+        <is>
+          <t>-34.86139726719974,173.30978764712407</t>
+        </is>
+      </c>
+      <c r="S239" t="inlineStr">
+        <is>
+          <t>-34.861053210666306,173.31065315035744</t>
+        </is>
+      </c>
+      <c r="T239" t="inlineStr">
+        <is>
+          <t>-34.860988150305616,173.31155898315777</t>
+        </is>
+      </c>
+      <c r="U239" t="inlineStr">
+        <is>
+          <t>-34.860951827987975,173.31245458568006</t>
+        </is>
+      </c>
+      <c r="V239" t="inlineStr">
+        <is>
+          <t>-34.86088859291024,173.31334111869137</t>
+        </is>
+      </c>
+      <c r="W239" t="inlineStr">
+        <is>
+          <t>-34.86078400864566,173.31421455507575</t>
+        </is>
+      </c>
+      <c r="X239" t="inlineStr">
+        <is>
+          <t>-34.860656135256825,173.31508899689712</t>
+        </is>
+      </c>
+      <c r="Y239" t="inlineStr">
+        <is>
+          <t>-34.860573405326576,173.31598808003213</t>
+        </is>
+      </c>
+      <c r="Z239" t="inlineStr">
+        <is>
+          <t>-34.860465779235014,173.31686665745858</t>
+        </is>
+      </c>
+      <c r="AA239" t="inlineStr">
+        <is>
+          <t>-34.86041107797116,173.31775365109317</t>
+        </is>
+      </c>
+      <c r="AB239" t="inlineStr">
+        <is>
+          <t>-34.860285226034904,173.3186429226245</t>
+        </is>
+      </c>
+      <c r="AC239" t="inlineStr">
+        <is>
+          <t>-34.86019353699347,173.31954884542535</t>
+        </is>
+      </c>
+      <c r="AD239" t="inlineStr">
+        <is>
+          <t>-34.860107532672,173.32045296801167</t>
+        </is>
+      </c>
+      <c r="AE239" t="inlineStr">
+        <is>
+          <t>-34.85996095284362,173.32132323977487</t>
+        </is>
+      </c>
+      <c r="AF239" t="inlineStr">
+        <is>
+          <t>-34.85989119237187,173.3222081403618</t>
+        </is>
+      </c>
+      <c r="AG239" t="inlineStr">
+        <is>
+          <t>-34.85979170776932,173.32311216272487</t>
+        </is>
+      </c>
+      <c r="AH239" t="inlineStr">
+        <is>
+          <t>-34.85962917968282,173.32399910612511</t>
+        </is>
+      </c>
+      <c r="AI239" t="inlineStr">
+        <is>
+          <t>-34.85953086544545,173.32482202397156</t>
+        </is>
+      </c>
+      <c r="AJ239" t="inlineStr">
+        <is>
+          <t>-34.859390043401454,173.3256503827065</t>
+        </is>
+      </c>
+      <c r="AK239" t="inlineStr">
+        <is>
+          <t>-34.85929494398473,173.32658394665773</t>
+        </is>
+      </c>
+      <c r="AL239" t="inlineStr">
+        <is>
+          <t>-34.85919669328624,173.32751352387655</t>
+        </is>
+      </c>
+      <c r="AM239" t="inlineStr">
+        <is>
+          <t>-34.859085860951254,173.32841378445445</t>
+        </is>
+      </c>
+      <c r="AN239" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0028/nzd0028.xlsx
+++ b/data/nzd0028/nzd0028.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AN239"/>
+  <dimension ref="A1:AN241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27618,6 +27618,258 @@
         </is>
       </c>
     </row>
+    <row r="240">
+      <c r="A240" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:17:21+00:00</t>
+        </is>
+      </c>
+      <c r="B240" t="n">
+        <v>394.1776923076923</v>
+      </c>
+      <c r="C240" t="n">
+        <v>400.7123529411765</v>
+      </c>
+      <c r="D240" t="n">
+        <v>408.9166666666667</v>
+      </c>
+      <c r="E240" t="n">
+        <v>423.1118181818182</v>
+      </c>
+      <c r="F240" t="n">
+        <v>417.09</v>
+      </c>
+      <c r="G240" t="n">
+        <v>416.11</v>
+      </c>
+      <c r="H240" t="n">
+        <v>428.45</v>
+      </c>
+      <c r="I240" t="n">
+        <v>427.44</v>
+      </c>
+      <c r="J240" t="n">
+        <v>424.5</v>
+      </c>
+      <c r="K240" t="n">
+        <v>416.6966666666667</v>
+      </c>
+      <c r="L240" t="n">
+        <v>418.3818181818182</v>
+      </c>
+      <c r="M240" t="n">
+        <v>414.7976923076923</v>
+      </c>
+      <c r="N240" t="n">
+        <v>416.1918181818182</v>
+      </c>
+      <c r="O240" t="n">
+        <v>409.9118181818182</v>
+      </c>
+      <c r="P240" t="n">
+        <v>404.8618181818182</v>
+      </c>
+      <c r="Q240" t="n">
+        <v>403.3118181818182</v>
+      </c>
+      <c r="R240" t="n">
+        <v>389.03</v>
+      </c>
+      <c r="S240" t="n">
+        <v>408.3619047619048</v>
+      </c>
+      <c r="T240" t="n">
+        <v>408.7118181818182</v>
+      </c>
+      <c r="U240" t="n">
+        <v>409.0100000000001</v>
+      </c>
+      <c r="V240" t="n">
+        <v>417.1414285714285</v>
+      </c>
+      <c r="W240" t="n">
+        <v>422.8676923076923</v>
+      </c>
+      <c r="X240" t="n">
+        <v>416.5476923076923</v>
+      </c>
+      <c r="Y240" t="n">
+        <v>417.3476923076923</v>
+      </c>
+      <c r="Z240" t="n">
+        <v>421.315</v>
+      </c>
+      <c r="AA240" t="n">
+        <v>412.9014285714285</v>
+      </c>
+      <c r="AB240" t="n">
+        <v>410.2766666666667</v>
+      </c>
+      <c r="AC240" t="n">
+        <v>413.4833333333333</v>
+      </c>
+      <c r="AD240" t="n">
+        <v>413.4533333333333</v>
+      </c>
+      <c r="AE240" t="n">
+        <v>411.5614285714286</v>
+      </c>
+      <c r="AF240" t="n">
+        <v>409.3914285714285</v>
+      </c>
+      <c r="AG240" t="n">
+        <v>421</v>
+      </c>
+      <c r="AH240" t="n">
+        <v>417.8366666666667</v>
+      </c>
+      <c r="AI240" t="n">
+        <v>425.1233333333333</v>
+      </c>
+      <c r="AJ240" t="n">
+        <v>419.3266666666667</v>
+      </c>
+      <c r="AK240" t="n">
+        <v>408.8766666666667</v>
+      </c>
+      <c r="AL240" t="n">
+        <v>413.4666666666667</v>
+      </c>
+      <c r="AM240" t="n">
+        <v>411.4866666666667</v>
+      </c>
+      <c r="AN240" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:17:27+00:00</t>
+        </is>
+      </c>
+      <c r="B241" t="n">
+        <v>382.4238461538461</v>
+      </c>
+      <c r="C241" t="n">
+        <v>398.3794117647059</v>
+      </c>
+      <c r="D241" t="n">
+        <v>395.5666666666667</v>
+      </c>
+      <c r="E241" t="n">
+        <v>412.740909090909</v>
+      </c>
+      <c r="F241" t="n">
+        <v>411</v>
+      </c>
+      <c r="G241" t="n">
+        <v>409.13</v>
+      </c>
+      <c r="H241" t="n">
+        <v>417.44</v>
+      </c>
+      <c r="I241" t="n">
+        <v>415.6</v>
+      </c>
+      <c r="J241" t="n">
+        <v>414.97</v>
+      </c>
+      <c r="K241" t="n">
+        <v>410.4666666666667</v>
+      </c>
+      <c r="L241" t="n">
+        <v>416.610909090909</v>
+      </c>
+      <c r="M241" t="n">
+        <v>418.6838461538461</v>
+      </c>
+      <c r="N241" t="n">
+        <v>412.870909090909</v>
+      </c>
+      <c r="O241" t="n">
+        <v>407.3409090909091</v>
+      </c>
+      <c r="P241" t="n">
+        <v>406.180909090909</v>
+      </c>
+      <c r="Q241" t="n">
+        <v>404.7709090909091</v>
+      </c>
+      <c r="R241" t="n">
+        <v>404.54</v>
+      </c>
+      <c r="S241" t="n">
+        <v>404.1719047619048</v>
+      </c>
+      <c r="T241" t="n">
+        <v>407.740909090909</v>
+      </c>
+      <c r="U241" t="n">
+        <v>407.21</v>
+      </c>
+      <c r="V241" t="n">
+        <v>413.9314285714286</v>
+      </c>
+      <c r="W241" t="n">
+        <v>414.5238461538461</v>
+      </c>
+      <c r="X241" t="n">
+        <v>417.9738461538461</v>
+      </c>
+      <c r="Y241" t="n">
+        <v>418.9338461538461</v>
+      </c>
+      <c r="Z241" t="n">
+        <v>417.5</v>
+      </c>
+      <c r="AA241" t="n">
+        <v>412.6514285714285</v>
+      </c>
+      <c r="AB241" t="n">
+        <v>411.0766666666667</v>
+      </c>
+      <c r="AC241" t="n">
+        <v>408.9033333333334</v>
+      </c>
+      <c r="AD241" t="n">
+        <v>408.6833333333333</v>
+      </c>
+      <c r="AE241" t="n">
+        <v>418.7014285714286</v>
+      </c>
+      <c r="AF241" t="n">
+        <v>415.0714285714286</v>
+      </c>
+      <c r="AG241" t="n">
+        <v>413.87</v>
+      </c>
+      <c r="AH241" t="n">
+        <v>428.4466666666667</v>
+      </c>
+      <c r="AI241" t="n">
+        <v>425.5533333333333</v>
+      </c>
+      <c r="AJ241" t="n">
+        <v>414.6866666666667</v>
+      </c>
+      <c r="AK241" t="n">
+        <v>410.2066666666667</v>
+      </c>
+      <c r="AL241" t="n">
+        <v>403.6966666666667</v>
+      </c>
+      <c r="AM241" t="n">
+        <v>407.9466666666667</v>
+      </c>
+      <c r="AN241" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -27629,7 +27881,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B250"/>
+  <dimension ref="A1:B252"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30137,6 +30389,26 @@
       </c>
       <c r="B250" t="n">
         <v>-0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B251" t="n">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B252" t="n">
+        <v>-0.38</v>
       </c>
     </row>
   </sheetData>
@@ -30310,28 +30582,28 @@
         <v>0.07340000000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>0.008431412165298822</v>
+        <v>0.006378603405933041</v>
       </c>
       <c r="J2" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K2" t="n">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="L2" t="n">
-        <v>2.986303637342314e-05</v>
+        <v>1.741963106705047e-05</v>
       </c>
       <c r="M2" t="n">
-        <v>9.78660575865943</v>
+        <v>9.748027812934639</v>
       </c>
       <c r="N2" t="n">
-        <v>151.9858249218482</v>
+        <v>150.8236086294191</v>
       </c>
       <c r="O2" t="n">
-        <v>12.32825311720392</v>
+        <v>12.28102636710056</v>
       </c>
       <c r="P2" t="n">
-        <v>389.2071366985505</v>
+        <v>389.2249333170188</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -30388,28 +30660,28 @@
         <v>0.1107</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1033354547603721</v>
+        <v>0.09829516519019786</v>
       </c>
       <c r="J3" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K3" t="n">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="L3" t="n">
-        <v>0.004642763741904421</v>
+        <v>0.004290441342190254</v>
       </c>
       <c r="M3" t="n">
-        <v>10.00653660704078</v>
+        <v>9.933837064265392</v>
       </c>
       <c r="N3" t="n">
-        <v>146.6173829119107</v>
+        <v>145.2409471186425</v>
       </c>
       <c r="O3" t="n">
-        <v>12.10856650937305</v>
+        <v>12.05159521053717</v>
       </c>
       <c r="P3" t="n">
-        <v>399.684540439557</v>
+        <v>399.7277384077018</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -30466,28 +30738,28 @@
         <v>0.0684</v>
       </c>
       <c r="I4" t="n">
-        <v>0.09964562018047009</v>
+        <v>0.09688719135812469</v>
       </c>
       <c r="J4" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K4" t="n">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L4" t="n">
-        <v>0.004174803064562083</v>
+        <v>0.004019072670119694</v>
       </c>
       <c r="M4" t="n">
-        <v>9.658148872917433</v>
+        <v>9.62921684276664</v>
       </c>
       <c r="N4" t="n">
-        <v>151.1445873060877</v>
+        <v>150.1121720132714</v>
       </c>
       <c r="O4" t="n">
-        <v>12.29408749383571</v>
+        <v>12.25202726136665</v>
       </c>
       <c r="P4" t="n">
-        <v>401.2049794492088</v>
+        <v>401.2289065909096</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -30544,28 +30816,28 @@
         <v>0.061</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1147213761750847</v>
+        <v>0.1185330677965264</v>
       </c>
       <c r="J5" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K5" t="n">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L5" t="n">
-        <v>0.005013249674200138</v>
+        <v>0.005453718672926544</v>
       </c>
       <c r="M5" t="n">
-        <v>10.29895786675741</v>
+        <v>10.24851326436714</v>
       </c>
       <c r="N5" t="n">
-        <v>168.140501766633</v>
+        <v>166.787213227413</v>
       </c>
       <c r="O5" t="n">
-        <v>12.96690023739803</v>
+        <v>12.91461239168303</v>
       </c>
       <c r="P5" t="n">
-        <v>412.8086445971124</v>
+        <v>412.7763169982479</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -30622,28 +30894,28 @@
         <v>0.0566</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1131435688935288</v>
+        <v>0.1151021857024758</v>
       </c>
       <c r="J6" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K6" t="n">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="L6" t="n">
-        <v>0.004806392639894241</v>
+        <v>0.005077594518901996</v>
       </c>
       <c r="M6" t="n">
-        <v>10.03316116004111</v>
+        <v>9.963633315789725</v>
       </c>
       <c r="N6" t="n">
-        <v>170.8072535306681</v>
+        <v>169.2118787910412</v>
       </c>
       <c r="O6" t="n">
-        <v>13.06932490722716</v>
+        <v>13.00814663167053</v>
       </c>
       <c r="P6" t="n">
-        <v>410.0273395516872</v>
+        <v>410.010814966348</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -30694,28 +30966,28 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>0.0731370542126773</v>
+        <v>0.07286830599309946</v>
       </c>
       <c r="J7" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K7" t="n">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="L7" t="n">
-        <v>0.002192923124613722</v>
+        <v>0.002221171083680473</v>
       </c>
       <c r="M7" t="n">
-        <v>9.782537617250256</v>
+        <v>9.719894822271371</v>
       </c>
       <c r="N7" t="n">
-        <v>157.1702318898648</v>
+        <v>155.7279048549784</v>
       </c>
       <c r="O7" t="n">
-        <v>12.53675523769467</v>
+        <v>12.47909871965834</v>
       </c>
       <c r="P7" t="n">
-        <v>410.8773485195734</v>
+        <v>410.8797405406097</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -30772,28 +31044,28 @@
         <v>0.0584</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.01449410107771794</v>
+        <v>-0.01102621714447645</v>
       </c>
       <c r="J8" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K8" t="n">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="L8" t="n">
-        <v>9.688179897027194e-05</v>
+        <v>5.712420248871197e-05</v>
       </c>
       <c r="M8" t="n">
-        <v>9.374525279748623</v>
+        <v>9.338359324185284</v>
       </c>
       <c r="N8" t="n">
-        <v>139.5007930302728</v>
+        <v>138.4728160140422</v>
       </c>
       <c r="O8" t="n">
-        <v>11.81104538261846</v>
+        <v>11.76744730236945</v>
       </c>
       <c r="P8" t="n">
-        <v>421.3304968740673</v>
+        <v>421.3011901146714</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -30850,28 +31122,28 @@
         <v>0.0581</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.1010663071958048</v>
+        <v>-0.1015716815615152</v>
       </c>
       <c r="J9" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K9" t="n">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="L9" t="n">
-        <v>0.004891097160503288</v>
+        <v>0.005029483754822595</v>
       </c>
       <c r="M9" t="n">
-        <v>9.197125063431306</v>
+        <v>9.164888288393326</v>
       </c>
       <c r="N9" t="n">
-        <v>134.5310227442708</v>
+        <v>133.5560077495057</v>
       </c>
       <c r="O9" t="n">
-        <v>11.59875091310572</v>
+        <v>11.55664344649889</v>
       </c>
       <c r="P9" t="n">
-        <v>424.3979020284295</v>
+        <v>424.4023703076143</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -30928,28 +31200,28 @@
         <v>0.056</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.09705272831082837</v>
+        <v>-0.1002471947026888</v>
       </c>
       <c r="J10" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K10" t="n">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L10" t="n">
-        <v>0.004538640275152384</v>
+        <v>0.004931886354224813</v>
       </c>
       <c r="M10" t="n">
-        <v>8.987475262408021</v>
+        <v>8.94593770859454</v>
       </c>
       <c r="N10" t="n">
-        <v>134.6908826633204</v>
+        <v>133.6135762153164</v>
       </c>
       <c r="O10" t="n">
-        <v>11.60564012294541</v>
+        <v>11.55913388690158</v>
       </c>
       <c r="P10" t="n">
-        <v>424.0549180686458</v>
+        <v>424.082161948776</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -31006,28 +31278,28 @@
         <v>0.07190000000000001</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.1136055152848017</v>
+        <v>-0.1229095991632178</v>
       </c>
       <c r="J11" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K11" t="n">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L11" t="n">
-        <v>0.006132685831354623</v>
+        <v>0.007299630228256748</v>
       </c>
       <c r="M11" t="n">
-        <v>8.768416364011825</v>
+        <v>8.73029357453191</v>
       </c>
       <c r="N11" t="n">
-        <v>135.4393576088136</v>
+        <v>134.4647202676186</v>
       </c>
       <c r="O11" t="n">
-        <v>11.63784162157286</v>
+        <v>11.59589238772155</v>
       </c>
       <c r="P11" t="n">
-        <v>421.8168753122716</v>
+        <v>421.8964415855045</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -31084,28 +31356,28 @@
         <v>0.06660000000000001</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.1714504366589395</v>
+        <v>-0.1733824069608552</v>
       </c>
       <c r="J12" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K12" t="n">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="L12" t="n">
-        <v>0.01331185914209587</v>
+        <v>0.01387813542029004</v>
       </c>
       <c r="M12" t="n">
-        <v>9.053356862638998</v>
+        <v>8.975118261765383</v>
       </c>
       <c r="N12" t="n">
-        <v>141.4401373404802</v>
+        <v>140.0798702099498</v>
       </c>
       <c r="O12" t="n">
-        <v>11.89286077192869</v>
+        <v>11.83553421734523</v>
       </c>
       <c r="P12" t="n">
-        <v>423.0441051003044</v>
+        <v>423.0607083495391</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -31162,28 +31434,28 @@
         <v>0.07729999999999999</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.07221009660600536</v>
+        <v>-0.07788342136902007</v>
       </c>
       <c r="J13" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K13" t="n">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="L13" t="n">
-        <v>0.002719928837258578</v>
+        <v>0.003224607580961325</v>
       </c>
       <c r="M13" t="n">
-        <v>8.508879000320851</v>
+        <v>8.451905837752731</v>
       </c>
       <c r="N13" t="n">
-        <v>123.6483485540203</v>
+        <v>122.551226679411</v>
       </c>
       <c r="O13" t="n">
-        <v>11.11972789927974</v>
+        <v>11.0702857541895</v>
       </c>
       <c r="P13" t="n">
-        <v>421.836710989069</v>
+        <v>421.8854155343487</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -31240,28 +31512,28 @@
         <v>0.06370000000000001</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.04072346426448864</v>
+        <v>-0.04670251796537903</v>
       </c>
       <c r="J14" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K14" t="n">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0009671125924701762</v>
+        <v>0.001296431849332369</v>
       </c>
       <c r="M14" t="n">
-        <v>8.286957105183665</v>
+        <v>8.232791753456402</v>
       </c>
       <c r="N14" t="n">
-        <v>111.3584067294377</v>
+        <v>110.3735148707819</v>
       </c>
       <c r="O14" t="n">
-        <v>10.5526492753923</v>
+        <v>10.50588001410552</v>
       </c>
       <c r="P14" t="n">
-        <v>418.9644757212055</v>
+        <v>419.0157579071943</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -31312,28 +31584,28 @@
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="n">
-        <v>-0.1120625934608141</v>
+        <v>-0.1202241729769018</v>
       </c>
       <c r="J15" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K15" t="n">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="L15" t="n">
-        <v>0.007516584315505725</v>
+        <v>0.008804209684863173</v>
       </c>
       <c r="M15" t="n">
-        <v>8.022605789352058</v>
+        <v>7.981161302801433</v>
       </c>
       <c r="N15" t="n">
-        <v>107.0956296105634</v>
+        <v>106.2519007872295</v>
       </c>
       <c r="O15" t="n">
-        <v>10.34870183214124</v>
+        <v>10.30785626535554</v>
       </c>
       <c r="P15" t="n">
-        <v>416.1300237323359</v>
+        <v>416.1997840600391</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -31390,28 +31662,28 @@
         <v>0.0613</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.1002759961530571</v>
+        <v>-0.1100641148293054</v>
       </c>
       <c r="J16" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K16" t="n">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L16" t="n">
-        <v>0.00619801749720772</v>
+        <v>0.007591208933805715</v>
       </c>
       <c r="M16" t="n">
-        <v>8.117672424554224</v>
+        <v>8.090075537364941</v>
       </c>
       <c r="N16" t="n">
-        <v>104.6459277440633</v>
+        <v>103.8976585120299</v>
       </c>
       <c r="O16" t="n">
-        <v>10.22965921935151</v>
+        <v>10.19302008788514</v>
       </c>
       <c r="P16" t="n">
-        <v>413.6449796376321</v>
+        <v>413.7285980202669</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -31468,28 +31740,28 @@
         <v>0.0629</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.124783434482396</v>
+        <v>-0.1418957951750479</v>
       </c>
       <c r="J17" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K17" t="n">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L17" t="n">
-        <v>0.008370081937628782</v>
+        <v>0.01093371803810417</v>
       </c>
       <c r="M17" t="n">
-        <v>8.452913529280018</v>
+        <v>8.466451299589783</v>
       </c>
       <c r="N17" t="n">
-        <v>119.6079788826803</v>
+        <v>119.3529745009047</v>
       </c>
       <c r="O17" t="n">
-        <v>10.93654327850808</v>
+        <v>10.92487869502013</v>
       </c>
       <c r="P17" t="n">
-        <v>417.0652758198928</v>
+        <v>417.2114867565351</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -31546,28 +31818,28 @@
         <v>0.0568</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.1720737249630781</v>
+        <v>-0.1961042104347891</v>
       </c>
       <c r="J18" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K18" t="n">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L18" t="n">
-        <v>0.01022208623743803</v>
+        <v>0.01333076281561807</v>
       </c>
       <c r="M18" t="n">
-        <v>10.70984584312383</v>
+        <v>10.73503252190288</v>
       </c>
       <c r="N18" t="n">
-        <v>185.4333556247359</v>
+        <v>186.0386813839006</v>
       </c>
       <c r="O18" t="n">
-        <v>13.61739166010642</v>
+        <v>13.63959975160197</v>
       </c>
       <c r="P18" t="n">
-        <v>415.0889457262785</v>
+        <v>415.2948828694136</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -31618,28 +31890,28 @@
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="n">
-        <v>0.09742272703830099</v>
+        <v>0.08971570209240956</v>
       </c>
       <c r="J19" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K19" t="n">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L19" t="n">
-        <v>0.002165757958321302</v>
+        <v>0.001874419850327991</v>
       </c>
       <c r="M19" t="n">
-        <v>12.80024051150962</v>
+        <v>12.7111949044973</v>
       </c>
       <c r="N19" t="n">
-        <v>284.9163713220435</v>
+        <v>282.2093039299921</v>
       </c>
       <c r="O19" t="n">
-        <v>16.8794659667314</v>
+        <v>16.79908640164673</v>
       </c>
       <c r="P19" t="n">
-        <v>408.0574363256079</v>
+        <v>408.1236143827442</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -31696,28 +31968,28 @@
         <v>0.0614</v>
       </c>
       <c r="I20" t="n">
-        <v>0.07645900379117172</v>
+        <v>0.06659844171325971</v>
       </c>
       <c r="J20" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K20" t="n">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="L20" t="n">
-        <v>0.001975198019578572</v>
+        <v>0.001528918518299283</v>
       </c>
       <c r="M20" t="n">
-        <v>10.4045605273659</v>
+        <v>10.35349005664786</v>
       </c>
       <c r="N20" t="n">
-        <v>193.8514059657019</v>
+        <v>192.1252560698425</v>
       </c>
       <c r="O20" t="n">
-        <v>13.92305304039678</v>
+        <v>13.86092551274418</v>
       </c>
       <c r="P20" t="n">
-        <v>411.7052283470458</v>
+        <v>411.7892639340265</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -31768,28 +32040,28 @@
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="n">
-        <v>-0.03757100884779244</v>
+        <v>-0.04971002409309083</v>
       </c>
       <c r="J21" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K21" t="n">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0006716670452037166</v>
+        <v>0.001195431325636265</v>
       </c>
       <c r="M21" t="n">
-        <v>8.687538618499934</v>
+        <v>8.661333715459117</v>
       </c>
       <c r="N21" t="n">
-        <v>135.2090574531408</v>
+        <v>134.3392801761427</v>
       </c>
       <c r="O21" t="n">
-        <v>11.62794295880148</v>
+        <v>11.59048230990163</v>
       </c>
       <c r="P21" t="n">
-        <v>416.0061682439436</v>
+        <v>416.1106538743337</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -31846,28 +32118,28 @@
         <v>0.0772</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.02667738706438731</v>
+        <v>-0.02970062064000195</v>
       </c>
       <c r="J22" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K22" t="n">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0004852204105471047</v>
+        <v>0.0006134534547510562</v>
       </c>
       <c r="M22" t="n">
-        <v>7.119658471797072</v>
+        <v>7.065247024179346</v>
       </c>
       <c r="N22" t="n">
-        <v>95.51271629328761</v>
+        <v>94.63045233645479</v>
       </c>
       <c r="O22" t="n">
-        <v>9.77306074335403</v>
+        <v>9.727818477770583</v>
       </c>
       <c r="P22" t="n">
-        <v>417.967362827532</v>
+        <v>417.9930553758202</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -31924,28 +32196,28 @@
         <v>0.07480000000000001</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.04452754514212835</v>
+        <v>-0.04486382878038415</v>
       </c>
       <c r="J23" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K23" t="n">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="L23" t="n">
-        <v>0.001363466483761622</v>
+        <v>0.001409751858687525</v>
       </c>
       <c r="M23" t="n">
-        <v>7.152890506680995</v>
+        <v>7.123319617239449</v>
       </c>
       <c r="N23" t="n">
-        <v>94.76807105246507</v>
+        <v>93.99463783329728</v>
       </c>
       <c r="O23" t="n">
-        <v>9.734889370324918</v>
+        <v>9.695083178255732</v>
       </c>
       <c r="P23" t="n">
-        <v>420.0250840549884</v>
+        <v>420.0280852537061</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -31996,28 +32268,28 @@
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="n">
-        <v>-0.05196807054688252</v>
+        <v>-0.05329590761500723</v>
       </c>
       <c r="J24" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K24" t="n">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="L24" t="n">
-        <v>0.001807772134459928</v>
+        <v>0.001939634050586503</v>
       </c>
       <c r="M24" t="n">
-        <v>7.113549830317785</v>
+        <v>7.049251764681562</v>
       </c>
       <c r="N24" t="n">
-        <v>97.46685558021402</v>
+        <v>96.50303582093439</v>
       </c>
       <c r="O24" t="n">
-        <v>9.872530353471394</v>
+        <v>9.823595870196126</v>
       </c>
       <c r="P24" t="n">
-        <v>419.3690195013754</v>
+        <v>419.3803681445739</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -32074,28 +32346,28 @@
         <v>0.07580000000000001</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.04944814739785907</v>
+        <v>-0.05048926180127091</v>
       </c>
       <c r="J25" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K25" t="n">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L25" t="n">
-        <v>0.001599847680693434</v>
+        <v>0.001701441542008686</v>
       </c>
       <c r="M25" t="n">
-        <v>7.1473417223844</v>
+        <v>7.083879990804116</v>
       </c>
       <c r="N25" t="n">
-        <v>99.25315790038913</v>
+        <v>98.28024202228434</v>
       </c>
       <c r="O25" t="n">
-        <v>9.962587911802292</v>
+        <v>9.913639191653303</v>
       </c>
       <c r="P25" t="n">
-        <v>420.0215621016916</v>
+        <v>420.0304804798055</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
@@ -32152,28 +32424,28 @@
         <v>0.09810000000000001</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.05674226740186588</v>
+        <v>-0.05714264444060677</v>
       </c>
       <c r="J26" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K26" t="n">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L26" t="n">
-        <v>0.002372695124796542</v>
+        <v>0.002453820989615663</v>
       </c>
       <c r="M26" t="n">
-        <v>6.683391163096258</v>
+        <v>6.636311626337657</v>
       </c>
       <c r="N26" t="n">
-        <v>88.90500607820722</v>
+        <v>88.0612137363721</v>
       </c>
       <c r="O26" t="n">
-        <v>9.42894512011854</v>
+        <v>9.384093655562699</v>
       </c>
       <c r="P26" t="n">
-        <v>421.0979740794355</v>
+        <v>421.1014360282622</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
@@ -32230,28 +32502,28 @@
         <v>0.07870000000000001</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.0317866958522879</v>
+        <v>-0.0400613433483043</v>
       </c>
       <c r="J27" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K27" t="n">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L27" t="n">
-        <v>0.0006980365350599538</v>
+        <v>0.001127878467182541</v>
       </c>
       <c r="M27" t="n">
-        <v>6.61230614439781</v>
+        <v>6.587228820498134</v>
       </c>
       <c r="N27" t="n">
-        <v>94.68869671714836</v>
+        <v>93.97628318622816</v>
       </c>
       <c r="O27" t="n">
-        <v>9.730811719335051</v>
+        <v>9.694136536392921</v>
       </c>
       <c r="P27" t="n">
-        <v>418.4337691102909</v>
+        <v>418.5045946888505</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
@@ -32308,28 +32580,28 @@
         <v>0.06710000000000001</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.07092119343539775</v>
+        <v>-0.07719048125854376</v>
       </c>
       <c r="J28" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K28" t="n">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L28" t="n">
-        <v>0.003476568770303667</v>
+        <v>0.004192344843909956</v>
       </c>
       <c r="M28" t="n">
-        <v>6.741246876606317</v>
+        <v>6.706533992900902</v>
       </c>
       <c r="N28" t="n">
-        <v>93.59963122557882</v>
+        <v>92.80269126213577</v>
       </c>
       <c r="O28" t="n">
-        <v>9.674690239257215</v>
+        <v>9.633415347743279</v>
       </c>
       <c r="P28" t="n">
-        <v>416.1564965480327</v>
+        <v>416.2105935660186</v>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
@@ -32386,28 +32658,28 @@
         <v>0.08169999999999999</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.1087647331238206</v>
+        <v>-0.1095909266854253</v>
       </c>
       <c r="J29" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K29" t="n">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L29" t="n">
-        <v>0.00877449878073755</v>
+        <v>0.009078965500395331</v>
       </c>
       <c r="M29" t="n">
-        <v>6.499586808218144</v>
+        <v>6.457821449757576</v>
       </c>
       <c r="N29" t="n">
-        <v>87.30236969746454</v>
+        <v>86.47967500594579</v>
       </c>
       <c r="O29" t="n">
-        <v>9.34357371124478</v>
+        <v>9.299444876224912</v>
       </c>
       <c r="P29" t="n">
-        <v>414.468521203846</v>
+        <v>414.4757103572218</v>
       </c>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
@@ -32464,28 +32736,28 @@
         <v>0.08939999999999999</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.1293090366311327</v>
+        <v>-0.1333150522068119</v>
       </c>
       <c r="J30" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K30" t="n">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L30" t="n">
-        <v>0.01153153118906258</v>
+        <v>0.01247854173010832</v>
       </c>
       <c r="M30" t="n">
-        <v>6.468599288452567</v>
+        <v>6.429919777096615</v>
       </c>
       <c r="N30" t="n">
-        <v>92.92681190968462</v>
+        <v>92.11448849164024</v>
       </c>
       <c r="O30" t="n">
-        <v>9.63985538842179</v>
+        <v>9.597629316223889</v>
       </c>
       <c r="P30" t="n">
-        <v>416.7185392932237</v>
+        <v>416.7531592301579</v>
       </c>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
@@ -32542,28 +32814,28 @@
         <v>0.08309999999999999</v>
       </c>
       <c r="I31" t="n">
-        <v>-0.1345681436535825</v>
+        <v>-0.1397125735128626</v>
       </c>
       <c r="J31" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K31" t="n">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="L31" t="n">
-        <v>0.01130941258505924</v>
+        <v>0.01240130066863643</v>
       </c>
       <c r="M31" t="n">
-        <v>6.818321696118924</v>
+        <v>6.784025307589335</v>
       </c>
       <c r="N31" t="n">
-        <v>102.5724082988601</v>
+        <v>101.7638969804742</v>
       </c>
       <c r="O31" t="n">
-        <v>10.12780372533256</v>
+        <v>10.08780932514459</v>
       </c>
       <c r="P31" t="n">
-        <v>421.5659250061839</v>
+        <v>421.6100768765453</v>
       </c>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
@@ -32620,28 +32892,28 @@
         <v>0.0762</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.1179660019017272</v>
+        <v>-0.1298028867044659</v>
       </c>
       <c r="J32" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K32" t="n">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L32" t="n">
-        <v>0.008856962325283657</v>
+        <v>0.01086992913217399</v>
       </c>
       <c r="M32" t="n">
-        <v>7.037469389362778</v>
+        <v>7.040923656086036</v>
       </c>
       <c r="N32" t="n">
-        <v>99.63425156977311</v>
+        <v>99.16517662481088</v>
       </c>
       <c r="O32" t="n">
-        <v>9.981695826350006</v>
+        <v>9.95817134944016</v>
       </c>
       <c r="P32" t="n">
-        <v>422.0019042688786</v>
+        <v>422.1037867307776</v>
       </c>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr">
@@ -32698,28 +32970,28 @@
         <v>0.0531</v>
       </c>
       <c r="I33" t="n">
-        <v>0.01053569478325631</v>
+        <v>0.001881337096960136</v>
       </c>
       <c r="J33" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K33" t="n">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L33" t="n">
-        <v>8.355692223871447e-05</v>
+        <v>2.709732979555568e-06</v>
       </c>
       <c r="M33" t="n">
-        <v>7.205201835647077</v>
+        <v>7.181223562100694</v>
       </c>
       <c r="N33" t="n">
-        <v>85.18091161306185</v>
+        <v>84.69489251101641</v>
       </c>
       <c r="O33" t="n">
-        <v>9.229350552073631</v>
+        <v>9.202982805102724</v>
       </c>
       <c r="P33" t="n">
-        <v>422.048829044362</v>
+        <v>422.1230157025395</v>
       </c>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr">
@@ -32776,28 +33048,28 @@
         <v>0.0672</v>
       </c>
       <c r="I34" t="n">
-        <v>-0.1582395000568814</v>
+        <v>-0.1638615049130542</v>
       </c>
       <c r="J34" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K34" t="n">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L34" t="n">
-        <v>0.01469995102420663</v>
+        <v>0.01601045703141191</v>
       </c>
       <c r="M34" t="n">
-        <v>7.027438036183884</v>
+        <v>7.008209754573429</v>
       </c>
       <c r="N34" t="n">
-        <v>107.4904289674609</v>
+        <v>106.8092070032145</v>
       </c>
       <c r="O34" t="n">
-        <v>10.36775911021571</v>
+        <v>10.33485399041585</v>
       </c>
       <c r="P34" t="n">
-        <v>430.4533034068769</v>
+        <v>430.5018035859864</v>
       </c>
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr">
@@ -32854,28 +33126,28 @@
         <v>0.0863</v>
       </c>
       <c r="I35" t="n">
-        <v>-0.105873225734213</v>
+        <v>-0.116518014383554</v>
       </c>
       <c r="J35" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K35" t="n">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L35" t="n">
-        <v>0.006400019774059906</v>
+        <v>0.007873313324215259</v>
       </c>
       <c r="M35" t="n">
-        <v>6.998572454225477</v>
+        <v>6.988457565360824</v>
       </c>
       <c r="N35" t="n">
-        <v>111.0096377744655</v>
+        <v>110.2393228861407</v>
       </c>
       <c r="O35" t="n">
-        <v>10.53611113145954</v>
+        <v>10.49949155369634</v>
       </c>
       <c r="P35" t="n">
-        <v>434.0808866697216</v>
+        <v>434.1745352946037</v>
       </c>
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr">
@@ -32932,28 +33204,28 @@
         <v>0.0696</v>
       </c>
       <c r="I36" t="n">
-        <v>-0.1905069264369709</v>
+        <v>-0.2003950948935676</v>
       </c>
       <c r="J36" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K36" t="n">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="L36" t="n">
-        <v>0.01872684514647172</v>
+        <v>0.02103353500816341</v>
       </c>
       <c r="M36" t="n">
-        <v>7.334808623526703</v>
+        <v>7.310844691971787</v>
       </c>
       <c r="N36" t="n">
-        <v>120.5796214723158</v>
+        <v>119.7082544954162</v>
       </c>
       <c r="O36" t="n">
-        <v>10.98087525984681</v>
+        <v>10.94112674706843</v>
       </c>
       <c r="P36" t="n">
-        <v>427.4619278372093</v>
+        <v>427.5496224824803</v>
       </c>
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr">
@@ -33004,28 +33276,28 @@
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="n">
-        <v>-0.1190286593496207</v>
+        <v>-0.1267765547286599</v>
       </c>
       <c r="J37" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K37" t="n">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="L37" t="n">
-        <v>0.006792200420732364</v>
+        <v>0.007841004449431699</v>
       </c>
       <c r="M37" t="n">
-        <v>7.961252641459567</v>
+        <v>7.921975225712497</v>
       </c>
       <c r="N37" t="n">
-        <v>133.2579690988968</v>
+        <v>132.1094520105418</v>
       </c>
       <c r="O37" t="n">
-        <v>11.54374155544452</v>
+        <v>11.49388759343599</v>
       </c>
       <c r="P37" t="n">
-        <v>417.0464757693521</v>
+        <v>417.1142696469909</v>
       </c>
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr">
@@ -33076,28 +33348,28 @@
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="n">
-        <v>-0.01781416989319727</v>
+        <v>-0.02968065680615306</v>
       </c>
       <c r="J38" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K38" t="n">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L38" t="n">
-        <v>0.000160186375325444</v>
+        <v>0.0004514967805765435</v>
       </c>
       <c r="M38" t="n">
-        <v>8.057425752952259</v>
+        <v>8.033074458440414</v>
       </c>
       <c r="N38" t="n">
-        <v>124.4394324680263</v>
+        <v>123.8179346764899</v>
       </c>
       <c r="O38" t="n">
-        <v>11.15524237603228</v>
+        <v>11.12735074833583</v>
       </c>
       <c r="P38" t="n">
-        <v>415.51406907282</v>
+        <v>415.619796087996</v>
       </c>
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr">
@@ -33154,28 +33426,28 @@
         <v>0.0653</v>
       </c>
       <c r="I39" t="n">
-        <v>-0.1623758004522424</v>
+        <v>-0.1795993841027916</v>
       </c>
       <c r="J39" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K39" t="n">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L39" t="n">
-        <v>0.0108874318112816</v>
+        <v>0.01348300129021618</v>
       </c>
       <c r="M39" t="n">
-        <v>8.185708371959839</v>
+        <v>8.175275089036159</v>
       </c>
       <c r="N39" t="n">
-        <v>152.0678072801948</v>
+        <v>151.4372572023427</v>
       </c>
       <c r="O39" t="n">
-        <v>12.33157764765704</v>
+        <v>12.30598460921932</v>
       </c>
       <c r="P39" t="n">
-        <v>423.4012273835519</v>
+        <v>423.5523699284255</v>
       </c>
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr">
@@ -33213,7 +33485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AN239"/>
+  <dimension ref="A1:AN241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75483,6 +75755,410 @@
         </is>
       </c>
     </row>
+    <row r="240">
+      <c r="A240" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:17:21+00:00</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>-34.86122854368627,173.29574496063017</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>-34.861475984217186,173.29651266535438</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>-34.86150332379816,173.2973637055456</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>-34.86152608150573,173.2982167210195</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>-34.86156806759035,173.29904251389704</t>
+        </is>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>-34.86156674074577,173.299955631976</t>
+        </is>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>-34.86148341328866,173.30083943008148</t>
+        </is>
+      </c>
+      <c r="I240" t="inlineStr">
+        <is>
+          <t>-34.86145267494851,173.3016887711448</t>
+        </is>
+      </c>
+      <c r="J240" t="inlineStr">
+        <is>
+          <t>-34.861408573679796,173.30256983361804</t>
+        </is>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>-34.86140220069273,173.3034775556481</t>
+        </is>
+      </c>
+      <c r="L240" t="inlineStr">
+        <is>
+          <t>-34.86132844148643,173.3043816534949</t>
+        </is>
+      </c>
+      <c r="M240" t="inlineStr">
+        <is>
+          <t>-34.86131065195796,173.30527732327212</t>
+        </is>
+      </c>
+      <c r="N240" t="inlineStr">
+        <is>
+          <t>-34.86123165660404,173.3061639135046</t>
+        </is>
+      </c>
+      <c r="O240" t="inlineStr">
+        <is>
+          <t>-34.86122027650565,173.30706725228455</t>
+        </is>
+      </c>
+      <c r="P240" t="inlineStr">
+        <is>
+          <t>-34.861204621230904,173.307983799816</t>
+        </is>
+      </c>
+      <c r="Q240" t="inlineStr">
+        <is>
+          <t>-34.86120529145577,173.30888286484966</t>
+        </is>
+      </c>
+      <c r="R240" t="inlineStr">
+        <is>
+          <t>-34.861274812959145,173.30977361181183</t>
+        </is>
+      </c>
+      <c r="S240" t="inlineStr">
+        <is>
+          <t>-34.86102548395434,173.31065018556797</t>
+        </is>
+      </c>
+      <c r="T240" t="inlineStr">
+        <is>
+          <t>-34.86097084784183,173.31155763133626</t>
+        </is>
+      </c>
+      <c r="U240" t="inlineStr">
+        <is>
+          <t>-34.860927356736454,173.3124525669765</t>
+        </is>
+      </c>
+      <c r="V240" t="inlineStr">
+        <is>
+          <t>-34.860798927032626,173.31333178646324</t>
+        </is>
+      </c>
+      <c r="W240" t="inlineStr">
+        <is>
+          <t>-34.86068247219567,173.31419990328658</t>
+        </is>
+      </c>
+      <c r="X240" t="inlineStr">
+        <is>
+          <t>-34.86063640392391,173.3150856622246</t>
+        </is>
+      </c>
+      <c r="Y240" t="inlineStr">
+        <is>
+          <t>-34.86053235280554,173.31598174153316</t>
+        </is>
+      </c>
+      <c r="Z240" t="inlineStr">
+        <is>
+          <t>-34.860411477020726,173.31685709035838</t>
+        </is>
+      </c>
+      <c r="AA240" t="inlineStr">
+        <is>
+          <t>-34.8603663453633,173.31774454247588</t>
+        </is>
+      </c>
+      <c r="AB240" t="inlineStr">
+        <is>
+          <t>-34.86027023553241,173.31864002525145</t>
+        </is>
+      </c>
+      <c r="AC240" t="inlineStr">
+        <is>
+          <t>-34.86012997316443,173.31953895248614</t>
+        </is>
+      </c>
+      <c r="AD240" t="inlineStr">
+        <is>
+          <t>-34.86005436845399,173.32044634182094</t>
+        </is>
+      </c>
+      <c r="AE240" t="inlineStr">
+        <is>
+          <t>-34.85999977127307,173.3213292778009</t>
+        </is>
+      </c>
+      <c r="AF240" t="inlineStr">
+        <is>
+          <t>-34.859909036381836,173.32221131705722</t>
+        </is>
+      </c>
+      <c r="AG240" t="inlineStr">
+        <is>
+          <t>-34.85970413773377,173.32309948163086</t>
+        </is>
+      </c>
+      <c r="AH240" t="inlineStr">
+        <is>
+          <t>-34.859659985506354,173.32400320254908</t>
+        </is>
+      </c>
+      <c r="AI240" t="inlineStr">
+        <is>
+          <t>-34.85951836286322,173.32481884121688</t>
+        </is>
+      </c>
+      <c r="AJ240" t="inlineStr">
+        <is>
+          <t>-34.85936781604302,173.32564229667648</t>
+        </is>
+      </c>
+      <c r="AK240" t="inlineStr">
+        <is>
+          <t>-34.85924337111927,173.3265698099205</t>
+        </is>
+      </c>
+      <c r="AL240" t="inlineStr">
+        <is>
+          <t>-34.859082204689344,173.32749544174493</t>
+        </is>
+      </c>
+      <c r="AM240" t="inlineStr">
+        <is>
+          <t>-34.859024921685,173.3284061985638</t>
+        </is>
+      </c>
+      <c r="AN240" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:17:27+00:00</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>-34.86132374920567,173.29568844522524</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>-34.861496073793354,173.29650509048443</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>-34.86162177073625,173.2973376073929</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>-34.861619158924455,173.29820569151764</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>-34.86162297794847,173.29904354752938</t>
+        </is>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>-34.861629680087894,173.29995485550856</t>
+        </is>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>-34.86158269029329,173.30084079447397</t>
+        </is>
+      </c>
+      <c r="I241" t="inlineStr">
+        <is>
+          <t>-34.861559108720684,173.30169901157512</t>
+        </is>
+      </c>
+      <c r="J241" t="inlineStr">
+        <is>
+          <t>-34.86149406051071,173.30258049563042</t>
+        </is>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>-34.86145813736726,173.3034838846969</t>
+        </is>
+      </c>
+      <c r="L241" t="inlineStr">
+        <is>
+          <t>-34.861344365272124,173.30438311490573</t>
+        </is>
+      </c>
+      <c r="M241" t="inlineStr">
+        <is>
+          <t>-34.86127572525967,173.30527385303157</t>
+        </is>
+      </c>
+      <c r="N241" t="inlineStr">
+        <is>
+          <t>-34.86126147223599,173.30616730635526</t>
+        </is>
+      </c>
+      <c r="O241" t="inlineStr">
+        <is>
+          <t>-34.86124336854509,173.30706974583447</t>
+        </is>
+      </c>
+      <c r="P241" t="inlineStr">
+        <is>
+          <t>-34.86119274222013,173.30798305225593</t>
+        </is>
+      </c>
+      <c r="Q241" t="inlineStr">
+        <is>
+          <t>-34.861192151649746,173.30888203871126</t>
+        </is>
+      </c>
+      <c r="R241" t="inlineStr">
+        <is>
+          <t>-34.86113557063196,173.3097576523558</t>
+        </is>
+      </c>
+      <c r="S241" t="inlineStr">
+        <is>
+          <t>-34.86106312161838,173.3106542101261</t>
+        </is>
+      </c>
+      <c r="T241" t="inlineStr">
+        <is>
+          <t>-34.86097958497249,173.3115583139581</t>
+        </is>
+      </c>
+      <c r="U241" t="inlineStr">
+        <is>
+          <t>-34.86094355094703,173.31245390288314</t>
+        </is>
+      </c>
+      <c r="V241" t="inlineStr">
+        <is>
+          <t>-34.86082776746043,173.31333478810947</t>
+        </is>
+      </c>
+      <c r="W241" t="inlineStr">
+        <is>
+          <t>-34.86075718665726,173.3142106846382</t>
+        </is>
+      </c>
+      <c r="X241" t="inlineStr">
+        <is>
+          <t>-34.86062366649652,173.31508350955033</t>
+        </is>
+      </c>
+      <c r="Y241" t="inlineStr">
+        <is>
+          <t>-34.8605181640192,173.31597955078962</t>
+        </is>
+      </c>
+      <c r="Z241" t="inlineStr">
+        <is>
+          <t>-34.86044552187667,173.31686308846488</t>
+        </is>
+      </c>
+      <c r="AA241" t="inlineStr">
+        <is>
+          <t>-34.86036856865398,173.3177449951902</t>
+        </is>
+      </c>
+      <c r="AB241" t="inlineStr">
+        <is>
+          <t>-34.86026311133316,173.31863864828247</t>
+        </is>
+      </c>
+      <c r="AC241" t="inlineStr">
+        <is>
+          <t>-34.86017093784618,173.31954532814032</t>
+        </is>
+      </c>
+      <c r="AD241" t="inlineStr">
+        <is>
+          <t>-34.86009715697821,173.32045167482303</t>
+        </is>
+      </c>
+      <c r="AE241" t="inlineStr">
+        <is>
+          <t>-34.85993590869529,173.32131934427727</t>
+        </is>
+      </c>
+      <c r="AF241" t="inlineStr">
+        <is>
+          <t>-34.85985835939317,173.32220229524586</t>
+        </is>
+      </c>
+      <c r="AG241" t="inlineStr">
+        <is>
+          <t>-34.859767979692485,173.3231087266384</t>
+        </is>
+      </c>
+      <c r="AH241" t="inlineStr">
+        <is>
+          <t>-34.859564878874615,173.32399055569456</t>
+        </is>
+      </c>
+      <c r="AI241" t="inlineStr">
+        <is>
+          <t>-34.85951456796177,173.32481787515744</t>
+        </is>
+      </c>
+      <c r="AJ241" t="inlineStr">
+        <is>
+          <t>-34.85940789438831,173.32565687667167</t>
+        </is>
+      </c>
+      <c r="AK241" t="inlineStr">
+        <is>
+          <t>-34.859231672669104,173.3265666032384</t>
+        </is>
+      </c>
+      <c r="AL241" t="inlineStr">
+        <is>
+          <t>-34.85916956893807,173.32750923989903</t>
+        </is>
+      </c>
+      <c r="AM241" t="inlineStr">
+        <is>
+          <t>-34.85905667708297,173.32841015156328</t>
+        </is>
+      </c>
+      <c r="AN241" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0028/nzd0028.xlsx
+++ b/data/nzd0028/nzd0028.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AN241"/>
+  <dimension ref="A1:AN243"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27870,6 +27870,236 @@
         </is>
       </c>
     </row>
+    <row r="242">
+      <c r="A242" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-31 22:17:29+00:00</t>
+        </is>
+      </c>
+      <c r="B242" t="n">
+        <v>379.5169230769231</v>
+      </c>
+      <c r="C242" t="n">
+        <v>391.0435294117647</v>
+      </c>
+      <c r="D242" t="n">
+        <v>396.8666666666667</v>
+      </c>
+      <c r="E242" t="n">
+        <v>405.1327272727273</v>
+      </c>
+      <c r="F242" t="n">
+        <v>402.41</v>
+      </c>
+      <c r="G242" t="n">
+        <v>400.97</v>
+      </c>
+      <c r="H242" t="n">
+        <v>403.79</v>
+      </c>
+      <c r="I242" t="n">
+        <v>408.22</v>
+      </c>
+      <c r="J242" t="n">
+        <v>411.82</v>
+      </c>
+      <c r="K242" t="n">
+        <v>404.8866666666667</v>
+      </c>
+      <c r="L242" t="n">
+        <v>406.9527272727273</v>
+      </c>
+      <c r="M242" t="n">
+        <v>411.2069230769231</v>
+      </c>
+      <c r="N242" t="n">
+        <v>403.4127272727272</v>
+      </c>
+      <c r="O242" t="n">
+        <v>396.9827272727272</v>
+      </c>
+      <c r="P242" t="n">
+        <v>393.5427272727272</v>
+      </c>
+      <c r="Q242" t="n">
+        <v>395.4727272727272</v>
+      </c>
+      <c r="R242" t="n">
+        <v>382.06</v>
+      </c>
+      <c r="S242" t="n">
+        <v>404.1833333333333</v>
+      </c>
+      <c r="T242" t="n">
+        <v>401.9927272727273</v>
+      </c>
+      <c r="U242" t="n">
+        <v>398.59</v>
+      </c>
+      <c r="V242" t="n">
+        <v>411.08</v>
+      </c>
+      <c r="W242" t="n">
+        <v>411.3769230769231</v>
+      </c>
+      <c r="X242" t="n">
+        <v>404.6669230769231</v>
+      </c>
+      <c r="Y242" t="n">
+        <v>411.8669230769231</v>
+      </c>
+      <c r="Z242" t="n">
+        <v>412.395</v>
+      </c>
+      <c r="AA242" t="n">
+        <v>409.29</v>
+      </c>
+      <c r="AB242" t="n">
+        <v>405.0466666666667</v>
+      </c>
+      <c r="AC242" t="n">
+        <v>401.0233333333333</v>
+      </c>
+      <c r="AD242" t="n">
+        <v>407.5133333333333</v>
+      </c>
+      <c r="AE242" t="n">
+        <v>400.84</v>
+      </c>
+      <c r="AF242" t="n">
+        <v>404.44</v>
+      </c>
+      <c r="AG242" t="n">
+        <v>410.87</v>
+      </c>
+      <c r="AH242" t="n">
+        <v>411.9866666666667</v>
+      </c>
+      <c r="AI242" t="n">
+        <v>422.1233333333333</v>
+      </c>
+      <c r="AJ242" t="n">
+        <v>412.3866666666667</v>
+      </c>
+      <c r="AK242" t="n">
+        <v>394.7766666666667</v>
+      </c>
+      <c r="AL242" t="n">
+        <v>402.9866666666667</v>
+      </c>
+      <c r="AM242" t="n">
+        <v>405.8766666666667</v>
+      </c>
+      <c r="AN242" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-24 22:17:43+00:00</t>
+        </is>
+      </c>
+      <c r="B243" t="n">
+        <v>393.0030769230769</v>
+      </c>
+      <c r="C243" t="n">
+        <v>397.0235294117647</v>
+      </c>
+      <c r="D243" t="n">
+        <v>405.5866666666667</v>
+      </c>
+      <c r="E243" t="n">
+        <v>415.0954545454546</v>
+      </c>
+      <c r="F243" t="inlineStr"/>
+      <c r="G243" t="inlineStr"/>
+      <c r="H243" t="inlineStr"/>
+      <c r="I243" t="inlineStr"/>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>412.3266666666667</v>
+      </c>
+      <c r="L243" t="n">
+        <v>416.3654545454546</v>
+      </c>
+      <c r="M243" t="n">
+        <v>416.6630769230769</v>
+      </c>
+      <c r="N243" t="n">
+        <v>407.6854545454545</v>
+      </c>
+      <c r="O243" t="n">
+        <v>401.8354545454546</v>
+      </c>
+      <c r="P243" t="n">
+        <v>396.8654545454546</v>
+      </c>
+      <c r="Q243" t="n">
+        <v>398.1954545454545</v>
+      </c>
+      <c r="R243" t="n">
+        <v>376.81</v>
+      </c>
+      <c r="S243" t="n">
+        <v>402.737619047619</v>
+      </c>
+      <c r="T243" t="inlineStr"/>
+      <c r="U243" t="inlineStr"/>
+      <c r="V243" t="inlineStr"/>
+      <c r="W243" t="inlineStr"/>
+      <c r="X243" t="inlineStr"/>
+      <c r="Y243" t="inlineStr"/>
+      <c r="Z243" t="n">
+        <v>406.02</v>
+      </c>
+      <c r="AA243" t="n">
+        <v>405.7557142857143</v>
+      </c>
+      <c r="AB243" t="n">
+        <v>400.1966666666667</v>
+      </c>
+      <c r="AC243" t="n">
+        <v>392.1833333333333</v>
+      </c>
+      <c r="AD243" t="n">
+        <v>400.6833333333333</v>
+      </c>
+      <c r="AE243" t="n">
+        <v>402.7557142857143</v>
+      </c>
+      <c r="AF243" t="n">
+        <v>401.6657142857143</v>
+      </c>
+      <c r="AG243" t="n">
+        <v>419.67</v>
+      </c>
+      <c r="AH243" t="n">
+        <v>420.4166666666667</v>
+      </c>
+      <c r="AI243" t="n">
+        <v>429.4533333333334</v>
+      </c>
+      <c r="AJ243" t="n">
+        <v>418.4266666666667</v>
+      </c>
+      <c r="AK243" t="n">
+        <v>401.4066666666667</v>
+      </c>
+      <c r="AL243" t="n">
+        <v>403.2766666666667</v>
+      </c>
+      <c r="AM243" t="n">
+        <v>406.2566666666667</v>
+      </c>
+      <c r="AN243" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -27881,7 +28111,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B252"/>
+  <dimension ref="A1:B254"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30409,6 +30639,26 @@
       </c>
       <c r="B252" t="n">
         <v>-0.38</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>2025-07-31 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B253" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>2025-08-24 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B254" t="n">
+        <v>0.58</v>
       </c>
     </row>
   </sheetData>
@@ -30582,28 +30832,28 @@
         <v>0.07340000000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>0.006378603405933041</v>
+        <v>0.0009069893063475337</v>
       </c>
       <c r="J2" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="K2" t="n">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L2" t="n">
-        <v>1.741963106705047e-05</v>
+        <v>3.583115284477856e-07</v>
       </c>
       <c r="M2" t="n">
-        <v>9.748027812934639</v>
+        <v>9.719649580549037</v>
       </c>
       <c r="N2" t="n">
-        <v>150.8236086294191</v>
+        <v>149.874542199813</v>
       </c>
       <c r="O2" t="n">
-        <v>12.28102636710056</v>
+        <v>12.24232584927443</v>
       </c>
       <c r="P2" t="n">
-        <v>389.2249333170188</v>
+        <v>389.2719644110514</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -30660,28 +30910,28 @@
         <v>0.1107</v>
       </c>
       <c r="I3" t="n">
-        <v>0.09829516519019786</v>
+        <v>0.08385026907854368</v>
       </c>
       <c r="J3" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="K3" t="n">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L3" t="n">
-        <v>0.004290441342190254</v>
+        <v>0.003174977933362855</v>
       </c>
       <c r="M3" t="n">
-        <v>9.933837064265392</v>
+        <v>9.915518894797682</v>
       </c>
       <c r="N3" t="n">
-        <v>145.2409471186425</v>
+        <v>144.5424917696571</v>
       </c>
       <c r="O3" t="n">
-        <v>12.05159521053717</v>
+        <v>12.02258257487372</v>
       </c>
       <c r="P3" t="n">
-        <v>399.7277384077018</v>
+        <v>399.8519610433285</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -30738,28 +30988,28 @@
         <v>0.0684</v>
       </c>
       <c r="I4" t="n">
-        <v>0.09688719135812469</v>
+        <v>0.09254725929685328</v>
       </c>
       <c r="J4" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="K4" t="n">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="L4" t="n">
-        <v>0.004019072670119694</v>
+        <v>0.003738043558678017</v>
       </c>
       <c r="M4" t="n">
-        <v>9.62921684276664</v>
+        <v>9.578718108135199</v>
       </c>
       <c r="N4" t="n">
-        <v>150.1121720132714</v>
+        <v>148.886384736608</v>
       </c>
       <c r="O4" t="n">
-        <v>12.25202726136665</v>
+        <v>12.20190086570974</v>
       </c>
       <c r="P4" t="n">
-        <v>401.2289065909096</v>
+        <v>401.2663170588343</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -30816,28 +31066,28 @@
         <v>0.061</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1185330677965264</v>
+        <v>0.1086205085920565</v>
       </c>
       <c r="J5" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="K5" t="n">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="L5" t="n">
-        <v>0.005453718672926544</v>
+        <v>0.00466315214451396</v>
       </c>
       <c r="M5" t="n">
-        <v>10.24851326436714</v>
+        <v>10.20213766669777</v>
       </c>
       <c r="N5" t="n">
-        <v>166.787213227413</v>
+        <v>165.7068802365814</v>
       </c>
       <c r="O5" t="n">
-        <v>12.91461239168303</v>
+        <v>12.87271844780975</v>
       </c>
       <c r="P5" t="n">
-        <v>412.7763169982479</v>
+        <v>412.8610372682107</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -30894,28 +31144,28 @@
         <v>0.0566</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1151021857024758</v>
+        <v>0.1057354895759585</v>
       </c>
       <c r="J6" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="K6" t="n">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L6" t="n">
-        <v>0.005077594518901996</v>
+        <v>0.004319355874139008</v>
       </c>
       <c r="M6" t="n">
-        <v>9.963633315789725</v>
+        <v>9.96649982325636</v>
       </c>
       <c r="N6" t="n">
-        <v>169.2118787910412</v>
+        <v>168.9191287862113</v>
       </c>
       <c r="O6" t="n">
-        <v>13.00814663167053</v>
+        <v>12.99688919650434</v>
       </c>
       <c r="P6" t="n">
-        <v>410.010814966348</v>
+        <v>410.0904884797094</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -30966,28 +31216,28 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>0.07286830599309946</v>
+        <v>0.06254475348266131</v>
       </c>
       <c r="J7" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="K7" t="n">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L7" t="n">
-        <v>0.002221171083680473</v>
+        <v>0.001647020081369188</v>
       </c>
       <c r="M7" t="n">
-        <v>9.719894822271371</v>
+        <v>9.727840643248639</v>
       </c>
       <c r="N7" t="n">
-        <v>155.7279048549784</v>
+        <v>155.6348802124938</v>
       </c>
       <c r="O7" t="n">
-        <v>12.47909871965834</v>
+        <v>12.47537094488552</v>
       </c>
       <c r="P7" t="n">
-        <v>410.8797405406097</v>
+        <v>410.9681216757041</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -31044,28 +31294,28 @@
         <v>0.0584</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.01102621714447645</v>
+        <v>-0.02601045645472681</v>
       </c>
       <c r="J8" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="K8" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L8" t="n">
-        <v>5.712420248871197e-05</v>
+        <v>0.0003178146356562772</v>
       </c>
       <c r="M8" t="n">
-        <v>9.338359324185284</v>
+        <v>9.369328717297979</v>
       </c>
       <c r="N8" t="n">
-        <v>138.4728160140422</v>
+        <v>139.2194739394861</v>
       </c>
       <c r="O8" t="n">
-        <v>11.76744730236945</v>
+        <v>11.79913021961729</v>
       </c>
       <c r="P8" t="n">
-        <v>421.3011901146714</v>
+        <v>421.4288572328406</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -31122,28 +31372,28 @@
         <v>0.0581</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.1015716815615152</v>
+        <v>-0.1132538523834814</v>
       </c>
       <c r="J9" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="K9" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L9" t="n">
-        <v>0.005029483754822595</v>
+        <v>0.00626695542912814</v>
       </c>
       <c r="M9" t="n">
-        <v>9.164888288393326</v>
+        <v>9.183466758638007</v>
       </c>
       <c r="N9" t="n">
-        <v>133.5560077495057</v>
+        <v>133.7880334994406</v>
       </c>
       <c r="O9" t="n">
-        <v>11.55664344649889</v>
+        <v>11.56667772091194</v>
       </c>
       <c r="P9" t="n">
-        <v>424.4023703076143</v>
+        <v>424.5021759544678</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -31200,28 +31450,28 @@
         <v>0.056</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.1002471947026888</v>
+        <v>-0.1085920669473497</v>
       </c>
       <c r="J10" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="K10" t="n">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L10" t="n">
-        <v>0.004931886354224813</v>
+        <v>0.00582083593264604</v>
       </c>
       <c r="M10" t="n">
-        <v>8.94593770859454</v>
+        <v>8.94958779864591</v>
       </c>
       <c r="N10" t="n">
-        <v>133.6135762153164</v>
+        <v>133.4094604012599</v>
       </c>
       <c r="O10" t="n">
-        <v>11.55913388690158</v>
+        <v>11.5503013121416</v>
       </c>
       <c r="P10" t="n">
-        <v>424.082161948776</v>
+        <v>424.1532047416423</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -31278,28 +31528,28 @@
         <v>0.07190000000000001</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.1229095991632178</v>
+        <v>-0.1401942849919394</v>
       </c>
       <c r="J11" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="K11" t="n">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="L11" t="n">
-        <v>0.007299630228256748</v>
+        <v>0.009588168707590716</v>
       </c>
       <c r="M11" t="n">
-        <v>8.73029357453191</v>
+        <v>8.733852922238251</v>
       </c>
       <c r="N11" t="n">
-        <v>134.4647202676186</v>
+        <v>134.2552542227623</v>
       </c>
       <c r="O11" t="n">
-        <v>11.59589238772155</v>
+        <v>11.58685696048597</v>
       </c>
       <c r="P11" t="n">
-        <v>421.8964415855045</v>
+        <v>422.0447245927005</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -31356,28 +31606,28 @@
         <v>0.06660000000000001</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.1733824069608552</v>
+        <v>-0.1849133248139258</v>
       </c>
       <c r="J12" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="K12" t="n">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="L12" t="n">
-        <v>0.01387813542029004</v>
+        <v>0.01598525472956069</v>
       </c>
       <c r="M12" t="n">
-        <v>8.975118261765383</v>
+        <v>8.948044159020997</v>
       </c>
       <c r="N12" t="n">
-        <v>140.0798702099498</v>
+        <v>139.3901773480798</v>
       </c>
       <c r="O12" t="n">
-        <v>11.83553421734523</v>
+        <v>11.80636173205276</v>
       </c>
       <c r="P12" t="n">
-        <v>423.0607083495391</v>
+        <v>423.1600267637366</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -31434,28 +31684,28 @@
         <v>0.07729999999999999</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.07788342136902007</v>
+        <v>-0.0880673808266766</v>
       </c>
       <c r="J13" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="K13" t="n">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L13" t="n">
-        <v>0.003224607580961325</v>
+        <v>0.004188325306087481</v>
       </c>
       <c r="M13" t="n">
-        <v>8.451905837752731</v>
+        <v>8.418102705197986</v>
       </c>
       <c r="N13" t="n">
-        <v>122.551226679411</v>
+        <v>121.7503187860634</v>
       </c>
       <c r="O13" t="n">
-        <v>11.0702857541895</v>
+        <v>11.03405269092292</v>
       </c>
       <c r="P13" t="n">
-        <v>421.8854155343487</v>
+        <v>421.9733045301097</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -31512,28 +31762,28 @@
         <v>0.06370000000000001</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.04670251796537903</v>
+        <v>-0.06784022302817251</v>
       </c>
       <c r="J14" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="K14" t="n">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="L14" t="n">
-        <v>0.001296431849332369</v>
+        <v>0.002749321119629111</v>
       </c>
       <c r="M14" t="n">
-        <v>8.232791753456402</v>
+        <v>8.256199444382473</v>
       </c>
       <c r="N14" t="n">
-        <v>110.3735148707819</v>
+        <v>110.7736678439818</v>
       </c>
       <c r="O14" t="n">
-        <v>10.50588001410552</v>
+        <v>10.52490702305639</v>
       </c>
       <c r="P14" t="n">
-        <v>419.0157579071943</v>
+        <v>419.1977412718434</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -31584,28 +31834,28 @@
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="n">
-        <v>-0.1202241729769018</v>
+        <v>-0.1438411584651047</v>
       </c>
       <c r="J15" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="K15" t="n">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L15" t="n">
-        <v>0.008804209684863173</v>
+        <v>0.01259216548251829</v>
       </c>
       <c r="M15" t="n">
-        <v>7.981161302801433</v>
+        <v>8.015250753474609</v>
       </c>
       <c r="N15" t="n">
-        <v>106.2519007872295</v>
+        <v>107.0526472723552</v>
       </c>
       <c r="O15" t="n">
-        <v>10.30785626535554</v>
+        <v>10.34662492179721</v>
       </c>
       <c r="P15" t="n">
-        <v>416.1997840600391</v>
+        <v>416.4024729878936</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -31662,28 +31912,28 @@
         <v>0.0613</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.1100641148293054</v>
+        <v>-0.1371456362863954</v>
       </c>
       <c r="J16" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="K16" t="n">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="L16" t="n">
-        <v>0.007591208933805715</v>
+        <v>0.0117050366780741</v>
       </c>
       <c r="M16" t="n">
-        <v>8.090075537364941</v>
+        <v>8.162303486331146</v>
       </c>
       <c r="N16" t="n">
-        <v>103.8976585120299</v>
+        <v>105.2644578901182</v>
       </c>
       <c r="O16" t="n">
-        <v>10.19302008788514</v>
+        <v>10.25984687459409</v>
       </c>
       <c r="P16" t="n">
-        <v>413.7285980202669</v>
+        <v>413.9611169080379</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -31740,28 +31990,28 @@
         <v>0.0629</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.1418957951750479</v>
+        <v>-0.1704015124571696</v>
       </c>
       <c r="J17" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="K17" t="n">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="L17" t="n">
-        <v>0.01093371803810417</v>
+        <v>0.0156562959190073</v>
       </c>
       <c r="M17" t="n">
-        <v>8.466451299589783</v>
+        <v>8.545099134763728</v>
       </c>
       <c r="N17" t="n">
-        <v>119.3529745009047</v>
+        <v>120.8575144575489</v>
       </c>
       <c r="O17" t="n">
-        <v>10.92487869502013</v>
+        <v>10.99352147664928</v>
       </c>
       <c r="P17" t="n">
-        <v>417.2114867565351</v>
+        <v>417.4562583418807</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -31818,28 +32068,28 @@
         <v>0.0568</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.1961042104347891</v>
+        <v>-0.2483786890953365</v>
       </c>
       <c r="J18" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="K18" t="n">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="L18" t="n">
-        <v>0.01333076281561807</v>
+        <v>0.02063961212107202</v>
       </c>
       <c r="M18" t="n">
-        <v>10.73503252190288</v>
+        <v>10.92780155737854</v>
       </c>
       <c r="N18" t="n">
-        <v>186.0386813839006</v>
+        <v>193.2685526555716</v>
       </c>
       <c r="O18" t="n">
-        <v>13.63959975160197</v>
+        <v>13.90210605108347</v>
       </c>
       <c r="P18" t="n">
-        <v>415.2948828694136</v>
+        <v>415.7456553942768</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -31890,28 +32140,28 @@
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="n">
-        <v>0.08971570209240956</v>
+        <v>0.07750053212252038</v>
       </c>
       <c r="J19" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="K19" t="n">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="L19" t="n">
-        <v>0.001874419850327991</v>
+        <v>0.001425648517979106</v>
       </c>
       <c r="M19" t="n">
-        <v>12.7111949044973</v>
+        <v>12.65010363737699</v>
       </c>
       <c r="N19" t="n">
-        <v>282.2093039299921</v>
+        <v>279.8175444279082</v>
       </c>
       <c r="O19" t="n">
-        <v>16.79908640164673</v>
+        <v>16.72774773924775</v>
       </c>
       <c r="P19" t="n">
-        <v>408.1236143827442</v>
+        <v>408.2289607736991</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -31968,28 +32218,28 @@
         <v>0.0614</v>
       </c>
       <c r="I20" t="n">
-        <v>0.06659844171325971</v>
+        <v>0.05629331527260466</v>
       </c>
       <c r="J20" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="K20" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L20" t="n">
-        <v>0.001528918518299283</v>
+        <v>0.001100301168943885</v>
       </c>
       <c r="M20" t="n">
-        <v>10.35349005664786</v>
+        <v>10.36106020402612</v>
       </c>
       <c r="N20" t="n">
-        <v>192.1252560698425</v>
+        <v>191.8046861657194</v>
       </c>
       <c r="O20" t="n">
-        <v>13.86092551274418</v>
+        <v>13.84935688635828</v>
       </c>
       <c r="P20" t="n">
-        <v>411.7892639340265</v>
+        <v>411.8773566132976</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -32040,28 +32290,28 @@
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="n">
-        <v>-0.04971002409309083</v>
+        <v>-0.06378441641070988</v>
       </c>
       <c r="J21" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="K21" t="n">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L21" t="n">
-        <v>0.001195431325636265</v>
+        <v>0.001967745765259044</v>
       </c>
       <c r="M21" t="n">
-        <v>8.661333715459117</v>
+        <v>8.689192931104673</v>
       </c>
       <c r="N21" t="n">
-        <v>134.3392801761427</v>
+        <v>134.9568728505581</v>
       </c>
       <c r="O21" t="n">
-        <v>11.59048230990163</v>
+        <v>11.61709399335987</v>
       </c>
       <c r="P21" t="n">
-        <v>416.1106538743337</v>
+        <v>416.2321453488623</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -32118,28 +32368,28 @@
         <v>0.0772</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.02970062064000195</v>
+        <v>-0.03496139134282254</v>
       </c>
       <c r="J22" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="K22" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0006134534547510562</v>
+        <v>0.0008567344795452625</v>
       </c>
       <c r="M22" t="n">
-        <v>7.065247024179346</v>
+        <v>7.05740302943977</v>
       </c>
       <c r="N22" t="n">
-        <v>94.63045233645479</v>
+        <v>94.35037481842957</v>
       </c>
       <c r="O22" t="n">
-        <v>9.727818477770583</v>
+        <v>9.713412109986354</v>
       </c>
       <c r="P22" t="n">
-        <v>417.9930553758202</v>
+        <v>418.0378258480761</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -32196,28 +32446,28 @@
         <v>0.07480000000000001</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.04486382878038415</v>
+        <v>-0.05129625699747724</v>
       </c>
       <c r="J23" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="K23" t="n">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L23" t="n">
-        <v>0.001409751858687525</v>
+        <v>0.001855055369083813</v>
       </c>
       <c r="M23" t="n">
-        <v>7.123319617239449</v>
+        <v>7.129555103763732</v>
       </c>
       <c r="N23" t="n">
-        <v>93.99463783329728</v>
+        <v>93.80217263360346</v>
       </c>
       <c r="O23" t="n">
-        <v>9.695083178255732</v>
+        <v>9.685152174003434</v>
       </c>
       <c r="P23" t="n">
-        <v>420.0280852537061</v>
+        <v>420.0833768970099</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -32268,28 +32518,28 @@
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="n">
-        <v>-0.05329590761500723</v>
+        <v>-0.06472390354252464</v>
       </c>
       <c r="J24" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="K24" t="n">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L24" t="n">
-        <v>0.001939634050586503</v>
+        <v>0.002860420070745162</v>
       </c>
       <c r="M24" t="n">
-        <v>7.049251764681562</v>
+        <v>7.075712129620222</v>
       </c>
       <c r="N24" t="n">
-        <v>96.50303582093439</v>
+        <v>96.89482774338653</v>
       </c>
       <c r="O24" t="n">
-        <v>9.823595870196126</v>
+        <v>9.843517041351964</v>
       </c>
       <c r="P24" t="n">
-        <v>419.3803681445739</v>
+        <v>419.4785315383308</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -32346,28 +32596,28 @@
         <v>0.07580000000000001</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.05048926180127091</v>
+        <v>-0.05633959014295625</v>
       </c>
       <c r="J25" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="K25" t="n">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L25" t="n">
-        <v>0.001701441542008686</v>
+        <v>0.002133641341944714</v>
       </c>
       <c r="M25" t="n">
-        <v>7.083879990804116</v>
+        <v>7.079155755140524</v>
       </c>
       <c r="N25" t="n">
-        <v>98.28024202228434</v>
+        <v>98.02450493071586</v>
       </c>
       <c r="O25" t="n">
-        <v>9.913639191653303</v>
+        <v>9.900732545156234</v>
       </c>
       <c r="P25" t="n">
-        <v>420.0304804798055</v>
+        <v>420.0808827622765</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
@@ -32424,28 +32674,28 @@
         <v>0.09810000000000001</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.05714264444060677</v>
+        <v>-0.07461407651016916</v>
       </c>
       <c r="J26" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="K26" t="n">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="L26" t="n">
-        <v>0.002453820989615663</v>
+        <v>0.004204325314865698</v>
       </c>
       <c r="M26" t="n">
-        <v>6.636311626337657</v>
+        <v>6.6814909955228</v>
       </c>
       <c r="N26" t="n">
-        <v>88.0612137363721</v>
+        <v>88.33023111648305</v>
       </c>
       <c r="O26" t="n">
-        <v>9.384093655562699</v>
+        <v>9.398416415358655</v>
       </c>
       <c r="P26" t="n">
-        <v>421.1014360282622</v>
+        <v>421.2510043525573</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
@@ -32502,28 +32752,28 @@
         <v>0.07870000000000001</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.0400613433483043</v>
+        <v>-0.05671429873165041</v>
       </c>
       <c r="J27" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="K27" t="n">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="L27" t="n">
-        <v>0.001127878467182541</v>
+        <v>0.002278383046898091</v>
       </c>
       <c r="M27" t="n">
-        <v>6.587228820498134</v>
+        <v>6.610276597383543</v>
       </c>
       <c r="N27" t="n">
-        <v>93.97628318622816</v>
+        <v>94.02730966766717</v>
       </c>
       <c r="O27" t="n">
-        <v>9.694136536392921</v>
+        <v>9.696768001126312</v>
       </c>
       <c r="P27" t="n">
-        <v>418.5045946888505</v>
+        <v>418.6479099273666</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
@@ -32580,28 +32830,28 @@
         <v>0.06710000000000001</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.07719048125854376</v>
+        <v>-0.09668276451117078</v>
       </c>
       <c r="J28" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="K28" t="n">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="L28" t="n">
-        <v>0.004192344843909956</v>
+        <v>0.006594009076779428</v>
       </c>
       <c r="M28" t="n">
-        <v>6.706533992900902</v>
+        <v>6.740830522549414</v>
       </c>
       <c r="N28" t="n">
-        <v>92.80269126213577</v>
+        <v>93.22996148180445</v>
       </c>
       <c r="O28" t="n">
-        <v>9.633415347743279</v>
+        <v>9.655566347025143</v>
       </c>
       <c r="P28" t="n">
-        <v>416.2105935660186</v>
+        <v>416.379754242293</v>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
@@ -32658,28 +32908,28 @@
         <v>0.08169999999999999</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.1095909266854253</v>
+        <v>-0.1349889392236008</v>
       </c>
       <c r="J29" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="K29" t="n">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="L29" t="n">
-        <v>0.009078965500395331</v>
+        <v>0.01360298577770125</v>
       </c>
       <c r="M29" t="n">
-        <v>6.457821449757576</v>
+        <v>6.556462879359494</v>
       </c>
       <c r="N29" t="n">
-        <v>86.47967500594579</v>
+        <v>87.99829729329944</v>
       </c>
       <c r="O29" t="n">
-        <v>9.299444876224912</v>
+        <v>9.380740764635778</v>
       </c>
       <c r="P29" t="n">
-        <v>414.4757103572218</v>
+        <v>414.6959264922872</v>
       </c>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
@@ -32736,28 +32986,28 @@
         <v>0.08939999999999999</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.1333150522068119</v>
+        <v>-0.1488558790846619</v>
       </c>
       <c r="J30" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="K30" t="n">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="L30" t="n">
-        <v>0.01247854173010832</v>
+        <v>0.01565547409706725</v>
       </c>
       <c r="M30" t="n">
-        <v>6.429919777096615</v>
+        <v>6.461694154467549</v>
       </c>
       <c r="N30" t="n">
-        <v>92.11448849164024</v>
+        <v>92.13253799782801</v>
       </c>
       <c r="O30" t="n">
-        <v>9.597629316223889</v>
+        <v>9.598569580819218</v>
       </c>
       <c r="P30" t="n">
-        <v>416.7531592301579</v>
+        <v>416.8879770607803</v>
       </c>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
@@ -32814,28 +33064,28 @@
         <v>0.08309999999999999</v>
       </c>
       <c r="I31" t="n">
-        <v>-0.1397125735128626</v>
+        <v>-0.1672789414223044</v>
       </c>
       <c r="J31" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="K31" t="n">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L31" t="n">
-        <v>0.01240130066863643</v>
+        <v>0.01759847203321974</v>
       </c>
       <c r="M31" t="n">
-        <v>6.784025307589335</v>
+        <v>6.870618254767735</v>
       </c>
       <c r="N31" t="n">
-        <v>101.7638969804742</v>
+        <v>103.2802501902914</v>
       </c>
       <c r="O31" t="n">
-        <v>10.08780932514459</v>
+        <v>10.16268912199381</v>
       </c>
       <c r="P31" t="n">
-        <v>421.6100768765453</v>
+        <v>421.8483811015591</v>
       </c>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
@@ -32892,28 +33142,28 @@
         <v>0.0762</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.1298028867044659</v>
+        <v>-0.1568293567030301</v>
       </c>
       <c r="J32" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="K32" t="n">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="L32" t="n">
-        <v>0.01086992913217399</v>
+        <v>0.01573598817937172</v>
       </c>
       <c r="M32" t="n">
-        <v>7.040923656086036</v>
+        <v>7.135682790783989</v>
       </c>
       <c r="N32" t="n">
-        <v>99.16517662481088</v>
+        <v>100.5483440748927</v>
       </c>
       <c r="O32" t="n">
-        <v>9.95817134944016</v>
+        <v>10.02737972128774</v>
       </c>
       <c r="P32" t="n">
-        <v>422.1037867307776</v>
+        <v>422.337766806036</v>
       </c>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr">
@@ -32970,28 +33220,28 @@
         <v>0.0531</v>
       </c>
       <c r="I33" t="n">
-        <v>0.001881337096960136</v>
+        <v>-0.01002365494195472</v>
       </c>
       <c r="J33" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="K33" t="n">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="L33" t="n">
-        <v>2.709732979555568e-06</v>
+        <v>7.791132587686711e-05</v>
       </c>
       <c r="M33" t="n">
-        <v>7.181223562100694</v>
+        <v>7.174995497307501</v>
       </c>
       <c r="N33" t="n">
-        <v>84.69489251101641</v>
+        <v>84.50836279774965</v>
       </c>
       <c r="O33" t="n">
-        <v>9.202982805102724</v>
+        <v>9.192843020401776</v>
       </c>
       <c r="P33" t="n">
-        <v>422.1230157025395</v>
+        <v>422.2253052675351</v>
       </c>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr">
@@ -33048,28 +33298,28 @@
         <v>0.0672</v>
       </c>
       <c r="I34" t="n">
-        <v>-0.1638615049130542</v>
+        <v>-0.1810324395409935</v>
       </c>
       <c r="J34" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="K34" t="n">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="L34" t="n">
-        <v>0.01601045703141191</v>
+        <v>0.01965123928805479</v>
       </c>
       <c r="M34" t="n">
-        <v>7.008209754573429</v>
+        <v>7.029230068920839</v>
       </c>
       <c r="N34" t="n">
-        <v>106.8092070032145</v>
+        <v>106.9000192699135</v>
       </c>
       <c r="O34" t="n">
-        <v>10.33485399041585</v>
+        <v>10.33924655233221</v>
       </c>
       <c r="P34" t="n">
-        <v>430.5018035859864</v>
+        <v>430.6510079104859</v>
       </c>
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr">
@@ -33126,28 +33376,28 @@
         <v>0.0863</v>
       </c>
       <c r="I35" t="n">
-        <v>-0.116518014383554</v>
+        <v>-0.1258027423826616</v>
       </c>
       <c r="J35" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="K35" t="n">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L35" t="n">
-        <v>0.007873313324215259</v>
+        <v>0.009312436069125796</v>
       </c>
       <c r="M35" t="n">
-        <v>6.988457565360824</v>
+        <v>6.970653564718377</v>
       </c>
       <c r="N35" t="n">
-        <v>110.2393228861407</v>
+        <v>109.5483378084454</v>
       </c>
       <c r="O35" t="n">
-        <v>10.49949155369634</v>
+        <v>10.46653418321679</v>
       </c>
       <c r="P35" t="n">
-        <v>434.1745352946037</v>
+        <v>434.256528268615</v>
       </c>
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr">
@@ -33204,28 +33454,28 @@
         <v>0.0696</v>
       </c>
       <c r="I36" t="n">
-        <v>-0.2003950948935676</v>
+        <v>-0.2125042503791233</v>
       </c>
       <c r="J36" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="K36" t="n">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="L36" t="n">
-        <v>0.02103353500816341</v>
+        <v>0.02393933505841983</v>
       </c>
       <c r="M36" t="n">
-        <v>7.310844691971787</v>
+        <v>7.298633459566308</v>
       </c>
       <c r="N36" t="n">
-        <v>119.7082544954162</v>
+        <v>119.0666988281776</v>
       </c>
       <c r="O36" t="n">
-        <v>10.94112674706843</v>
+        <v>10.91176882215608</v>
       </c>
       <c r="P36" t="n">
-        <v>427.5496224824803</v>
+        <v>427.657378892798</v>
       </c>
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr">
@@ -33276,28 +33526,28 @@
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="n">
-        <v>-0.1267765547286599</v>
+        <v>-0.1536680676010428</v>
       </c>
       <c r="J37" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="K37" t="n">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="L37" t="n">
-        <v>0.007841004449431699</v>
+        <v>0.01148340564006811</v>
       </c>
       <c r="M37" t="n">
-        <v>7.921975225712497</v>
+        <v>7.985793266516051</v>
       </c>
       <c r="N37" t="n">
-        <v>132.1094520105418</v>
+        <v>133.3052481485228</v>
       </c>
       <c r="O37" t="n">
-        <v>11.49388759343599</v>
+        <v>11.54578919556921</v>
       </c>
       <c r="P37" t="n">
-        <v>417.1142696469909</v>
+        <v>417.3507443865597</v>
       </c>
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr">
@@ -33348,28 +33598,28 @@
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="n">
-        <v>-0.02968065680615306</v>
+        <v>-0.05063229063743707</v>
       </c>
       <c r="J38" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="K38" t="n">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L38" t="n">
-        <v>0.0004514967805765435</v>
+        <v>0.001325026457204115</v>
       </c>
       <c r="M38" t="n">
-        <v>8.033074458440414</v>
+        <v>8.057321885054638</v>
       </c>
       <c r="N38" t="n">
-        <v>123.8179346764899</v>
+        <v>123.9145951191481</v>
       </c>
       <c r="O38" t="n">
-        <v>11.12735074833583</v>
+        <v>11.13169327277517</v>
       </c>
       <c r="P38" t="n">
-        <v>415.619796087996</v>
+        <v>415.8071235835573</v>
       </c>
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr">
@@ -33426,28 +33676,28 @@
         <v>0.0653</v>
       </c>
       <c r="I39" t="n">
-        <v>-0.1795993841027916</v>
+        <v>-0.2023397421318236</v>
       </c>
       <c r="J39" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="K39" t="n">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L39" t="n">
-        <v>0.01348300129021618</v>
+        <v>0.017214291271205</v>
       </c>
       <c r="M39" t="n">
-        <v>8.175275089036159</v>
+        <v>8.192759507827128</v>
       </c>
       <c r="N39" t="n">
-        <v>151.4372572023427</v>
+        <v>151.5239588158784</v>
       </c>
       <c r="O39" t="n">
-        <v>12.30598460921932</v>
+        <v>12.30950684698125</v>
       </c>
       <c r="P39" t="n">
-        <v>423.5523699284255</v>
+        <v>423.7528360909092</v>
       </c>
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr">
@@ -33485,7 +33735,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AN241"/>
+  <dimension ref="A1:AN243"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76159,6 +76409,366 @@
         </is>
       </c>
     </row>
+    <row r="242">
+      <c r="A242" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-31 22:17:29+00:00</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>-34.861347295121504,173.29567446799877</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>-34.861559245021496,173.2964812714481</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>-34.861610236577825,173.2973401487893</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>-34.86168744126145,173.29819760017156</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>-34.86170042950363,173.29904500547994</t>
+        </is>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>-34.861703259604525,173.29995394777478</t>
+        </is>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>-34.86170577213598,173.300842486029</t>
+        </is>
+      </c>
+      <c r="I242" t="inlineStr">
+        <is>
+          <t>-34.86162545004008,173.30170539455992</t>
+        </is>
+      </c>
+      <c r="J242" t="inlineStr">
+        <is>
+          <t>-34.86152231691287,173.30258401980532</t>
+        </is>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>-34.86150823795142,173.30348955341904</t>
+        </is>
+      </c>
+      <c r="L242" t="inlineStr">
+        <is>
+          <t>-34.861431210393846,173.30439108515685</t>
+        </is>
+      </c>
+      <c r="M242" t="inlineStr">
+        <is>
+          <t>-34.86134292389506,173.30528052974415</t>
+        </is>
+      </c>
+      <c r="N242" t="inlineStr">
+        <is>
+          <t>-34.861346389243835,173.30617696944563</t>
+        </is>
+      </c>
+      <c r="O242" t="inlineStr">
+        <is>
+          <t>-34.86133640627252,173.30707979235106</t>
+        </is>
+      </c>
+      <c r="P242" t="inlineStr">
+        <is>
+          <t>-34.861306554767445,173.30799021462215</t>
+        </is>
+      </c>
+      <c r="Q242" t="inlineStr">
+        <is>
+          <t>-34.86127588618862,173.3088873033537</t>
+        </is>
+      </c>
+      <c r="R242" t="inlineStr">
+        <is>
+          <t>-34.86133738671754,173.30978078380986</t>
+        </is>
+      </c>
+      <c r="S242" t="inlineStr">
+        <is>
+          <t>-34.86106301895853,173.3106541991488</t>
+        </is>
+      </c>
+      <c r="T242" t="inlineStr">
+        <is>
+          <t>-34.86103131238521,173.31156235536378</t>
+        </is>
+      </c>
+      <c r="U242" t="inlineStr">
+        <is>
+          <t>-34.86102110322137,173.31246030039915</t>
+        </is>
+      </c>
+      <c r="V242" t="inlineStr">
+        <is>
+          <t>-34.86085338628262,173.31333745446014</t>
+        </is>
+      </c>
+      <c r="W242" t="inlineStr">
+        <is>
+          <t>-34.86078536558754,173.31421475088376</t>
+        </is>
+      </c>
+      <c r="X242" t="inlineStr">
+        <is>
+          <t>-34.86074251479834,173.31510359539755</t>
+        </is>
+      </c>
+      <c r="Y242" t="inlineStr">
+        <is>
+          <t>-34.86058138049777,173.31598931139735</t>
+        </is>
+      </c>
+      <c r="Z242" t="inlineStr">
+        <is>
+          <t>-34.860491078622815,173.3168711147726</t>
+        </is>
+      </c>
+      <c r="AA242" t="inlineStr">
+        <is>
+          <t>-34.86039846238489,173.3177510822603</t>
+        </is>
+      </c>
+      <c r="AB242" t="inlineStr">
+        <is>
+          <t>-34.86031680998433,173.3186490271922</t>
+        </is>
+      </c>
+      <c r="AC242" t="inlineStr">
+        <is>
+          <t>-34.86024141856346,173.31955629762155</t>
+        </is>
+      </c>
+      <c r="AD242" t="inlineStr">
+        <is>
+          <t>-34.86010765227653,173.32045298291874</t>
+        </is>
+      </c>
+      <c r="AE242" t="inlineStr">
+        <is>
+          <t>-34.860095667357804,173.32134419401592</t>
+        </is>
+      </c>
+      <c r="AF242" t="inlineStr">
+        <is>
+          <t>-34.85995321305158,173.32221918165354</t>
+        </is>
+      </c>
+      <c r="AG242" t="inlineStr">
+        <is>
+          <t>-34.85979484166626,173.32311261654775</t>
+        </is>
+      </c>
+      <c r="AH242" t="inlineStr">
+        <is>
+          <t>-34.859712424128624,173.32401017561554</t>
+        </is>
+      </c>
+      <c r="AI242" t="inlineStr">
+        <is>
+          <t>-34.85954483891956,173.32482558116914</t>
+        </is>
+      </c>
+      <c r="AJ242" t="inlineStr">
+        <is>
+          <t>-34.85942776080871,173.32566410382975</t>
+        </is>
+      </c>
+      <c r="AK242" t="inlineStr">
+        <is>
+          <t>-34.85936739227586,173.32660380562928</t>
+        </is>
+      </c>
+      <c r="AL242" t="inlineStr">
+        <is>
+          <t>-34.859175917824,173.32751024263194</t>
+        </is>
+      </c>
+      <c r="AM242" t="inlineStr">
+        <is>
+          <t>-34.85907524591722,173.3284124630644</t>
+        </is>
+      </c>
+      <c r="AN242" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-24 22:17:43+00:00</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>-34.86123805800869,173.29573931279418</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>-34.86150774965622,173.29650068804318</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>-34.86153286899017,173.29735719567623</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>-34.861598027217546,173.29820819558793</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr"/>
+      <c r="G243" t="inlineStr"/>
+      <c r="H243" t="inlineStr"/>
+      <c r="I243" t="inlineStr"/>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>-34.86144143717239,173.30348199512443</t>
+        </is>
+      </c>
+      <c r="L243" t="inlineStr">
+        <is>
+          <t>-34.86134657236768,173.30438331746274</t>
+        </is>
+      </c>
+      <c r="M243" t="inlineStr">
+        <is>
+          <t>-34.861293886866285,173.3052756575288</t>
+        </is>
+      </c>
+      <c r="N243" t="inlineStr">
+        <is>
+          <t>-34.86130802804293,173.30617260414854</t>
+        </is>
+      </c>
+      <c r="O243" t="inlineStr">
+        <is>
+          <t>-34.86129281882423,173.3070750856336</t>
+        </is>
+      </c>
+      <c r="P243" t="inlineStr">
+        <is>
+          <t>-34.86127663210473,173.30798833154944</t>
+        </is>
+      </c>
+      <c r="Q243" t="inlineStr">
+        <is>
+          <t>-34.861251366737854,173.30888576174087</t>
+        </is>
+      </c>
+      <c r="R243" t="inlineStr">
+        <is>
+          <t>-34.861384519031205,173.30978618596785</t>
+        </is>
+      </c>
+      <c r="S243" t="inlineStr">
+        <is>
+          <t>-34.86107600542828,173.31065558778002</t>
+        </is>
+      </c>
+      <c r="T243" t="inlineStr"/>
+      <c r="U243" t="inlineStr"/>
+      <c r="V243" t="inlineStr"/>
+      <c r="W243" t="inlineStr"/>
+      <c r="X243" t="inlineStr"/>
+      <c r="Y243" t="inlineStr"/>
+      <c r="Z243" t="inlineStr">
+        <is>
+          <t>-34.86054796877954,173.3168811378434</t>
+        </is>
+      </c>
+      <c r="AA243" t="inlineStr">
+        <is>
+          <t>-34.86042989336199,173.31775748235495</t>
+        </is>
+      </c>
+      <c r="AB243" t="inlineStr">
+        <is>
+          <t>-34.8603600004407,173.31865737508147</t>
+        </is>
+      </c>
+      <c r="AC243" t="inlineStr">
+        <is>
+          <t>-34.86032048576182,173.3195686035092</t>
+        </is>
+      </c>
+      <c r="AD243" t="inlineStr">
+        <is>
+          <t>-34.860168919701024,173.32046061907408</t>
+        </is>
+      </c>
+      <c r="AE243" t="inlineStr">
+        <is>
+          <t>-34.8600785325613,173.3213415287709</t>
+        </is>
+      </c>
+      <c r="AF243" t="inlineStr">
+        <is>
+          <t>-34.85997796524182,173.32222358819106</t>
+        </is>
+      </c>
+      <c r="AG243" t="inlineStr">
+        <is>
+          <t>-34.85971604654245,173.32310120615426</t>
+        </is>
+      </c>
+      <c r="AH243" t="inlineStr">
+        <is>
+          <t>-34.85963685872906,173.32400012725088</t>
+        </is>
+      </c>
+      <c r="AI243" t="inlineStr">
+        <is>
+          <t>-34.85948014908766,173.32480911322685</t>
+        </is>
+      </c>
+      <c r="AJ243" t="inlineStr">
+        <is>
+          <t>-34.85937558986016,173.32564512469165</t>
+        </is>
+      </c>
+      <c r="AK243" t="inlineStr">
+        <is>
+          <t>-34.85930907594635,173.32658782040014</t>
+        </is>
+      </c>
+      <c r="AL243" t="inlineStr">
+        <is>
+          <t>-34.859173324617046,173.32750983306497</t>
+        </is>
+      </c>
+      <c r="AM243" t="inlineStr">
+        <is>
+          <t>-34.859071837145734,173.3284120387308</t>
+        </is>
+      </c>
+      <c r="AN243" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0028/nzd0028.xlsx
+++ b/data/nzd0028/nzd0028.xlsx
@@ -30823,13 +30823,13 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G2" t="n">
         <v>0.065</v>
       </c>
-      <c r="G2" t="n">
-        <v>0.0547</v>
-      </c>
       <c r="H2" t="n">
-        <v>0.07340000000000001</v>
+        <v>0.0839</v>
       </c>
       <c r="I2" t="n">
         <v>0.0009210452137736176</v>
@@ -30901,13 +30901,13 @@
         <v>0.9733714515839994</v>
       </c>
       <c r="F3" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.065</v>
       </c>
       <c r="G3" t="n">
-        <v>0.06900000000000001</v>
+        <v>0.0552</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1107</v>
+        <v>0.0723</v>
       </c>
       <c r="I3" t="n">
         <v>0.08382591863208053</v>
@@ -30979,13 +30979,13 @@
         <v>0.9464843682587333</v>
       </c>
       <c r="F4" t="n">
-        <v>0.06</v>
+        <v>0.065</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0533</v>
+        <v>0.0586</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0684</v>
+        <v>0.0752</v>
       </c>
       <c r="I4" t="n">
         <v>0.09257878523715646</v>
@@ -31057,13 +31057,13 @@
         <v>0.9194352426427852</v>
       </c>
       <c r="F5" t="n">
-        <v>0.055</v>
+        <v>0.065</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0482</v>
+        <v>0.0552</v>
       </c>
       <c r="H5" t="n">
-        <v>0.061</v>
+        <v>0.0808</v>
       </c>
       <c r="I5" t="n">
         <v>0.1086293683186896</v>
@@ -31135,13 +31135,13 @@
         <v>0.8923895363087465</v>
       </c>
       <c r="F6" t="n">
-        <v>0.05</v>
+        <v>0.065</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0446</v>
+        <v>0.0553</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0566</v>
+        <v>0.0755</v>
       </c>
       <c r="I6" t="n">
         <v>0.1057354895759586</v>
@@ -31212,9 +31212,15 @@
       <c r="E7" t="n">
         <v>0.8653409831078184</v>
       </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
+      <c r="F7" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.0536</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.0762</v>
+      </c>
       <c r="I7" t="n">
         <v>0.06254475348266117</v>
       </c>
@@ -31285,13 +31291,13 @@
         <v>0.8382918574916985</v>
       </c>
       <c r="F8" t="n">
-        <v>0.05</v>
+        <v>0.075</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0474</v>
+        <v>0.0611</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0584</v>
+        <v>0.0929</v>
       </c>
       <c r="I8" t="n">
         <v>-0.02601045645472701</v>
@@ -31363,13 +31369,13 @@
         <v>0.8112543295864152</v>
       </c>
       <c r="F9" t="n">
-        <v>0.05</v>
+        <v>0.075</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0474</v>
+        <v>0.0602</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0581</v>
+        <v>0.0912</v>
       </c>
       <c r="I9" t="n">
         <v>-0.1132538523834813</v>
@@ -31441,13 +31447,13 @@
         <v>0.7842076462841314</v>
       </c>
       <c r="F10" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0455</v>
+        <v>0.0589</v>
       </c>
       <c r="H10" t="n">
-        <v>0.056</v>
+        <v>0.0843</v>
       </c>
       <c r="I10" t="n">
         <v>-0.1085920669473497</v>
@@ -31522,10 +31528,10 @@
         <v>0.06</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0545</v>
+        <v>0.0553</v>
       </c>
       <c r="H11" t="n">
-        <v>0.07190000000000001</v>
+        <v>0.06710000000000001</v>
       </c>
       <c r="I11" t="n">
         <v>-0.1401555764050701</v>
@@ -31597,13 +31603,13 @@
         <v>0.7301142985407817</v>
       </c>
       <c r="F12" t="n">
-        <v>0.055</v>
+        <v>0.065</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0496</v>
+        <v>0.0571</v>
       </c>
       <c r="H12" t="n">
-        <v>0.06660000000000001</v>
+        <v>0.0712</v>
       </c>
       <c r="I12" t="n">
         <v>-0.1849133647819911</v>
@@ -31675,13 +31681,13 @@
         <v>0.703066524413642</v>
       </c>
       <c r="F13" t="n">
-        <v>0.065</v>
+        <v>0.06</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0587</v>
+        <v>0.0571</v>
       </c>
       <c r="H13" t="n">
-        <v>0.07729999999999999</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="I13" t="n">
         <v>-0.08804905920235127</v>
@@ -31753,13 +31759,13 @@
         <v>0.6760173987973985</v>
       </c>
       <c r="F14" t="n">
-        <v>0.055</v>
+        <v>0.06</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0514</v>
+        <v>0.0567</v>
       </c>
       <c r="H14" t="n">
-        <v>0.06370000000000001</v>
+        <v>0.0677</v>
       </c>
       <c r="I14" t="n">
         <v>-0.06783604632191789</v>
@@ -31830,9 +31836,15 @@
       <c r="E15" t="n">
         <v>0.648968274211521</v>
       </c>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
+      <c r="F15" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.0581</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.0711</v>
+      </c>
       <c r="I15" t="n">
         <v>-0.1438365462171565</v>
       </c>
@@ -31903,13 +31915,13 @@
         <v>0.6219280795120502</v>
       </c>
       <c r="F16" t="n">
-        <v>0.055</v>
+        <v>0.06</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0498</v>
+        <v>0.0495</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0613</v>
+        <v>0.0747</v>
       </c>
       <c r="I16" t="n">
         <v>-0.1371420717809225</v>
@@ -31984,10 +31996,10 @@
         <v>0.055</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0493</v>
+        <v>0.0469</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0629</v>
+        <v>0.07149999999999999</v>
       </c>
       <c r="I17" t="n">
         <v>-0.1703974094890244</v>
@@ -32062,10 +32074,10 @@
         <v>0.05</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0446</v>
+        <v>0.0452</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0568</v>
+        <v>0.0551</v>
       </c>
       <c r="I18" t="n">
         <v>-0.2483786890953367</v>
@@ -32136,9 +32148,15 @@
       <c r="E19" t="n">
         <v>0.5408141992593534</v>
       </c>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
+      <c r="F19" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.0396</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.0479</v>
+      </c>
       <c r="I19" t="n">
         <v>0.07751057121139293</v>
       </c>
@@ -32209,13 +32227,13 @@
         <v>0.5137650736435793</v>
       </c>
       <c r="F20" t="n">
-        <v>0.055</v>
+        <v>0.05</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0482</v>
+        <v>0.0448</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0614</v>
+        <v>0.0551</v>
       </c>
       <c r="I20" t="n">
         <v>0.05629375115345241</v>
@@ -32286,9 +32304,15 @@
       <c r="E21" t="n">
         <v>0.4867162054401598</v>
       </c>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
+      <c r="F21" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.059</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.0844</v>
+      </c>
       <c r="I21" t="n">
         <v>-0.06378441641071012</v>
       </c>
@@ -32359,13 +32383,13 @@
         <v>0.4596714723905427</v>
       </c>
       <c r="F22" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.075</v>
       </c>
       <c r="G22" t="n">
-        <v>0.06279999999999999</v>
+        <v>0.06759999999999999</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0772</v>
+        <v>0.0839</v>
       </c>
       <c r="I22" t="n">
         <v>-0.03495376077717736</v>
@@ -32437,13 +32461,13 @@
         <v>0.4326223467751237</v>
       </c>
       <c r="F23" t="n">
-        <v>0.065</v>
+        <v>0.115</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0598</v>
+        <v>0.082</v>
       </c>
       <c r="H23" t="n">
-        <v>0.07480000000000001</v>
+        <v>0.1953</v>
       </c>
       <c r="I23" t="n">
         <v>-0.05127177893056529</v>
@@ -32514,9 +32538,15 @@
       <c r="E24" t="n">
         <v>0.4055808695915987</v>
       </c>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
+      <c r="F24" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.0589</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.0854</v>
+      </c>
       <c r="I24" t="n">
         <v>-0.06470318958207585</v>
       </c>
@@ -32587,13 +32617,13 @@
         <v>0.3785388332302203</v>
       </c>
       <c r="F25" t="n">
-        <v>0.065</v>
+        <v>0.15</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0608</v>
+        <v>0.0866</v>
       </c>
       <c r="H25" t="n">
-        <v>0.07580000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="I25" t="n">
         <v>-0.0563174834937778</v>
@@ -32665,13 +32695,13 @@
         <v>0.3514968987961585</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08</v>
+        <v>0.125</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0688</v>
+        <v>0.0813</v>
       </c>
       <c r="H26" t="n">
-        <v>0.09810000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="I26" t="n">
         <v>-0.07463223883157429</v>
@@ -32743,13 +32773,13 @@
         <v>0.3244477731795483</v>
       </c>
       <c r="F27" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.075</v>
       </c>
       <c r="G27" t="n">
-        <v>0.06710000000000001</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="H27" t="n">
-        <v>0.07870000000000001</v>
+        <v>0.0832</v>
       </c>
       <c r="I27" t="n">
         <v>-0.05670695566559437</v>
@@ -32824,10 +32854,10 @@
         <v>0.06</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0569</v>
+        <v>0.0485</v>
       </c>
       <c r="H28" t="n">
-        <v>0.06710000000000001</v>
+        <v>0.07580000000000001</v>
       </c>
       <c r="I28" t="n">
         <v>-0.09665991849246995</v>
@@ -32899,13 +32929,13 @@
         <v>0.2703570881187388</v>
       </c>
       <c r="F29" t="n">
-        <v>0.075</v>
+        <v>0.1</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0659</v>
+        <v>0.0776</v>
       </c>
       <c r="H29" t="n">
-        <v>0.08169999999999999</v>
+        <v>0.1417</v>
       </c>
       <c r="I29" t="n">
         <v>-0.1350132065626757</v>
@@ -32977,13 +33007,13 @@
         <v>0.2433080643807258</v>
       </c>
       <c r="F30" t="n">
-        <v>0.075</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0665</v>
+        <v>0.0742</v>
       </c>
       <c r="H30" t="n">
-        <v>0.08939999999999999</v>
+        <v>0.09569999999999999</v>
       </c>
       <c r="I30" t="n">
         <v>-0.1488784458071202</v>
@@ -33055,13 +33085,13 @@
         <v>0.2162591393804562</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.065</v>
       </c>
       <c r="G31" t="n">
-        <v>0.06270000000000001</v>
+        <v>0.0595</v>
       </c>
       <c r="H31" t="n">
-        <v>0.08309999999999999</v>
+        <v>0.0711</v>
       </c>
       <c r="I31" t="n">
         <v>-0.1672699529783034</v>
@@ -33133,13 +33163,13 @@
         <v>0.1892100137646071</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.075</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0622</v>
+        <v>0.06909999999999999</v>
       </c>
       <c r="H32" t="n">
-        <v>0.0762</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="I32" t="n">
         <v>-0.1568183138014828</v>
@@ -33211,13 +33241,13 @@
         <v>0.1621674207062232</v>
       </c>
       <c r="F33" t="n">
-        <v>0.05</v>
+        <v>0.075</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0442</v>
+        <v>0.0643</v>
       </c>
       <c r="H33" t="n">
-        <v>0.0531</v>
+        <v>0.0951</v>
       </c>
       <c r="I33" t="n">
         <v>-0.01002365494195461</v>
@@ -33292,10 +33322,10 @@
         <v>0.06</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0548</v>
+        <v>0.0552</v>
       </c>
       <c r="H34" t="n">
-        <v>0.0672</v>
+        <v>0.06560000000000001</v>
       </c>
       <c r="I34" t="n">
         <v>-0.181007478879039</v>
@@ -33367,13 +33397,13 @@
         <v>0.1081671868899657</v>
       </c>
       <c r="F35" t="n">
-        <v>0.075</v>
+        <v>0.08</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0682</v>
+        <v>0.0718</v>
       </c>
       <c r="H35" t="n">
-        <v>0.0863</v>
+        <v>0.0958</v>
       </c>
       <c r="I35" t="n">
         <v>-0.1258293200730112</v>
@@ -33445,13 +33475,13 @@
         <v>0.08111806127375167</v>
       </c>
       <c r="F36" t="n">
-        <v>0.06</v>
+        <v>0.095</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0543</v>
+        <v>0.0696</v>
       </c>
       <c r="H36" t="n">
-        <v>0.0696</v>
+        <v>0.1393</v>
       </c>
       <c r="I36" t="n">
         <v>-0.2124770546459657</v>
@@ -33522,9 +33552,15 @@
       <c r="E37" t="n">
         <v>0.05407919795241988</v>
       </c>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
+      <c r="F37" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.07099999999999999</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.122</v>
+      </c>
       <c r="I37" t="n">
         <v>-0.1536456406296799</v>
       </c>
@@ -33594,9 +33630,15 @@
       <c r="E38" t="n">
         <v>0.02704912561544535</v>
       </c>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr"/>
+      <c r="F38" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.0675</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.1063</v>
+      </c>
       <c r="I38" t="n">
         <v>-0.05060157514975193</v>
       </c>
@@ -33667,13 +33709,13 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0.06</v>
+        <v>0.115</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0535</v>
+        <v>0.0761</v>
       </c>
       <c r="H39" t="n">
-        <v>0.0653</v>
+        <v>0.2</v>
       </c>
       <c r="I39" t="n">
         <v>-0.2023160060604541</v>

--- a/data/nzd0028/nzd0028.xlsx
+++ b/data/nzd0028/nzd0028.xlsx
@@ -666,7 +666,7 @@
         <v>422.13</v>
       </c>
       <c r="I2" t="n">
-        <v>420.02</v>
+        <v>419.26</v>
       </c>
       <c r="J2" t="n">
         <v>421.46</v>
@@ -753,7 +753,7 @@
         <v>408.19</v>
       </c>
       <c r="AL2" t="n">
-        <v>402.17</v>
+        <v>402.76</v>
       </c>
       <c r="AM2" t="n">
         <v>411.68</v>
@@ -792,7 +792,7 @@
         <v>409.11</v>
       </c>
       <c r="I3" t="n">
-        <v>419.9</v>
+        <v>420.27</v>
       </c>
       <c r="J3" t="n">
         <v>415.98</v>
@@ -879,7 +879,7 @@
         <v>416.4</v>
       </c>
       <c r="AL3" t="n">
-        <v>410.86</v>
+        <v>410.57</v>
       </c>
       <c r="AM3" t="n">
         <v>408.32</v>
@@ -918,7 +918,7 @@
         <v>433.36</v>
       </c>
       <c r="I4" t="n">
-        <v>434.55</v>
+        <v>435.39</v>
       </c>
       <c r="J4" t="n">
         <v>434.65</v>
@@ -1005,7 +1005,7 @@
         <v>426.77</v>
       </c>
       <c r="AL4" t="n">
-        <v>417.15</v>
+        <v>416.5</v>
       </c>
       <c r="AM4" t="n">
         <v>413.17</v>
@@ -1044,7 +1044,7 @@
         <v>429.84</v>
       </c>
       <c r="I5" t="n">
-        <v>430.6</v>
+        <v>430.36</v>
       </c>
       <c r="J5" t="n">
         <v>431.12</v>
@@ -1131,7 +1131,7 @@
         <v>415.29</v>
       </c>
       <c r="AL5" t="n">
-        <v>418.18</v>
+        <v>418.36</v>
       </c>
       <c r="AM5" t="n">
         <v>424.54</v>
@@ -1170,7 +1170,7 @@
         <v>439.69</v>
       </c>
       <c r="I6" t="n">
-        <v>439.03</v>
+        <v>438.47</v>
       </c>
       <c r="J6" t="n">
         <v>437.17</v>
@@ -1257,7 +1257,7 @@
         <v>419.14</v>
       </c>
       <c r="AL6" t="n">
-        <v>426.62</v>
+        <v>427.05</v>
       </c>
       <c r="AM6" t="n">
         <v>430.93</v>
@@ -1296,7 +1296,7 @@
         <v>420.46</v>
       </c>
       <c r="I7" t="n">
-        <v>426.25</v>
+        <v>425.85</v>
       </c>
       <c r="J7" t="n">
         <v>424.81</v>
@@ -1383,7 +1383,7 @@
         <v>412.33</v>
       </c>
       <c r="AL7" t="n">
-        <v>408.05</v>
+        <v>408.36</v>
       </c>
       <c r="AM7" t="n">
         <v>419.01</v>
@@ -1422,7 +1422,7 @@
         <v>422.11</v>
       </c>
       <c r="I8" t="n">
-        <v>425.09</v>
+        <v>425.26</v>
       </c>
       <c r="J8" t="n">
         <v>419.63</v>
@@ -1544,7 +1544,7 @@
         <v>428.67</v>
       </c>
       <c r="I9" t="n">
-        <v>428.46</v>
+        <v>429.35</v>
       </c>
       <c r="J9" t="n">
         <v>425.27</v>
@@ -1631,7 +1631,7 @@
         <v>403.07</v>
       </c>
       <c r="AL9" t="n">
-        <v>412.2</v>
+        <v>411.52</v>
       </c>
       <c r="AM9" t="n">
         <v>408.67</v>
@@ -1670,7 +1670,7 @@
         <v>408.94</v>
       </c>
       <c r="I10" t="n">
-        <v>417.35</v>
+        <v>418.01</v>
       </c>
       <c r="J10" t="n">
         <v>417.93</v>
@@ -1757,7 +1757,7 @@
         <v>400.11</v>
       </c>
       <c r="AL10" t="n">
-        <v>398.21</v>
+        <v>397.71</v>
       </c>
       <c r="AM10" t="n">
         <v>396.88</v>
@@ -1796,7 +1796,7 @@
         <v>437.39</v>
       </c>
       <c r="I11" t="n">
-        <v>436.89</v>
+        <v>436.13</v>
       </c>
       <c r="J11" t="n">
         <v>432.66</v>
@@ -1883,7 +1883,7 @@
         <v>412.18</v>
       </c>
       <c r="AL11" t="n">
-        <v>409.65</v>
+        <v>410.24</v>
       </c>
       <c r="AM11" t="n">
         <v>421.33</v>
@@ -1922,7 +1922,7 @@
         <v>434</v>
       </c>
       <c r="I12" t="n">
-        <v>439.31</v>
+        <v>440.15</v>
       </c>
       <c r="J12" t="n">
         <v>437.1</v>
@@ -2022,7 +2022,7 @@
         <v>419.21</v>
       </c>
       <c r="I13" t="n">
-        <v>425.33</v>
+        <v>424.84</v>
       </c>
       <c r="J13" t="n">
         <v>417.76</v>
@@ -2109,7 +2109,7 @@
         <v>409.68</v>
       </c>
       <c r="AL13" t="n">
-        <v>404</v>
+        <v>404.37</v>
       </c>
       <c r="AM13" t="n">
         <v>412.22</v>
@@ -2148,7 +2148,7 @@
         <v>427.75</v>
       </c>
       <c r="I14" t="n">
-        <v>426.3</v>
+        <v>426.91</v>
       </c>
       <c r="J14" t="n">
         <v>424.11</v>
@@ -2231,7 +2231,7 @@
         <v>388.01</v>
       </c>
       <c r="AL14" t="n">
-        <v>388.68</v>
+        <v>388.21</v>
       </c>
       <c r="AM14" t="n">
         <v>397.32</v>
@@ -2270,7 +2270,7 @@
         <v>425.95</v>
       </c>
       <c r="I15" t="n">
-        <v>425.12</v>
+        <v>425.23</v>
       </c>
       <c r="J15" t="n">
         <v>425.28</v>
@@ -2355,7 +2355,7 @@
         <v>415.65</v>
       </c>
       <c r="AL15" t="n">
-        <v>413.5</v>
+        <v>413.41</v>
       </c>
       <c r="AM15" t="n">
         <v>415.32</v>
@@ -2394,7 +2394,7 @@
         <v>420.15</v>
       </c>
       <c r="I16" t="n">
-        <v>420.63</v>
+        <v>420.3</v>
       </c>
       <c r="J16" t="n">
         <v>418.51</v>
@@ -2480,7 +2480,7 @@
         <v>417.2</v>
       </c>
       <c r="I17" t="n">
-        <v>417.32</v>
+        <v>418.15</v>
       </c>
       <c r="J17" t="n">
         <v>419.64</v>
@@ -2565,7 +2565,7 @@
         <v>398.75</v>
       </c>
       <c r="AL17" t="n">
-        <v>402.71</v>
+        <v>402.08</v>
       </c>
       <c r="AM17" t="n">
         <v>402.94</v>
@@ -2604,7 +2604,7 @@
         <v>433.41</v>
       </c>
       <c r="I18" t="n">
-        <v>440.6</v>
+        <v>440.78</v>
       </c>
       <c r="J18" t="n">
         <v>441.26</v>
@@ -2689,7 +2689,7 @@
         <v>418.87</v>
       </c>
       <c r="AL18" t="n">
-        <v>416.05</v>
+        <v>415.91</v>
       </c>
       <c r="AM18" t="n">
         <v>427.12</v>
@@ -2728,7 +2728,7 @@
         <v>410.01</v>
       </c>
       <c r="I19" t="n">
-        <v>419.59</v>
+        <v>419.86</v>
       </c>
       <c r="J19" t="n">
         <v>417.51</v>
@@ -2812,7 +2812,7 @@
         <v>433.9</v>
       </c>
       <c r="I20" t="n">
-        <v>438.47</v>
+        <v>438.53</v>
       </c>
       <c r="J20" t="n">
         <v>438.27</v>
@@ -2899,7 +2899,7 @@
         <v>418.95</v>
       </c>
       <c r="AL20" t="n">
-        <v>417.78</v>
+        <v>417.74</v>
       </c>
       <c r="AM20" t="n">
         <v>428.95</v>
@@ -2938,7 +2938,7 @@
         <v>443.79</v>
       </c>
       <c r="I21" t="n">
-        <v>444.53</v>
+        <v>444.03</v>
       </c>
       <c r="J21" t="n">
         <v>441.86</v>
@@ -3025,7 +3025,7 @@
         <v>418.39</v>
       </c>
       <c r="AL21" t="n">
-        <v>426.56</v>
+        <v>426.94</v>
       </c>
       <c r="AM21" t="n">
         <v>435.72</v>
@@ -3064,7 +3064,7 @@
         <v>436.69</v>
       </c>
       <c r="I22" t="n">
-        <v>433.67</v>
+        <v>433.69</v>
       </c>
       <c r="J22" t="n">
         <v>435.49</v>
@@ -3125,7 +3125,7 @@
         <v>416.84</v>
       </c>
       <c r="AL22" t="n">
-        <v>413.51</v>
+        <v>413.5</v>
       </c>
       <c r="AM22" t="n">
         <v>425.71</v>
@@ -3164,7 +3164,7 @@
         <v>434.17</v>
       </c>
       <c r="I23" t="n">
-        <v>433.33</v>
+        <v>433.91</v>
       </c>
       <c r="J23" t="n">
         <v>441.78</v>
@@ -3286,7 +3286,7 @@
         <v>430.99</v>
       </c>
       <c r="I24" t="n">
-        <v>439.5</v>
+        <v>439.63</v>
       </c>
       <c r="J24" t="n">
         <v>439.12</v>
@@ -3373,7 +3373,7 @@
         <v>419.54</v>
       </c>
       <c r="AL24" t="n">
-        <v>418.02</v>
+        <v>417.93</v>
       </c>
       <c r="AM24" t="n">
         <v>428.69</v>
@@ -3412,7 +3412,7 @@
         <v>433.05</v>
       </c>
       <c r="I25" t="n">
-        <v>439.35</v>
+        <v>439.39</v>
       </c>
       <c r="J25" t="n">
         <v>435.73</v>
@@ -3499,7 +3499,7 @@
         <v>417.53</v>
       </c>
       <c r="AL25" t="n">
-        <v>417.3</v>
+        <v>417.26</v>
       </c>
       <c r="AM25" t="n">
         <v>426.95</v>
@@ -3538,7 +3538,7 @@
         <v>424.89</v>
       </c>
       <c r="I26" t="n">
-        <v>432.59</v>
+        <v>432.03</v>
       </c>
       <c r="J26" t="n">
         <v>429.02</v>
@@ -3625,7 +3625,7 @@
         <v>411.85</v>
       </c>
       <c r="AL26" t="n">
-        <v>410.43</v>
+        <v>410.86</v>
       </c>
       <c r="AM26" t="n">
         <v>421.59</v>
@@ -3664,7 +3664,7 @@
         <v>436.13</v>
       </c>
       <c r="I27" t="n">
-        <v>436.14</v>
+        <v>437.16</v>
       </c>
       <c r="J27" t="n">
         <v>434.23</v>
@@ -3751,7 +3751,7 @@
         <v>425.01</v>
       </c>
       <c r="AL27" t="n">
-        <v>414.57</v>
+        <v>413.79</v>
       </c>
       <c r="AM27" t="n">
         <v>415.13</v>
@@ -3790,7 +3790,7 @@
         <v>437.34</v>
       </c>
       <c r="I28" t="n">
-        <v>438.31</v>
+        <v>437.98</v>
       </c>
       <c r="J28" t="n">
         <v>433.01</v>
@@ -3859,7 +3859,7 @@
         <v>416.56</v>
       </c>
       <c r="AL28" t="n">
-        <v>422.26</v>
+        <v>422.51</v>
       </c>
       <c r="AM28" t="n">
         <v>426.91</v>
@@ -3898,7 +3898,7 @@
         <v>428.44</v>
       </c>
       <c r="I29" t="n">
-        <v>429.68</v>
+        <v>430.57</v>
       </c>
       <c r="J29" t="n">
         <v>425.95</v>
@@ -4059,7 +4059,7 @@
         <v>417.5</v>
       </c>
       <c r="AL30" t="n">
-        <v>415.69</v>
+        <v>414.94</v>
       </c>
       <c r="AM30" t="n">
         <v>416.64</v>
@@ -4098,7 +4098,7 @@
         <v>419.25</v>
       </c>
       <c r="I31" t="n">
-        <v>419.94</v>
+        <v>420.14</v>
       </c>
       <c r="J31" t="n">
         <v>419.33</v>
@@ -4185,7 +4185,7 @@
         <v>414.73</v>
       </c>
       <c r="AL31" t="n">
-        <v>414.07</v>
+        <v>413.92</v>
       </c>
       <c r="AM31" t="n">
         <v>416.07</v>
@@ -4224,7 +4224,7 @@
         <v>418.33</v>
       </c>
       <c r="I32" t="n">
-        <v>423.72</v>
+        <v>423.08</v>
       </c>
       <c r="J32" t="n">
         <v>423.58</v>
@@ -4295,7 +4295,7 @@
         <v>411.43</v>
       </c>
       <c r="AL32" t="n">
-        <v>409.5</v>
+        <v>410</v>
       </c>
       <c r="AM32" t="n">
         <v>420.82</v>
@@ -4386,7 +4386,7 @@
         <v>410.32</v>
       </c>
       <c r="I34" t="n">
-        <v>407.62</v>
+        <v>406.95</v>
       </c>
       <c r="J34" t="n">
         <v>408.29</v>
@@ -4473,7 +4473,7 @@
         <v>407.89</v>
       </c>
       <c r="AL34" t="n">
-        <v>406.35</v>
+        <v>406.87</v>
       </c>
       <c r="AM34" t="n">
         <v>418.72</v>
@@ -4512,7 +4512,7 @@
         <v>398.28</v>
       </c>
       <c r="I35" t="n">
-        <v>395.77</v>
+        <v>395.9</v>
       </c>
       <c r="J35" t="n">
         <v>404.24</v>
@@ -4599,7 +4599,7 @@
         <v>396.51</v>
       </c>
       <c r="AL35" t="n">
-        <v>394.93</v>
+        <v>394.83</v>
       </c>
       <c r="AM35" t="n">
         <v>398.11</v>
@@ -4638,7 +4638,7 @@
         <v>423.24</v>
       </c>
       <c r="I36" t="n">
-        <v>423.08</v>
+        <v>423.52</v>
       </c>
       <c r="J36" t="n">
         <v>421</v>
@@ -4777,7 +4777,7 @@
         <v>420.77</v>
       </c>
       <c r="AL37" t="n">
-        <v>419.29</v>
+        <v>418.91</v>
       </c>
       <c r="AM37" t="n">
         <v>427.19</v>
@@ -4816,7 +4816,7 @@
         <v>421.15</v>
       </c>
       <c r="I38" t="n">
-        <v>420.64</v>
+        <v>420.77</v>
       </c>
       <c r="J38" t="n">
         <v>420.63</v>
@@ -4875,7 +4875,7 @@
         <v>415.89</v>
       </c>
       <c r="AL38" t="n">
-        <v>415.5</v>
+        <v>415.41</v>
       </c>
       <c r="AM38" t="n">
         <v>421.08</v>
@@ -4914,7 +4914,7 @@
         <v>419.63</v>
       </c>
       <c r="I39" t="n">
-        <v>419.36</v>
+        <v>420.43</v>
       </c>
       <c r="J39" t="n">
         <v>422.21</v>
@@ -5001,7 +5001,7 @@
         <v>423.33</v>
       </c>
       <c r="AL39" t="n">
-        <v>426.1</v>
+        <v>425.26</v>
       </c>
       <c r="AM39" t="n">
         <v>421.87</v>
@@ -5028,7 +5028,7 @@
         <v>416.63</v>
       </c>
       <c r="I40" t="n">
-        <v>415.71</v>
+        <v>415.44</v>
       </c>
       <c r="J40" t="n">
         <v>414.34</v>
@@ -5089,7 +5089,7 @@
         <v>414.67</v>
       </c>
       <c r="AL40" t="n">
-        <v>414.6</v>
+        <v>414.81</v>
       </c>
       <c r="AM40" t="n">
         <v>421.76</v>
@@ -5118,7 +5118,7 @@
         <v>419.5</v>
       </c>
       <c r="I41" t="n">
-        <v>418.21</v>
+        <v>418.42</v>
       </c>
       <c r="J41" t="n">
         <v>414.48</v>
@@ -5240,7 +5240,7 @@
         <v>444.25</v>
       </c>
       <c r="I42" t="n">
-        <v>445.21</v>
+        <v>444.68</v>
       </c>
       <c r="J42" t="n">
         <v>444.97</v>
@@ -5327,7 +5327,7 @@
         <v>442.72</v>
       </c>
       <c r="AL42" t="n">
-        <v>447.15</v>
+        <v>447.56</v>
       </c>
       <c r="AM42" t="n">
         <v>451.67</v>
@@ -5366,7 +5366,7 @@
         <v>439.88</v>
       </c>
       <c r="I43" t="n">
-        <v>444.26</v>
+        <v>443.82</v>
       </c>
       <c r="J43" t="n">
         <v>441.47</v>
@@ -5453,7 +5453,7 @@
         <v>439.66</v>
       </c>
       <c r="AL43" t="n">
-        <v>447.34</v>
+        <v>447.68</v>
       </c>
       <c r="AM43" t="n">
         <v>455.14</v>
@@ -5492,7 +5492,7 @@
         <v>422.96</v>
       </c>
       <c r="I44" t="n">
-        <v>433.65</v>
+        <v>433.22</v>
       </c>
       <c r="J44" t="n">
         <v>422.3</v>
@@ -5579,7 +5579,7 @@
         <v>413.79</v>
       </c>
       <c r="AL44" t="n">
-        <v>417.38</v>
+        <v>417.72</v>
       </c>
       <c r="AM44" t="n">
         <v>431.12</v>
@@ -5618,7 +5618,7 @@
         <v>425.84</v>
       </c>
       <c r="I45" t="n">
-        <v>425.74</v>
+        <v>425.85</v>
       </c>
       <c r="J45" t="n">
         <v>431.47</v>
@@ -5705,7 +5705,7 @@
         <v>416.73</v>
       </c>
       <c r="AL45" t="n">
-        <v>415.78</v>
+        <v>415.69</v>
       </c>
       <c r="AM45" t="n">
         <v>424.86</v>
@@ -5744,7 +5744,7 @@
         <v>414.97</v>
       </c>
       <c r="I46" t="n">
-        <v>417.9</v>
+        <v>417.74</v>
       </c>
       <c r="J46" t="n">
         <v>413.43</v>
@@ -5858,7 +5858,7 @@
         <v>422.2</v>
       </c>
       <c r="I47" t="n">
-        <v>432.08</v>
+        <v>431.38</v>
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
@@ -5987,7 +5987,7 @@
         <v>415.23</v>
       </c>
       <c r="AL48" t="n">
-        <v>410.06</v>
+        <v>409.63</v>
       </c>
       <c r="AM48" t="n">
         <v>412.02</v>
@@ -6024,7 +6024,7 @@
         <v>411.65</v>
       </c>
       <c r="I49" t="n">
-        <v>419.9</v>
+        <v>420.81</v>
       </c>
       <c r="J49" t="n">
         <v>415.46</v>
@@ -6111,7 +6111,7 @@
         <v>405.72</v>
       </c>
       <c r="AL49" t="n">
-        <v>412.68</v>
+        <v>411.97</v>
       </c>
       <c r="AM49" t="n">
         <v>409.87</v>
@@ -6150,7 +6150,7 @@
         <v>405.2</v>
       </c>
       <c r="I50" t="n">
-        <v>412.69</v>
+        <v>412.89</v>
       </c>
       <c r="J50" t="n">
         <v>412.29</v>
@@ -6237,7 +6237,7 @@
         <v>409.91</v>
       </c>
       <c r="AL50" t="n">
-        <v>410.7</v>
+        <v>410.55</v>
       </c>
       <c r="AM50" t="n">
         <v>414.49</v>
@@ -6343,7 +6343,7 @@
         <v>416.56</v>
       </c>
       <c r="AL51" t="n">
-        <v>418.03</v>
+        <v>418.04</v>
       </c>
       <c r="AM51" t="n">
         <v>426.53</v>
@@ -6376,7 +6376,7 @@
         <v>396.66</v>
       </c>
       <c r="I52" t="n">
-        <v>401.08</v>
+        <v>401.24</v>
       </c>
       <c r="J52" t="n">
         <v>409.78</v>
@@ -6463,7 +6463,7 @@
         <v>384.28</v>
       </c>
       <c r="AL52" t="n">
-        <v>382.13</v>
+        <v>382.01</v>
       </c>
       <c r="AM52" t="n">
         <v>393.23</v>
@@ -6502,7 +6502,7 @@
         <v>418.74</v>
       </c>
       <c r="I53" t="n">
-        <v>421.41</v>
+        <v>420.97</v>
       </c>
       <c r="J53" t="n">
         <v>423.08</v>
@@ -6589,7 +6589,7 @@
         <v>408.66</v>
       </c>
       <c r="AL53" t="n">
-        <v>410.81</v>
+        <v>411.15</v>
       </c>
       <c r="AM53" t="n">
         <v>419.73</v>
@@ -6618,7 +6618,7 @@
         <v>428.94</v>
       </c>
       <c r="I54" t="n">
-        <v>428.15</v>
+        <v>427.65</v>
       </c>
       <c r="J54" t="n">
         <v>431.85</v>
@@ -6705,7 +6705,7 @@
         <v>430.59</v>
       </c>
       <c r="AL54" t="n">
-        <v>431.96</v>
+        <v>432.34</v>
       </c>
       <c r="AM54" t="n">
         <v>436.16</v>
@@ -6744,7 +6744,7 @@
         <v>415.37</v>
       </c>
       <c r="I55" t="n">
-        <v>416.24</v>
+        <v>416.01</v>
       </c>
       <c r="J55" t="n">
         <v>416.85</v>
@@ -6813,7 +6813,7 @@
         <v>413.43</v>
       </c>
       <c r="AL55" t="n">
-        <v>411.9</v>
+        <v>412.08</v>
       </c>
       <c r="AM55" t="n">
         <v>422.96</v>
@@ -6852,7 +6852,7 @@
         <v>416.78</v>
       </c>
       <c r="I56" t="n">
-        <v>424.31</v>
+        <v>425.04</v>
       </c>
       <c r="J56" t="n">
         <v>425.79</v>
@@ -6939,7 +6939,7 @@
         <v>423.04</v>
       </c>
       <c r="AL56" t="n">
-        <v>422.44</v>
+        <v>421.87</v>
       </c>
       <c r="AM56" t="n">
         <v>426.07</v>
@@ -6978,7 +6978,7 @@
         <v>416.63</v>
       </c>
       <c r="I57" t="n">
-        <v>420.32</v>
+        <v>420.55</v>
       </c>
       <c r="J57" t="n">
         <v>418.7</v>
@@ -7047,7 +7047,7 @@
         <v>418.59</v>
       </c>
       <c r="AL57" t="n">
-        <v>417.6</v>
+        <v>417.42</v>
       </c>
       <c r="AM57" t="n">
         <v>428.68</v>
@@ -7147,7 +7147,7 @@
         <v>410.63</v>
       </c>
       <c r="AL58" t="n">
-        <v>415.05</v>
+        <v>414.4</v>
       </c>
       <c r="AM58" t="n">
         <v>415.07</v>
@@ -7186,7 +7186,7 @@
         <v>415.96</v>
       </c>
       <c r="I59" t="n">
-        <v>417.07</v>
+        <v>416.54</v>
       </c>
       <c r="J59" t="n">
         <v>416.96</v>
@@ -7273,7 +7273,7 @@
         <v>415.51</v>
       </c>
       <c r="AL59" t="n">
-        <v>411.35</v>
+        <v>411.76</v>
       </c>
       <c r="AM59" t="n">
         <v>417.85</v>
@@ -7312,7 +7312,7 @@
         <v>424.09</v>
       </c>
       <c r="I60" t="n">
-        <v>426.26</v>
+        <v>426.96</v>
       </c>
       <c r="J60" t="n">
         <v>423.06</v>
@@ -7426,7 +7426,7 @@
         <v>408.97</v>
       </c>
       <c r="I61" t="n">
-        <v>415.46</v>
+        <v>415.59</v>
       </c>
       <c r="J61" t="n">
         <v>415.08</v>
@@ -7513,7 +7513,7 @@
         <v>415.76</v>
       </c>
       <c r="AL61" t="n">
-        <v>415.37</v>
+        <v>415.27</v>
       </c>
       <c r="AM61" t="n">
         <v>422.46</v>
@@ -7552,7 +7552,7 @@
         <v>403.99</v>
       </c>
       <c r="I62" t="n">
-        <v>409.13</v>
+        <v>408.89</v>
       </c>
       <c r="J62" t="n">
         <v>405.57</v>
@@ -7726,7 +7726,7 @@
         <v>417.46</v>
       </c>
       <c r="I64" t="n">
-        <v>420.18</v>
+        <v>420.82</v>
       </c>
       <c r="J64" t="n">
         <v>421.37</v>
@@ -7803,7 +7803,7 @@
         <v>421.8</v>
       </c>
       <c r="AL64" t="n">
-        <v>427.94</v>
+        <v>427.44</v>
       </c>
       <c r="AM64" t="n">
         <v>430.54</v>
@@ -7842,7 +7842,7 @@
         <v>412.66</v>
       </c>
       <c r="I65" t="n">
-        <v>410.65</v>
+        <v>410.04</v>
       </c>
       <c r="J65" t="n">
         <v>409.39</v>
@@ -7958,7 +7958,7 @@
         <v>414.17</v>
       </c>
       <c r="I66" t="n">
-        <v>415.86</v>
+        <v>416.09</v>
       </c>
       <c r="J66" t="n">
         <v>414.29</v>
@@ -8045,7 +8045,7 @@
         <v>422.87</v>
       </c>
       <c r="AL66" t="n">
-        <v>425</v>
+        <v>424.82</v>
       </c>
       <c r="AM66" t="n">
         <v>439.58</v>
@@ -8084,7 +8084,7 @@
         <v>411.32</v>
       </c>
       <c r="I67" t="n">
-        <v>416.79</v>
+        <v>416.86</v>
       </c>
       <c r="J67" t="n">
         <v>412.33</v>
@@ -8206,7 +8206,7 @@
         <v>445.5</v>
       </c>
       <c r="I68" t="n">
-        <v>448.51</v>
+        <v>448.01</v>
       </c>
       <c r="J68" t="n">
         <v>438.8</v>
@@ -8293,7 +8293,7 @@
         <v>429.37</v>
       </c>
       <c r="AL68" t="n">
-        <v>425.07</v>
+        <v>425.45</v>
       </c>
       <c r="AM68" t="n">
         <v>435.25</v>
@@ -8332,7 +8332,7 @@
         <v>423.71</v>
       </c>
       <c r="I69" t="n">
-        <v>424.08</v>
+        <v>424.51</v>
       </c>
       <c r="J69" t="n">
         <v>423.67</v>
@@ -8524,7 +8524,7 @@
         <v>454.05</v>
       </c>
       <c r="I71" t="n">
-        <v>460.88</v>
+        <v>461.38</v>
       </c>
       <c r="J71" t="n">
         <v>446.96</v>
@@ -8609,7 +8609,7 @@
         <v>450.48</v>
       </c>
       <c r="AL71" t="n">
-        <v>447.62</v>
+        <v>447.23</v>
       </c>
       <c r="AM71" t="n">
         <v>457.71</v>
@@ -8715,7 +8715,7 @@
         <v>420.3</v>
       </c>
       <c r="AL72" t="n">
-        <v>421.65</v>
+        <v>421.93</v>
       </c>
       <c r="AM72" t="n">
         <v>426.03</v>
@@ -8754,7 +8754,7 @@
         <v>408.72</v>
       </c>
       <c r="I73" t="n">
-        <v>411.75</v>
+        <v>411.94</v>
       </c>
       <c r="J73" t="n">
         <v>413.9</v>
@@ -8939,7 +8939,7 @@
         <v>415.35</v>
       </c>
       <c r="AL74" t="n">
-        <v>410.28</v>
+        <v>410.52</v>
       </c>
       <c r="AM74" t="n">
         <v>424.94</v>
@@ -8978,7 +8978,7 @@
         <v>410.47</v>
       </c>
       <c r="I75" t="n">
-        <v>411.49</v>
+        <v>410.8</v>
       </c>
       <c r="J75" t="n">
         <v>411.84</v>
@@ -9045,7 +9045,7 @@
         <v>409.24</v>
       </c>
       <c r="AL75" t="n">
-        <v>404.14</v>
+        <v>404.67</v>
       </c>
       <c r="AM75" t="n">
         <v>420.84</v>
@@ -9084,7 +9084,7 @@
         <v>403.28</v>
       </c>
       <c r="I76" t="n">
-        <v>410.56</v>
+        <v>410.82</v>
       </c>
       <c r="J76" t="n">
         <v>410.97</v>
@@ -9171,7 +9171,7 @@
         <v>410.58</v>
       </c>
       <c r="AL76" t="n">
-        <v>410.01</v>
+        <v>409.82</v>
       </c>
       <c r="AM76" t="n">
         <v>412.88</v>
@@ -9264,7 +9264,7 @@
         <v>407.91</v>
       </c>
       <c r="I78" t="n">
-        <v>411.22</v>
+        <v>412.29</v>
       </c>
       <c r="J78" t="n">
         <v>419.01</v>
@@ -9329,7 +9329,7 @@
         <v>407.87</v>
       </c>
       <c r="AL78" t="n">
-        <v>416.17</v>
+        <v>415.35</v>
       </c>
       <c r="AM78" t="n">
         <v>410.33</v>
@@ -9487,7 +9487,7 @@
         <v>401.48</v>
       </c>
       <c r="AL80" t="n">
-        <v>408.85</v>
+        <v>408.18</v>
       </c>
       <c r="AM80" t="n">
         <v>406.69</v>
@@ -9526,7 +9526,7 @@
         <v>398.72</v>
       </c>
       <c r="I81" t="n">
-        <v>400.53</v>
+        <v>400.17</v>
       </c>
       <c r="J81" t="n">
         <v>403.86</v>
@@ -9597,7 +9597,7 @@
         <v>411.89</v>
       </c>
       <c r="AL81" t="n">
-        <v>410.7</v>
+        <v>410.98</v>
       </c>
       <c r="AM81" t="n">
         <v>420.02</v>
@@ -9636,7 +9636,7 @@
         <v>401.86</v>
       </c>
       <c r="I82" t="n">
-        <v>407.71</v>
+        <v>407.13</v>
       </c>
       <c r="J82" t="n">
         <v>406.92</v>
@@ -9844,7 +9844,7 @@
         <v>402.42</v>
       </c>
       <c r="I84" t="n">
-        <v>407.29</v>
+        <v>406.72</v>
       </c>
       <c r="J84" t="n">
         <v>402.95</v>
@@ -9931,7 +9931,7 @@
         <v>404.77</v>
       </c>
       <c r="AL84" t="n">
-        <v>404.84</v>
+        <v>405.28</v>
       </c>
       <c r="AM84" t="n">
         <v>414.22</v>
@@ -10121,7 +10121,7 @@
         <v>395.35</v>
       </c>
       <c r="AL86" t="n">
-        <v>393.38</v>
+        <v>392.5</v>
       </c>
       <c r="AM86" t="n">
         <v>392.02</v>
@@ -10160,7 +10160,7 @@
         <v>407.27</v>
       </c>
       <c r="I87" t="n">
-        <v>410.84</v>
+        <v>411.62</v>
       </c>
       <c r="J87" t="n">
         <v>414.56</v>
@@ -10225,7 +10225,7 @@
         <v>407.79</v>
       </c>
       <c r="AL87" t="n">
-        <v>413.06</v>
+        <v>412.46</v>
       </c>
       <c r="AM87" t="n">
         <v>412.43</v>
@@ -10264,7 +10264,7 @@
         <v>398.15</v>
       </c>
       <c r="I88" t="n">
-        <v>407.47</v>
+        <v>406.87</v>
       </c>
       <c r="J88" t="n">
         <v>403.65</v>
@@ -10368,7 +10368,7 @@
         <v>400.06</v>
       </c>
       <c r="I89" t="n">
-        <v>410.73</v>
+        <v>410.1</v>
       </c>
       <c r="J89" t="n">
         <v>408.56</v>
@@ -10437,7 +10437,7 @@
       <c r="AJ89" t="inlineStr"/>
       <c r="AK89" t="inlineStr"/>
       <c r="AL89" t="n">
-        <v>410.71</v>
+        <v>411.2</v>
       </c>
       <c r="AM89" t="n">
         <v>420.75</v>
@@ -10495,7 +10495,7 @@
         <v>422.27</v>
       </c>
       <c r="AL90" t="n">
-        <v>425.43</v>
+        <v>425.5</v>
       </c>
       <c r="AM90" t="n">
         <v>429.19</v>
@@ -10534,7 +10534,7 @@
         <v>426.5</v>
       </c>
       <c r="I91" t="n">
-        <v>428.61</v>
+        <v>428.8</v>
       </c>
       <c r="J91" t="n">
         <v>431.04</v>
@@ -10621,7 +10621,7 @@
         <v>428.7</v>
       </c>
       <c r="AL91" t="n">
-        <v>429.22</v>
+        <v>429.07</v>
       </c>
       <c r="AM91" t="n">
         <v>435.88</v>
@@ -10732,7 +10732,7 @@
         <v>428.55</v>
       </c>
       <c r="I93" t="n">
-        <v>426.32</v>
+        <v>426.71</v>
       </c>
       <c r="J93" t="n">
         <v>429.01</v>
@@ -10801,7 +10801,7 @@
         <v>422.99</v>
       </c>
       <c r="AL93" t="n">
-        <v>426.21</v>
+        <v>425.91</v>
       </c>
       <c r="AM93" t="n">
         <v>431.53</v>
@@ -10840,7 +10840,7 @@
         <v>427.87</v>
       </c>
       <c r="I94" t="n">
-        <v>428.42</v>
+        <v>428.18</v>
       </c>
       <c r="J94" t="n">
         <v>432.76</v>
@@ -10907,7 +10907,7 @@
         <v>422.97</v>
       </c>
       <c r="AL94" t="n">
-        <v>429.27</v>
+        <v>429.46</v>
       </c>
       <c r="AM94" t="n">
         <v>430.39</v>
@@ -10934,7 +10934,7 @@
         <v>411.28</v>
       </c>
       <c r="I95" t="n">
-        <v>417.37</v>
+        <v>418.14</v>
       </c>
       <c r="J95" t="n">
         <v>415.94</v>
@@ -10981,7 +10981,7 @@
         <v>410.79</v>
       </c>
       <c r="AL95" t="n">
-        <v>412.57</v>
+        <v>411.98</v>
       </c>
       <c r="AM95" t="n">
         <v>423.15</v>
@@ -11020,7 +11020,7 @@
         <v>427.24</v>
       </c>
       <c r="I96" t="n">
-        <v>438.61</v>
+        <v>438.21</v>
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
@@ -11085,7 +11085,7 @@
         <v>423.43</v>
       </c>
       <c r="AL96" t="n">
-        <v>428.93</v>
+        <v>429.24</v>
       </c>
       <c r="AM96" t="n">
         <v>431.43</v>
@@ -11159,7 +11159,7 @@
         <v>390.29</v>
       </c>
       <c r="AL97" t="n">
-        <v>405.23</v>
+        <v>405.17</v>
       </c>
       <c r="AM97" t="n">
         <v>410.66</v>
@@ -11198,7 +11198,7 @@
         <v>414.97</v>
       </c>
       <c r="I98" t="n">
-        <v>415.84</v>
+        <v>415.28</v>
       </c>
       <c r="J98" t="n">
         <v>421.82</v>
@@ -11314,7 +11314,7 @@
         <v>426.91</v>
       </c>
       <c r="I99" t="n">
-        <v>429.76</v>
+        <v>430.17</v>
       </c>
       <c r="J99" t="n">
         <v>427.65</v>
@@ -11401,7 +11401,7 @@
         <v>423.64</v>
       </c>
       <c r="AL99" t="n">
-        <v>429.07</v>
+        <v>428.76</v>
       </c>
       <c r="AM99" t="n">
         <v>429.03</v>
@@ -11440,7 +11440,7 @@
         <v>418</v>
       </c>
       <c r="I100" t="n">
-        <v>417.19</v>
+        <v>417.95</v>
       </c>
       <c r="J100" t="n">
         <v>422.36</v>
@@ -11509,7 +11509,7 @@
         <v>414.42</v>
       </c>
       <c r="AL100" t="n">
-        <v>413.98</v>
+        <v>413.39</v>
       </c>
       <c r="AM100" t="n">
         <v>416.9</v>
@@ -11538,7 +11538,7 @@
         <v>398.89</v>
       </c>
       <c r="I101" t="n">
-        <v>401.29</v>
+        <v>401.79</v>
       </c>
       <c r="J101" t="n">
         <v>399.89</v>
@@ -11623,7 +11623,7 @@
         <v>405.32</v>
       </c>
       <c r="AL101" t="n">
-        <v>405.18</v>
+        <v>404.8</v>
       </c>
       <c r="AM101" t="n">
         <v>408.58</v>
@@ -11719,7 +11719,7 @@
       <c r="AJ102" t="inlineStr"/>
       <c r="AK102" t="inlineStr"/>
       <c r="AL102" t="n">
-        <v>371.12</v>
+        <v>370.89</v>
       </c>
       <c r="AM102" t="n">
         <v>404.11</v>
@@ -11758,7 +11758,7 @@
         <v>415.88</v>
       </c>
       <c r="I103" t="n">
-        <v>415.98</v>
+        <v>415.54</v>
       </c>
       <c r="J103" t="n">
         <v>414.07</v>
@@ -11829,7 +11829,7 @@
         <v>415.53</v>
       </c>
       <c r="AL103" t="n">
-        <v>412.56</v>
+        <v>412.9</v>
       </c>
       <c r="AM103" t="n">
         <v>423.37</v>
@@ -11868,7 +11868,7 @@
         <v>416.75</v>
       </c>
       <c r="I104" t="n">
-        <v>415.68</v>
+        <v>415.32</v>
       </c>
       <c r="J104" t="n">
         <v>413.89</v>
@@ -11941,7 +11941,7 @@
       <c r="AJ104" t="inlineStr"/>
       <c r="AK104" t="inlineStr"/>
       <c r="AL104" t="n">
-        <v>414.14</v>
+        <v>414.42</v>
       </c>
       <c r="AM104" t="n">
         <v>423.45</v>
@@ -11980,7 +11980,7 @@
         <v>413.01</v>
       </c>
       <c r="I105" t="n">
-        <v>411.3</v>
+        <v>412.03</v>
       </c>
       <c r="J105" t="n">
         <v>416</v>
@@ -12094,7 +12094,7 @@
         <v>405.47</v>
       </c>
       <c r="I106" t="n">
-        <v>405.93</v>
+        <v>406.89</v>
       </c>
       <c r="J106" t="n">
         <v>404.95</v>
@@ -12181,7 +12181,7 @@
         <v>410.25</v>
       </c>
       <c r="AL106" t="n">
-        <v>420.66</v>
+        <v>419.92</v>
       </c>
       <c r="AM106" t="inlineStr"/>
       <c r="AN106" t="inlineStr">
@@ -12218,7 +12218,7 @@
         <v>411.73</v>
       </c>
       <c r="I107" t="n">
-        <v>418.24</v>
+        <v>418.84</v>
       </c>
       <c r="J107" t="n">
         <v>419.49</v>
@@ -12289,7 +12289,7 @@
         <v>415.59</v>
       </c>
       <c r="AL107" t="n">
-        <v>414.89</v>
+        <v>414.43</v>
       </c>
       <c r="AM107" t="n">
         <v>415.9</v>
@@ -12328,7 +12328,7 @@
         <v>414.76</v>
       </c>
       <c r="I108" t="n">
-        <v>416.63</v>
+        <v>416.76</v>
       </c>
       <c r="J108" t="n">
         <v>415.41</v>
@@ -12399,7 +12399,7 @@
         <v>415.72</v>
       </c>
       <c r="AL108" t="n">
-        <v>413.11</v>
+        <v>413.01</v>
       </c>
       <c r="AM108" t="n">
         <v>416.13</v>
@@ -12438,7 +12438,7 @@
         <v>424.74</v>
       </c>
       <c r="I109" t="n">
-        <v>422.99</v>
+        <v>422.49</v>
       </c>
       <c r="J109" t="n">
         <v>424.74</v>
@@ -12558,7 +12558,7 @@
         <v>414.11</v>
       </c>
       <c r="I110" t="n">
-        <v>425.91</v>
+        <v>426.9</v>
       </c>
       <c r="J110" t="n">
         <v>424.57</v>
@@ -12629,7 +12629,7 @@
         <v>408.52</v>
       </c>
       <c r="AL110" t="n">
-        <v>414.94</v>
+        <v>414.18</v>
       </c>
       <c r="AM110" t="n">
         <v>408.75</v>
@@ -12668,7 +12668,7 @@
         <v>412.09</v>
       </c>
       <c r="I111" t="n">
-        <v>410.99</v>
+        <v>412.08</v>
       </c>
       <c r="J111" t="n">
         <v>419.92</v>
@@ -12786,7 +12786,7 @@
         <v>416</v>
       </c>
       <c r="I112" t="n">
-        <v>426.96</v>
+        <v>426.12</v>
       </c>
       <c r="J112" t="n">
         <v>426.07</v>
@@ -12902,7 +12902,7 @@
         <v>419.37</v>
       </c>
       <c r="I113" t="n">
-        <v>420.31</v>
+        <v>419.75</v>
       </c>
       <c r="J113" t="n">
         <v>420.75</v>
@@ -12969,7 +12969,7 @@
         <v>412.1</v>
       </c>
       <c r="AL113" t="n">
-        <v>409.7</v>
+        <v>410.13</v>
       </c>
       <c r="AM113" t="n">
         <v>421.61</v>
@@ -13008,7 +13008,7 @@
         <v>429.37</v>
       </c>
       <c r="I114" t="n">
-        <v>430.95</v>
+        <v>430.49</v>
       </c>
       <c r="J114" t="n">
         <v>435.09</v>
@@ -13075,7 +13075,7 @@
         <v>417</v>
       </c>
       <c r="AL114" t="n">
-        <v>425.73</v>
+        <v>426.08</v>
       </c>
       <c r="AM114" t="n">
         <v>429.19</v>
@@ -13177,7 +13177,7 @@
         <v>416.68</v>
       </c>
       <c r="AL115" t="n">
-        <v>423.13</v>
+        <v>423.6</v>
       </c>
       <c r="AM115" t="n">
         <v>427.48</v>
@@ -13216,7 +13216,7 @@
         <v>421.17</v>
       </c>
       <c r="I116" t="n">
-        <v>420.95</v>
+        <v>421.37</v>
       </c>
       <c r="J116" t="n">
         <v>417.92</v>
@@ -13285,7 +13285,7 @@
         <v>415.92</v>
       </c>
       <c r="AL116" t="n">
-        <v>412.91</v>
+        <v>412.59</v>
       </c>
       <c r="AM116" t="n">
         <v>418.21</v>
@@ -13320,7 +13320,7 @@
         <v>428.88</v>
       </c>
       <c r="I117" t="n">
-        <v>412.77</v>
+        <v>413.44</v>
       </c>
       <c r="J117" t="n">
         <v>398.93</v>
@@ -13396,7 +13396,7 @@
         <v>427.8</v>
       </c>
       <c r="I118" t="n">
-        <v>426.35</v>
+        <v>426.91</v>
       </c>
       <c r="J118" t="n">
         <v>422.97</v>
@@ -13483,7 +13483,7 @@
         <v>420.53</v>
       </c>
       <c r="AL118" t="n">
-        <v>415.4</v>
+        <v>414.97</v>
       </c>
       <c r="AM118" t="n">
         <v>418.43</v>
@@ -13589,7 +13589,7 @@
         <v>411.23</v>
       </c>
       <c r="AL119" t="n">
-        <v>417.35</v>
+        <v>417.76</v>
       </c>
       <c r="AM119" t="n">
         <v>423.49</v>
@@ -13689,7 +13689,7 @@
         <v>403.12</v>
       </c>
       <c r="AL120" t="n">
-        <v>399.87</v>
+        <v>400.4</v>
       </c>
       <c r="AM120" t="n">
         <v>410.35</v>
@@ -13797,7 +13797,7 @@
         <v>407.75</v>
       </c>
       <c r="AL121" t="n">
-        <v>404.81</v>
+        <v>405.46</v>
       </c>
       <c r="AM121" t="n">
         <v>416.85</v>
@@ -13836,7 +13836,7 @@
         <v>416.07</v>
       </c>
       <c r="I122" t="n">
-        <v>422.38</v>
+        <v>422.82</v>
       </c>
       <c r="J122" t="n">
         <v>419.33</v>
@@ -13923,7 +13923,7 @@
         <v>418.32</v>
       </c>
       <c r="AL122" t="n">
-        <v>413.6</v>
+        <v>413.26</v>
       </c>
       <c r="AM122" t="n">
         <v>416.89</v>
@@ -13962,7 +13962,7 @@
         <v>418.21</v>
       </c>
       <c r="I123" t="n">
-        <v>417.86</v>
+        <v>417.64</v>
       </c>
       <c r="J123" t="n">
         <v>418.64</v>
@@ -14074,7 +14074,7 @@
         <v>420.01</v>
       </c>
       <c r="I124" t="n">
-        <v>421.1</v>
+        <v>421.41</v>
       </c>
       <c r="J124" t="n">
         <v>418.28</v>
@@ -14161,7 +14161,7 @@
         <v>419.73</v>
       </c>
       <c r="AL124" t="n">
-        <v>413.73</v>
+        <v>413.48</v>
       </c>
       <c r="AM124" t="n">
         <v>418.19</v>
@@ -14200,7 +14200,7 @@
         <v>406.13</v>
       </c>
       <c r="I125" t="n">
-        <v>412.08</v>
+        <v>413.04</v>
       </c>
       <c r="J125" t="n">
         <v>407.7</v>
@@ -14269,7 +14269,7 @@
         <v>412.53</v>
       </c>
       <c r="AL125" t="n">
-        <v>412.69</v>
+        <v>411.94</v>
       </c>
       <c r="AM125" t="n">
         <v>409.83</v>
@@ -14308,7 +14308,7 @@
         <v>425.29</v>
       </c>
       <c r="I126" t="n">
-        <v>429.78</v>
+        <v>429.15</v>
       </c>
       <c r="J126" t="n">
         <v>426.07</v>
@@ -14395,7 +14395,7 @@
         <v>413.28</v>
       </c>
       <c r="AL126" t="n">
-        <v>415.36</v>
+        <v>415.85</v>
       </c>
       <c r="AM126" t="n">
         <v>423.64</v>
@@ -14434,7 +14434,7 @@
         <v>407.2</v>
       </c>
       <c r="I127" t="n">
-        <v>406.24</v>
+        <v>407.38</v>
       </c>
       <c r="J127" t="n">
         <v>409.09</v>
@@ -14550,7 +14550,7 @@
         <v>428.43</v>
       </c>
       <c r="I128" t="n">
-        <v>428.39</v>
+        <v>429.01</v>
       </c>
       <c r="J128" t="n">
         <v>424.45</v>
@@ -14637,7 +14637,7 @@
         <v>423.44</v>
       </c>
       <c r="AL128" t="n">
-        <v>418.45</v>
+        <v>417.98</v>
       </c>
       <c r="AM128" t="n">
         <v>422.4</v>
@@ -14676,7 +14676,7 @@
         <v>440.48</v>
       </c>
       <c r="I129" t="n">
-        <v>442.93</v>
+        <v>442.66</v>
       </c>
       <c r="J129" t="n">
         <v>439.39</v>
@@ -14763,7 +14763,7 @@
         <v>421.45</v>
       </c>
       <c r="AL129" t="n">
-        <v>428.81</v>
+        <v>429.03</v>
       </c>
       <c r="AM129" t="n">
         <v>429.19</v>
@@ -14802,7 +14802,7 @@
         <v>419.31</v>
       </c>
       <c r="I130" t="n">
-        <v>419.91</v>
+        <v>419.24</v>
       </c>
       <c r="J130" t="n">
         <v>429.1</v>
@@ -14889,7 +14889,7 @@
         <v>412.49</v>
       </c>
       <c r="AL130" t="n">
-        <v>412.01</v>
+        <v>412.54</v>
       </c>
       <c r="AM130" t="n">
         <v>422.03</v>
@@ -14928,7 +14928,7 @@
         <v>429.75</v>
       </c>
       <c r="I131" t="n">
-        <v>433.95</v>
+        <v>433.59</v>
       </c>
       <c r="J131" t="n">
         <v>436.7</v>
@@ -15015,7 +15015,7 @@
         <v>417.63</v>
       </c>
       <c r="AL131" t="n">
-        <v>420.79</v>
+        <v>421.06</v>
       </c>
       <c r="AM131" t="n">
         <v>426.73</v>
@@ -15097,7 +15097,7 @@
         <v>420.33</v>
       </c>
       <c r="AL132" t="n">
-        <v>416.86</v>
+        <v>416.39</v>
       </c>
       <c r="AM132" t="n">
         <v>415.79</v>
@@ -15136,7 +15136,7 @@
         <v>415.2</v>
       </c>
       <c r="I133" t="n">
-        <v>419.09</v>
+        <v>419.56</v>
       </c>
       <c r="J133" t="n">
         <v>418.15</v>
@@ -15221,7 +15221,7 @@
         <v>419.16</v>
       </c>
       <c r="AL133" t="n">
-        <v>414.6</v>
+        <v>414.23</v>
       </c>
       <c r="AM133" t="n">
         <v>414.04</v>
@@ -15260,7 +15260,7 @@
         <v>402.5</v>
       </c>
       <c r="I134" t="n">
-        <v>405.63</v>
+        <v>405</v>
       </c>
       <c r="J134" t="n">
         <v>404.64</v>
@@ -15362,7 +15362,7 @@
         <v>418.89</v>
       </c>
       <c r="I135" t="n">
-        <v>428</v>
+        <v>428.8</v>
       </c>
       <c r="J135" t="n">
         <v>423.75</v>
@@ -15449,7 +15449,7 @@
         <v>411.13</v>
       </c>
       <c r="AL135" t="n">
-        <v>417.6</v>
+        <v>416.98</v>
       </c>
       <c r="AM135" t="n">
         <v>416.15</v>
@@ -15488,7 +15488,7 @@
         <v>422.3</v>
       </c>
       <c r="I136" t="n">
-        <v>423.55</v>
+        <v>424.21</v>
       </c>
       <c r="J136" t="n">
         <v>422.84</v>
@@ -15547,7 +15547,7 @@
         <v>415.62</v>
       </c>
       <c r="AL136" t="n">
-        <v>415.85</v>
+        <v>415.34</v>
       </c>
       <c r="AM136" t="n">
         <v>416.54</v>
@@ -15586,7 +15586,7 @@
         <v>437.7</v>
       </c>
       <c r="I137" t="n">
-        <v>442.1</v>
+        <v>441.81</v>
       </c>
       <c r="J137" t="n">
         <v>438.97</v>
@@ -15673,7 +15673,7 @@
         <v>429.76</v>
       </c>
       <c r="AL137" t="n">
-        <v>433.63</v>
+        <v>433.85</v>
       </c>
       <c r="AM137" t="n">
         <v>436.31</v>
@@ -15712,7 +15712,7 @@
         <v>424.9</v>
       </c>
       <c r="I138" t="n">
-        <v>424.48</v>
+        <v>423.98</v>
       </c>
       <c r="J138" t="n">
         <v>425.71</v>
@@ -15810,7 +15810,7 @@
         <v>421.48</v>
       </c>
       <c r="I139" t="n">
-        <v>417.73</v>
+        <v>416.97</v>
       </c>
       <c r="J139" t="n">
         <v>433.08</v>
@@ -15875,7 +15875,7 @@
         <v>411.89</v>
       </c>
       <c r="AL139" t="n">
-        <v>411.15</v>
+        <v>411.74</v>
       </c>
       <c r="AM139" t="n">
         <v>421.02</v>
@@ -15914,7 +15914,7 @@
         <v>392.77</v>
       </c>
       <c r="I140" t="n">
-        <v>394.73</v>
+        <v>394.89</v>
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
@@ -15982,7 +15982,7 @@
         <v>422.83</v>
       </c>
       <c r="I141" t="n">
-        <v>423.01</v>
+        <v>423.63</v>
       </c>
       <c r="J141" t="n">
         <v>420.75</v>
@@ -16069,7 +16069,7 @@
         <v>417.92</v>
       </c>
       <c r="AL141" t="n">
-        <v>414.51</v>
+        <v>414.04</v>
       </c>
       <c r="AM141" t="n">
         <v>412.58</v>
@@ -16108,7 +16108,7 @@
         <v>402.29</v>
       </c>
       <c r="I142" t="n">
-        <v>408.1</v>
+        <v>408.63</v>
       </c>
       <c r="J142" t="n">
         <v>407.82</v>
@@ -16195,7 +16195,7 @@
         <v>405.67</v>
       </c>
       <c r="AL142" t="n">
-        <v>410.48</v>
+        <v>410.07</v>
       </c>
       <c r="AM142" t="n">
         <v>404.88</v>
@@ -16234,7 +16234,7 @@
         <v>420.95</v>
       </c>
       <c r="I143" t="n">
-        <v>421.7</v>
+        <v>421.07</v>
       </c>
       <c r="J143" t="n">
         <v>419.72</v>
@@ -16321,7 +16321,7 @@
         <v>412.77</v>
       </c>
       <c r="AL143" t="n">
-        <v>414.72</v>
+        <v>415.21</v>
       </c>
       <c r="AM143" t="n">
         <v>424.81</v>
@@ -16360,7 +16360,7 @@
         <v>416.94</v>
       </c>
       <c r="I144" t="n">
-        <v>415.62</v>
+        <v>414.81</v>
       </c>
       <c r="J144" t="n">
         <v>415.84</v>
@@ -16447,7 +16447,7 @@
         <v>411.09</v>
       </c>
       <c r="AL144" t="n">
-        <v>411.19</v>
+        <v>411.82</v>
       </c>
       <c r="AM144" t="n">
         <v>422.66</v>
@@ -16533,7 +16533,7 @@
         <v>413.07</v>
       </c>
       <c r="AL145" t="n">
-        <v>410.8</v>
+        <v>410.67</v>
       </c>
       <c r="AM145" t="n">
         <v>413.16</v>
@@ -16572,7 +16572,7 @@
         <v>423.97</v>
       </c>
       <c r="I146" t="n">
-        <v>422.36</v>
+        <v>422.79</v>
       </c>
       <c r="J146" t="n">
         <v>418.2</v>
@@ -16659,7 +16659,7 @@
         <v>419.86</v>
       </c>
       <c r="AL146" t="n">
-        <v>414.7</v>
+        <v>414.37</v>
       </c>
       <c r="AM146" t="n">
         <v>418.28</v>
@@ -16698,7 +16698,7 @@
         <v>407.45</v>
       </c>
       <c r="I147" t="n">
-        <v>407.43</v>
+        <v>408.47</v>
       </c>
       <c r="J147" t="n">
         <v>409.4</v>
@@ -16783,7 +16783,7 @@
         <v>401.92</v>
       </c>
       <c r="AL147" t="n">
-        <v>406.39</v>
+        <v>405.58</v>
       </c>
       <c r="AM147" t="n">
         <v>407.4</v>
@@ -16822,7 +16822,7 @@
         <v>415.81</v>
       </c>
       <c r="I148" t="n">
-        <v>413.43</v>
+        <v>412.86</v>
       </c>
       <c r="J148" t="n">
         <v>417.5</v>
@@ -16909,7 +16909,7 @@
         <v>412.18</v>
       </c>
       <c r="AL148" t="n">
-        <v>408.99</v>
+        <v>409.43</v>
       </c>
       <c r="AM148" t="n">
         <v>420.84</v>
@@ -16948,7 +16948,7 @@
         <v>413.88</v>
       </c>
       <c r="I149" t="n">
-        <v>414.55</v>
+        <v>415.18</v>
       </c>
       <c r="J149" t="n">
         <v>416.81</v>
@@ -17009,7 +17009,7 @@
         <v>403.3</v>
       </c>
       <c r="AL149" t="n">
-        <v>410.82</v>
+        <v>410.33</v>
       </c>
       <c r="AM149" t="n">
         <v>408.94</v>
@@ -17119,7 +17119,7 @@
         <v>415.76</v>
       </c>
       <c r="AL150" t="n">
-        <v>409.84</v>
+        <v>409.77</v>
       </c>
       <c r="AM150" t="n">
         <v>424.03</v>
@@ -17158,7 +17158,7 @@
         <v>423.15</v>
       </c>
       <c r="I151" t="n">
-        <v>420.71</v>
+        <v>420.28</v>
       </c>
       <c r="J151" t="n">
         <v>421.86</v>
@@ -17245,7 +17245,7 @@
         <v>412.95</v>
       </c>
       <c r="AL151" t="n">
-        <v>412.64</v>
+        <v>412.98</v>
       </c>
       <c r="AM151" t="n">
         <v>424.37</v>
@@ -17284,7 +17284,7 @@
         <v>438.65</v>
       </c>
       <c r="I152" t="n">
-        <v>438.62</v>
+        <v>439.6</v>
       </c>
       <c r="J152" t="n">
         <v>437.44</v>
@@ -17337,7 +17337,7 @@
         <v>425.11</v>
       </c>
       <c r="AL152" t="n">
-        <v>428</v>
+        <v>427.25</v>
       </c>
       <c r="AM152" t="n">
         <v>436.93</v>
@@ -17376,7 +17376,7 @@
         <v>438.54</v>
       </c>
       <c r="I153" t="n">
-        <v>438.67</v>
+        <v>438.03</v>
       </c>
       <c r="J153" t="n">
         <v>437.73</v>
@@ -17463,7 +17463,7 @@
         <v>416.66</v>
       </c>
       <c r="AL153" t="n">
-        <v>421.68</v>
+        <v>422.17</v>
       </c>
       <c r="AM153" t="n">
         <v>425.21</v>
@@ -17502,7 +17502,7 @@
         <v>424.59</v>
       </c>
       <c r="I154" t="n">
-        <v>426.67</v>
+        <v>426.4</v>
       </c>
       <c r="J154" t="n">
         <v>428.14</v>
@@ -17589,7 +17589,7 @@
         <v>417.29</v>
       </c>
       <c r="AL154" t="n">
-        <v>414.04</v>
+        <v>414.25</v>
       </c>
       <c r="AM154" t="n">
         <v>424.66</v>
@@ -17628,7 +17628,7 @@
         <v>408.74</v>
       </c>
       <c r="I155" t="n">
-        <v>411.03</v>
+        <v>411.9</v>
       </c>
       <c r="J155" t="n">
         <v>410.41</v>
@@ -17700,7 +17700,7 @@
         <v>400.31</v>
       </c>
       <c r="I156" t="n">
-        <v>398.44</v>
+        <v>399.2</v>
       </c>
       <c r="J156" t="n">
         <v>400.76</v>
@@ -17785,7 +17785,7 @@
         <v>397.33</v>
       </c>
       <c r="AL156" t="n">
-        <v>401.93</v>
+        <v>401.34</v>
       </c>
       <c r="AM156" t="n">
         <v>399.87</v>
@@ -17847,7 +17847,7 @@
         <v>402.08</v>
       </c>
       <c r="AL157" t="n">
-        <v>399.5</v>
+        <v>399.96</v>
       </c>
       <c r="AM157" t="n">
         <v>402.28</v>
@@ -17886,7 +17886,7 @@
         <v>404.35</v>
       </c>
       <c r="I158" t="n">
-        <v>403.12</v>
+        <v>404.02</v>
       </c>
       <c r="J158" t="n">
         <v>404.38</v>
@@ -17971,7 +17971,7 @@
         <v>398.1</v>
       </c>
       <c r="AL158" t="n">
-        <v>402.71</v>
+        <v>402.02</v>
       </c>
       <c r="AM158" t="n">
         <v>403.64</v>
@@ -18010,7 +18010,7 @@
         <v>433.91</v>
       </c>
       <c r="I159" t="n">
-        <v>433.32</v>
+        <v>432.86</v>
       </c>
       <c r="J159" t="n">
         <v>431.91</v>
@@ -18097,7 +18097,7 @@
         <v>420.2</v>
       </c>
       <c r="AL159" t="n">
-        <v>426.92</v>
+        <v>427.27</v>
       </c>
       <c r="AM159" t="n">
         <v>430.36</v>
@@ -18136,7 +18136,7 @@
         <v>418.08</v>
       </c>
       <c r="I160" t="n">
-        <v>414.5</v>
+        <v>413.77</v>
       </c>
       <c r="J160" t="n">
         <v>412.23</v>
@@ -18223,7 +18223,7 @@
         <v>410.03</v>
       </c>
       <c r="AL160" t="n">
-        <v>408.69</v>
+        <v>409.25</v>
       </c>
       <c r="AM160" t="n">
         <v>420.73</v>
@@ -18262,7 +18262,7 @@
         <v>420.75</v>
       </c>
       <c r="I161" t="n">
-        <v>419.92</v>
+        <v>419.81</v>
       </c>
       <c r="J161" t="n">
         <v>418.03</v>
@@ -18349,7 +18349,7 @@
         <v>416.28</v>
       </c>
       <c r="AL161" t="n">
-        <v>414.16</v>
+        <v>414.25</v>
       </c>
       <c r="AM161" t="n">
         <v>425.58</v>
@@ -18449,7 +18449,7 @@
         <v>412.07</v>
       </c>
       <c r="AL162" t="n">
-        <v>415.31</v>
+        <v>415.72</v>
       </c>
       <c r="AM162" t="n">
         <v>423.6</v>
@@ -18488,7 +18488,7 @@
         <v>425.21</v>
       </c>
       <c r="I163" t="n">
-        <v>423.91</v>
+        <v>423.95</v>
       </c>
       <c r="J163" t="n">
         <v>420.38</v>
@@ -18575,7 +18575,7 @@
         <v>422.82</v>
       </c>
       <c r="AL163" t="n">
-        <v>432.79</v>
+        <v>432.75</v>
       </c>
       <c r="AM163" t="n">
         <v>432.36</v>
@@ -18614,7 +18614,7 @@
         <v>427.96</v>
       </c>
       <c r="I164" t="n">
-        <v>426.57</v>
+        <v>427.24</v>
       </c>
       <c r="J164" t="n">
         <v>422.49</v>
@@ -18681,7 +18681,7 @@
         <v>424.7</v>
       </c>
       <c r="AL164" t="n">
-        <v>426.56</v>
+        <v>426.05</v>
       </c>
       <c r="AM164" t="n">
         <v>434.56</v>
@@ -18720,7 +18720,7 @@
         <v>431.5</v>
       </c>
       <c r="I165" t="n">
-        <v>430.85</v>
+        <v>431.56</v>
       </c>
       <c r="J165" t="n">
         <v>429.14</v>
@@ -18824,7 +18824,7 @@
         <v>418.39</v>
       </c>
       <c r="I166" t="n">
-        <v>419.79</v>
+        <v>419.69</v>
       </c>
       <c r="J166" t="n">
         <v>421.47</v>
@@ -18911,7 +18911,7 @@
         <v>414.53</v>
       </c>
       <c r="AL166" t="n">
-        <v>409.22</v>
+        <v>409.29</v>
       </c>
       <c r="AM166" t="n">
         <v>418.83</v>
@@ -18950,7 +18950,7 @@
         <v>425.64</v>
       </c>
       <c r="I167" t="n">
-        <v>424.72</v>
+        <v>425.25</v>
       </c>
       <c r="J167" t="n">
         <v>420.72</v>
@@ -19037,7 +19037,7 @@
         <v>422.85</v>
       </c>
       <c r="AL167" t="n">
-        <v>419.54</v>
+        <v>419.13</v>
       </c>
       <c r="AM167" t="n">
         <v>430.42</v>
@@ -19076,7 +19076,7 @@
         <v>423.13</v>
       </c>
       <c r="I168" t="n">
-        <v>425.23</v>
+        <v>424.57</v>
       </c>
       <c r="J168" t="n">
         <v>426.69</v>
@@ -19163,7 +19163,7 @@
         <v>418.49</v>
       </c>
       <c r="AL168" t="n">
-        <v>425.19</v>
+        <v>425.69</v>
       </c>
       <c r="AM168" t="n">
         <v>431.28</v>
@@ -19202,7 +19202,7 @@
         <v>437.06</v>
       </c>
       <c r="I169" t="n">
-        <v>435.16</v>
+        <v>435.39</v>
       </c>
       <c r="J169" t="n">
         <v>438.42</v>
@@ -19289,7 +19289,7 @@
         <v>443.49</v>
       </c>
       <c r="AL169" t="n">
-        <v>443.78</v>
+        <v>443.6</v>
       </c>
       <c r="AM169" t="n">
         <v>454.59</v>
@@ -19371,7 +19371,7 @@
         <v>439.91</v>
       </c>
       <c r="AL170" t="n">
-        <v>445.74</v>
+        <v>445.18</v>
       </c>
       <c r="AM170" t="n">
         <v>444.98</v>
@@ -19410,7 +19410,7 @@
         <v>440.57</v>
       </c>
       <c r="I171" t="n">
-        <v>449.25</v>
+        <v>450.03</v>
       </c>
       <c r="J171" t="n">
         <v>452.56</v>
@@ -19497,7 +19497,7 @@
         <v>439.18</v>
       </c>
       <c r="AL171" t="n">
-        <v>448.19</v>
+        <v>447.59</v>
       </c>
       <c r="AM171" t="n">
         <v>449.8</v>
@@ -19581,7 +19581,7 @@
         <v>448.98</v>
       </c>
       <c r="AL172" t="n">
-        <v>445.5</v>
+        <v>445.14</v>
       </c>
       <c r="AM172" t="n">
         <v>457.52</v>
@@ -19620,7 +19620,7 @@
         <v>426.95</v>
       </c>
       <c r="I173" t="n">
-        <v>422.84</v>
+        <v>421.97</v>
       </c>
       <c r="J173" t="n">
         <v>426.78</v>
@@ -19707,7 +19707,7 @@
         <v>414.95</v>
       </c>
       <c r="AL173" t="n">
-        <v>421.82</v>
+        <v>422.5</v>
       </c>
       <c r="AM173" t="n">
         <v>425.53</v>
@@ -19746,7 +19746,7 @@
         <v>415.47</v>
       </c>
       <c r="I174" t="n">
-        <v>417.55</v>
+        <v>418.11</v>
       </c>
       <c r="J174" t="n">
         <v>418.44</v>
@@ -19833,7 +19833,7 @@
         <v>418.49</v>
       </c>
       <c r="AL174" t="n">
-        <v>415.27</v>
+        <v>414.84</v>
       </c>
       <c r="AM174" t="n">
         <v>414.94</v>
@@ -19862,7 +19862,7 @@
         <v>411.7</v>
       </c>
       <c r="I175" t="n">
-        <v>412.53</v>
+        <v>413.52</v>
       </c>
       <c r="J175" t="n">
         <v>418.68</v>
@@ -19949,7 +19949,7 @@
         <v>414.84</v>
       </c>
       <c r="AL175" t="n">
-        <v>418.2</v>
+        <v>417.44</v>
       </c>
       <c r="AM175" t="n">
         <v>413.49</v>
@@ -19988,7 +19988,7 @@
         <v>423.13</v>
       </c>
       <c r="I176" t="n">
-        <v>427.01</v>
+        <v>426.74</v>
       </c>
       <c r="J176" t="n">
         <v>426.14</v>
@@ -20075,7 +20075,7 @@
         <v>422.33</v>
       </c>
       <c r="AL176" t="n">
-        <v>429.05</v>
+        <v>429.26</v>
       </c>
       <c r="AM176" t="n">
         <v>430.17</v>
@@ -20181,7 +20181,7 @@
         <v>424.16</v>
       </c>
       <c r="AL177" t="n">
-        <v>428.48</v>
+        <v>428.83</v>
       </c>
       <c r="AM177" t="n">
         <v>429.31</v>
@@ -20220,7 +20220,7 @@
         <v>414.96</v>
       </c>
       <c r="I178" t="n">
-        <v>416.99</v>
+        <v>418</v>
       </c>
       <c r="J178" t="n">
         <v>419.29</v>
@@ -20303,7 +20303,7 @@
         <v>408.69</v>
       </c>
       <c r="AL178" t="n">
-        <v>416.3</v>
+        <v>415.52</v>
       </c>
       <c r="AM178" t="n">
         <v>412.04</v>
@@ -20342,7 +20342,7 @@
         <v>433.82</v>
       </c>
       <c r="I179" t="n">
-        <v>432.73</v>
+        <v>433.37</v>
       </c>
       <c r="J179" t="n">
         <v>431.8</v>
@@ -20429,7 +20429,7 @@
         <v>428.92</v>
       </c>
       <c r="AL179" t="n">
-        <v>433.1</v>
+        <v>432.6</v>
       </c>
       <c r="AM179" t="n">
         <v>436.48</v>
@@ -20468,7 +20468,7 @@
         <v>424.42</v>
       </c>
       <c r="I180" t="n">
-        <v>422.88</v>
+        <v>423.22</v>
       </c>
       <c r="J180" t="n">
         <v>420.2</v>
@@ -20542,7 +20542,7 @@
         <v>419.96</v>
       </c>
       <c r="I181" t="n">
-        <v>421</v>
+        <v>420.33</v>
       </c>
       <c r="J181" t="n">
         <v>418.98</v>
@@ -20629,7 +20629,7 @@
         <v>415.35</v>
       </c>
       <c r="AL181" t="n">
-        <v>421.7</v>
+        <v>422.21</v>
       </c>
       <c r="AM181" t="n">
         <v>425.79</v>
@@ -20668,7 +20668,7 @@
         <v>425.13</v>
       </c>
       <c r="I182" t="n">
-        <v>425.65</v>
+        <v>426.18</v>
       </c>
       <c r="J182" t="n">
         <v>422.45</v>
@@ -20755,7 +20755,7 @@
         <v>423.07</v>
       </c>
       <c r="AL182" t="n">
-        <v>417.38</v>
+        <v>416.98</v>
       </c>
       <c r="AM182" t="n">
         <v>425.97</v>
@@ -20794,7 +20794,7 @@
         <v>400.84</v>
       </c>
       <c r="I183" t="n">
-        <v>404.32</v>
+        <v>405.18</v>
       </c>
       <c r="J183" t="n">
         <v>397.75</v>
@@ -20877,7 +20877,7 @@
         <v>395.94</v>
       </c>
       <c r="AL183" t="n">
-        <v>399.43</v>
+        <v>398.77</v>
       </c>
       <c r="AM183" t="n">
         <v>404.76</v>
@@ -20916,7 +20916,7 @@
         <v>422.58</v>
       </c>
       <c r="I184" t="n">
-        <v>433.77</v>
+        <v>433.11</v>
       </c>
       <c r="J184" t="n">
         <v>436.28</v>
@@ -21003,7 +21003,7 @@
         <v>416.01</v>
       </c>
       <c r="AL184" t="n">
-        <v>419.73</v>
+        <v>420.23</v>
       </c>
       <c r="AM184" t="n">
         <v>424.83</v>
@@ -21042,7 +21042,7 @@
         <v>426.66</v>
       </c>
       <c r="I185" t="n">
-        <v>420.45</v>
+        <v>421.05</v>
       </c>
       <c r="J185" t="n">
         <v>421.77</v>
@@ -21164,7 +21164,7 @@
         <v>424.32</v>
       </c>
       <c r="I186" t="n">
-        <v>424.03</v>
+        <v>424.27</v>
       </c>
       <c r="J186" t="n">
         <v>419.31</v>
@@ -21251,7 +21251,7 @@
         <v>418.33</v>
       </c>
       <c r="AL186" t="n">
-        <v>414</v>
+        <v>413.81</v>
       </c>
       <c r="AM186" t="n">
         <v>419.52</v>
@@ -21290,7 +21290,7 @@
         <v>423.44</v>
       </c>
       <c r="I187" t="n">
-        <v>421.84</v>
+        <v>421.48</v>
       </c>
       <c r="J187" t="n">
         <v>422.64</v>
@@ -21377,7 +21377,7 @@
         <v>416.79</v>
       </c>
       <c r="AL187" t="n">
-        <v>420.82</v>
+        <v>421.1</v>
       </c>
       <c r="AM187" t="n">
         <v>426.92</v>
@@ -21416,7 +21416,7 @@
         <v>413.61</v>
       </c>
       <c r="I188" t="n">
-        <v>418.82</v>
+        <v>419.6</v>
       </c>
       <c r="J188" t="n">
         <v>419.75</v>
@@ -21503,7 +21503,7 @@
         <v>405.47</v>
       </c>
       <c r="AL188" t="n">
-        <v>412.59</v>
+        <v>411.99</v>
       </c>
       <c r="AM188" t="n">
         <v>409.49</v>
@@ -21542,7 +21542,7 @@
         <v>420.78</v>
       </c>
       <c r="I189" t="n">
-        <v>420.74</v>
+        <v>421.37</v>
       </c>
       <c r="J189" t="n">
         <v>419.51</v>
@@ -21629,7 +21629,7 @@
         <v>419.88</v>
       </c>
       <c r="AL189" t="n">
-        <v>415.88</v>
+        <v>415.39</v>
       </c>
       <c r="AM189" t="n">
         <v>418.34</v>
@@ -21658,7 +21658,7 @@
         <v>402.65</v>
       </c>
       <c r="I190" t="n">
-        <v>399.65</v>
+        <v>399.35</v>
       </c>
       <c r="J190" t="n">
         <v>401.04</v>
@@ -21732,7 +21732,7 @@
         <v>410.59</v>
       </c>
       <c r="I191" t="n">
-        <v>411.42</v>
+        <v>411.26</v>
       </c>
       <c r="J191" t="n">
         <v>407.85</v>
@@ -21819,7 +21819,7 @@
         <v>413.89</v>
       </c>
       <c r="AL191" t="n">
-        <v>409.3</v>
+        <v>409.42</v>
       </c>
       <c r="AM191" t="n">
         <v>419.21</v>
@@ -21858,7 +21858,7 @@
         <v>415.28</v>
       </c>
       <c r="I192" t="n">
-        <v>415.63</v>
+        <v>415.6</v>
       </c>
       <c r="J192" t="n">
         <v>413.94</v>
@@ -21945,7 +21945,7 @@
         <v>414.74</v>
       </c>
       <c r="AL192" t="n">
-        <v>409.96</v>
+        <v>409.99</v>
       </c>
       <c r="AM192" t="n">
         <v>423.51</v>
@@ -21980,7 +21980,7 @@
         <v>412.43</v>
       </c>
       <c r="I193" t="n">
-        <v>413.8</v>
+        <v>413.07</v>
       </c>
       <c r="J193" t="n">
         <v>407.81</v>
@@ -22092,7 +22092,7 @@
         <v>403.53</v>
       </c>
       <c r="I194" t="n">
-        <v>412.46</v>
+        <v>412.52</v>
       </c>
       <c r="J194" t="n">
         <v>412.68</v>
@@ -22179,7 +22179,7 @@
         <v>409.95</v>
       </c>
       <c r="AL194" t="n">
-        <v>408.22</v>
+        <v>408.18</v>
       </c>
       <c r="AM194" t="n">
         <v>411.29</v>
@@ -22272,7 +22272,7 @@
         <v>417.68</v>
       </c>
       <c r="I196" t="n">
-        <v>416.35</v>
+        <v>416.24</v>
       </c>
       <c r="J196" t="n">
         <v>414.33</v>
@@ -22359,7 +22359,7 @@
         <v>415.91</v>
       </c>
       <c r="AL196" t="n">
-        <v>409.9</v>
+        <v>409.99</v>
       </c>
       <c r="AM196" t="n">
         <v>416.32</v>
@@ -22465,7 +22465,7 @@
         <v>383.78</v>
       </c>
       <c r="AL197" t="n">
-        <v>394.39</v>
+        <v>394.7</v>
       </c>
       <c r="AM197" t="n">
         <v>400.29</v>
@@ -22490,7 +22490,7 @@
       <c r="G198" t="inlineStr"/>
       <c r="H198" t="inlineStr"/>
       <c r="I198" t="n">
-        <v>414.83</v>
+        <v>415.69</v>
       </c>
       <c r="J198" t="n">
         <v>420.91</v>
@@ -22577,7 +22577,7 @@
         <v>403.1</v>
       </c>
       <c r="AL198" t="n">
-        <v>411.73</v>
+        <v>411.07</v>
       </c>
       <c r="AM198" t="n">
         <v>407.75</v>
@@ -22616,7 +22616,7 @@
         <v>415.62</v>
       </c>
       <c r="I199" t="n">
-        <v>415.5</v>
+        <v>414.97</v>
       </c>
       <c r="J199" t="n">
         <v>414.58</v>
@@ -22703,7 +22703,7 @@
         <v>407.43</v>
       </c>
       <c r="AL199" t="n">
-        <v>401.66</v>
+        <v>402.07</v>
       </c>
       <c r="AM199" t="n">
         <v>408.44</v>
@@ -22742,7 +22742,7 @@
         <v>410.76</v>
       </c>
       <c r="I200" t="n">
-        <v>411.1</v>
+        <v>410.88</v>
       </c>
       <c r="J200" t="n">
         <v>414.88</v>
@@ -22805,7 +22805,7 @@
         <v>404.68</v>
       </c>
       <c r="AL200" t="n">
-        <v>402.57</v>
+        <v>402.74</v>
       </c>
       <c r="AM200" t="n">
         <v>407.91</v>
@@ -22844,7 +22844,7 @@
         <v>403.92</v>
       </c>
       <c r="I201" t="n">
-        <v>408.78</v>
+        <v>408.65</v>
       </c>
       <c r="J201" t="n">
         <v>408.01</v>
@@ -22956,7 +22956,7 @@
         <v>408.25</v>
       </c>
       <c r="I202" t="n">
-        <v>409.53</v>
+        <v>408.77</v>
       </c>
       <c r="J202" t="n">
         <v>404.55</v>
@@ -23043,7 +23043,7 @@
         <v>407.61</v>
       </c>
       <c r="AL202" t="n">
-        <v>402.99</v>
+        <v>403.57</v>
       </c>
       <c r="AM202" t="n">
         <v>419.97</v>
@@ -23082,7 +23082,7 @@
         <v>408.33</v>
       </c>
       <c r="I203" t="n">
-        <v>409.02</v>
+        <v>409.63</v>
       </c>
       <c r="J203" t="n">
         <v>413.16</v>
@@ -23169,7 +23169,7 @@
         <v>402.14</v>
       </c>
       <c r="AL203" t="n">
-        <v>404.54</v>
+        <v>404.07</v>
       </c>
       <c r="AM203" t="n">
         <v>404.32</v>
@@ -23208,7 +23208,7 @@
         <v>409.55</v>
       </c>
       <c r="I204" t="n">
-        <v>410.51</v>
+        <v>411.1</v>
       </c>
       <c r="J204" t="n">
         <v>415.09</v>
@@ -23295,7 +23295,7 @@
         <v>407.87</v>
       </c>
       <c r="AL204" t="n">
-        <v>411.77</v>
+        <v>411.31</v>
       </c>
       <c r="AM204" t="n">
         <v>407.91</v>
@@ -23334,7 +23334,7 @@
         <v>403.86</v>
       </c>
       <c r="I205" t="n">
-        <v>411.36</v>
+        <v>411.03</v>
       </c>
       <c r="J205" t="n">
         <v>407.63</v>
@@ -23424,7 +23424,7 @@
         <v>407.33</v>
       </c>
       <c r="I206" t="n">
-        <v>413.45</v>
+        <v>413.19</v>
       </c>
       <c r="J206" t="n">
         <v>409.96</v>
@@ -23511,7 +23511,7 @@
         <v>405.35</v>
       </c>
       <c r="AL206" t="n">
-        <v>404.61</v>
+        <v>404.8</v>
       </c>
       <c r="AM206" t="n">
         <v>410.48</v>
@@ -23550,7 +23550,7 @@
         <v>413</v>
       </c>
       <c r="I207" t="n">
-        <v>414.71</v>
+        <v>414.35</v>
       </c>
       <c r="J207" t="n">
         <v>412.73</v>
@@ -23637,7 +23637,7 @@
         <v>412.34</v>
       </c>
       <c r="AL207" t="n">
-        <v>408.77</v>
+        <v>409.05</v>
       </c>
       <c r="AM207" t="n">
         <v>420</v>
@@ -23676,7 +23676,7 @@
         <v>418.77</v>
       </c>
       <c r="I208" t="n">
-        <v>424.52</v>
+        <v>425.34</v>
       </c>
       <c r="J208" t="n">
         <v>423.09</v>
@@ -23763,7 +23763,7 @@
         <v>414.47</v>
       </c>
       <c r="AL208" t="n">
-        <v>416.17</v>
+        <v>415.54</v>
       </c>
       <c r="AM208" t="n">
         <v>411.87</v>
@@ -23802,7 +23802,7 @@
         <v>422.97</v>
       </c>
       <c r="I209" t="n">
-        <v>424.26</v>
+        <v>424.8</v>
       </c>
       <c r="J209" t="n">
         <v>422.12</v>
@@ -23889,7 +23889,7 @@
         <v>410.08</v>
       </c>
       <c r="AL209" t="n">
-        <v>412.12</v>
+        <v>411.7</v>
       </c>
       <c r="AM209" t="n">
         <v>410.83</v>
@@ -23928,7 +23928,7 @@
         <v>417.9</v>
       </c>
       <c r="I210" t="n">
-        <v>419.69</v>
+        <v>419.93</v>
       </c>
       <c r="J210" t="n">
         <v>416.38</v>
@@ -24015,7 +24015,7 @@
         <v>406.15</v>
       </c>
       <c r="AL210" t="n">
-        <v>407.45</v>
+        <v>407.27</v>
       </c>
       <c r="AM210" t="n">
         <v>408.78</v>
@@ -24054,7 +24054,7 @@
         <v>417.54</v>
       </c>
       <c r="I211" t="n">
-        <v>419.1</v>
+        <v>418.86</v>
       </c>
       <c r="J211" t="n">
         <v>418.85</v>
@@ -24141,7 +24141,7 @@
         <v>410.88</v>
       </c>
       <c r="AL211" t="n">
-        <v>407.08</v>
+        <v>407.27</v>
       </c>
       <c r="AM211" t="n">
         <v>414.01</v>
@@ -24180,7 +24180,7 @@
         <v>410.15</v>
       </c>
       <c r="I212" t="n">
-        <v>410.51</v>
+        <v>411.34</v>
       </c>
       <c r="J212" t="n">
         <v>415.19</v>
@@ -24267,7 +24267,7 @@
         <v>401.64</v>
       </c>
       <c r="AL212" t="n">
-        <v>403.35</v>
+        <v>402.71</v>
       </c>
       <c r="AM212" t="n">
         <v>405.42</v>
@@ -24306,7 +24306,7 @@
         <v>426.25</v>
       </c>
       <c r="I213" t="n">
-        <v>427.5</v>
+        <v>428.27</v>
       </c>
       <c r="J213" t="n">
         <v>425.37</v>
@@ -24393,7 +24393,7 @@
         <v>411.31</v>
       </c>
       <c r="AL213" t="n">
-        <v>414.69</v>
+        <v>414.1</v>
       </c>
       <c r="AM213" t="n">
         <v>411.22</v>
@@ -24432,7 +24432,7 @@
         <v>420.68</v>
       </c>
       <c r="I214" t="n">
-        <v>419.29</v>
+        <v>419.42</v>
       </c>
       <c r="J214" t="n">
         <v>415.64</v>
@@ -24511,7 +24511,7 @@
         <v>404.96</v>
       </c>
       <c r="AL214" t="n">
-        <v>405.14</v>
+        <v>405.05</v>
       </c>
       <c r="AM214" t="n">
         <v>402.89</v>
@@ -24550,7 +24550,7 @@
         <v>417.15</v>
       </c>
       <c r="I215" t="n">
-        <v>418.13</v>
+        <v>417.97</v>
       </c>
       <c r="J215" t="n">
         <v>416.95</v>
@@ -24672,7 +24672,7 @@
         <v>423.2</v>
       </c>
       <c r="I216" t="n">
-        <v>424.4</v>
+        <v>424.31</v>
       </c>
       <c r="J216" t="n">
         <v>428.4</v>
@@ -24759,7 +24759,7 @@
         <v>415.2</v>
       </c>
       <c r="AL216" t="n">
-        <v>408.56</v>
+        <v>408.63</v>
       </c>
       <c r="AM216" t="n">
         <v>416.61</v>
@@ -24798,7 +24798,7 @@
         <v>412.94</v>
       </c>
       <c r="I217" t="n">
-        <v>419.44</v>
+        <v>420.51</v>
       </c>
       <c r="J217" t="n">
         <v>420.91</v>
@@ -24885,7 +24885,7 @@
         <v>408.33</v>
       </c>
       <c r="AL217" t="n">
-        <v>415.08</v>
+        <v>414.26</v>
       </c>
       <c r="AM217" t="n">
         <v>410.96</v>
@@ -24924,7 +24924,7 @@
         <v>456.23</v>
       </c>
       <c r="I218" t="n">
-        <v>454.81</v>
+        <v>455.37</v>
       </c>
       <c r="J218" t="n">
         <v>450.57</v>
@@ -25011,7 +25011,7 @@
         <v>425.69</v>
       </c>
       <c r="AL218" t="n">
-        <v>425.12</v>
+        <v>424.69</v>
       </c>
       <c r="AM218" t="n">
         <v>433.07</v>
@@ -25050,7 +25050,7 @@
         <v>429.93</v>
       </c>
       <c r="I219" t="n">
-        <v>428.77</v>
+        <v>428.99</v>
       </c>
       <c r="J219" t="n">
         <v>433.02</v>
@@ -25137,7 +25137,7 @@
         <v>419.12</v>
       </c>
       <c r="AL219" t="n">
-        <v>412.94</v>
+        <v>412.78</v>
       </c>
       <c r="AM219" t="n">
         <v>417.92</v>
@@ -25241,7 +25241,7 @@
         <v>415.18</v>
       </c>
       <c r="AL220" t="n">
-        <v>412.05</v>
+        <v>412.18</v>
       </c>
       <c r="AM220" t="n">
         <v>423.47</v>
@@ -25280,7 +25280,7 @@
         <v>435.78</v>
       </c>
       <c r="I221" t="n">
-        <v>436.62</v>
+        <v>435.76</v>
       </c>
       <c r="J221" t="n">
         <v>431.82</v>
@@ -25367,7 +25367,7 @@
         <v>412.05</v>
       </c>
       <c r="AL221" t="n">
-        <v>414.44</v>
+        <v>415.1</v>
       </c>
       <c r="AM221" t="n">
         <v>423.04</v>
@@ -25406,7 +25406,7 @@
         <v>431.87</v>
       </c>
       <c r="I222" t="n">
-        <v>430.37</v>
+        <v>430.97</v>
       </c>
       <c r="J222" t="n">
         <v>427.74</v>
@@ -25493,7 +25493,7 @@
         <v>418.27</v>
       </c>
       <c r="AL222" t="n">
-        <v>414.56</v>
+        <v>414.1</v>
       </c>
       <c r="AM222" t="n">
         <v>411.4</v>
@@ -25532,7 +25532,7 @@
         <v>431.34</v>
       </c>
       <c r="I223" t="n">
-        <v>428.76</v>
+        <v>428.86</v>
       </c>
       <c r="J223" t="n">
         <v>430.63</v>
@@ -25619,7 +25619,7 @@
         <v>418.17</v>
       </c>
       <c r="AL223" t="n">
-        <v>412.69</v>
+        <v>412.6</v>
       </c>
       <c r="AM223" t="n">
         <v>415.37</v>
@@ -25658,7 +25658,7 @@
         <v>429</v>
       </c>
       <c r="I224" t="n">
-        <v>434.26</v>
+        <v>433.9</v>
       </c>
       <c r="J224" t="n">
         <v>432.81</v>
@@ -25745,7 +25745,7 @@
         <v>414.28</v>
       </c>
       <c r="AL224" t="n">
-        <v>410.44</v>
+        <v>410.72</v>
       </c>
       <c r="AM224" t="n">
         <v>422.15</v>
@@ -25784,7 +25784,7 @@
         <v>427.86</v>
       </c>
       <c r="I225" t="n">
-        <v>428.86</v>
+        <v>429.7</v>
       </c>
       <c r="J225" t="n">
         <v>425.4</v>
@@ -25871,7 +25871,7 @@
         <v>406.07</v>
       </c>
       <c r="AL225" t="n">
-        <v>413.41</v>
+        <v>412.76</v>
       </c>
       <c r="AM225" t="n">
         <v>409.16</v>
@@ -25910,7 +25910,7 @@
         <v>415.02</v>
       </c>
       <c r="I226" t="n">
-        <v>414.84</v>
+        <v>414.14</v>
       </c>
       <c r="J226" t="n">
         <v>413.36</v>
@@ -25997,7 +25997,7 @@
         <v>403.21</v>
       </c>
       <c r="AL226" t="n">
-        <v>398.59</v>
+        <v>399.13</v>
       </c>
       <c r="AM226" t="n">
         <v>406.4</v>
@@ -26036,7 +26036,7 @@
         <v>422.44</v>
       </c>
       <c r="I227" t="n">
-        <v>423.41</v>
+        <v>424.31</v>
       </c>
       <c r="J227" t="n">
         <v>424.03</v>
@@ -26123,7 +26123,7 @@
         <v>398.41</v>
       </c>
       <c r="AL227" t="n">
-        <v>404.87</v>
+        <v>404.18</v>
       </c>
       <c r="AM227" t="n">
         <v>405.91</v>
@@ -26162,7 +26162,7 @@
         <v>430.97</v>
       </c>
       <c r="I228" t="n">
-        <v>429.88</v>
+        <v>430.68</v>
       </c>
       <c r="J228" t="n">
         <v>426.33</v>
@@ -26249,7 +26249,7 @@
         <v>407.51</v>
       </c>
       <c r="AL228" t="n">
-        <v>411.43</v>
+        <v>410.81</v>
       </c>
       <c r="AM228" t="n">
         <v>409.35</v>
@@ -26288,7 +26288,7 @@
         <v>432.21</v>
       </c>
       <c r="I229" t="n">
-        <v>430.88</v>
+        <v>430.9</v>
       </c>
       <c r="J229" t="n">
         <v>431.03</v>
@@ -26375,7 +26375,7 @@
         <v>419.05</v>
       </c>
       <c r="AL229" t="n">
-        <v>420.98</v>
+        <v>420.97</v>
       </c>
       <c r="AM229" t="n">
         <v>428.46</v>
@@ -26414,7 +26414,7 @@
         <v>429.21</v>
       </c>
       <c r="I230" t="n">
-        <v>435.82</v>
+        <v>436.02</v>
       </c>
       <c r="J230" t="n">
         <v>436.3</v>
@@ -26501,7 +26501,7 @@
         <v>416.03</v>
       </c>
       <c r="AL230" t="n">
-        <v>414.73</v>
+        <v>414.57</v>
       </c>
       <c r="AM230" t="n">
         <v>422.91</v>
@@ -26540,7 +26540,7 @@
         <v>432.04</v>
       </c>
       <c r="I231" t="n">
-        <v>436.92</v>
+        <v>436.86</v>
       </c>
       <c r="J231" t="n">
         <v>438.79</v>
@@ -26627,7 +26627,7 @@
         <v>417.86</v>
       </c>
       <c r="AL231" t="n">
-        <v>417.27</v>
+        <v>417.31</v>
       </c>
       <c r="AM231" t="n">
         <v>427.62</v>
@@ -26666,7 +26666,7 @@
         <v>444.91</v>
       </c>
       <c r="I232" t="n">
-        <v>446.61</v>
+        <v>446.17</v>
       </c>
       <c r="J232" t="n">
         <v>444.92</v>
@@ -26753,7 +26753,7 @@
         <v>426.61</v>
       </c>
       <c r="AL232" t="n">
-        <v>428.32</v>
+        <v>428.67</v>
       </c>
       <c r="AM232" t="n">
         <v>430.88</v>
@@ -26792,7 +26792,7 @@
         <v>428.56</v>
       </c>
       <c r="I233" t="n">
-        <v>430.22</v>
+        <v>431.02</v>
       </c>
       <c r="J233" t="n">
         <v>430.71</v>
@@ -26879,7 +26879,7 @@
         <v>405.45</v>
       </c>
       <c r="AL233" t="n">
-        <v>413.26</v>
+        <v>412.64</v>
       </c>
       <c r="AM233" t="n">
         <v>410.4</v>
@@ -26918,7 +26918,7 @@
         <v>445.53</v>
       </c>
       <c r="I234" t="n">
-        <v>446.01</v>
+        <v>445.5</v>
       </c>
       <c r="J234" t="n">
         <v>443.79</v>
@@ -27005,7 +27005,7 @@
         <v>430.6</v>
       </c>
       <c r="AL234" t="n">
-        <v>429.39</v>
+        <v>429.79</v>
       </c>
       <c r="AM234" t="n">
         <v>434.04</v>
@@ -27044,7 +27044,7 @@
         <v>422.48</v>
       </c>
       <c r="I235" t="n">
-        <v>423.18</v>
+        <v>423.02</v>
       </c>
       <c r="J235" t="n">
         <v>422.2</v>
@@ -27131,7 +27131,7 @@
         <v>414.64</v>
       </c>
       <c r="AL235" t="n">
-        <v>408.05</v>
+        <v>408.17</v>
       </c>
       <c r="AM235" t="n">
         <v>414.19</v>
@@ -27233,7 +27233,7 @@
         <v>403.84</v>
       </c>
       <c r="AL236" t="n">
-        <v>404.36</v>
+        <v>404.21</v>
       </c>
       <c r="AM236" t="n">
         <v>401.9</v>
@@ -27272,7 +27272,7 @@
         <v>421.93</v>
       </c>
       <c r="I237" t="n">
-        <v>422.62</v>
+        <v>422.42</v>
       </c>
       <c r="J237" t="n">
         <v>424.44</v>
@@ -27359,7 +27359,7 @@
         <v>413.82</v>
       </c>
       <c r="AL237" t="n">
-        <v>408.99</v>
+        <v>409.14</v>
       </c>
       <c r="AM237" t="n">
         <v>415.06</v>
@@ -27398,7 +27398,7 @@
         <v>416.73</v>
       </c>
       <c r="I238" t="n">
-        <v>420.74</v>
+        <v>421.28</v>
       </c>
       <c r="J238" t="n">
         <v>419.73</v>
@@ -27485,7 +27485,7 @@
         <v>404.19</v>
       </c>
       <c r="AL238" t="n">
-        <v>406.14</v>
+        <v>405.73</v>
       </c>
       <c r="AM238" t="n">
         <v>404.26</v>
@@ -27524,7 +27524,7 @@
         <v>413.59</v>
       </c>
       <c r="I239" t="n">
-        <v>411.58</v>
+        <v>410.68</v>
       </c>
       <c r="J239" t="n">
         <v>413.33</v>
@@ -27611,7 +27611,7 @@
         <v>408.24</v>
       </c>
       <c r="AL239" t="n">
-        <v>404.58</v>
+        <v>405.27</v>
       </c>
       <c r="AM239" t="n">
         <v>412.19</v>
@@ -27650,7 +27650,7 @@
         <v>423.98</v>
       </c>
       <c r="I240" t="n">
-        <v>422.97</v>
+        <v>423.61</v>
       </c>
       <c r="J240" t="n">
         <v>420.67</v>
@@ -27737,7 +27737,7 @@
         <v>405.15</v>
       </c>
       <c r="AL240" t="n">
-        <v>410.68</v>
+        <v>410.18</v>
       </c>
       <c r="AM240" t="n">
         <v>406.15</v>
@@ -27776,7 +27776,7 @@
         <v>419.97</v>
       </c>
       <c r="I241" t="n">
-        <v>418.13</v>
+        <v>417.77</v>
       </c>
       <c r="J241" t="n">
         <v>417.14</v>
@@ -27863,7 +27863,7 @@
         <v>412.32</v>
       </c>
       <c r="AL241" t="n">
-        <v>405.28</v>
+        <v>405.56</v>
       </c>
       <c r="AM241" t="n">
         <v>410.98</v>
@@ -27902,7 +27902,7 @@
         <v>403.32</v>
       </c>
       <c r="I242" t="n">
-        <v>407.75</v>
+        <v>407.82</v>
       </c>
       <c r="J242" t="n">
         <v>411.42</v>
@@ -27989,7 +27989,7 @@
         <v>394.39</v>
       </c>
       <c r="AL242" t="n">
-        <v>402.69</v>
+        <v>402.64</v>
       </c>
       <c r="AM242" t="n">
         <v>405.32</v>
@@ -28093,7 +28093,7 @@
         <v>398.18</v>
       </c>
       <c r="AL243" t="n">
-        <v>400.86</v>
+        <v>400.43</v>
       </c>
       <c r="AM243" t="n">
         <v>401.63</v>
@@ -28132,7 +28132,7 @@
         <v>417.4</v>
       </c>
       <c r="I244" t="n">
-        <v>418.08</v>
+        <v>417.84</v>
       </c>
       <c r="J244" t="n">
         <v>415.47</v>
@@ -28219,7 +28219,7 @@
         <v>413.05</v>
       </c>
       <c r="AL244" t="n">
-        <v>409.11</v>
+        <v>409.3</v>
       </c>
       <c r="AM244" t="n">
         <v>421.18</v>
@@ -31518,7 +31518,7 @@
         <v>0.09080000000000001</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.1377062617901094</v>
+        <v>-0.1348168860317951</v>
       </c>
       <c r="J9" t="n">
         <v>243</v>
@@ -31527,19 +31527,19 @@
         <v>206</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01005375804407416</v>
+        <v>0.009681016102603524</v>
       </c>
       <c r="M9" t="n">
-        <v>8.654762549263157</v>
+        <v>8.664324478133459</v>
       </c>
       <c r="N9" t="n">
-        <v>123.4931779453795</v>
+        <v>122.9688614370653</v>
       </c>
       <c r="O9" t="n">
-        <v>11.11274844245921</v>
+        <v>11.08913258271653</v>
       </c>
       <c r="P9" t="n">
-        <v>424.1072817311107</v>
+        <v>424.168449762823</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -33780,7 +33780,7 @@
         <v>0.1069</v>
       </c>
       <c r="I38" t="n">
-        <v>-0.06620275216113887</v>
+        <v>-0.06795956502818901</v>
       </c>
       <c r="J38" t="n">
         <v>243</v>
@@ -33789,19 +33789,19 @@
         <v>196</v>
       </c>
       <c r="L38" t="n">
-        <v>0.002401266299916771</v>
+        <v>0.002526442772557758</v>
       </c>
       <c r="M38" t="n">
-        <v>7.558990060136649</v>
+        <v>7.550220351611371</v>
       </c>
       <c r="N38" t="n">
-        <v>117.3688795039915</v>
+        <v>117.5380317878697</v>
       </c>
       <c r="O38" t="n">
-        <v>10.83369186861023</v>
+        <v>10.84149582796902</v>
       </c>
       <c r="P38" t="n">
-        <v>415.5457013962821</v>
+        <v>415.4910295109033</v>
       </c>
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr">
@@ -34170,7 +34170,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>-34.86151937584323,173.30169518870855</t>
+          <t>-34.861526207740745,173.30169584603374</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -34315,7 +34315,7 @@
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>-34.85918322053312,173.3275113960104</t>
+          <t>-34.85917794469836,173.3275105627533</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
@@ -34372,7 +34372,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>-34.8615204545639,173.30169529249673</t>
+          <t>-34.86151712850853,173.30169497248318</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -34517,7 +34517,7 @@
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>-34.85910551374541,173.3274991231328</t>
+          <t>-34.859108106952405,173.32749953269914</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
@@ -34574,7 +34574,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>-34.86138876074779,173.30168262171034</t>
+          <t>-34.86138120970292,173.30168189519551</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -34719,7 +34719,7 @@
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>-34.859049267979316,173.32749023978738</t>
+          <t>-34.85905508033993,173.3274911577796</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
@@ -34776,7 +34776,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>-34.861424268637215,173.30168603806158</t>
+          <t>-34.86142642607859,173.30168624563746</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -34921,7 +34921,7 @@
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>-34.85904005762322,173.3274887851231</t>
+          <t>-34.859038448046405,173.32748853090996</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
@@ -34978,7 +34978,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>-34.86134848850829,173.3016787469663</t>
+          <t>-34.861353522538245,173.30167923130907</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -35123,7 +35123,7 @@
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>-34.85896458635455,173.32747686536226</t>
+          <t>-34.858960741254315,173.32747625807647</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
@@ -35180,7 +35180,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>-34.861463372261895,173.30168980037598</t>
+          <t>-34.86146696799748,173.30169014633609</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -35325,7 +35325,7 @@
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>-34.85913064102685,173.32750309169018</t>
+          <t>-34.85912786897803,173.3275026538777</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
@@ -35382,7 +35382,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>-34.86147379989507,173.30169080366045</t>
+          <t>-34.861472271707456,173.30169065662736</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -35576,7 +35576,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>-34.861443505822734,173.30168788894682</t>
+          <t>-34.86143550531101,173.30168711918603</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -35721,7 +35721,7 @@
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>-34.85909353134064,173.32749723065436</t>
+          <t>-34.85909961196398,173.3274981910165</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
@@ -35778,7 +35778,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>-34.86154337737786,173.30169749799626</t>
+          <t>-34.86153744441426,173.30169692716098</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -35923,7 +35923,7 @@
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>-34.85921863122041,173.32751698872198</t>
+          <t>-34.85922310226673,173.3275176948728</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
@@ -35980,7 +35980,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>-34.86136772569418,173.30168059784802</t>
+          <t>-34.86137455759195,173.3016812551707</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -36125,7 +36125,7 @@
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>-34.85911633367802,173.3275008320131</t>
+          <t>-34.85911105784313,173.32749999875736</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
@@ -36182,7 +36182,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>-34.86134597149331,173.30167850479492</t>
+          <t>-34.86133842044834,173.3016777782809</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -36332,7 +36332,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>-34.861471642453736,173.3016905960843</t>
+          <t>-34.86147604722981,173.30169101988557</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -36477,7 +36477,7 @@
       </c>
       <c r="AL13" t="inlineStr">
         <is>
-          <t>-34.85916685650323,173.32750881150142</t>
+          <t>-34.85916354792885,173.32750828895058</t>
         </is>
       </c>
       <c r="AM13" t="inlineStr">
@@ -36534,7 +36534,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>-34.86146292279494,173.30168975713096</t>
+          <t>-34.861457439298164,173.30168922954184</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -36671,7 +36671,7 @@
       </c>
       <c r="AL14" t="inlineStr">
         <is>
-          <t>-34.859303849362306,173.3275304479697</t>
+          <t>-34.859308052145714,173.32753111175288</t>
         </is>
       </c>
       <c r="AM14" t="inlineStr">
@@ -36728,7 +36728,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>-34.86147353021491,173.30169077771342</t>
+          <t>-34.861472541387634,173.3016906825744</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -36869,7 +36869,7 @@
       </c>
       <c r="AL15" t="inlineStr">
         <is>
-          <t>-34.859081906619565,173.32749539466838</t>
+          <t>-34.85908271140795,173.3274955217751</t>
         </is>
       </c>
       <c r="AM15" t="inlineStr">
@@ -36926,7 +36926,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>-34.86151389234654,173.3016946611187</t>
+          <t>-34.86151685882837,173.30169494653614</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -37048,7 +37048,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>-34.86154364705801,173.30169752394335</t>
+          <t>-34.86153618590682,173.30169680607472</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -37189,7 +37189,7 @@
       </c>
       <c r="AL17" t="inlineStr">
         <is>
-          <t>-34.859178391803006,173.32751063336832</t>
+          <t>-34.85918402532147,173.32751152311744</t>
         </is>
       </c>
       <c r="AM17" t="inlineStr">
@@ -37246,7 +37246,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>-34.861334375245676,173.30167738907699</t>
+          <t>-34.86133275716461,173.30167723339545</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -37387,7 +37387,7 @@
       </c>
       <c r="AL18" t="inlineStr">
         <is>
-          <t>-34.8590591042819,173.32749179331273</t>
+          <t>-34.85906035617494,173.32749199103415</t>
         </is>
       </c>
       <c r="AM18" t="inlineStr">
@@ -37444,7 +37444,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>-34.86152324125893,173.30169556061622</t>
+          <t>-34.86152081413745,173.3016953270928</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -37562,7 +37562,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>-34.861353522538245,173.30167923130907</t>
+          <t>-34.861352983177895,173.3016791794152</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -37707,7 +37707,7 @@
       </c>
       <c r="AL20" t="inlineStr">
         <is>
-          <t>-34.85904363446054,173.32748935004125</t>
+          <t>-34.85904399214428,173.32748940653306</t>
         </is>
       </c>
       <c r="AM20" t="inlineStr">
@@ -37764,7 +37764,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>-34.86129904714224,173.30167399003142</t>
+          <t>-34.86130354181191,173.3016744224798</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -37909,7 +37909,7 @@
       </c>
       <c r="AL21" t="inlineStr">
         <is>
-          <t>-34.85896512288018,173.32747695009982</t>
+          <t>-34.85896172488461,173.32747641342866</t>
         </is>
       </c>
       <c r="AM21" t="inlineStr">
@@ -37966,7 +37966,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>-34.86139667136622,173.30168338282127</t>
+          <t>-34.86139649157945,173.30168336552325</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -38059,7 +38059,7 @@
       </c>
       <c r="AL22" t="inlineStr">
         <is>
-          <t>-34.85908181719864,173.3274953805454</t>
+          <t>-34.859081906619565,173.32749539466838</t>
         </is>
       </c>
       <c r="AM22" t="inlineStr">
@@ -38116,7 +38116,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>-34.86139972774152,173.30168367688685</t>
+          <t>-34.86139451392483,173.30168317524553</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -38310,7 +38310,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>-34.861344263518845,173.30167834046435</t>
+          <t>-34.86134309490474,173.30167822802767</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -38455,7 +38455,7 @@
       </c>
       <c r="AL24" t="inlineStr">
         <is>
-          <t>-34.859041488358145,173.32748901109036</t>
+          <t>-34.859042293146544,173.32748913819694</t>
         </is>
       </c>
       <c r="AM24" t="inlineStr">
@@ -38512,7 +38512,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>-34.86134561191973,173.30167847019902</t>
+          <t>-34.86134525234616,173.3016784356031</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -38657,7 +38657,7 @@
       </c>
       <c r="AL25" t="inlineStr">
         <is>
-          <t>-34.85904792666531,173.32749002794307</t>
+          <t>-34.85904828434905,173.32749008443488</t>
         </is>
       </c>
       <c r="AM25" t="inlineStr">
@@ -38714,7 +38714,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>-34.861406379852454,173.3016843169121</t>
+          <t>-34.86141141388235,173.3016848012556</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -38859,7 +38859,7 @@
       </c>
       <c r="AL26" t="inlineStr">
         <is>
-          <t>-34.85910935884543,173.3274997304208</t>
+          <t>-34.85910551374541,173.3274991231328</t>
         </is>
       </c>
       <c r="AM26" t="inlineStr">
@@ -38916,7 +38916,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>-34.86137446769855,173.3016812465217</t>
+          <t>-34.86136529857259,173.3016803643255</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -39061,7 +39061,7 @@
       </c>
       <c r="AL27" t="inlineStr">
         <is>
-          <t>-34.85907233857987,173.32749388351104</t>
+          <t>-34.85907931341255,173.32749498510233</t>
         </is>
       </c>
       <c r="AM27" t="inlineStr">
@@ -39118,7 +39118,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>-34.86135496083252,173.30167936969275</t>
+          <t>-34.86135792731446,173.30167965510907</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -39227,7 +39227,7 @@
       </c>
       <c r="AL28" t="inlineStr">
         <is>
-          <t>-34.85900357388224,173.32748302296108</t>
+          <t>-34.85900133835889,173.32748266988756</t>
         </is>
       </c>
       <c r="AM28" t="inlineStr">
@@ -39284,7 +39284,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>-34.86143253882913,173.30168683376914</t>
+          <t>-34.86142453831739,173.30168606400858</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -39527,7 +39527,7 @@
       </c>
       <c r="AL30" t="inlineStr">
         <is>
-          <t>-34.85906232343547,173.32749230173928</t>
+          <t>-34.85906903000537,173.3274933609614</t>
         </is>
       </c>
       <c r="AM30" t="inlineStr">
@@ -39584,7 +39584,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>-34.86152009499034,173.3016952579007</t>
+          <t>-34.86151829712257,173.30169508492037</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -39729,7 +39729,7 @@
       </c>
       <c r="AL31" t="inlineStr">
         <is>
-          <t>-34.85907680962646,173.3274945896593</t>
+          <t>-34.859078150940434,173.32749480150378</t>
         </is>
       </c>
       <c r="AM31" t="inlineStr">
@@ -39786,7 +39786,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>-34.8614861152894,173.30169198857433</t>
+          <t>-34.86149186846631,173.30169254211089</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -39899,7 +39899,7 @@
       </c>
       <c r="AL32" t="inlineStr">
         <is>
-          <t>-34.859117674991985,173.32750104385778</t>
+          <t>-34.85911320394545,173.32750033770884</t>
         </is>
       </c>
       <c r="AM32" t="inlineStr">
@@ -40010,7 +40010,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>-34.861630843643226,173.30170591350225</t>
+          <t>-34.86163686650008,173.30170649298793</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -40155,7 +40155,7 @@
       </c>
       <c r="AL34" t="inlineStr">
         <is>
-          <t>-34.8591458425849,173.327505492598</t>
+          <t>-34.85914119269656,173.32750475820256</t>
         </is>
       </c>
       <c r="AM34" t="inlineStr">
@@ -40212,7 +40212,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>-34.861737367303995,173.30171616262754</t>
+          <t>-34.86173619869002,173.30171605018973</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -40357,7 +40357,7 @@
       </c>
       <c r="AL35" t="inlineStr">
         <is>
-          <t>-34.859247961284254,173.32752162107266</t>
+          <t>-34.85924885549351,173.32752176230292</t>
         </is>
       </c>
       <c r="AM35" t="inlineStr">
@@ -40414,7 +40414,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>-34.86149186846631,173.30169254211089</t>
+          <t>-34.861487913157184,173.3016921615545</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -40613,7 +40613,7 @@
       </c>
       <c r="AL37" t="inlineStr">
         <is>
-          <t>-34.85903013189963,173.32748721747555</t>
+          <t>-34.85903352989508,173.32748775414765</t>
         </is>
       </c>
       <c r="AM37" t="inlineStr">
@@ -40670,7 +40670,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>-34.86151380245315,173.30169465246968</t>
+          <t>-34.8615126338391,173.30169454003249</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -40759,7 +40759,7 @@
       </c>
       <c r="AL38" t="inlineStr">
         <is>
-          <t>-34.85906402243318,173.32749257007555</t>
+          <t>-34.85906482722157,173.32749269718218</t>
         </is>
       </c>
       <c r="AM38" t="inlineStr">
@@ -40816,7 +40816,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>-34.86152530880687,173.3016957595436</t>
+          <t>-34.86151569021431,173.30169483409895</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -40961,7 +40961,7 @@
       </c>
       <c r="AL39" t="inlineStr">
         <is>
-          <t>-34.85896923624321,173.32747759975447</t>
+          <t>-34.85897674760179,173.32747878608052</t>
         </is>
       </c>
       <c r="AM39" t="inlineStr">
@@ -40994,7 +40994,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>-34.86155811989343,173.30169891643587</t>
+          <t>-34.86156054701489,173.3016991499595</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -41087,7 +41087,7 @@
       </c>
       <c r="AL40" t="inlineStr">
         <is>
-          <t>-34.85907207031706,173.32749384114214</t>
+          <t>-34.85907019247751,173.32749354455993</t>
         </is>
       </c>
       <c r="AM40" t="inlineStr">
@@ -41124,7 +41124,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>-34.861535646546486,173.3016967541806</t>
+          <t>-34.861533758785356,173.3016965725512</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -41318,7 +41318,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>-34.86129293439149,173.3016734019017</t>
+          <t>-34.86129769874134,173.30167386029692</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -41463,7 +41463,7 @@
       </c>
       <c r="AL42" t="inlineStr">
         <is>
-          <t>-34.85878100516687,173.32744787106094</t>
+          <t>-34.85877733890825,173.32744729202363</t>
         </is>
       </c>
       <c r="AM42" t="inlineStr">
@@ -41520,7 +41520,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>-34.86130147426387,173.30167422355353</t>
+          <t>-34.86130542957317,173.30167460410814</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -41665,7 +41665,7 @@
       </c>
       <c r="AL43" t="inlineStr">
         <is>
-          <t>-34.85877930616897,173.32744760272658</t>
+          <t>-34.85877626585693,173.3274471225493</t>
         </is>
       </c>
       <c r="AM43" t="inlineStr">
@@ -41722,7 +41722,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>-34.861396851153,173.30168340011923</t>
+          <t>-34.861400716568824,173.30168377202574</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -41867,7 +41867,7 @@
       </c>
       <c r="AL44" t="inlineStr">
         <is>
-          <t>-34.85904721129785,173.32748991495941</t>
+          <t>-34.859044170986145,173.32748943477898</t>
         </is>
       </c>
       <c r="AM44" t="inlineStr">
@@ -41924,7 +41924,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>-34.86146795682476,173.30169024147517</t>
+          <t>-34.86146696799748,173.30169014633609</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -42069,7 +42069,7 @@
       </c>
       <c r="AL45" t="inlineStr">
         <is>
-          <t>-34.859061518647074,173.32749217463265</t>
+          <t>-34.85906232343547,173.32749230173928</t>
         </is>
       </c>
       <c r="AM45" t="inlineStr">
@@ -42126,7 +42126,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>-34.86153843324153,173.3016970223002</t>
+          <t>-34.861539871535726,173.3016971606845</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -42304,7 +42304,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>-34.86141096441539,173.30168475801062</t>
+          <t>-34.86141725695274,173.30168536344007</t>
         </is>
       </c>
       <c r="J47" t="inlineStr"/>
@@ -42483,7 +42483,7 @@
       </c>
       <c r="AL48" t="inlineStr">
         <is>
-          <t>-34.85911266741986,173.32750025297096</t>
+          <t>-34.85911651251989,173.32750086025905</t>
         </is>
       </c>
       <c r="AM48" t="inlineStr">
@@ -42536,7 +42536,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>-34.8615204545639,173.30169529249673</t>
+          <t>-34.86151227426555,173.30169450543644</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -42681,7 +42681,7 @@
       </c>
       <c r="AL49" t="inlineStr">
         <is>
-          <t>-34.859089239135955,173.3274965527518</t>
+          <t>-34.85909558802208,173.32749755548275</t>
         </is>
       </c>
       <c r="AM49" t="inlineStr">
@@ -42738,7 +42738,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>-34.861585267696356,173.30170152844184</t>
+          <t>-34.8615834698286,173.30170135546126</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -42883,7 +42883,7 @@
       </c>
       <c r="AL50" t="inlineStr">
         <is>
-          <t>-34.85910694448032,173.32749934910044</t>
+          <t>-34.85910828579427,173.32749956094509</t>
         </is>
       </c>
       <c r="AM50" t="inlineStr">
@@ -43045,7 +43045,7 @@
       </c>
       <c r="AL51" t="inlineStr">
         <is>
-          <t>-34.85904139893721,173.32748899696742</t>
+          <t>-34.85904130951627,173.32748898284444</t>
         </is>
       </c>
       <c r="AM51" t="inlineStr">
@@ -43090,7 +43090,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>-34.861689633917116,173.30171156997812</t>
+          <t>-34.86168819562297,173.30171143159328</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -43235,7 +43235,7 @@
       </c>
       <c r="AL52" t="inlineStr">
         <is>
-          <t>-34.859362420066766,173.32753969857097</t>
+          <t>-34.85936349311783,173.32753986804778</t>
         </is>
       </c>
       <c r="AM52" t="inlineStr">
@@ -43292,7 +43292,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>-34.86150688066224,173.30169398649565</t>
+          <t>-34.86151083597134,173.30169436705222</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -43437,7 +43437,7 @@
       </c>
       <c r="AL53" t="inlineStr">
         <is>
-          <t>-34.859105960850066,173.3274991937477</t>
+          <t>-34.859102920538426,173.32749871356654</t>
         </is>
       </c>
       <c r="AM53" t="inlineStr">
@@ -43474,7 +43474,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>-34.86144629251783,173.30168815706577</t>
+          <t>-34.86145078718733,173.30168858951578</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -43619,7 +43619,7 @@
       </c>
       <c r="AL54" t="inlineStr">
         <is>
-          <t>-34.858916835574426,173.3274693237242</t>
+          <t>-34.85891343757879,173.32746878705365</t>
         </is>
       </c>
       <c r="AM54" t="inlineStr">
@@ -43676,7 +43676,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>-34.86155335554389,173.30169845803763</t>
+          <t>-34.8615554230918,173.30169865696516</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -43785,7 +43785,7 @@
       </c>
       <c r="AL55" t="inlineStr">
         <is>
-          <t>-34.85909621396859,173.32749765434355</t>
+          <t>-34.859094604391835,173.32749740013006</t>
         </is>
       </c>
       <c r="AM55" t="inlineStr">
@@ -43842,7 +43842,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>-34.86148081157945,173.30169147828292</t>
+          <t>-34.861474249362026,173.30169084690547</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -43987,7 +43987,7 @@
       </c>
       <c r="AL56" t="inlineStr">
         <is>
-          <t>-34.85900196430543,173.32748276874813</t>
+          <t>-34.859007061298676,173.32748357375573</t>
         </is>
       </c>
       <c r="AM56" t="inlineStr">
@@ -44044,7 +44044,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>-34.86151667904159,173.30169492923812</t>
+          <t>-34.86151461149365,173.3016947303108</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -44153,7 +44153,7 @@
       </c>
       <c r="AL57" t="inlineStr">
         <is>
-          <t>-34.85904524403733,173.32748960425442</t>
+          <t>-34.859046853614124,173.3274898584676</t>
         </is>
       </c>
       <c r="AM57" t="inlineStr">
@@ -44303,7 +44303,7 @@
       </c>
       <c r="AL58" t="inlineStr">
         <is>
-          <t>-34.85906804637512,173.32749320560882</t>
+          <t>-34.85907385873571,173.32749412360144</t>
         </is>
       </c>
       <c r="AM58" t="inlineStr">
@@ -44360,7 +44360,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>-34.86154589439271,173.30169774016883</t>
+          <t>-34.86155065874227,173.30169819856698</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -44505,7 +44505,7 @@
       </c>
       <c r="AL59" t="inlineStr">
         <is>
-          <t>-34.8591011321198,173.32749843110705</t>
+          <t>-34.85909746586164,173.32749785206514</t>
         </is>
       </c>
       <c r="AM59" t="inlineStr">
@@ -44562,7 +44562,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>-34.861463282368504,173.30168979172697</t>
+          <t>-34.861456989831225,173.30168918629684</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -44740,7 +44740,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>-34.861560367228115,173.30169913266144</t>
+          <t>-34.86155919861407,173.30169902022413</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -44885,7 +44885,7 @@
       </c>
       <c r="AL61" t="inlineStr">
         <is>
-          <t>-34.8590651849053,173.32749275367405</t>
+          <t>-34.85906607911462,173.32749289490366</t>
         </is>
       </c>
       <c r="AM61" t="inlineStr">
@@ -44942,7 +44942,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>-34.86161726974195,173.30170460749756</t>
+          <t>-34.86161942718321,173.30170481507443</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -45190,7 +45190,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>-34.86151793754902,173.30169505032433</t>
+          <t>-34.86151218437216,173.3016944967874</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -45315,7 +45315,7 @@
       </c>
       <c r="AL64" t="inlineStr">
         <is>
-          <t>-34.85895278279101,173.3274750011363</t>
+          <t>-34.858957253837815,173.32747570728245</t>
         </is>
       </c>
       <c r="AM64" t="inlineStr">
@@ -45372,7 +45372,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>-34.861603605947224,173.30170329284422</t>
+          <t>-34.861609089443796,173.3017038204353</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -45554,7 +45554,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>-34.86155677149261,173.3016987867005</t>
+          <t>-34.861554703944705,173.30169858777296</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -45699,7 +45699,7 @@
       </c>
       <c r="AL66" t="inlineStr">
         <is>
-          <t>-34.8589790725461,173.32747915327673</t>
+          <t>-34.85898068212295,173.3274794074895</t>
         </is>
       </c>
       <c r="AM66" t="inlineStr">
@@ -45756,7 +45756,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>-34.86154841140757,173.30169798234144</t>
+          <t>-34.86154778215385,173.30169792179828</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -45950,7 +45950,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>-34.86126326957152,173.30167054774407</t>
+          <t>-34.861267764241234,173.30167098019203</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -46095,7 +46095,7 @@
       </c>
       <c r="AL68" t="inlineStr">
         <is>
-          <t>-34.85897844659956,173.3274790544162</t>
+          <t>-34.858975048604016,173.32747851774485</t>
         </is>
       </c>
       <c r="AM68" t="inlineStr">
@@ -46152,7 +46152,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>-34.86148287912739,173.30169167721007</t>
+          <t>-34.861479013711666,173.30169130530277</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -46436,7 +46436,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>-34.86115207144138,173.30165984899634</t>
+          <t>-34.861147576771536,173.3016594165496</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -46577,7 +46577,7 @@
       </c>
       <c r="AL71" t="inlineStr">
         <is>
-          <t>-34.858776802382586,173.32744720728647</t>
+          <t>-34.85878028979933,173.32744775807805</t>
         </is>
       </c>
       <c r="AM71" t="inlineStr">
@@ -46739,7 +46739,7 @@
       </c>
       <c r="AL72" t="inlineStr">
         <is>
-          <t>-34.85900902855923,173.32748388446046</t>
+          <t>-34.859006524773086,173.3274834890181</t>
         </is>
       </c>
       <c r="AM72" t="inlineStr">
@@ -46796,7 +46796,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>-34.86159371767471,173.3017023414507</t>
+          <t>-34.86159200970036,173.3017021771191</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -47087,7 +47087,7 @@
       </c>
       <c r="AL74" t="inlineStr">
         <is>
-          <t>-34.85911070015939,173.32749994226543</t>
+          <t>-34.85910855405706,173.327499603314</t>
         </is>
       </c>
       <c r="AM74" t="inlineStr">
@@ -47144,7 +47144,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>-34.861596054902755,173.3017025663255</t>
+          <t>-34.86160225754643,173.30170316310875</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -47249,7 +47249,7 @@
       </c>
       <c r="AL75" t="inlineStr">
         <is>
-          <t>-34.859165604610226,173.3275086137795</t>
+          <t>-34.85916086530101,173.32750786526069</t>
         </is>
       </c>
       <c r="AM75" t="inlineStr">
@@ -47306,7 +47306,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>-34.8616044149877,173.30170337068554</t>
+          <t>-34.861602077759656,173.30170314581068</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -47451,7 +47451,7 @@
       </c>
       <c r="AL76" t="inlineStr">
         <is>
-          <t>-34.85911311452452,173.32750032358587</t>
+          <t>-34.8591148135222,173.32750059192244</t>
         </is>
       </c>
       <c r="AM76" t="inlineStr">
@@ -47566,7 +47566,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>-34.861598482024206,173.30170279984938</t>
+          <t>-34.86158886343181,173.30170187440302</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -47667,7 +47667,7 @@
       </c>
       <c r="AL78" t="inlineStr">
         <is>
-          <t>-34.8590580312307,173.3274916238372</t>
+          <t>-34.859065363747156,173.32749278191997</t>
         </is>
       </c>
       <c r="AM78" t="inlineStr">
@@ -47883,7 +47883,7 @@
       </c>
       <c r="AL80" t="inlineStr">
         <is>
-          <t>-34.859123487352434,173.32750196185154</t>
+          <t>-34.85912947855476,173.3275029080914</t>
         </is>
       </c>
       <c r="AM80" t="inlineStr">
@@ -47940,7 +47940,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>-34.86169457805326,173.30171204567603</t>
+          <t>-34.8616978142151,173.30171235704196</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -48053,7 +48053,7 @@
       </c>
       <c r="AL81" t="inlineStr">
         <is>
-          <t>-34.85910694448032,173.32749934910044</t>
+          <t>-34.85910444069424,173.3274989536571</t>
         </is>
       </c>
       <c r="AM81" t="inlineStr">
@@ -48110,7 +48110,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>-34.861630034602754,173.3017058356609</t>
+          <t>-34.861635248419134,173.30170633730518</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -48426,7 +48426,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>-34.86163381012495,173.30170619892056</t>
+          <t>-34.86163893404794,173.30170669191585</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -48571,7 +48571,7 @@
       </c>
       <c r="AL84" t="inlineStr">
         <is>
-          <t>-34.859159345145194,173.3275076251698</t>
+          <t>-34.859155410624325,173.32750700375806</t>
         </is>
       </c>
       <c r="AM84" t="inlineStr">
@@ -48851,7 +48851,7 @@
       </c>
       <c r="AL86" t="inlineStr">
         <is>
-          <t>-34.85926182152772,173.327523810142</t>
+          <t>-34.85926969056914,173.3275250529688</t>
         </is>
       </c>
       <c r="AM86" t="inlineStr">
@@ -48908,7 +48908,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>-34.86160189797288,173.3017031285126</t>
+          <t>-34.861594886288735,173.3017024538881</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -49009,7 +49009,7 @@
       </c>
       <c r="AL87" t="inlineStr">
         <is>
-          <t>-34.85908584114055,173.32749601607895</t>
+          <t>-34.85909120639645,173.32749686345713</t>
         </is>
       </c>
       <c r="AM87" t="inlineStr">
@@ -49066,7 +49066,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>-34.86163219204402,173.30170604323786</t>
+          <t>-34.861637585647166,173.30170656218024</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -49224,7 +49224,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>-34.86160288680014,173.30170322365197</t>
+          <t>-34.861608550083474,173.3017037685411</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -49333,7 +49333,7 @@
       <c r="AK89" t="inlineStr"/>
       <c r="AL89" t="inlineStr">
         <is>
-          <t>-34.859106855059366,173.32749933497746</t>
+          <t>-34.85910247343377,173.32749864295167</t>
         </is>
       </c>
       <c r="AM89" t="inlineStr">
@@ -49399,7 +49399,7 @@
       </c>
       <c r="AL90" t="inlineStr">
         <is>
-          <t>-34.85897522744589,173.32747854599072</t>
+          <t>-34.858974601499334,173.3274784471302</t>
         </is>
       </c>
       <c r="AM90" t="inlineStr">
@@ -49456,7 +49456,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>-34.86144215742189,173.30168775921186</t>
+          <t>-34.86144044944747,173.3016875948809</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -49601,7 +49601,7 @@
       </c>
       <c r="AL91" t="inlineStr">
         <is>
-          <t>-34.85894133691115,173.32747319340254</t>
+          <t>-34.858942678225205,173.3274734052463</t>
         </is>
       </c>
       <c r="AM91" t="inlineStr">
@@ -49752,7 +49752,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>-34.86146274300817,173.30168973983297</t>
+          <t>-34.86145923716596,173.30168940252187</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -49861,7 +49861,7 @@
       </c>
       <c r="AL93" t="inlineStr">
         <is>
-          <t>-34.85896825261291,173.32747744440226</t>
+          <t>-34.85897093524099,173.3274778680901</t>
         </is>
       </c>
       <c r="AM93" t="inlineStr">
@@ -49918,7 +49918,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>-34.861443865396296,173.30168792354283</t>
+          <t>-34.861446022837654,173.3016881311188</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -50023,7 +50023,7 @@
       </c>
       <c r="AL94" t="inlineStr">
         <is>
-          <t>-34.858940889806476,173.32747312278795</t>
+          <t>-34.85893919080868,173.3274728544525</t>
         </is>
       </c>
       <c r="AM94" t="inlineStr">
@@ -50056,7 +50056,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>-34.861543197591075,173.3016974806982</t>
+          <t>-34.861536275800205,173.30169681472373</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -50121,7 +50121,7 @@
       </c>
       <c r="AL95" t="inlineStr">
         <is>
-          <t>-34.859090222766206,173.32749670810446</t>
+          <t>-34.85909549860115,173.32749754135975</t>
         </is>
       </c>
       <c r="AM95" t="inlineStr">
@@ -50178,7 +50178,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>-34.86135226403076,173.30167911022338</t>
+          <t>-34.861355859766434,173.30167945618254</t>
         </is>
       </c>
       <c r="J96" t="inlineStr"/>
@@ -50279,7 +50279,7 @@
       </c>
       <c r="AL96" t="inlineStr">
         <is>
-          <t>-34.8589439301183,173.3274736029672</t>
+          <t>-34.85894115806928,173.3274731651567</t>
         </is>
       </c>
       <c r="AM96" t="inlineStr">
@@ -50377,7 +50377,7 @@
       </c>
       <c r="AL97" t="inlineStr">
         <is>
-          <t>-34.85915585772897,173.32750707437302</t>
+          <t>-34.859156394254555,173.32750715911098</t>
         </is>
       </c>
       <c r="AM97" t="inlineStr">
@@ -50434,7 +50434,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>-34.86155695127939,173.30169880399856</t>
+          <t>-34.86156198530909,173.30169928834388</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -50616,7 +50616,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>-34.86143181968202,173.3016867645772</t>
+          <t>-34.861428134053014,173.30168640996837</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -50761,7 +50761,7 @@
       </c>
       <c r="AL99" t="inlineStr">
         <is>
-          <t>-34.858942678225205,173.3274734052463</t>
+          <t>-34.858945450274234,173.3274738430568</t>
         </is>
       </c>
       <c r="AM99" t="inlineStr">
@@ -50818,7 +50818,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>-34.86154481567205,173.3016976363806</t>
+          <t>-34.86153798377458,173.3016969790551</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -50927,7 +50927,7 @@
       </c>
       <c r="AL100" t="inlineStr">
         <is>
-          <t>-34.85907761441485,173.32749471676598</t>
+          <t>-34.859082890249816,173.327495550021</t>
         </is>
       </c>
       <c r="AM100" t="inlineStr">
@@ -50964,7 +50964,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>-34.86168774615604,173.30171138834805</t>
+          <t>-34.86168325148682,173.3017109558955</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -51105,7 +51105,7 @@
       </c>
       <c r="AL101" t="inlineStr">
         <is>
-          <t>-34.85915630483362,173.327507144988</t>
+          <t>-34.85915970282892,173.32750768166176</t>
         </is>
       </c>
       <c r="AM101" t="inlineStr">
@@ -51247,7 +51247,7 @@
       <c r="AK102" t="inlineStr"/>
       <c r="AL102" t="inlineStr">
         <is>
-          <t>-34.85946087249982,173.32755524808525</t>
+          <t>-34.85946292918096,173.32755557291657</t>
         </is>
       </c>
       <c r="AM102" t="inlineStr">
@@ -51304,7 +51304,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>-34.861555692771965,173.30169868291225</t>
+          <t>-34.86155964808101,173.30169906346924</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -51417,7 +51417,7 @@
       </c>
       <c r="AL103" t="inlineStr">
         <is>
-          <t>-34.85909031218713,173.32749672222744</t>
+          <t>-34.85908727187547,173.32749624204644</t>
         </is>
       </c>
       <c r="AM103" t="inlineStr">
@@ -51474,7 +51474,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>-34.86155838957359,173.30169894238293</t>
+          <t>-34.86156162573553,173.30169925374778</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -51591,7 +51591,7 @@
       <c r="AK104" t="inlineStr"/>
       <c r="AL104" t="inlineStr">
         <is>
-          <t>-34.85907618367993,173.3274944907985</t>
+          <t>-34.85907367989385,173.32749409535552</t>
         </is>
       </c>
       <c r="AM104" t="inlineStr">
@@ -51648,7 +51648,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>-34.8615977628771,173.30170273065713</t>
+          <t>-34.86159120065988,173.30170209927783</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -51826,7 +51826,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>-34.861646035625405,173.30170737519018</t>
+          <t>-34.861637405860385,173.30170654488217</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -51971,7 +51971,7 @@
       </c>
       <c r="AL106" t="inlineStr">
         <is>
-          <t>-34.859017881231715,173.32748528263184</t>
+          <t>-34.859024498380805,173.32748632772984</t>
         </is>
       </c>
       <c r="AM106" t="inlineStr"/>
@@ -52024,7 +52024,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>-34.86153537686632,173.30169672823354</t>
+          <t>-34.861529983263054,173.3016962092925</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -52137,7 +52137,7 @@
       </c>
       <c r="AL107" t="inlineStr">
         <is>
-          <t>-34.85906947711003,173.32749343157622</t>
+          <t>-34.85907359047291,173.32749408123254</t>
         </is>
       </c>
       <c r="AM107" t="inlineStr">
@@ -52194,7 +52194,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>-34.86154984970177,173.3016981207258</t>
+          <t>-34.86154868108773,173.3016980082885</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -52307,7 +52307,7 @@
       </c>
       <c r="AL108" t="inlineStr">
         <is>
-          <t>-34.859085394035894,173.32749594546414</t>
+          <t>-34.859086288245216,173.3274960866938</t>
         </is>
       </c>
       <c r="AM108" t="inlineStr">
@@ -52364,7 +52364,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>-34.8614926775068,173.30169261995195</t>
+          <t>-34.86149717217625,173.30169305240244</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -52554,7 +52554,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>-34.86146642863714,173.30169009444208</t>
+          <t>-34.86145752919156,173.30168923819085</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -52667,7 +52667,7 @@
       </c>
       <c r="AL110" t="inlineStr">
         <is>
-          <t>-34.85906903000537,173.3274933609614</t>
+          <t>-34.85907582599621,173.32749443430666</t>
         </is>
       </c>
       <c r="AM110" t="inlineStr">
@@ -52724,7 +52724,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>-34.861600549572096,173.3017029987771</t>
+          <t>-34.86159075119295,173.30170205603267</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -52910,7 +52910,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>-34.861456989831225,173.30168918629684</t>
+          <t>-34.86146454087595,173.30168991281303</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -53092,7 +53092,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>-34.86151676893496,173.3016949378871</t>
+          <t>-34.86152180296473,173.30169542223197</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -53197,7 +53197,7 @@
       </c>
       <c r="AL113" t="inlineStr">
         <is>
-          <t>-34.85911588657338,173.3275007613982</t>
+          <t>-34.85911204147336,173.32750015411014</t>
         </is>
       </c>
       <c r="AM113" t="inlineStr">
@@ -53254,7 +53254,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>-34.86142112236854,173.30168573534678</t>
+          <t>-34.86142525746451,173.30168613320052</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -53359,7 +53359,7 @@
       </c>
       <c r="AL114" t="inlineStr">
         <is>
-          <t>-34.85897254481782,173.3274781223028</t>
+          <t>-34.85896941508508,173.3274776280003</t>
         </is>
       </c>
       <c r="AM114" t="inlineStr">
@@ -53513,7 +53513,7 @@
       </c>
       <c r="AL115" t="inlineStr">
         <is>
-          <t>-34.858995794260935,173.32748179426542</t>
+          <t>-34.85899159147701,173.3274811304874</t>
         </is>
       </c>
       <c r="AM115" t="inlineStr">
@@ -53570,7 +53570,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>-34.861511015758104,173.30169438435024</t>
+          <t>-34.861507240235795,173.3016940210917</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -53679,7 +53679,7 @@
       </c>
       <c r="AL116" t="inlineStr">
         <is>
-          <t>-34.85908718245453,173.3274962279235</t>
+          <t>-34.85909004392434,173.32749667985854</t>
         </is>
       </c>
       <c r="AM116" t="inlineStr">
@@ -53728,7 +53728,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>-34.86158454854926,173.30170145924959</t>
+          <t>-34.86157852569232,173.3017008797647</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -53830,7 +53830,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>-34.861462473328004,173.30168971388596</t>
+          <t>-34.861457439298164,173.30168922954184</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -53975,7 +53975,7 @@
       </c>
       <c r="AL118" t="inlineStr">
         <is>
-          <t>-34.85906491664249,173.32749271130513</t>
+          <t>-34.85906876174259,173.3274933185925</t>
         </is>
       </c>
       <c r="AM118" t="inlineStr">
@@ -54137,7 +54137,7 @@
       </c>
       <c r="AL119" t="inlineStr">
         <is>
-          <t>-34.85904747956066,173.32748995732828</t>
+          <t>-34.859043813302414,173.32748937828717</t>
         </is>
       </c>
       <c r="AM119" t="inlineStr">
@@ -54287,7 +54287,7 @@
       </c>
       <c r="AL120" t="inlineStr">
         <is>
-          <t>-34.85920378734651,173.32751464430189</t>
+          <t>-34.85919904803735,173.3275138957824</t>
         </is>
       </c>
       <c r="AM120" t="inlineStr">
@@ -54453,7 +54453,7 @@
       </c>
       <c r="AL121" t="inlineStr">
         <is>
-          <t>-34.859159613407996,173.32750766753878</t>
+          <t>-34.859153801047604,173.3275067495442</t>
         </is>
       </c>
       <c r="AM121" t="inlineStr">
@@ -54510,7 +54510,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>-34.861498161003524,173.30169314754156</t>
+          <t>-34.861494205694406,173.30169276698513</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -54655,7 +54655,7 @@
       </c>
       <c r="AL122" t="inlineStr">
         <is>
-          <t>-34.85908101241025,173.3274952534387</t>
+          <t>-34.859084052721926,173.3274957336196</t>
         </is>
       </c>
       <c r="AM122" t="inlineStr">
@@ -54712,7 +54712,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>-34.86153879281508,173.30169705689624</t>
+          <t>-34.86154077046961,173.3016972471747</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -54886,7 +54886,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>-34.86150966735728,173.30169425461506</t>
+          <t>-34.86150688066224,173.30169398649565</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -55031,7 +55031,7 @@
       </c>
       <c r="AL124" t="inlineStr">
         <is>
-          <t>-34.859079849938134,173.32749506984013</t>
+          <t>-34.85908208546144,173.3274954229143</t>
         </is>
       </c>
       <c r="AM124" t="inlineStr">
@@ -55088,7 +55088,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>-34.86159075119295,173.30170205603267</t>
+          <t>-34.861582121427816,173.30170122572582</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -55197,7 +55197,7 @@
       </c>
       <c r="AL125" t="inlineStr">
         <is>
-          <t>-34.859089149715025,173.32749653862882</t>
+          <t>-34.85909585628487,173.32749759785165</t>
         </is>
       </c>
       <c r="AM125" t="inlineStr">
@@ -55254,7 +55254,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>-34.86143163989524,173.3016867472792</t>
+          <t>-34.86143730317881,173.30168729216598</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -55399,7 +55399,7 @@
       </c>
       <c r="AL126" t="inlineStr">
         <is>
-          <t>-34.85906527432623,173.327492767797</t>
+          <t>-34.85906089270053,173.32749207577191</t>
         </is>
       </c>
       <c r="AM126" t="inlineStr">
@@ -55456,7 +55456,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>-34.86164324893044,173.30170710706986</t>
+          <t>-34.861633001084485,173.3017061210792</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -55638,7 +55638,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>-34.86144413507646,173.3016879494898</t>
+          <t>-34.86143856168628,173.30168741325193</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -55783,7 +55783,7 @@
       </c>
       <c r="AL128" t="inlineStr">
         <is>
-          <t>-34.85903764325802,173.3274884038034</t>
+          <t>-34.85904184604187,173.32748906758218</t>
         </is>
       </c>
       <c r="AM128" t="inlineStr">
@@ -55840,7 +55840,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>-34.86131343008516,173.3016753738664</t>
+          <t>-34.86131585720676,173.3016756073886</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -55985,7 +55985,7 @@
       </c>
       <c r="AL129" t="inlineStr">
         <is>
-          <t>-34.858945003169545,173.3274737724422</t>
+          <t>-34.85894303590894,173.32747346173798</t>
         </is>
       </c>
       <c r="AM129" t="inlineStr">
@@ -56042,7 +56042,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>-34.86152036467051,173.30169528384772</t>
+          <t>-34.86152638752752,173.3016958633318</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -56187,7 +56187,7 @@
       </c>
       <c r="AL130" t="inlineStr">
         <is>
-          <t>-34.85909523033836,173.32749749899085</t>
+          <t>-34.859090491028994,173.3274967504734</t>
         </is>
       </c>
       <c r="AM130" t="inlineStr">
@@ -56244,7 +56244,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>-34.86139415435127,173.30168314064957</t>
+          <t>-34.86139739051336,173.30168345201315</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -56389,7 +56389,7 @@
       </c>
       <c r="AL131" t="inlineStr">
         <is>
-          <t>-34.85901671875957,173.32748509903357</t>
+          <t>-34.85901430439434,173.32748471771404</t>
         </is>
       </c>
       <c r="AM131" t="inlineStr">
@@ -56503,7 +56503,7 @@
       </c>
       <c r="AL132" t="inlineStr">
         <is>
-          <t>-34.859051861186366,173.32749064935314</t>
+          <t>-34.8590560639702,173.32749131313213</t>
         </is>
       </c>
       <c r="AM132" t="inlineStr">
@@ -56560,7 +56560,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>-34.86152773592834,173.30169599306706</t>
+          <t>-34.8615235109391,173.30169558656328</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -56701,7 +56701,7 @@
       </c>
       <c r="AL133" t="inlineStr">
         <is>
-          <t>-34.85907207031706,173.32749384114214</t>
+          <t>-34.859075378891546,173.32749436369184</t>
         </is>
       </c>
       <c r="AM133" t="inlineStr">
@@ -56758,7 +56758,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>-34.86164873242696,173.30170763466145</t>
+          <t>-34.86165439571024,173.3017081795512</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -56912,7 +56912,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>-34.861447640918676,173.30168828680078</t>
+          <t>-34.86144044944747,173.3016875948809</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -57057,7 +57057,7 @@
       </c>
       <c r="AL135" t="inlineStr">
         <is>
-          <t>-34.85904524403733,173.32748960425442</t>
+          <t>-34.85905078813517,173.32749047987764</t>
         </is>
       </c>
       <c r="AM135" t="inlineStr">
@@ -57114,7 +57114,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>-34.861487643477034,173.30169213560745</t>
+          <t>-34.861481710513324,173.301691564773</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -57203,7 +57203,7 @@
       </c>
       <c r="AL136" t="inlineStr">
         <is>
-          <t>-34.85906089270053,173.32749207577191</t>
+          <t>-34.85906545316809,173.32749279604292</t>
         </is>
       </c>
       <c r="AM136" t="inlineStr">
@@ -57260,7 +57260,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>-34.86132089123677,173.301676091731</t>
+          <t>-34.86132349814517,173.30167634255122</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -57405,7 +57405,7 @@
       </c>
       <c r="AL137" t="inlineStr">
         <is>
-          <t>-34.858901902277836,173.32746696519874</t>
+          <t>-34.858899935017185,173.32746665449486</t>
         </is>
       </c>
       <c r="AM137" t="inlineStr">
@@ -57462,7 +57462,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>-34.86147928339183,173.3016913312498</t>
+          <t>-34.86148377806129,173.30169176370015</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -57608,7 +57608,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>-34.8615399614291,173.30169716933352</t>
+          <t>-34.86154679332659,173.30169782665905</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -57709,7 +57709,7 @@
       </c>
       <c r="AL139" t="inlineStr">
         <is>
-          <t>-34.859102920538426,173.32749871356654</t>
+          <t>-34.85909764470349,173.32749788031109</t>
         </is>
       </c>
       <c r="AM139" t="inlineStr">
@@ -57766,7 +57766,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>-34.861746716215855,173.30171706213017</t>
+          <t>-34.86174527792173,173.30171692374512</t>
         </is>
       </c>
       <c r="J140" t="inlineStr"/>
@@ -57852,7 +57852,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>-34.86149249772002,173.30169260265393</t>
+          <t>-34.8614869243299,173.3016920664154</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -57997,7 +57997,7 @@
       </c>
       <c r="AL141" t="inlineStr">
         <is>
-          <t>-34.859072875105454,173.32749396824883</t>
+          <t>-34.859077077889246,173.32749463202816</t>
         </is>
       </c>
       <c r="AM141" t="inlineStr">
@@ -58054,7 +58054,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>-34.86162652876071,173.30170549834838</t>
+          <t>-34.861621764411254,173.30170503994938</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -58199,7 +58199,7 @@
       </c>
       <c r="AL142" t="inlineStr">
         <is>
-          <t>-34.85910891174078,173.3274996598059</t>
+          <t>-34.859112577998935,173.327500238848</t>
         </is>
       </c>
       <c r="AM142" t="inlineStr">
@@ -58256,7 +58256,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>-34.86150427375396,173.30169373567432</t>
+          <t>-34.86150993703745,173.3016942805621</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -58401,7 +58401,7 @@
       </c>
       <c r="AL143" t="inlineStr">
         <is>
-          <t>-34.85907099726588,173.32749367166662</t>
+          <t>-34.8590666156402,173.32749297964142</t>
         </is>
       </c>
       <c r="AM143" t="inlineStr">
@@ -58458,7 +58458,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>-34.86155892893392,173.30169899427707</t>
+          <t>-34.861566210298285,173.30169969484805</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -58603,7 +58603,7 @@
       </c>
       <c r="AL144" t="inlineStr">
         <is>
-          <t>-34.859102562854694,173.32749865707464</t>
+          <t>-34.85909692933604,173.32749776732732</t>
         </is>
       </c>
       <c r="AM144" t="inlineStr">
@@ -58725,7 +58725,7 @@
       </c>
       <c r="AL145" t="inlineStr">
         <is>
-          <t>-34.859106050271,173.3274992078707</t>
+          <t>-34.8591072127431,173.32749939146936</t>
         </is>
       </c>
       <c r="AM145" t="inlineStr">
@@ -58782,7 +58782,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>-34.861498340790305,173.30169316483958</t>
+          <t>-34.86149447537458,173.30169279293213</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -58927,7 +58927,7 @@
       </c>
       <c r="AL146" t="inlineStr">
         <is>
-          <t>-34.85907117610774,173.32749369991254</t>
+          <t>-34.85907412699849,173.3274941659703</t>
         </is>
       </c>
       <c r="AM146" t="inlineStr">
@@ -58984,7 +58984,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>-34.86163255161757,173.30170607783398</t>
+          <t>-34.861623202705424,173.30170517833398</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -59125,7 +59125,7 @@
       </c>
       <c r="AL147" t="inlineStr">
         <is>
-          <t>-34.85914548490118,173.327505436106</t>
+          <t>-34.859152727996445,173.32750658006827</t>
         </is>
       </c>
       <c r="AM147" t="inlineStr">
@@ -59182,7 +59182,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>-34.86157861558572,173.3017008884137</t>
+          <t>-34.86158373950878,173.30170138140835</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -59327,7 +59327,7 @@
       </c>
       <c r="AL148" t="inlineStr">
         <is>
-          <t>-34.859122235459424,173.3275017641298</t>
+          <t>-34.85911830093849,173.32750114271863</t>
         </is>
       </c>
       <c r="AM148" t="inlineStr">
@@ -59384,7 +59384,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>-34.861568547526346,173.30169991972272</t>
+          <t>-34.86156288424296,173.30169937483413</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -59477,7 +59477,7 @@
       </c>
       <c r="AL149" t="inlineStr">
         <is>
-          <t>-34.859105871429136,173.3274991796247</t>
+          <t>-34.85911025305474,173.32749987165056</t>
         </is>
       </c>
       <c r="AM149" t="inlineStr">
@@ -59647,7 +59647,7 @@
       </c>
       <c r="AL150" t="inlineStr">
         <is>
-          <t>-34.859114634680346,173.3275005636765</t>
+          <t>-34.85911526062686,173.32750066253735</t>
         </is>
       </c>
       <c r="AM150" t="inlineStr">
@@ -59704,7 +59704,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>-34.861513173199434,173.30169459192655</t>
+          <t>-34.86151703861515,173.3016949638342</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -59849,7 +59849,7 @@
       </c>
       <c r="AL151" t="inlineStr">
         <is>
-          <t>-34.85908959681968,173.32749660924367</t>
+          <t>-34.85908655650801,173.32749612906272</t>
         </is>
       </c>
       <c r="AM151" t="inlineStr">
@@ -59906,7 +59906,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>-34.861352174137366,173.3016791015744</t>
+          <t>-34.86134336458491,173.3016782539746</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -59983,7 +59983,7 @@
       </c>
       <c r="AL152" t="inlineStr">
         <is>
-          <t>-34.858952246265396,173.32747491639876</t>
+          <t>-34.85895895283559,173.327475975618</t>
         </is>
       </c>
       <c r="AM152" t="inlineStr">
@@ -60040,7 +60040,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>-34.8613517246704,173.30167905832948</t>
+          <t>-34.86135747784749,173.3016796118642</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -60185,7 +60185,7 @@
       </c>
       <c r="AL153" t="inlineStr">
         <is>
-          <t>-34.859008760296426,173.32748384209162</t>
+          <t>-34.859004378670654,173.3274831500675</t>
         </is>
       </c>
       <c r="AM153" t="inlineStr">
@@ -60242,7 +60242,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>-34.86145959673952,173.3016894371179</t>
+          <t>-34.86146202386105,173.30168967064094</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -60387,7 +60387,7 @@
       </c>
       <c r="AL154" t="inlineStr">
         <is>
-          <t>-34.859077077889246,173.32749463202816</t>
+          <t>-34.85907520004969,173.3274943354459</t>
         </is>
       </c>
       <c r="AM154" t="inlineStr">
@@ -60444,7 +60444,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>-34.86160018999854,173.30170296418098</t>
+          <t>-34.86159236927391,173.30170221171522</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -60538,7 +60538,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>-34.86171336577055,173.30171385332855</t>
+          <t>-34.86170653387337,173.30171319600026</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -60679,7 +60679,7 @@
       </c>
       <c r="AL156" t="inlineStr">
         <is>
-          <t>-34.859185366635394,173.32751173496248</t>
+          <t>-34.85919064247014,173.32751256821976</t>
         </is>
       </c>
       <c r="AM156" t="inlineStr">
@@ -60753,7 +60753,7 @@
       </c>
       <c r="AL157" t="inlineStr">
         <is>
-          <t>-34.85920709592081,173.3275151668533</t>
+          <t>-34.859202982558145,173.3275145171948</t>
         </is>
       </c>
       <c r="AM157" t="inlineStr">
@@ -60810,7 +60810,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>-34.861671295666646,173.3017098055719</t>
+          <t>-34.86166320526198,173.30170902715767</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -60951,7 +60951,7 @@
       </c>
       <c r="AL158" t="inlineStr">
         <is>
-          <t>-34.859178391803006,173.32751063336832</t>
+          <t>-34.85918456184705,173.32751160785546</t>
         </is>
       </c>
       <c r="AM158" t="inlineStr">
@@ -61008,7 +61008,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>-34.86139981763491,173.30168368553583</t>
+          <t>-34.86140395273091,173.30168408338938</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -61153,7 +61153,7 @@
       </c>
       <c r="AL159" t="inlineStr">
         <is>
-          <t>-34.85896190372648,173.3274764416745</t>
+          <t>-34.85895877399373,173.32747594737216</t>
         </is>
       </c>
       <c r="AM159" t="inlineStr">
@@ -61210,7 +61210,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>-34.861568996993306,173.30169996296786</t>
+          <t>-34.86157555921055,173.30170059434678</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -61355,7 +61355,7 @@
       </c>
       <c r="AL160" t="inlineStr">
         <is>
-          <t>-34.859124918087325,173.32750218781925</t>
+          <t>-34.85911991051523,173.3275013969323</t>
         </is>
       </c>
       <c r="AM160" t="inlineStr">
@@ -61412,7 +61412,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>-34.86152027477713,173.3016952751987</t>
+          <t>-34.86152126360439,173.30169537033788</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -61557,7 +61557,7 @@
       </c>
       <c r="AL161" t="inlineStr">
         <is>
-          <t>-34.85907600483808,173.32749446255258</t>
+          <t>-34.85907520004969,173.3274943354459</t>
         </is>
       </c>
       <c r="AM161" t="inlineStr">
@@ -61707,7 +61707,7 @@
       </c>
       <c r="AL162" t="inlineStr">
         <is>
-          <t>-34.859065721430895,173.3274928384118</t>
+          <t>-34.85906205517268,173.32749225937042</t>
         </is>
       </c>
       <c r="AM162" t="inlineStr">
@@ -61764,7 +61764,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>-34.861484407315025,173.3016918242432</t>
+          <t>-34.86148404774145,173.30169178964715</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -61909,7 +61909,7 @@
       </c>
       <c r="AL163" t="inlineStr">
         <is>
-          <t>-34.8589094136366,173.32746815152282</t>
+          <t>-34.85890977132037,173.32746820801444</t>
         </is>
       </c>
       <c r="AM163" t="inlineStr">
@@ -61966,7 +61966,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>-34.86146049567342,173.3016895236079</t>
+          <t>-34.861454472816305,173.3016889441248</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -62071,7 +62071,7 @@
       </c>
       <c r="AL164" t="inlineStr">
         <is>
-          <t>-34.85896512288018,173.32747695009982</t>
+          <t>-34.85896968334789,173.32747767036912</t>
         </is>
       </c>
       <c r="AM164" t="inlineStr">
@@ -62128,7 +62128,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>-34.86142202130245,173.30168582183674</t>
+          <t>-34.86141563887171,173.30168520775823</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -62286,7 +62286,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>-34.86152144339116,173.30169538763593</t>
+          <t>-34.861522342325046,173.30169547412606</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -62431,7 +62431,7 @@
       </c>
       <c r="AL166" t="inlineStr">
         <is>
-          <t>-34.859120178778035,173.32750143930124</t>
+          <t>-34.85911955283151,173.32750134044036</t>
         </is>
       </c>
       <c r="AM166" t="inlineStr">
@@ -62488,7 +62488,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>-34.86147712595048,173.30169112367366</t>
+          <t>-34.861472361600846,173.30169066527637</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -62633,7 +62633,7 @@
       </c>
       <c r="AL167" t="inlineStr">
         <is>
-          <t>-34.85902789637628,173.32748686440186</t>
+          <t>-34.85903156263456,173.32748744344275</t>
         </is>
       </c>
       <c r="AM167" t="inlineStr">
@@ -62690,7 +62690,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>-34.861472541387634,173.3016906825744</t>
+          <t>-34.86147847435133,173.30169125340873</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -62835,7 +62835,7 @@
       </c>
       <c r="AL168" t="inlineStr">
         <is>
-          <t>-34.85897737354833,173.32747888494103</t>
+          <t>-34.85897290250158,173.32747817879454</t>
         </is>
       </c>
       <c r="AM168" t="inlineStr">
@@ -62892,7 +62892,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>-34.86138327725092,173.30168209412219</t>
+          <t>-34.86138120970292,173.30168189519551</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -63037,7 +63037,7 @@
       </c>
       <c r="AL169" t="inlineStr">
         <is>
-          <t>-34.858811140024194,173.32745263046718</t>
+          <t>-34.85881274960115,173.32745288467885</t>
         </is>
       </c>
       <c r="AM169" t="inlineStr">
@@ -63151,7 +63151,7 @@
       </c>
       <c r="AL170" t="inlineStr">
         <is>
-          <t>-34.85879361351969,173.32744986238478</t>
+          <t>-34.85879862109242,173.32745065326532</t>
         </is>
       </c>
       <c r="AM170" t="inlineStr">
@@ -63208,7 +63208,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>-34.861256617460356,173.3016699077211</t>
+          <t>-34.86124960577559,173.30166923310247</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -63353,7 +63353,7 @@
       </c>
       <c r="AL171" t="inlineStr">
         <is>
-          <t>-34.85877170538886,173.3274464022835</t>
+          <t>-34.85877707064541,173.32744724965505</t>
         </is>
       </c>
       <c r="AM171" t="inlineStr">
@@ -63471,7 +63471,7 @@
       </c>
       <c r="AL172" t="inlineStr">
         <is>
-          <t>-34.858795759622275,173.32745020133356</t>
+          <t>-34.858798978776186,173.32745070975682</t>
         </is>
       </c>
       <c r="AM172" t="inlineStr">
@@ -63528,7 +63528,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>-34.86149402590764,173.3016927496871</t>
+          <t>-34.861501846632464,173.301693502151</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -63673,7 +63673,7 @@
       </c>
       <c r="AL173" t="inlineStr">
         <is>
-          <t>-34.85900750840335,173.32748364437043</t>
+          <t>-34.859001427779816,173.32748268401053</t>
         </is>
       </c>
       <c r="AM173" t="inlineStr">
@@ -63730,7 +63730,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>-34.86154157951009,173.30169732501588</t>
+          <t>-34.861536545480384,173.30169684067081</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -63875,7 +63875,7 @@
       </c>
       <c r="AL174" t="inlineStr">
         <is>
-          <t>-34.85906607911462,173.32749289490366</t>
+          <t>-34.8590699242147,173.32749350219103</t>
         </is>
       </c>
       <c r="AM174" t="inlineStr">
@@ -63912,7 +63912,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>-34.86158670599053,173.30170166682632</t>
+          <t>-34.861577806545235,173.30170081057247</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -64057,7 +64057,7 @@
       </c>
       <c r="AL175" t="inlineStr">
         <is>
-          <t>-34.859039878781346,173.32748875687722</t>
+          <t>-34.85904667477225,173.32748983022168</t>
         </is>
       </c>
       <c r="AM175" t="inlineStr">
@@ -64114,7 +64114,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>-34.86145654036427,173.30168914305182</t>
+          <t>-34.861458967485795,173.30168937657487</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -64259,7 +64259,7 @@
       </c>
       <c r="AL176" t="inlineStr">
         <is>
-          <t>-34.85894285706708,173.32747343349214</t>
+          <t>-34.858940979227405,173.32747313691087</t>
         </is>
       </c>
       <c r="AM176" t="inlineStr">
@@ -64421,7 +64421,7 @@
       </c>
       <c r="AL177" t="inlineStr">
         <is>
-          <t>-34.858947954060454,173.32747423849855</t>
+          <t>-34.85894482432767,173.32747374419634</t>
         </is>
       </c>
       <c r="AM177" t="inlineStr">
@@ -64478,7 +64478,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>-34.86154661353981,173.30169780936103</t>
+          <t>-34.861537534307644,173.30169693580999</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -64615,7 +64615,7 @@
       </c>
       <c r="AL178" t="inlineStr">
         <is>
-          <t>-34.859056868758586,173.32749144023876</t>
+          <t>-34.859063843591315,173.32749254182963</t>
         </is>
       </c>
       <c r="AM178" t="inlineStr">
@@ -64672,7 +64672,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>-34.86140512134499,173.30168419582625</t>
+          <t>-34.861399368167966,173.3016836422909</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -64817,7 +64817,7 @@
       </c>
       <c r="AL179" t="inlineStr">
         <is>
-          <t>-34.858906641587524,173.3274677137127</t>
+          <t>-34.85891111263442,173.32746841985804</t>
         </is>
       </c>
       <c r="AM179" t="inlineStr">
@@ -64874,7 +64874,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>-34.861493666334084,173.30169271509106</t>
+          <t>-34.86149060995885,173.30169242102474</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -64972,7 +64972,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>-34.861510566291166,173.3016943411052</t>
+          <t>-34.86151658914819,173.3016949205891</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -65117,7 +65117,7 @@
       </c>
       <c r="AL181" t="inlineStr">
         <is>
-          <t>-34.85900858145457,173.32748381384573</t>
+          <t>-34.859004020986916,173.32748309357575</t>
         </is>
       </c>
       <c r="AM181" t="inlineStr">
@@ -65174,7 +65174,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>-34.86146876586527,173.30169031931618</t>
+          <t>-34.86146400151562,173.301689860919</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -65319,7 +65319,7 @@
       </c>
       <c r="AL182" t="inlineStr">
         <is>
-          <t>-34.85904721129785,173.32748991495941</t>
+          <t>-34.85905078813517,173.32749047987764</t>
         </is>
       </c>
       <c r="AM182" t="inlineStr">
@@ -65376,7 +65376,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>-34.861660508460446,173.30170876768628</t>
+          <t>-34.8616527776293,173.30170802386843</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -65513,7 +65513,7 @@
       </c>
       <c r="AL183" t="inlineStr">
         <is>
-          <t>-34.85920772186731,173.32751526571437</t>
+          <t>-34.85921362364849,173.32751619783318</t>
         </is>
       </c>
       <c r="AM183" t="inlineStr">
@@ -65570,7 +65570,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>-34.861395772432324,173.30168329633136</t>
+          <t>-34.861401705396126,173.30168386716463</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -65715,7 +65715,7 @@
       </c>
       <c r="AL184" t="inlineStr">
         <is>
-          <t>-34.85902619737853,173.32748659606582</t>
+          <t>-34.859021726331854,173.3274858899185</t>
         </is>
       </c>
       <c r="AM184" t="inlineStr">
@@ -65772,7 +65772,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>-34.86151551042754,173.30169481680093</t>
+          <t>-34.861510116824235,173.3016942978601</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -65966,7 +65966,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>-34.861483328594346,173.3016917204551</t>
+          <t>-34.861481171153,173.30169151287893</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -66111,7 +66111,7 @@
       </c>
       <c r="AL186" t="inlineStr">
         <is>
-          <t>-34.85907743557298,173.32749468852003</t>
+          <t>-34.85907913457068,173.32749495685638</t>
         </is>
       </c>
       <c r="AM186" t="inlineStr">
@@ -66168,7 +66168,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>-34.86150301524651,173.30169361458815</t>
+          <t>-34.861506251408514,173.30169392595258</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -66313,7 +66313,7 @@
       </c>
       <c r="AL187" t="inlineStr">
         <is>
-          <t>-34.85901645049676,173.32748505666473</t>
+          <t>-34.85901394671061,173.3274846612223</t>
         </is>
       </c>
       <c r="AM187" t="inlineStr">
@@ -66370,7 +66370,7 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>-34.861530163049835,173.3016962265905</t>
+          <t>-34.86152315136554,173.3016955519672</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -66515,7 +66515,7 @@
       </c>
       <c r="AL188" t="inlineStr">
         <is>
-          <t>-34.85909004392434,173.32749667985854</t>
+          <t>-34.85909540918021,173.3274975272368</t>
         </is>
       </c>
       <c r="AM188" t="inlineStr">
@@ -66572,7 +66572,7 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>-34.86151290351927,173.30169456597952</t>
+          <t>-34.861507240235795,173.3016940210917</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -66717,7 +66717,7 @@
       </c>
       <c r="AL189" t="inlineStr">
         <is>
-          <t>-34.85906062443774,173.32749203340305</t>
+          <t>-34.85906500606344,173.3274927254281</t>
         </is>
       </c>
       <c r="AM189" t="inlineStr">
@@ -66754,7 +66754,7 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>-34.86170248867109,173.30171280679278</t>
+          <t>-34.861705185472594,173.30171306626443</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -66852,7 +66852,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>-34.86159668415647,173.30170262686872</t>
+          <t>-34.86159812245066,173.30170276525322</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -66997,7 +66997,7 @@
       </c>
       <c r="AL191" t="inlineStr">
         <is>
-          <t>-34.85911946341058,173.3275013263174</t>
+          <t>-34.85911839035943,173.32750115684163</t>
         </is>
       </c>
       <c r="AM191" t="inlineStr">
@@ -67054,7 +67054,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>-34.86155883904054,173.30169898562804</t>
+          <t>-34.861559108720684,173.30169901157512</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -67199,7 +67199,7 @@
       </c>
       <c r="AL192" t="inlineStr">
         <is>
-          <t>-34.85911356162917,173.32750039420074</t>
+          <t>-34.859113293366384,173.32750035183182</t>
         </is>
       </c>
       <c r="AM192" t="inlineStr">
@@ -67248,7 +67248,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>-34.8615752895304,173.3017005683997</t>
+          <t>-34.86158185174765,173.30170119977876</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -67422,7 +67422,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>-34.861587335244245,173.3017017273695</t>
+          <t>-34.86158679588392,173.30170167547533</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -67567,7 +67567,7 @@
       </c>
       <c r="AL194" t="inlineStr">
         <is>
-          <t>-34.85912912087105,173.32750285159946</t>
+          <t>-34.85912947855476,173.3275029080914</t>
         </is>
       </c>
       <c r="AM194" t="inlineStr">
@@ -67682,7 +67682,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>-34.86155236671662,173.3016983628984</t>
+          <t>-34.86155335554389,173.30169845803763</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -67827,7 +67827,7 @@
       </c>
       <c r="AL196" t="inlineStr">
         <is>
-          <t>-34.85911409815476,173.32750047893862</t>
+          <t>-34.859113293366384,173.32750035183182</t>
         </is>
       </c>
       <c r="AM196" t="inlineStr">
@@ -67989,7 +67989,7 @@
       </c>
       <c r="AL197" t="inlineStr">
         <is>
-          <t>-34.85925279001424,173.3275223837161</t>
+          <t>-34.85925001796554,173.32752194590225</t>
         </is>
       </c>
       <c r="AM197" t="inlineStr">
@@ -68018,7 +68018,7 @@
       <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr">
         <is>
-          <t>-34.86156603051152,173.30169967755</t>
+          <t>-34.8615582996802,173.30169893373392</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -68163,7 +68163,7 @@
       </c>
       <c r="AL198" t="inlineStr">
         <is>
-          <t>-34.859097734124425,173.32749789443406</t>
+          <t>-34.85910363590586,173.32749882655034</t>
         </is>
       </c>
       <c r="AM198" t="inlineStr">
@@ -68220,7 +68220,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>-34.86156000765456,173.30169909806537</t>
+          <t>-34.861564772004094,173.30169955646366</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -68365,7 +68365,7 @@
       </c>
       <c r="AL199" t="inlineStr">
         <is>
-          <t>-34.85918778100045,173.32751211628363</t>
+          <t>-34.8591841147424,173.32751153724047</t>
         </is>
       </c>
       <c r="AM199" t="inlineStr">
@@ -68422,7 +68422,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>-34.86159956074484,173.30170290363776</t>
+          <t>-34.86160153839934,173.3017030939165</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -68519,7 +68519,7 @@
       </c>
       <c r="AL200" t="inlineStr">
         <is>
-          <t>-34.859179643695995,173.3275108310903</t>
+          <t>-34.85917812354021,173.3275105909993</t>
         </is>
       </c>
       <c r="AM200" t="inlineStr">
@@ -68576,7 +68576,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>-34.86162041601046,173.3017049102138</t>
+          <t>-34.86162158462447,173.3017050226513</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -68750,7 +68750,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>-34.86161367400649,173.3017042615361</t>
+          <t>-34.861620505903836,173.30170491886287</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -68895,7 +68895,7 @@
       </c>
       <c r="AL202" t="inlineStr">
         <is>
-          <t>-34.859175888017,173.32751023792432</t>
+          <t>-34.859170701603155,173.32750941879033</t>
         </is>
       </c>
       <c r="AM202" t="inlineStr">
@@ -68952,7 +68952,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>-34.861618258569194,173.30170470263695</t>
+          <t>-34.861612775072636,173.30170417504576</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -69097,7 +69097,7 @@
       </c>
       <c r="AL203" t="inlineStr">
         <is>
-          <t>-34.859162027773074,173.32750804885964</t>
+          <t>-34.85916623055672,173.32750871264045</t>
         </is>
       </c>
       <c r="AM203" t="inlineStr">
@@ -69154,7 +69154,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>-34.86160486445464,173.3017034139307</t>
+          <t>-34.86159956074484,173.30170290363776</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -69299,7 +69299,7 @@
       </c>
       <c r="AL204" t="inlineStr">
         <is>
-          <t>-34.8590973764407,173.3274978379422</t>
+          <t>-34.85910148980353,173.32749848759894</t>
         </is>
       </c>
       <c r="AM204" t="inlineStr">
@@ -69356,7 +69356,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>-34.86159722351678,173.30170267876292</t>
+          <t>-34.86160018999854,173.30170296418098</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -69486,7 +69486,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>-34.86157843579895,173.30170087111568</t>
+          <t>-34.861580773027,173.3017010959904</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -69631,7 +69631,7 @@
       </c>
       <c r="AL206" t="inlineStr">
         <is>
-          <t>-34.85916140182657,173.32750794999868</t>
+          <t>-34.85915970282892,173.32750768166176</t>
         </is>
       </c>
       <c r="AM206" t="inlineStr">
@@ -69688,7 +69688,7 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>-34.86156710923217,173.3016997813383</t>
+          <t>-34.861570345394114,173.30170009270324</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -69833,7 +69833,7 @@
       </c>
       <c r="AL207" t="inlineStr">
         <is>
-          <t>-34.8591242027199,173.3275020748354</t>
+          <t>-34.85912169893384,173.32750167939193</t>
         </is>
       </c>
       <c r="AM207" t="inlineStr">
@@ -69890,7 +69890,7 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>-34.86147892381827,173.3016912966538</t>
+          <t>-34.86147155256034,173.30169058743533</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -70035,7 +70035,7 @@
       </c>
       <c r="AL208" t="inlineStr">
         <is>
-          <t>-34.8590580312307,173.3274916238372</t>
+          <t>-34.85906366474945,173.3274925135837</t>
         </is>
       </c>
       <c r="AM208" t="inlineStr">
@@ -70092,7 +70092,7 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>-34.86148126104639,173.30169152152794</t>
+          <t>-34.86147640680338,173.3016910544816</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -70237,7 +70237,7 @@
       </c>
       <c r="AL209" t="inlineStr">
         <is>
-          <t>-34.85909424670811,173.32749734363816</t>
+          <t>-34.859098002387206,173.32749793680298</t>
         </is>
       </c>
       <c r="AM209" t="inlineStr">
@@ -70294,7 +70294,7 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>-34.861522342325046,173.30169547412606</t>
+          <t>-34.86152018488374,173.3016952665497</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -70439,7 +70439,7 @@
       </c>
       <c r="AL210" t="inlineStr">
         <is>
-          <t>-34.85913600628264,173.32750393906932</t>
+          <t>-34.859137615859375,173.32750419328306</t>
         </is>
       </c>
       <c r="AM210" t="inlineStr">
@@ -70496,7 +70496,7 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>-34.861527646034965,173.30169598441802</t>
+          <t>-34.86152980347628,173.30169619199444</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -70641,7 +70641,7 @@
       </c>
       <c r="AL211" t="inlineStr">
         <is>
-          <t>-34.859139314857046,173.3275044616198</t>
+          <t>-34.859137615859375,173.32750419328306</t>
         </is>
       </c>
       <c r="AM211" t="inlineStr">
@@ -70698,7 +70698,7 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>-34.86160486445464,173.3017034139307</t>
+          <t>-34.861597403303556,173.30170269606097</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -70843,7 +70843,7 @@
       </c>
       <c r="AL212" t="inlineStr">
         <is>
-          <t>-34.85917266886358,173.3275097294963</t>
+          <t>-34.859178391803006,173.32751063336832</t>
         </is>
       </c>
       <c r="AM212" t="inlineStr">
@@ -70900,7 +70900,7 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>-34.86145213558817,173.3016887192508</t>
+          <t>-34.86144521379715,173.3016880532778</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -71045,7 +71045,7 @@
       </c>
       <c r="AL213" t="inlineStr">
         <is>
-          <t>-34.859071265528684,173.32749371403548</t>
+          <t>-34.85907654136367,173.32749454729037</t>
         </is>
       </c>
       <c r="AM213" t="inlineStr">
@@ -71102,7 +71102,7 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>-34.86152593806058,173.3016958200867</t>
+          <t>-34.861524769446525,173.3016957076495</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -71231,7 +71231,7 @@
       </c>
       <c r="AL214" t="inlineStr">
         <is>
-          <t>-34.85915666251733,173.32750720147996</t>
+          <t>-34.85915746730569,173.3275073285869</t>
         </is>
       </c>
       <c r="AM214" t="inlineStr">
@@ -71288,7 +71288,7 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>-34.8615363656936,173.30169682337277</t>
+          <t>-34.8615378039878,173.30169696175707</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -71482,7 +71482,7 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>-34.86148000253895,173.30169140044183</t>
+          <t>-34.86148081157945,173.30169147828292</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -71627,7 +71627,7 @@
       </c>
       <c r="AL216" t="inlineStr">
         <is>
-          <t>-34.85912608055942,173.32750237141803</t>
+          <t>-34.85912545461291,173.32750227255715</t>
         </is>
       </c>
       <c r="AM216" t="inlineStr">
@@ -71684,7 +71684,7 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>-34.861524589659766,173.30169569035147</t>
+          <t>-34.861514971067194,173.30169476490684</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -71829,7 +71829,7 @@
       </c>
       <c r="AL217" t="inlineStr">
         <is>
-          <t>-34.859067778112326,173.32749316323992</t>
+          <t>-34.85907511062876,173.32749432132294</t>
         </is>
       </c>
       <c r="AM217" t="inlineStr">
@@ -71886,7 +71886,7 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>-34.861206636732796,173.30166509890356</t>
+          <t>-34.86120160270265,173.30166461456255</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -72031,7 +72031,7 @@
       </c>
       <c r="AL218" t="inlineStr">
         <is>
-          <t>-34.85897799949488,173.32747898380154</t>
+          <t>-34.8589818445951,173.3274795910876</t>
         </is>
       </c>
       <c r="AM218" t="inlineStr">
@@ -72088,7 +72088,7 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>-34.86144071912764,173.30168762082786</t>
+          <t>-34.86143874147306,173.30168743054992</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -72233,7 +72233,7 @@
       </c>
       <c r="AL219" t="inlineStr">
         <is>
-          <t>-34.859086914191735,173.3274961855546</t>
+          <t>-34.85908834492665,173.3274964115221</t>
         </is>
       </c>
       <c r="AM219" t="inlineStr">
@@ -72391,7 +72391,7 @@
       </c>
       <c r="AL220" t="inlineStr">
         <is>
-          <t>-34.85909487265462,173.32749744249895</t>
+          <t>-34.85909371018252,173.3274972589003</t>
         </is>
       </c>
       <c r="AM220" t="inlineStr">
@@ -72448,7 +72448,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>-34.861370152815745,173.3016808313705</t>
+          <t>-34.86137788364744,173.3016815751831</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -72593,7 +72593,7 @@
       </c>
       <c r="AL221" t="inlineStr">
         <is>
-          <t>-34.859073501051974,173.32749406710957</t>
+          <t>-34.85906759927047,173.327493134994</t>
         </is>
       </c>
       <c r="AM221" t="inlineStr">
@@ -72650,7 +72650,7 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>-34.86142633618519,173.30168623698844</t>
+          <t>-34.86142094258176,173.3016857180488</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -72795,7 +72795,7 @@
       </c>
       <c r="AL222" t="inlineStr">
         <is>
-          <t>-34.85907242800081,173.327493897634</t>
+          <t>-34.85907654136367,173.32749454729037</t>
         </is>
       </c>
       <c r="AM222" t="inlineStr">
@@ -72852,7 +72852,7 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>-34.861440809021026,173.30168762947687</t>
+          <t>-34.86143991008713,173.3016875429869</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -72997,7 +72997,7 @@
       </c>
       <c r="AL223" t="inlineStr">
         <is>
-          <t>-34.859089149715025,173.32749653862882</t>
+          <t>-34.85908995450341,173.32749666573554</t>
         </is>
       </c>
       <c r="AM223" t="inlineStr">
@@ -73054,7 +73054,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>-34.861391367656154,173.30168287253096</t>
+          <t>-34.861394603818226,173.3016831838945</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -73199,7 +73199,7 @@
       </c>
       <c r="AL224" t="inlineStr">
         <is>
-          <t>-34.859109269424515,173.32749971629784</t>
+          <t>-34.85910676563844,173.32749932085449</t>
         </is>
       </c>
       <c r="AM224" t="inlineStr">
@@ -73256,7 +73256,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>-34.86143991008713,173.3016875429869</t>
+          <t>-34.861432359042354,173.30168681647118</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -73401,7 +73401,7 @@
       </c>
       <c r="AL225" t="inlineStr">
         <is>
-          <t>-34.85908271140795,173.3274955217751</t>
+          <t>-34.8590885237685,173.32749643976803</t>
         </is>
       </c>
       <c r="AM225" t="inlineStr">
@@ -73458,7 +73458,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>-34.86156594061813,173.301699668901</t>
+          <t>-34.86157223315523,173.30170027433277</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -73603,7 +73603,7 @@
       </c>
       <c r="AL226" t="inlineStr">
         <is>
-          <t>-34.85921523322519,173.32751645204743</t>
+          <t>-34.85921040449512,173.32751568940472</t>
         </is>
       </c>
       <c r="AM226" t="inlineStr">
@@ -73660,7 +73660,7 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>-34.86148890198447,173.3016922566936</t>
+          <t>-34.86148081157945,173.30169147828292</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -73805,7 +73805,7 @@
       </c>
       <c r="AL227" t="inlineStr">
         <is>
-          <t>-34.85915907688243,173.32750758280082</t>
+          <t>-34.85916524692651,173.32750855728747</t>
         </is>
       </c>
       <c r="AM227" t="inlineStr">
@@ -73862,7 +73862,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>-34.86143074096132,173.30168666078922</t>
+          <t>-34.86142354949009,173.30168596886963</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -74007,7 +74007,7 @@
       </c>
       <c r="AL228" t="inlineStr">
         <is>
-          <t>-34.85910041675235,173.32749831812328</t>
+          <t>-34.859105960850066,173.3274991937477</t>
         </is>
       </c>
       <c r="AM228" t="inlineStr">
@@ -74064,7 +74064,7 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>-34.86142175162227,173.30168579588974</t>
+          <t>-34.861421571835486,173.30168577859178</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -74209,7 +74209,7 @@
       </c>
       <c r="AL229" t="inlineStr">
         <is>
-          <t>-34.85901501976181,173.3274848306976</t>
+          <t>-34.859015109182764,173.32748484482053</t>
         </is>
       </c>
       <c r="AM229" t="inlineStr">
@@ -74266,7 +74266,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>-34.861377344287085,173.3016815232892</t>
+          <t>-34.86137554641925,173.3016813503095</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -74411,7 +74411,7 @@
       </c>
       <c r="AL230" t="inlineStr">
         <is>
-          <t>-34.85907090784495,173.3274936575436</t>
+          <t>-34.85907233857987,173.32749388351104</t>
         </is>
       </c>
       <c r="AM230" t="inlineStr">
@@ -74468,7 +74468,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>-34.861367456013994,173.30168057190107</t>
+          <t>-34.86136799537435,173.30168062379494</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -74613,7 +74613,7 @@
       </c>
       <c r="AL231" t="inlineStr">
         <is>
-          <t>-34.85904819492811,173.32749007031194</t>
+          <t>-34.85904783724439,173.3274900138201</t>
         </is>
       </c>
       <c r="AM231" t="inlineStr">
@@ -74670,7 +74670,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>-34.86128034931639,173.3016721910467</t>
+          <t>-34.86128430462571,173.30167257160107</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -74815,7 +74815,7 @@
       </c>
       <c r="AL232" t="inlineStr">
         <is>
-          <t>-34.85894938479542,173.32747446446527</t>
+          <t>-34.85894625506266,173.32747397016308</t>
         </is>
       </c>
       <c r="AM232" t="inlineStr">
@@ -74872,7 +74872,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>-34.861427684586054,173.30168636672337</t>
+          <t>-34.861420493114814,173.30168567480385</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -75017,7 +75017,7 @@
       </c>
       <c r="AL233" t="inlineStr">
         <is>
-          <t>-34.859084052721926,173.3274957336196</t>
+          <t>-34.85908959681968,173.32749660924367</t>
         </is>
       </c>
       <c r="AM233" t="inlineStr">
@@ -75074,7 +75074,7 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>-34.86128574292,173.3016727099845</t>
+          <t>-34.861290327483076,173.3016731510817</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -75219,7 +75219,7 @@
       </c>
       <c r="AL234" t="inlineStr">
         <is>
-          <t>-34.858939816755225,173.32747295331293</t>
+          <t>-34.85893623991775,173.32747238839627</t>
         </is>
       </c>
       <c r="AM234" t="inlineStr">
@@ -75276,7 +75276,7 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>-34.861490969532426,173.30169245562078</t>
+          <t>-34.86149240782664,173.30169259400492</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -75421,7 +75421,7 @@
       </c>
       <c r="AL235" t="inlineStr">
         <is>
-          <t>-34.85913064102685,173.32750309169018</t>
+          <t>-34.8591295679757,173.32750292221436</t>
         </is>
       </c>
       <c r="AM235" t="inlineStr">
@@ -75575,7 +75575,7 @@
       </c>
       <c r="AL236" t="inlineStr">
         <is>
-          <t>-34.859163637349795,173.32750830307356</t>
+          <t>-34.85916497866371,173.3275085149185</t>
         </is>
       </c>
       <c r="AM236" t="inlineStr">
@@ -75632,7 +75632,7 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>-34.861496003562195,173.3016929399653</t>
+          <t>-34.86149780142997,173.30169311294551</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -75777,7 +75777,7 @@
       </c>
       <c r="AL237" t="inlineStr">
         <is>
-          <t>-34.859122235459424,173.3275017641298</t>
+          <t>-34.85912089414547,173.32750155228507</t>
         </is>
       </c>
       <c r="AM237" t="inlineStr">
@@ -75834,7 +75834,7 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>-34.86151290351927,173.30169456597952</t>
+          <t>-34.86150804927628,173.3016940989328</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -75979,7 +75979,7 @@
       </c>
       <c r="AL238" t="inlineStr">
         <is>
-          <t>-34.85914772042442,173.32750578918078</t>
+          <t>-34.85915138668251,173.32750636822342</t>
         </is>
       </c>
       <c r="AM238" t="inlineStr">
@@ -76036,7 +76036,7 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>-34.86159524586228,173.3017024884842</t>
+          <t>-34.861603336267066,173.30170326689714</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -76181,7 +76181,7 @@
       </c>
       <c r="AL239" t="inlineStr">
         <is>
-          <t>-34.85916167008935,173.32750799236766</t>
+          <t>-34.859155500045254,173.32750701788106</t>
         </is>
       </c>
       <c r="AM239" t="inlineStr">
@@ -76238,7 +76238,7 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>-34.861492857293584,173.30169263724997</t>
+          <t>-34.86148710411669,173.30169208371342</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -76383,7 +76383,7 @@
       </c>
       <c r="AL240" t="inlineStr">
         <is>
-          <t>-34.85910712332217,173.32749937734638</t>
+          <t>-34.8591115943687,173.32750008349524</t>
         </is>
       </c>
       <c r="AM240" t="inlineStr">
@@ -76440,7 +76440,7 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>-34.8615363656936,173.30169682337277</t>
+          <t>-34.86153960185556,173.30169713473742</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -76585,7 +76585,7 @@
       </c>
       <c r="AL241" t="inlineStr">
         <is>
-          <t>-34.859155410624325,173.32750700375806</t>
+          <t>-34.85915290683832,173.32750660831428</t>
         </is>
       </c>
       <c r="AM241" t="inlineStr">
@@ -76642,7 +76642,7 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>-34.861629675029214,173.30170580106474</t>
+          <t>-34.861629045775516,173.30170574052144</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -76787,7 +76787,7 @@
       </c>
       <c r="AL242" t="inlineStr">
         <is>
-          <t>-34.85917857064485,173.3275106616143</t>
+          <t>-34.859179017749504,173.3275107322293</t>
         </is>
       </c>
       <c r="AM242" t="inlineStr">
@@ -76945,7 +76945,7 @@
       </c>
       <c r="AL243" t="inlineStr">
         <is>
-          <t>-34.859194934674676,173.32751324612406</t>
+          <t>-34.859198779774566,173.32751385341336</t>
         </is>
       </c>
       <c r="AM243" t="inlineStr">
@@ -77002,7 +77002,7 @@
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>-34.86153681516054,173.30169686661785</t>
+          <t>-34.86153897260184,173.3016970741943</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -77147,7 +77147,7 @@
       </c>
       <c r="AL244" t="inlineStr">
         <is>
-          <t>-34.859121162408265,173.32750159465402</t>
+          <t>-34.85911946341058,173.3275013263174</t>
         </is>
       </c>
       <c r="AM244" t="inlineStr">
